--- a/predicted_variables_matrix_11.xlsx
+++ b/predicted_variables_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A67"/>
+  <dimension ref="A1:B67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,335 +437,536 @@
       <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>-0.320979248953557</v>
       </c>
+      <c r="B2" t="n">
+        <v>-0.323716723852815</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>0.2143436614000808</v>
       </c>
+      <c r="B3" t="n">
+        <v>0.198459336637776</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>0.1537652663524683</v>
       </c>
+      <c r="B4" t="n">
+        <v>0.1308398275189065</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>-0.0575026392805066</v>
       </c>
+      <c r="B5" t="n">
+        <v>-0.08598760563481117</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>0.1396628773717534</v>
       </c>
+      <c r="B6" t="n">
+        <v>0.1257264185200478</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>-0.446103926602071</v>
       </c>
+      <c r="B7" t="n">
+        <v>-0.462794068214327</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>-0.3031979267968119</v>
       </c>
+      <c r="B8" t="n">
+        <v>-0.2722784098748927</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>-0.4083607549642143</v>
       </c>
+      <c r="B9" t="n">
+        <v>-0.419160127918516</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>0.309977447926819</v>
       </c>
+      <c r="B10" t="n">
+        <v>0.3437353167829754</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>-0.2096874175128783</v>
       </c>
+      <c r="B11" t="n">
+        <v>-0.2495262058236078</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>-0.1077715546222127</v>
       </c>
+      <c r="B12" t="n">
+        <v>-0.1090023623403518</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>0.000355055107599366</v>
       </c>
+      <c r="B13" t="n">
+        <v>-0.01412646471737876</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>-0.002855013403342571</v>
       </c>
+      <c r="B14" t="n">
+        <v>0.01271392789801482</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>-0.1316013561189634</v>
       </c>
+      <c r="B15" t="n">
+        <v>-0.0570807994248989</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>0.201621912133458</v>
       </c>
+      <c r="B16" t="n">
+        <v>0.2909665680821449</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>0.5423436228104332</v>
       </c>
+      <c r="B17" t="n">
+        <v>0.5685316785691956</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>0.07315178509541692</v>
       </c>
+      <c r="B18" t="n">
+        <v>0.0514454229502002</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>0.386715335439153</v>
       </c>
+      <c r="B19" t="n">
+        <v>0.3784449178779835</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>0.1811050692756799</v>
       </c>
+      <c r="B20" t="n">
+        <v>0.2404340588128443</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>0.3703355057468388</v>
       </c>
+      <c r="B21" t="n">
+        <v>0.4641284581422794</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>0.3126920452067942</v>
       </c>
+      <c r="B22" t="n">
+        <v>0.3442710520518817</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>-0.1038864267973275</v>
       </c>
+      <c r="B23" t="n">
+        <v>-0.09234164219002516</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>4.453803991435108</v>
       </c>
+      <c r="B24" t="n">
+        <v>4.577738315524726</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>0.5876139453631384</v>
       </c>
+      <c r="B25" t="n">
+        <v>0.5201919331051155</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>0.3896680206323899</v>
       </c>
+      <c r="B26" t="n">
+        <v>0.3840934113596692</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>0.4493561849481168</v>
       </c>
+      <c r="B27" t="n">
+        <v>0.3506188273330846</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>1.101569599730075</v>
       </c>
+      <c r="B28" t="n">
+        <v>1.107158495914431</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>6.305399400005101</v>
       </c>
+      <c r="B29" t="n">
+        <v>5.891534824325058</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>1.086484111942742</v>
       </c>
+      <c r="B30" t="n">
+        <v>1.02554562774442</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>-0.04596266962933854</v>
       </c>
+      <c r="B31" t="n">
+        <v>-0.1632159372585917</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>0.8757027905704118</v>
       </c>
+      <c r="B32" t="n">
+        <v>0.779564758101126</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>0.9785819433047789</v>
       </c>
+      <c r="B33" t="n">
+        <v>0.9300366235590389</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>-0.5295851090977531</v>
       </c>
+      <c r="B34" t="n">
+        <v>-0.6329906594375985</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>0.8420182744530541</v>
       </c>
+      <c r="B35" t="n">
+        <v>0.8222461609779662</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>0.8020293360917573</v>
       </c>
+      <c r="B36" t="n">
+        <v>0.7849608595243773</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>0.7904737148019464</v>
       </c>
+      <c r="B37" t="n">
+        <v>0.7610204137432285</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>0.7832513543860885</v>
       </c>
+      <c r="B38" t="n">
+        <v>0.735657008090314</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>0.5849492900421073</v>
       </c>
+      <c r="B39" t="n">
+        <v>0.584655617669402</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>0.7549193585309645</v>
       </c>
+      <c r="B40" t="n">
+        <v>0.7535855833296246</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>0.5823079700845144</v>
       </c>
+      <c r="B41" t="n">
+        <v>0.5628614257754467</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>0.7509149846034363</v>
       </c>
+      <c r="B42" t="n">
+        <v>0.7162239923506889</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>0.7498150135291279</v>
       </c>
+      <c r="B43" t="n">
+        <v>0.7235113542228019</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>0.6815804832488409</v>
       </c>
+      <c r="B44" t="n">
+        <v>0.6818361315274433</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>0.6779300713150774</v>
       </c>
+      <c r="B45" t="n">
+        <v>0.6758304549915243</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>-1.251248864644726</v>
       </c>
+      <c r="B46" t="n">
+        <v>-1.262668264875522</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>-0.967001884512309</v>
       </c>
+      <c r="B47" t="n">
+        <v>-0.9772038869607644</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>-0.8580176344820992</v>
       </c>
+      <c r="B48" t="n">
+        <v>-0.8701089387968857</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>-0.6289971336463758</v>
       </c>
+      <c r="B49" t="n">
+        <v>-0.6410403872334991</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>-0.05096672366018621</v>
       </c>
+      <c r="B50" t="n">
+        <v>-0.04929204634115188</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>-0.8480553192316176</v>
       </c>
+      <c r="B51" t="n">
+        <v>-0.8617558046222666</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>-0.8480553192316176</v>
       </c>
+      <c r="B52" t="n">
+        <v>-0.8617558046222666</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>-1.065722767152864</v>
       </c>
+      <c r="B53" t="n">
+        <v>-1.087251285867312</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>-0.1891174149309518</v>
       </c>
+      <c r="B54" t="n">
+        <v>-0.1888127969028661</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>-0.9897380905975447</v>
       </c>
+      <c r="B55" t="n">
+        <v>-0.9985492423653456</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>-0.9016627886439221</v>
       </c>
+      <c r="B56" t="n">
+        <v>-0.8909248614359153</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>-0.9860300738025907</v>
       </c>
+      <c r="B57" t="n">
+        <v>-0.9483704188240569</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>-1.201068001714629</v>
       </c>
+      <c r="B58" t="n">
+        <v>-1.152693352750958</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>-0.8907455777886119</v>
       </c>
+      <c r="B59" t="n">
+        <v>-0.860144294385646</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>-0.5489051317318591</v>
       </c>
+      <c r="B60" t="n">
+        <v>-0.5178204024029087</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>0.3636111718592236</v>
       </c>
+      <c r="B61" t="n">
+        <v>0.3687250643742834</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>-1.284317684999349</v>
       </c>
+      <c r="B62" t="n">
+        <v>-1.232938856462481</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>-0.7988858422843718</v>
       </c>
+      <c r="B63" t="n">
+        <v>-0.76348863415763</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>-0.9089174194676304</v>
       </c>
+      <c r="B64" t="n">
+        <v>-0.9092640817244033</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>-0.1676704399680572</v>
       </c>
+      <c r="B65" t="n">
+        <v>-0.1304048256125618</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>-0.8688241560039135</v>
       </c>
+      <c r="B66" t="n">
+        <v>-0.8170160309513503</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>-0.8870577052056342</v>
+      </c>
+      <c r="B67" t="n">
+        <v>-0.7972691155758459</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_11.xlsx
+++ b/predicted_variables_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,6 +440,9 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -448,6 +451,9 @@
       <c r="B2" t="n">
         <v>-0.323716723852815</v>
       </c>
+      <c r="C2" t="n">
+        <v>-0.3093107257104907</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -456,6 +462,9 @@
       <c r="B3" t="n">
         <v>0.198459336637776</v>
       </c>
+      <c r="C3" t="n">
+        <v>0.2076865250416704</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -464,6 +473,9 @@
       <c r="B4" t="n">
         <v>0.1308398275189065</v>
       </c>
+      <c r="C4" t="n">
+        <v>0.1425296526411839</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -472,6 +484,9 @@
       <c r="B5" t="n">
         <v>-0.08598760563481117</v>
       </c>
+      <c r="C5" t="n">
+        <v>-0.07633509935382571</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -480,6 +495,9 @@
       <c r="B6" t="n">
         <v>0.1257264185200478</v>
       </c>
+      <c r="C6" t="n">
+        <v>0.1418282182027905</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -488,6 +506,9 @@
       <c r="B7" t="n">
         <v>-0.462794068214327</v>
       </c>
+      <c r="C7" t="n">
+        <v>-0.4528029662052117</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -496,6 +517,9 @@
       <c r="B8" t="n">
         <v>-0.2722784098748927</v>
       </c>
+      <c r="C8" t="n">
+        <v>-0.260071556078068</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -504,6 +528,9 @@
       <c r="B9" t="n">
         <v>-0.419160127918516</v>
       </c>
+      <c r="C9" t="n">
+        <v>-0.4090605937397951</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -512,6 +539,9 @@
       <c r="B10" t="n">
         <v>0.3437353167829754</v>
       </c>
+      <c r="C10" t="n">
+        <v>0.358506294481997</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -520,6 +550,9 @@
       <c r="B11" t="n">
         <v>-0.2495262058236078</v>
       </c>
+      <c r="C11" t="n">
+        <v>-0.2401966792289666</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -528,6 +561,9 @@
       <c r="B12" t="n">
         <v>-0.1090023623403518</v>
       </c>
+      <c r="C12" t="n">
+        <v>-0.08648358856128772</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -536,6 +572,9 @@
       <c r="B13" t="n">
         <v>-0.01412646471737876</v>
       </c>
+      <c r="C13" t="n">
+        <v>-0.0135888336771998</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -544,6 +583,9 @@
       <c r="B14" t="n">
         <v>0.01271392789801482</v>
       </c>
+      <c r="C14" t="n">
+        <v>0.05244956046941167</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -552,6 +594,9 @@
       <c r="B15" t="n">
         <v>-0.0570807994248989</v>
       </c>
+      <c r="C15" t="n">
+        <v>-0.01300978491836207</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -560,6 +605,9 @@
       <c r="B16" t="n">
         <v>0.2909665680821449</v>
       </c>
+      <c r="C16" t="n">
+        <v>0.3511649265855035</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -568,6 +616,9 @@
       <c r="B17" t="n">
         <v>0.5685316785691956</v>
       </c>
+      <c r="C17" t="n">
+        <v>0.6020326650123404</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -576,6 +627,9 @@
       <c r="B18" t="n">
         <v>0.0514454229502002</v>
       </c>
+      <c r="C18" t="n">
+        <v>0.03866759896343645</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -584,6 +638,9 @@
       <c r="B19" t="n">
         <v>0.3784449178779835</v>
       </c>
+      <c r="C19" t="n">
+        <v>0.3942978762976164</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -592,6 +649,9 @@
       <c r="B20" t="n">
         <v>0.2404340588128443</v>
       </c>
+      <c r="C20" t="n">
+        <v>0.2970493814345418</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -600,6 +660,9 @@
       <c r="B21" t="n">
         <v>0.4641284581422794</v>
       </c>
+      <c r="C21" t="n">
+        <v>0.5205383953746511</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -608,6 +671,9 @@
       <c r="B22" t="n">
         <v>0.3442710520518817</v>
       </c>
+      <c r="C22" t="n">
+        <v>0.3797409485700736</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -616,6 +682,9 @@
       <c r="B23" t="n">
         <v>-0.09234164219002516</v>
       </c>
+      <c r="C23" t="n">
+        <v>-0.06102057954108653</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -624,6 +693,9 @@
       <c r="B24" t="n">
         <v>4.577738315524726</v>
       </c>
+      <c r="C24" t="n">
+        <v>4.600142545217028</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -632,6 +704,9 @@
       <c r="B25" t="n">
         <v>0.5201919331051155</v>
       </c>
+      <c r="C25" t="n">
+        <v>0.4798567206283482</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -640,6 +715,9 @@
       <c r="B26" t="n">
         <v>0.3840934113596692</v>
       </c>
+      <c r="C26" t="n">
+        <v>0.3525363144340392</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -648,6 +726,9 @@
       <c r="B27" t="n">
         <v>0.3506188273330846</v>
       </c>
+      <c r="C27" t="n">
+        <v>0.310901809741786</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -656,6 +737,9 @@
       <c r="B28" t="n">
         <v>1.107158495914431</v>
       </c>
+      <c r="C28" t="n">
+        <v>1.066890520460006</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -664,6 +748,9 @@
       <c r="B29" t="n">
         <v>5.891534824325058</v>
       </c>
+      <c r="C29" t="n">
+        <v>5.468790468361631</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -672,6 +759,9 @@
       <c r="B30" t="n">
         <v>1.02554562774442</v>
       </c>
+      <c r="C30" t="n">
+        <v>0.9649696633972918</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -680,6 +770,9 @@
       <c r="B31" t="n">
         <v>-0.1632159372585917</v>
       </c>
+      <c r="C31" t="n">
+        <v>-0.2243439863291791</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -688,6 +781,9 @@
       <c r="B32" t="n">
         <v>0.779564758101126</v>
       </c>
+      <c r="C32" t="n">
+        <v>0.7474304657757006</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -696,6 +792,9 @@
       <c r="B33" t="n">
         <v>0.9300366235590389</v>
       </c>
+      <c r="C33" t="n">
+        <v>0.8993922506230235</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -704,6 +803,9 @@
       <c r="B34" t="n">
         <v>-0.6329906594375985</v>
       </c>
+      <c r="C34" t="n">
+        <v>-0.6672725585690531</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -712,6 +814,9 @@
       <c r="B35" t="n">
         <v>0.8222461609779662</v>
       </c>
+      <c r="C35" t="n">
+        <v>0.8131609638990331</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -720,6 +825,9 @@
       <c r="B36" t="n">
         <v>0.7849608595243773</v>
       </c>
+      <c r="C36" t="n">
+        <v>0.767376525621137</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -728,6 +836,9 @@
       <c r="B37" t="n">
         <v>0.7610204137432285</v>
       </c>
+      <c r="C37" t="n">
+        <v>0.7413393640081756</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -736,6 +847,9 @@
       <c r="B38" t="n">
         <v>0.735657008090314</v>
       </c>
+      <c r="C38" t="n">
+        <v>0.7166327809518839</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -744,6 +858,9 @@
       <c r="B39" t="n">
         <v>0.584655617669402</v>
       </c>
+      <c r="C39" t="n">
+        <v>0.5805097688759314</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -752,6 +869,9 @@
       <c r="B40" t="n">
         <v>0.7535855833296246</v>
       </c>
+      <c r="C40" t="n">
+        <v>0.7508300768615521</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -760,6 +880,9 @@
       <c r="B41" t="n">
         <v>0.5628614257754467</v>
       </c>
+      <c r="C41" t="n">
+        <v>0.5545927399189651</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -768,6 +891,9 @@
       <c r="B42" t="n">
         <v>0.7162239923506889</v>
       </c>
+      <c r="C42" t="n">
+        <v>0.6890526931284596</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -776,6 +902,9 @@
       <c r="B43" t="n">
         <v>0.7235113542228019</v>
       </c>
+      <c r="C43" t="n">
+        <v>0.708607646620943</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -784,6 +913,9 @@
       <c r="B44" t="n">
         <v>0.6818361315274433</v>
       </c>
+      <c r="C44" t="n">
+        <v>0.6736650154960108</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -792,6 +924,9 @@
       <c r="B45" t="n">
         <v>0.6758304549915243</v>
       </c>
+      <c r="C45" t="n">
+        <v>0.6573158281272644</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -800,6 +935,9 @@
       <c r="B46" t="n">
         <v>-1.262668264875522</v>
       </c>
+      <c r="C46" t="n">
+        <v>-1.265986458938779</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -808,6 +946,9 @@
       <c r="B47" t="n">
         <v>-0.9772038869607644</v>
       </c>
+      <c r="C47" t="n">
+        <v>-0.9814853793243534</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -816,6 +957,9 @@
       <c r="B48" t="n">
         <v>-0.8701089387968857</v>
       </c>
+      <c r="C48" t="n">
+        <v>-0.8755392624003318</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -824,6 +968,9 @@
       <c r="B49" t="n">
         <v>-0.6410403872334991</v>
       </c>
+      <c r="C49" t="n">
+        <v>-0.6439722445150895</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -832,6 +979,9 @@
       <c r="B50" t="n">
         <v>-0.04929204634115188</v>
       </c>
+      <c r="C50" t="n">
+        <v>-0.05022248240209715</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -840,6 +990,9 @@
       <c r="B51" t="n">
         <v>-0.8617558046222666</v>
       </c>
+      <c r="C51" t="n">
+        <v>-0.8664839627003759</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -848,6 +1001,9 @@
       <c r="B52" t="n">
         <v>-0.8617558046222666</v>
       </c>
+      <c r="C52" t="n">
+        <v>-0.8664839627003759</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -856,6 +1012,9 @@
       <c r="B53" t="n">
         <v>-1.087251285867312</v>
       </c>
+      <c r="C53" t="n">
+        <v>-1.099638969396312</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -864,6 +1023,9 @@
       <c r="B54" t="n">
         <v>-0.1888127969028661</v>
       </c>
+      <c r="C54" t="n">
+        <v>-0.1879309031566863</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -872,6 +1034,9 @@
       <c r="B55" t="n">
         <v>-0.9985492423653456</v>
       </c>
+      <c r="C55" t="n">
+        <v>-1.001920247713072</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -880,6 +1045,9 @@
       <c r="B56" t="n">
         <v>-0.8909248614359153</v>
       </c>
+      <c r="C56" t="n">
+        <v>-0.8865783913471785</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -888,6 +1056,9 @@
       <c r="B57" t="n">
         <v>-0.9483704188240569</v>
       </c>
+      <c r="C57" t="n">
+        <v>-0.9350879674765653</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -896,6 +1067,9 @@
       <c r="B58" t="n">
         <v>-1.152693352750958</v>
       </c>
+      <c r="C58" t="n">
+        <v>-1.129367752215911</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -904,6 +1078,9 @@
       <c r="B59" t="n">
         <v>-0.860144294385646</v>
       </c>
+      <c r="C59" t="n">
+        <v>-0.8481378087766493</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -912,6 +1089,9 @@
       <c r="B60" t="n">
         <v>-0.5178204024029087</v>
       </c>
+      <c r="C60" t="n">
+        <v>-0.4975904977737807</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -920,6 +1100,9 @@
       <c r="B61" t="n">
         <v>0.3687250643742834</v>
       </c>
+      <c r="C61" t="n">
+        <v>0.370916657261192</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -928,6 +1111,9 @@
       <c r="B62" t="n">
         <v>-1.232938856462481</v>
       </c>
+      <c r="C62" t="n">
+        <v>-1.212315704557025</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -936,6 +1122,9 @@
       <c r="B63" t="n">
         <v>-0.76348863415763</v>
       </c>
+      <c r="C63" t="n">
+        <v>-0.7377023705146881</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -944,6 +1133,9 @@
       <c r="B64" t="n">
         <v>-0.9092640817244033</v>
       </c>
+      <c r="C64" t="n">
+        <v>-0.9026255638979531</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -952,6 +1144,9 @@
       <c r="B65" t="n">
         <v>-0.1304048256125618</v>
       </c>
+      <c r="C65" t="n">
+        <v>-0.1111563709664542</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -960,6 +1155,9 @@
       <c r="B66" t="n">
         <v>-0.8170160309513503</v>
       </c>
+      <c r="C66" t="n">
+        <v>-0.7926290785388965</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -967,6 +1165,9 @@
       </c>
       <c r="B67" t="n">
         <v>-0.7972691155758459</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-0.7645593498930221</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_11.xlsx
+++ b/predicted_variables_matrix_11.xlsx
@@ -449,10 +449,10 @@
         <v>-0.320979248953557</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.323716723852815</v>
+        <v>-0.2992238370912462</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.3093107257104907</v>
+        <v>-0.2821345793832771</v>
       </c>
     </row>
     <row r="3">
@@ -460,10 +460,10 @@
         <v>0.2143436614000808</v>
       </c>
       <c r="B3" t="n">
-        <v>0.198459336637776</v>
+        <v>0.2219488970996552</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2076865250416704</v>
+        <v>0.2320117684537313</v>
       </c>
     </row>
     <row r="4">
@@ -471,10 +471,10 @@
         <v>0.1537652663524683</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1308398275189065</v>
+        <v>0.1632014586826957</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1425296526411839</v>
+        <v>0.1758065905860496</v>
       </c>
     </row>
     <row r="5">
@@ -482,10 +482,10 @@
         <v>-0.0575026392805066</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.08598760563481117</v>
+        <v>-0.0497619516495294</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.07633509935382571</v>
+        <v>-0.04018226426891893</v>
       </c>
     </row>
     <row r="6">
@@ -493,10 +493,10 @@
         <v>0.1396628773717534</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1257264185200478</v>
+        <v>0.1548100805307225</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1418282182027905</v>
+        <v>0.171412056408832</v>
       </c>
     </row>
     <row r="7">
@@ -504,10 +504,10 @@
         <v>-0.446103926602071</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.462794068214327</v>
+        <v>-0.4378128719680039</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.4528029662052117</v>
+        <v>-0.4268032317420609</v>
       </c>
     </row>
     <row r="8">
@@ -515,10 +515,10 @@
         <v>-0.3031979267968119</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.2722784098748927</v>
+        <v>-0.2830561372514355</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.260071556078068</v>
+        <v>-0.2611459841590157</v>
       </c>
     </row>
     <row r="9">
@@ -526,10 +526,10 @@
         <v>-0.4083607549642143</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.419160127918516</v>
+        <v>-0.4031068560968312</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.4090605937397951</v>
+        <v>-0.3930228718765655</v>
       </c>
     </row>
     <row r="10">
@@ -537,10 +537,10 @@
         <v>0.309977447926819</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3437353167829754</v>
+        <v>0.3292195082327474</v>
       </c>
       <c r="C10" t="n">
-        <v>0.358506294481997</v>
+        <v>0.3464689164435004</v>
       </c>
     </row>
     <row r="11">
@@ -548,10 +548,10 @@
         <v>-0.2096874175128783</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.2495262058236078</v>
+        <v>-0.2037413371072797</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.2401966792289666</v>
+        <v>-0.1953654520700522</v>
       </c>
     </row>
     <row r="12">
@@ -559,10 +559,10 @@
         <v>-0.1077715546222127</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.1090023623403518</v>
+        <v>-0.0821072528310636</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.08648358856128772</v>
+        <v>-0.05657127928348278</v>
       </c>
     </row>
     <row r="13">
@@ -570,10 +570,10 @@
         <v>0.000355055107599366</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.01412646471737876</v>
+        <v>-0.0003310869996958777</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.0135888336771998</v>
+        <v>0.001012044685284675</v>
       </c>
     </row>
     <row r="14">
@@ -581,10 +581,10 @@
         <v>-0.002855013403342571</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01271392789801482</v>
+        <v>0.03851454930947634</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05244956046941167</v>
+        <v>0.07821530196421179</v>
       </c>
     </row>
     <row r="15">
@@ -592,10 +592,10 @@
         <v>-0.1316013561189634</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.0570807994248989</v>
+        <v>-0.07866169720265165</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.01300978491836207</v>
+        <v>-0.02976977123473042</v>
       </c>
     </row>
     <row r="16">
@@ -603,10 +603,10 @@
         <v>0.201621912133458</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2909665680821449</v>
+        <v>0.270704614777359</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3511649265855035</v>
+        <v>0.3354137576252648</v>
       </c>
     </row>
     <row r="17">
@@ -614,10 +614,10 @@
         <v>0.5423436228104332</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5685316785691956</v>
+        <v>0.584307256470087</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6020326650123404</v>
+        <v>0.6147015950854349</v>
       </c>
     </row>
     <row r="18">
@@ -625,10 +625,10 @@
         <v>0.07315178509541692</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0514454229502002</v>
+        <v>0.05732880917706104</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03866759896343645</v>
+        <v>0.03907936104641058</v>
       </c>
     </row>
     <row r="19">
@@ -636,10 +636,10 @@
         <v>0.386715335439153</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3784449178779835</v>
+        <v>0.3975684058954093</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3942978762976164</v>
+        <v>0.4073850693588411</v>
       </c>
     </row>
     <row r="20">
@@ -647,10 +647,10 @@
         <v>0.1811050692756799</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2404340588128443</v>
+        <v>0.2443446490328965</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2970493814345418</v>
+        <v>0.3019392570708399</v>
       </c>
     </row>
     <row r="21">
@@ -658,10 +658,10 @@
         <v>0.3703355057468388</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4641284581422794</v>
+        <v>0.445099329410637</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5205383953746511</v>
+        <v>0.510936168096469</v>
       </c>
     </row>
     <row r="22">
@@ -669,10 +669,10 @@
         <v>0.3126920452067942</v>
       </c>
       <c r="B22" t="n">
-        <v>0.3442710520518817</v>
+        <v>0.35230087567833</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3797409485700736</v>
+        <v>0.3878264736669107</v>
       </c>
     </row>
     <row r="23">
@@ -680,10 +680,10 @@
         <v>-0.1038864267973275</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.09234164219002516</v>
+        <v>-0.06779133237168543</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.06102057954108653</v>
+        <v>-0.03591702864004014</v>
       </c>
     </row>
     <row r="24">
@@ -691,10 +691,10 @@
         <v>4.453803991435108</v>
       </c>
       <c r="B24" t="n">
-        <v>4.577738315524726</v>
+        <v>4.583069787751728</v>
       </c>
       <c r="C24" t="n">
-        <v>4.600142545217028</v>
+        <v>4.5915582825595</v>
       </c>
     </row>
     <row r="25">
@@ -702,10 +702,10 @@
         <v>0.5876139453631384</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5201919331051155</v>
+        <v>0.5223238323535426</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4798567206283482</v>
+        <v>0.4829805652477284</v>
       </c>
     </row>
     <row r="26">
@@ -713,10 +713,10 @@
         <v>0.3896680206323899</v>
       </c>
       <c r="B26" t="n">
-        <v>0.3840934113596692</v>
+        <v>0.385725840390837</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3525363144340392</v>
+        <v>0.3582377281163128</v>
       </c>
     </row>
     <row r="27">
@@ -724,10 +724,10 @@
         <v>0.4493561849481168</v>
       </c>
       <c r="B27" t="n">
-        <v>0.3506188273330846</v>
+        <v>0.3501493769761415</v>
       </c>
       <c r="C27" t="n">
-        <v>0.310901809741786</v>
+        <v>0.3112183108682413</v>
       </c>
     </row>
     <row r="28">
@@ -735,10 +735,10 @@
         <v>1.101569599730075</v>
       </c>
       <c r="B28" t="n">
-        <v>1.107158495914431</v>
+        <v>1.108486299450599</v>
       </c>
       <c r="C28" t="n">
-        <v>1.066890520460006</v>
+        <v>1.068802429626297</v>
       </c>
     </row>
     <row r="29">
@@ -746,10 +746,10 @@
         <v>6.305399400005101</v>
       </c>
       <c r="B29" t="n">
-        <v>5.891534824325058</v>
+        <v>5.863065108179788</v>
       </c>
       <c r="C29" t="n">
-        <v>5.468790468361631</v>
+        <v>5.405296389527338</v>
       </c>
     </row>
     <row r="30">
@@ -757,10 +757,10 @@
         <v>1.086484111942742</v>
       </c>
       <c r="B30" t="n">
-        <v>1.02554562774442</v>
+        <v>1.033298881701802</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9649696633972918</v>
+        <v>0.97468496952248</v>
       </c>
     </row>
     <row r="31">
@@ -768,10 +768,10 @@
         <v>-0.04596266962933854</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.1632159372585917</v>
+        <v>-0.1587266180487845</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.2243439863291791</v>
+        <v>-0.2170616398097887</v>
       </c>
     </row>
     <row r="32">
@@ -779,10 +779,10 @@
         <v>0.8757027905704118</v>
       </c>
       <c r="B32" t="n">
-        <v>0.779564758101126</v>
+        <v>0.7922292282861484</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7474304657757006</v>
+        <v>0.7601745012274741</v>
       </c>
     </row>
     <row r="33">
@@ -790,10 +790,10 @@
         <v>0.9785819433047789</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9300366235590389</v>
+        <v>0.9082720436595411</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8993922506230235</v>
+        <v>0.8816776119948229</v>
       </c>
     </row>
     <row r="34">
@@ -801,10 +801,10 @@
         <v>-0.5295851090977531</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.6329906594375985</v>
+        <v>-0.6145384738586025</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.6672725585690531</v>
+        <v>-0.6475333804647353</v>
       </c>
     </row>
     <row r="35">
@@ -812,10 +812,10 @@
         <v>0.8420182744530541</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8222461609779662</v>
+        <v>0.8316533790961724</v>
       </c>
       <c r="C35" t="n">
-        <v>0.8131609638990331</v>
+        <v>0.8218435450114036</v>
       </c>
     </row>
     <row r="36">
@@ -823,10 +823,10 @@
         <v>0.8020293360917573</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7849608595243773</v>
+        <v>0.7855037029257244</v>
       </c>
       <c r="C36" t="n">
-        <v>0.767376525621137</v>
+        <v>0.7693614416238811</v>
       </c>
     </row>
     <row r="37">
@@ -834,10 +834,10 @@
         <v>0.7904737148019464</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7610204137432285</v>
+        <v>0.7675315540664119</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7413393640081756</v>
+        <v>0.7470097390752609</v>
       </c>
     </row>
     <row r="38">
@@ -845,10 +845,10 @@
         <v>0.7832513543860885</v>
       </c>
       <c r="B38" t="n">
-        <v>0.735657008090314</v>
+        <v>0.7589557779869432</v>
       </c>
       <c r="C38" t="n">
-        <v>0.7166327809518839</v>
+        <v>0.7364787164369815</v>
       </c>
     </row>
     <row r="39">
@@ -856,10 +856,10 @@
         <v>0.5849492900421073</v>
       </c>
       <c r="B39" t="n">
-        <v>0.584655617669402</v>
+        <v>0.5821879449792671</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5805097688759314</v>
+        <v>0.5799858999719165</v>
       </c>
     </row>
     <row r="40">
@@ -867,10 +867,10 @@
         <v>0.7549193585309645</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7535855833296246</v>
+        <v>0.752504930961044</v>
       </c>
       <c r="C40" t="n">
-        <v>0.7508300768615521</v>
+        <v>0.7516688156978327</v>
       </c>
     </row>
     <row r="41">
@@ -878,10 +878,10 @@
         <v>0.5823079700845144</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5628614257754467</v>
+        <v>0.5740733241087111</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5545927399189651</v>
+        <v>0.5662175814738012</v>
       </c>
     </row>
     <row r="42">
@@ -889,10 +889,10 @@
         <v>0.7509149846034363</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7162239923506889</v>
+        <v>0.7208799233339613</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6890526931284596</v>
+        <v>0.6918534711097154</v>
       </c>
     </row>
     <row r="43">
@@ -900,10 +900,10 @@
         <v>0.7498150135291279</v>
       </c>
       <c r="B43" t="n">
-        <v>0.7235113542228019</v>
+        <v>0.7334435688276052</v>
       </c>
       <c r="C43" t="n">
-        <v>0.708607646620943</v>
+        <v>0.7179003843182954</v>
       </c>
     </row>
     <row r="44">
@@ -911,10 +911,10 @@
         <v>0.6815804832488409</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6818361315274433</v>
+        <v>0.673560097193828</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6736650154960108</v>
+        <v>0.6666530224190774</v>
       </c>
     </row>
     <row r="45">
@@ -922,10 +922,10 @@
         <v>0.6779300713150774</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6758304549915243</v>
+        <v>0.6591561716579049</v>
       </c>
       <c r="C45" t="n">
-        <v>0.6573158281272644</v>
+        <v>0.642382774137458</v>
       </c>
     </row>
     <row r="46">
@@ -933,10 +933,10 @@
         <v>-1.251248864644726</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.262668264875522</v>
+        <v>-1.255732962936066</v>
       </c>
       <c r="C46" t="n">
-        <v>-1.265986458938779</v>
+        <v>-1.258874959345484</v>
       </c>
     </row>
     <row r="47">
@@ -944,10 +944,10 @@
         <v>-0.967001884512309</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.9772038869607644</v>
+        <v>-0.9725997551277514</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.9814853793243534</v>
+        <v>-0.9766034172132484</v>
       </c>
     </row>
     <row r="48">
@@ -955,10 +955,10 @@
         <v>-0.8580176344820992</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.8701089387968857</v>
+        <v>-0.8657698861029492</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.8755392624003318</v>
+        <v>-0.8707919287892192</v>
       </c>
     </row>
     <row r="49">
@@ -966,10 +966,10 @@
         <v>-0.6289971336463758</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.6410403872334991</v>
+        <v>-0.6338754745914724</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.6439722445150895</v>
+        <v>-0.6365212563413356</v>
       </c>
     </row>
     <row r="50">
@@ -977,10 +977,10 @@
         <v>-0.05096672366018621</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.04929204634115188</v>
+        <v>-0.05071429600250393</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.05022248240209715</v>
+        <v>-0.05049782192199208</v>
       </c>
     </row>
     <row r="51">
@@ -988,10 +988,10 @@
         <v>-0.8480553192316176</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.8617558046222666</v>
+        <v>-0.8534639076291973</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.8664839627003759</v>
+        <v>-0.8567174551217845</v>
       </c>
     </row>
     <row r="52">
@@ -999,10 +999,10 @@
         <v>-0.8480553192316176</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.8617558046222666</v>
+        <v>-0.8534639076291973</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.8664839627003759</v>
+        <v>-0.8567174551217845</v>
       </c>
     </row>
     <row r="53">
@@ -1010,10 +1010,10 @@
         <v>-1.065722767152864</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.087251285867312</v>
+        <v>-1.08256155952163</v>
       </c>
       <c r="C53" t="n">
-        <v>-1.099638969396312</v>
+        <v>-1.095817744913985</v>
       </c>
     </row>
     <row r="54">
@@ -1021,10 +1021,10 @@
         <v>-0.1891174149309518</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.1888127969028661</v>
+        <v>-0.1879264921248159</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.1879309031566863</v>
+        <v>-0.1859442631723647</v>
       </c>
     </row>
     <row r="55">
@@ -1032,10 +1032,10 @@
         <v>-0.9897380905975447</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.9985492423653456</v>
+        <v>-0.9936087910891047</v>
       </c>
       <c r="C55" t="n">
-        <v>-1.001920247713072</v>
+        <v>-0.9959778696404012</v>
       </c>
     </row>
     <row r="56">
@@ -1043,10 +1043,10 @@
         <v>-0.9016627886439221</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.8909248614359153</v>
+        <v>-0.8949278593720995</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.8865783913471785</v>
+        <v>-0.8882177376392842</v>
       </c>
     </row>
     <row r="57">
@@ -1054,10 +1054,10 @@
         <v>-0.9860300738025907</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.9483704188240569</v>
+        <v>-0.9669438909407274</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.9350879674765653</v>
+        <v>-0.9495207324063961</v>
       </c>
     </row>
     <row r="58">
@@ -1065,10 +1065,10 @@
         <v>-1.201068001714629</v>
       </c>
       <c r="B58" t="n">
-        <v>-1.152693352750958</v>
+        <v>-1.168481908316629</v>
       </c>
       <c r="C58" t="n">
-        <v>-1.129367752215911</v>
+        <v>-1.137464195319468</v>
       </c>
     </row>
     <row r="59">
@@ -1076,10 +1076,10 @@
         <v>-0.8907455777886119</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.860144294385646</v>
+        <v>-0.8706788439193038</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.8481378087766493</v>
+        <v>-0.853019642540779</v>
       </c>
     </row>
     <row r="60">
@@ -1087,10 +1087,10 @@
         <v>-0.5489051317318591</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.5178204024029087</v>
+        <v>-0.5223936125904671</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.4975904977737807</v>
+        <v>-0.4965668043838305</v>
       </c>
     </row>
     <row r="61">
@@ -1098,10 +1098,10 @@
         <v>0.3636111718592236</v>
       </c>
       <c r="B61" t="n">
-        <v>0.3687250643742834</v>
+        <v>0.3659790560598802</v>
       </c>
       <c r="C61" t="n">
-        <v>0.370916657261192</v>
+        <v>0.3693303203928583</v>
       </c>
     </row>
     <row r="62">
@@ -1109,10 +1109,10 @@
         <v>-1.284317684999349</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.232938856462481</v>
+        <v>-1.260266736008391</v>
       </c>
       <c r="C62" t="n">
-        <v>-1.212315704557025</v>
+        <v>-1.235701767357505</v>
       </c>
     </row>
     <row r="63">
@@ -1120,10 +1120,10 @@
         <v>-0.7988858422843718</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.76348863415763</v>
+        <v>-0.7629048908534539</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.7377023705146881</v>
+        <v>-0.7278626977093732</v>
       </c>
     </row>
     <row r="64">
@@ -1131,10 +1131,10 @@
         <v>-0.9089174194676304</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.9092640817244033</v>
+        <v>-0.902592916605928</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.9026255638979531</v>
+        <v>-0.8935383443814506</v>
       </c>
     </row>
     <row r="65">
@@ -1142,10 +1142,10 @@
         <v>-0.1676704399680572</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.1304048256125618</v>
+        <v>-0.1405220124660397</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.1111563709664542</v>
+        <v>-0.1151581332990057</v>
       </c>
     </row>
     <row r="66">
@@ -1153,10 +1153,10 @@
         <v>-0.8688241560039135</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.8170160309513503</v>
+        <v>-0.8369294699525421</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.7926290785388965</v>
+        <v>-0.8054254235416985</v>
       </c>
     </row>
     <row r="67">
@@ -1164,10 +1164,10 @@
         <v>-0.8870577052056342</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.7972691155758459</v>
+        <v>-0.8389821267853064</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.7645593498930221</v>
+        <v>-0.7964180958686431</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_11.xlsx
+++ b/predicted_variables_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,16 +443,28 @@
       <c r="C1" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>-0.320979248953557</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.2992238370912462</v>
+        <v>-0.323716723852815</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.2821345793832771</v>
+        <v>-0.3093107257104907</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-0.2952607650692658</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.2819917716829335</v>
       </c>
     </row>
     <row r="3">
@@ -460,10 +472,16 @@
         <v>0.2143436614000808</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2219488970996552</v>
+        <v>0.198459336637776</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2320117684537313</v>
+        <v>0.2076865250416704</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2176271504216085</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.2275052025583008</v>
       </c>
     </row>
     <row r="4">
@@ -471,10 +489,16 @@
         <v>0.1537652663524683</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1632014586826957</v>
+        <v>0.1308398275189065</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1758065905860496</v>
+        <v>0.1425296526411839</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1551052188821808</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1675804533426762</v>
       </c>
     </row>
     <row r="5">
@@ -482,10 +506,16 @@
         <v>-0.0575026392805066</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0497619516495294</v>
+        <v>-0.08598760563481117</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.04018226426891893</v>
+        <v>-0.07633509935382571</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.06723701352770255</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.05904631302620567</v>
       </c>
     </row>
     <row r="6">
@@ -493,10 +523,16 @@
         <v>0.1396628773717534</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1548100805307225</v>
+        <v>0.1257264185200478</v>
       </c>
       <c r="C6" t="n">
-        <v>0.171412056408832</v>
+        <v>0.1418282182027905</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.157312441416569</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.171410369889013</v>
       </c>
     </row>
     <row r="7">
@@ -504,10 +540,16 @@
         <v>-0.446103926602071</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.4378128719680039</v>
+        <v>-0.462794068214327</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.4268032317420609</v>
+        <v>-0.4528029662052117</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.4425278526256859</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.4323507975944151</v>
       </c>
     </row>
     <row r="8">
@@ -515,10 +557,16 @@
         <v>-0.3031979267968119</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.2830561372514355</v>
+        <v>-0.2722784098748927</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.2611459841590157</v>
+        <v>-0.260071556078068</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.2472640206060024</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.2345191521032665</v>
       </c>
     </row>
     <row r="9">
@@ -526,10 +574,16 @@
         <v>-0.4083607549642143</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.4031068560968312</v>
+        <v>-0.419160127918516</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.3930228718765655</v>
+        <v>-0.4090605937397951</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.3970385238284929</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.3839031396493626</v>
       </c>
     </row>
     <row r="10">
@@ -537,10 +591,16 @@
         <v>0.309977447926819</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3292195082327474</v>
+        <v>0.3437353167829754</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3464689164435004</v>
+        <v>0.358506294481997</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3723048670123302</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.3846022088222938</v>
       </c>
     </row>
     <row r="11">
@@ -548,10 +608,16 @@
         <v>-0.2096874175128783</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.2037413371072797</v>
+        <v>-0.2495262058236078</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.1953654520700522</v>
+        <v>-0.2401966792289666</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.2309574200385598</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.2222111348588156</v>
       </c>
     </row>
     <row r="12">
@@ -559,10 +625,16 @@
         <v>-0.1077715546222127</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.0821072528310636</v>
+        <v>-0.1090023623403518</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.05657127928348278</v>
+        <v>-0.08648358856128772</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.06639254954047909</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.04894333054410106</v>
       </c>
     </row>
     <row r="13">
@@ -570,10 +642,16 @@
         <v>0.000355055107599366</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.0003310869996958777</v>
+        <v>-0.01412646471737876</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001012044685284675</v>
+        <v>-0.0135888336771998</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.0126784057604223</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.0118948220840237</v>
       </c>
     </row>
     <row r="14">
@@ -581,10 +659,16 @@
         <v>-0.002855013403342571</v>
       </c>
       <c r="B14" t="n">
-        <v>0.03851454930947634</v>
+        <v>0.01271392789801482</v>
       </c>
       <c r="C14" t="n">
-        <v>0.07821530196421179</v>
+        <v>0.05244956046941167</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.08869275783823745</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.1205847614118937</v>
       </c>
     </row>
     <row r="15">
@@ -592,10 +676,16 @@
         <v>-0.1316013561189634</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.07866169720265165</v>
+        <v>-0.0570807994248989</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.02976977123473042</v>
+        <v>-0.01300978491836207</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.02601119802271654</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.05933515250160003</v>
       </c>
     </row>
     <row r="16">
@@ -603,10 +693,16 @@
         <v>0.201621912133458</v>
       </c>
       <c r="B16" t="n">
-        <v>0.270704614777359</v>
+        <v>0.2909665680821449</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3354137576252648</v>
+        <v>0.3511649265855035</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.4050524548647043</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.4518845707694348</v>
       </c>
     </row>
     <row r="17">
@@ -614,10 +710,16 @@
         <v>0.5423436228104332</v>
       </c>
       <c r="B17" t="n">
-        <v>0.584307256470087</v>
+        <v>0.5685316785691956</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6147015950854349</v>
+        <v>0.6020326650123404</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6307855370710789</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6540451976054349</v>
       </c>
     </row>
     <row r="18">
@@ -625,10 +727,16 @@
         <v>0.07315178509541692</v>
       </c>
       <c r="B18" t="n">
-        <v>0.05732880917706104</v>
+        <v>0.0514454229502002</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03907936104641058</v>
+        <v>0.03866759896343645</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.02762113004102702</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.01765353438448207</v>
       </c>
     </row>
     <row r="19">
@@ -636,10 +744,16 @@
         <v>0.386715335439153</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3975684058954093</v>
+        <v>0.3784449178779835</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4073850693588411</v>
+        <v>0.3942978762976164</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.4085839877825673</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.4203445844300895</v>
       </c>
     </row>
     <row r="20">
@@ -647,10 +761,16 @@
         <v>0.1811050692756799</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2443446490328965</v>
+        <v>0.2404340588128443</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3019392570708399</v>
+        <v>0.2970493814345418</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.347113586368768</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.3898407705456988</v>
       </c>
     </row>
     <row r="21">
@@ -658,10 +778,16 @@
         <v>0.3703355057468388</v>
       </c>
       <c r="B21" t="n">
-        <v>0.445099329410637</v>
+        <v>0.4641284581422794</v>
       </c>
       <c r="C21" t="n">
-        <v>0.510936168096469</v>
+        <v>0.5205383953746511</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.56878821272325</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.6089081245250895</v>
       </c>
     </row>
     <row r="22">
@@ -669,10 +795,16 @@
         <v>0.3126920452067942</v>
       </c>
       <c r="B22" t="n">
-        <v>0.35230087567833</v>
+        <v>0.3442710520518817</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3878264736669107</v>
+        <v>0.3797409485700736</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.410459550677119</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.4357712697100385</v>
       </c>
     </row>
     <row r="23">
@@ -680,10 +812,16 @@
         <v>-0.1038864267973275</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.06779133237168543</v>
+        <v>-0.09234164219002516</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.03591702864004014</v>
+        <v>-0.06102057954108653</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.03429578103519461</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-0.01251349659053289</v>
       </c>
     </row>
     <row r="24">
@@ -691,10 +829,16 @@
         <v>4.453803991435108</v>
       </c>
       <c r="B24" t="n">
-        <v>4.583069787751728</v>
+        <v>4.577738315524726</v>
       </c>
       <c r="C24" t="n">
-        <v>4.5915582825595</v>
+        <v>4.600142545217028</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4.543939092626456</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4.425746139532285</v>
       </c>
     </row>
     <row r="25">
@@ -702,10 +846,16 @@
         <v>0.5876139453631384</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5223238323535426</v>
+        <v>0.5201919331051155</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4829805652477284</v>
+        <v>0.4798567206283482</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.4490839207864836</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.4213661139698385</v>
       </c>
     </row>
     <row r="26">
@@ -713,10 +863,16 @@
         <v>0.3896680206323899</v>
       </c>
       <c r="B26" t="n">
-        <v>0.385725840390837</v>
+        <v>0.3840934113596692</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3582377281163128</v>
+        <v>0.3525363144340392</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.3324494749365993</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.3122743053466845</v>
       </c>
     </row>
     <row r="27">
@@ -724,10 +880,16 @@
         <v>0.4493561849481168</v>
       </c>
       <c r="B27" t="n">
-        <v>0.3501493769761415</v>
+        <v>0.3506188273330846</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3112183108682413</v>
+        <v>0.310901809741786</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.2802978279369414</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.250300738809979</v>
       </c>
     </row>
     <row r="28">
@@ -735,10 +897,16 @@
         <v>1.101569599730075</v>
       </c>
       <c r="B28" t="n">
-        <v>1.108486299450599</v>
+        <v>1.107158495914431</v>
       </c>
       <c r="C28" t="n">
-        <v>1.068802429626297</v>
+        <v>1.066890520460006</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.034384186030383</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.003125729348551</v>
       </c>
     </row>
     <row r="29">
@@ -746,10 +914,16 @@
         <v>6.305399400005101</v>
       </c>
       <c r="B29" t="n">
-        <v>5.863065108179788</v>
+        <v>5.891534824325058</v>
       </c>
       <c r="C29" t="n">
-        <v>5.405296389527338</v>
+        <v>5.468790468361631</v>
+      </c>
+      <c r="D29" t="n">
+        <v>5.054774525521304</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4.654705059835492</v>
       </c>
     </row>
     <row r="30">
@@ -757,10 +931,16 @@
         <v>1.086484111942742</v>
       </c>
       <c r="B30" t="n">
-        <v>1.033298881701802</v>
+        <v>1.02554562774442</v>
       </c>
       <c r="C30" t="n">
-        <v>0.97468496952248</v>
+        <v>0.9649696633972918</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.918192690939621</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.8754001097957069</v>
       </c>
     </row>
     <row r="31">
@@ -768,10 +948,16 @@
         <v>-0.04596266962933854</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.1587266180487845</v>
+        <v>-0.1632159372585917</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.2170616398097887</v>
+        <v>-0.2243439863291791</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0.2732557685607494</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-0.3160735247271406</v>
       </c>
     </row>
     <row r="32">
@@ -779,10 +965,16 @@
         <v>0.8757027905704118</v>
       </c>
       <c r="B32" t="n">
-        <v>0.7922292282861484</v>
+        <v>0.779564758101126</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7601745012274741</v>
+        <v>0.7474304657757006</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.7241680675817791</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.7011752861778168</v>
       </c>
     </row>
     <row r="33">
@@ -790,10 +982,16 @@
         <v>0.9785819433047789</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9082720436595411</v>
+        <v>0.9300366235590389</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8816776119948229</v>
+        <v>0.8993922506230235</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.8769816692917198</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.8559540949582878</v>
       </c>
     </row>
     <row r="34">
@@ -801,10 +999,16 @@
         <v>-0.5295851090977531</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.6145384738586025</v>
+        <v>-0.6329906594375985</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.6475333804647353</v>
+        <v>-0.6672725585690531</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.6938528429753864</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-0.7189302401520412</v>
       </c>
     </row>
     <row r="35">
@@ -812,10 +1016,16 @@
         <v>0.8420182744530541</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8316533790961724</v>
+        <v>0.8222461609779662</v>
       </c>
       <c r="C35" t="n">
-        <v>0.8218435450114036</v>
+        <v>0.8131609638990331</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.8053063940955221</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.7980393932961181</v>
       </c>
     </row>
     <row r="36">
@@ -823,10 +1033,16 @@
         <v>0.8020293360917573</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7855037029257244</v>
+        <v>0.7849608595243773</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7693614416238811</v>
+        <v>0.767376525621137</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.7524983959128847</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.7395860261111458</v>
       </c>
     </row>
     <row r="37">
@@ -834,10 +1050,16 @@
         <v>0.7904737148019464</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7675315540664119</v>
+        <v>0.7610204137432285</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7470097390752609</v>
+        <v>0.7413393640081756</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.7244343730520797</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.7097215971725575</v>
       </c>
     </row>
     <row r="38">
@@ -845,10 +1067,16 @@
         <v>0.7832513543860885</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7589557779869432</v>
+        <v>0.735657008090314</v>
       </c>
       <c r="C38" t="n">
-        <v>0.7364787164369815</v>
+        <v>0.7166327809518839</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.7001331228593332</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.6853823668620735</v>
       </c>
     </row>
     <row r="39">
@@ -856,10 +1084,16 @@
         <v>0.5849492900421073</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5821879449792671</v>
+        <v>0.584655617669402</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5799858999719165</v>
+        <v>0.5805097688759314</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.577357603485031</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.5746130955545922</v>
       </c>
     </row>
     <row r="40">
@@ -867,10 +1101,16 @@
         <v>0.7549193585309645</v>
       </c>
       <c r="B40" t="n">
-        <v>0.752504930961044</v>
+        <v>0.7535855833296246</v>
       </c>
       <c r="C40" t="n">
-        <v>0.7516688156978327</v>
+        <v>0.7508300768615521</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.7484278463438755</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.7457993942262386</v>
       </c>
     </row>
     <row r="41">
@@ -878,10 +1118,16 @@
         <v>0.5823079700845144</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5740733241087111</v>
+        <v>0.5628614257754467</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5662175814738012</v>
+        <v>0.5545927399189651</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.5486144725315969</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.5440646841984613</v>
       </c>
     </row>
     <row r="42">
@@ -889,10 +1135,16 @@
         <v>0.7509149846034363</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7208799233339613</v>
+        <v>0.7162239923506889</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6918534711097154</v>
+        <v>0.6890526931284596</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.6651710945092365</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.6439435367320129</v>
       </c>
     </row>
     <row r="43">
@@ -900,10 +1152,16 @@
         <v>0.7498150135291279</v>
       </c>
       <c r="B43" t="n">
-        <v>0.7334435688276052</v>
+        <v>0.7235113542228019</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7179003843182954</v>
+        <v>0.708607646620943</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.6960804399275728</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.6851437963668882</v>
       </c>
     </row>
     <row r="44">
@@ -911,10 +1169,16 @@
         <v>0.6815804832488409</v>
       </c>
       <c r="B44" t="n">
-        <v>0.673560097193828</v>
+        <v>0.6818361315274433</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6666530224190774</v>
+        <v>0.6736650154960108</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.667378594007934</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.6622459522214693</v>
       </c>
     </row>
     <row r="45">
@@ -922,10 +1186,16 @@
         <v>0.6779300713150774</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6591561716579049</v>
+        <v>0.6758304549915243</v>
       </c>
       <c r="C45" t="n">
-        <v>0.642382774137458</v>
+        <v>0.6573158281272644</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.641827598554511</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.6288028937328897</v>
       </c>
     </row>
     <row r="46">
@@ -933,10 +1203,16 @@
         <v>-1.251248864644726</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.255732962936066</v>
+        <v>-1.262668264875522</v>
       </c>
       <c r="C46" t="n">
-        <v>-1.258874959345484</v>
+        <v>-1.265986458938779</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-1.269030954015268</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-1.271612010106198</v>
       </c>
     </row>
     <row r="47">
@@ -944,10 +1220,16 @@
         <v>-0.967001884512309</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.9725997551277514</v>
+        <v>-0.9772038869607644</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.9766034172132484</v>
+        <v>-0.9814853793243534</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-0.9853535474519329</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-0.9886784588588577</v>
       </c>
     </row>
     <row r="48">
@@ -955,10 +1237,16 @@
         <v>-0.8580176344820992</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.8657698861029492</v>
+        <v>-0.8701089387968857</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.8707919287892192</v>
+        <v>-0.8755392624003318</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-0.8796802197049783</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-0.8826439959900664</v>
       </c>
     </row>
     <row r="49">
@@ -966,10 +1254,16 @@
         <v>-0.6289971336463758</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.6338754745914724</v>
+        <v>-0.6410403872334991</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.6365212563413356</v>
+        <v>-0.6439722445150895</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-0.6459379106875854</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-0.6471703845323308</v>
       </c>
     </row>
     <row r="50">
@@ -977,10 +1271,16 @@
         <v>-0.05096672366018621</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.05071429600250393</v>
+        <v>-0.04929204634115188</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.05049782192199208</v>
+        <v>-0.05022248240209715</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-0.05079377333725028</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-0.05141931640286551</v>
       </c>
     </row>
     <row r="51">
@@ -988,10 +1288,16 @@
         <v>-0.8480553192316176</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.8534639076291973</v>
+        <v>-0.8617558046222666</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.8567174551217845</v>
+        <v>-0.8664839627003759</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-0.8702238894516947</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-0.8729639076070035</v>
       </c>
     </row>
     <row r="52">
@@ -999,10 +1305,16 @@
         <v>-0.8480553192316176</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.8534639076291973</v>
+        <v>-0.8617558046222666</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.8567174551217845</v>
+        <v>-0.8664839627003759</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-0.8702238894516947</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-0.8729639076070035</v>
       </c>
     </row>
     <row r="53">
@@ -1010,10 +1322,16 @@
         <v>-1.065722767152864</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.08256155952163</v>
+        <v>-1.087251285867312</v>
       </c>
       <c r="C53" t="n">
-        <v>-1.095817744913985</v>
+        <v>-1.099638969396312</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-1.109998231643979</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-1.118399283333831</v>
       </c>
     </row>
     <row r="54">
@@ -1021,10 +1339,16 @@
         <v>-0.1891174149309518</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.1879264921248159</v>
+        <v>-0.1888127969028661</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.1859442631723647</v>
+        <v>-0.1879309031566863</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-0.1866147396056724</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-0.185234103052067</v>
       </c>
     </row>
     <row r="55">
@@ -1032,10 +1356,16 @@
         <v>-0.9897380905975447</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.9936087910891047</v>
+        <v>-0.9985492423653456</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.9959778696404012</v>
+        <v>-1.001920247713072</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-1.004967698858919</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-1.007640524675248</v>
       </c>
     </row>
     <row r="56">
@@ -1043,10 +1373,16 @@
         <v>-0.9016627886439221</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.8949278593720995</v>
+        <v>-0.8909248614359153</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.8882177376392842</v>
+        <v>-0.8865783913471785</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-0.8834885479073487</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-0.8814316125723315</v>
       </c>
     </row>
     <row r="57">
@@ -1054,10 +1390,16 @@
         <v>-0.9860300738025907</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.9669438909407274</v>
+        <v>-0.9483704188240569</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.9495207324063961</v>
+        <v>-0.9350879674765653</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-0.9233701041371302</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-0.9133006486670864</v>
       </c>
     </row>
     <row r="58">
@@ -1065,10 +1407,16 @@
         <v>-1.201068001714629</v>
       </c>
       <c r="B58" t="n">
-        <v>-1.168481908316629</v>
+        <v>-1.152693352750958</v>
       </c>
       <c r="C58" t="n">
-        <v>-1.137464195319468</v>
+        <v>-1.129367752215911</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-1.109053444590487</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-1.091526292210452</v>
       </c>
     </row>
     <row r="59">
@@ -1076,10 +1424,16 @@
         <v>-0.8907455777886119</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.8706788439193038</v>
+        <v>-0.860144294385646</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.853019642540779</v>
+        <v>-0.8481378087766493</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-0.8369545860399286</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-0.8266710382808649</v>
       </c>
     </row>
     <row r="60">
@@ -1087,10 +1441,16 @@
         <v>-0.5489051317318591</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.5223936125904671</v>
+        <v>-0.5178204024029087</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.4965668043838305</v>
+        <v>-0.4975904977737807</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-0.4792345968531878</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-0.4629652518379018</v>
       </c>
     </row>
     <row r="61">
@@ -1098,10 +1458,16 @@
         <v>0.3636111718592236</v>
       </c>
       <c r="B61" t="n">
-        <v>0.3659790560598802</v>
+        <v>0.3687250643742834</v>
       </c>
       <c r="C61" t="n">
-        <v>0.3693303203928583</v>
+        <v>0.370916657261192</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.3735755437270625</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.3760671398139814</v>
       </c>
     </row>
     <row r="62">
@@ -1109,10 +1475,16 @@
         <v>-1.284317684999349</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.260266736008391</v>
+        <v>-1.232938856462481</v>
       </c>
       <c r="C62" t="n">
-        <v>-1.235701767357505</v>
+        <v>-1.212315704557025</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-1.194278238216717</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-1.178811243742369</v>
       </c>
     </row>
     <row r="63">
@@ -1120,10 +1492,16 @@
         <v>-0.7988858422843718</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.7629048908534539</v>
+        <v>-0.76348863415763</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.7278626977093732</v>
+        <v>-0.7377023705146881</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-0.7135873566907546</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-0.6910750878967837</v>
       </c>
     </row>
     <row r="64">
@@ -1131,10 +1509,16 @@
         <v>-0.9089174194676304</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.902592916605928</v>
+        <v>-0.9092640817244033</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.8935383443814506</v>
+        <v>-0.9026255638979531</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-0.8951688976081931</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-0.8872346792891966</v>
       </c>
     </row>
     <row r="65">
@@ -1142,10 +1526,16 @@
         <v>-0.1676704399680572</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.1405220124660397</v>
+        <v>-0.1304048256125618</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.1151581332990057</v>
+        <v>-0.1111563709664542</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-0.09375412830982176</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-0.07847335130381627</v>
       </c>
     </row>
     <row r="66">
@@ -1153,10 +1543,16 @@
         <v>-0.8688241560039135</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.8369294699525421</v>
+        <v>-0.8170160309513503</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.8054254235416985</v>
+        <v>-0.7926290785388965</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-0.7719040014687291</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-0.7547517506085408</v>
       </c>
     </row>
     <row r="67">
@@ -1164,10 +1560,16 @@
         <v>-0.8870577052056342</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.8389821267853064</v>
+        <v>-0.7972691155758459</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.7964180958686431</v>
+        <v>-0.7645593498930221</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-0.7375200940845188</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-0.7158653422760036</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_11.xlsx
+++ b/predicted_variables_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,9 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +469,9 @@
       <c r="E2" t="n">
         <v>-0.2819917716829335</v>
       </c>
+      <c r="F2" t="n">
+        <v>-0.2697229264956203</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +489,9 @@
       <c r="E3" t="n">
         <v>0.2275052025583008</v>
       </c>
+      <c r="F3" t="n">
+        <v>0.2369930633617544</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +509,9 @@
       <c r="E4" t="n">
         <v>0.1675804533426762</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.1796667875431488</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +529,9 @@
       <c r="E5" t="n">
         <v>-0.05904631302620567</v>
       </c>
+      <c r="F5" t="n">
+        <v>-0.05183242411554642</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +549,9 @@
       <c r="E6" t="n">
         <v>0.171410369889013</v>
       </c>
+      <c r="F6" t="n">
+        <v>0.1839853491745513</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -551,6 +569,9 @@
       <c r="E7" t="n">
         <v>-0.4323507975944151</v>
       </c>
+      <c r="F7" t="n">
+        <v>-0.4225332147516093</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -568,6 +589,9 @@
       <c r="E8" t="n">
         <v>-0.2345191521032665</v>
       </c>
+      <c r="F8" t="n">
+        <v>-0.2220200895646588</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -585,6 +609,9 @@
       <c r="E9" t="n">
         <v>-0.3839031396493626</v>
       </c>
+      <c r="F9" t="n">
+        <v>-0.3702675277988424</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -602,6 +629,9 @@
       <c r="E10" t="n">
         <v>0.3846022088222938</v>
       </c>
+      <c r="F10" t="n">
+        <v>0.3953494443208213</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -619,6 +649,9 @@
       <c r="E11" t="n">
         <v>-0.2222111348588156</v>
       </c>
+      <c r="F11" t="n">
+        <v>-0.2140909286774803</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -636,6 +669,9 @@
       <c r="E12" t="n">
         <v>-0.04894333054410106</v>
       </c>
+      <c r="F12" t="n">
+        <v>-0.03420706836527727</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -653,6 +689,9 @@
       <c r="E13" t="n">
         <v>-0.0118948220840237</v>
       </c>
+      <c r="F13" t="n">
+        <v>-0.01131784395642922</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -670,6 +709,9 @@
       <c r="E14" t="n">
         <v>0.1205847614118937</v>
       </c>
+      <c r="F14" t="n">
+        <v>0.1478411021013354</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -687,6 +729,9 @@
       <c r="E15" t="n">
         <v>0.05933515250160003</v>
       </c>
+      <c r="F15" t="n">
+        <v>0.08676068421529963</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -704,6 +749,9 @@
       <c r="E16" t="n">
         <v>0.4518845707694348</v>
       </c>
+      <c r="F16" t="n">
+        <v>0.4913742436560238</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -721,6 +769,9 @@
       <c r="E17" t="n">
         <v>0.6540451976054349</v>
       </c>
+      <c r="F17" t="n">
+        <v>0.6717437211840589</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -738,6 +789,9 @@
       <c r="E18" t="n">
         <v>0.01765353438448207</v>
       </c>
+      <c r="F18" t="n">
+        <v>0.008363229396697536</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -755,6 +809,9 @@
       <c r="E19" t="n">
         <v>0.4203445844300895</v>
       </c>
+      <c r="F19" t="n">
+        <v>0.4294491478854047</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -772,6 +829,9 @@
       <c r="E20" t="n">
         <v>0.3898407705456988</v>
       </c>
+      <c r="F20" t="n">
+        <v>0.425058470085012</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -789,6 +849,9 @@
       <c r="E21" t="n">
         <v>0.6089081245250895</v>
       </c>
+      <c r="F21" t="n">
+        <v>0.6412321840073463</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -806,6 +869,9 @@
       <c r="E22" t="n">
         <v>0.4357712697100385</v>
       </c>
+      <c r="F22" t="n">
+        <v>0.4556680513038007</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -823,6 +889,9 @@
       <c r="E23" t="n">
         <v>-0.01251349659053289</v>
       </c>
+      <c r="F23" t="n">
+        <v>0.004383357582646991</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -840,6 +909,9 @@
       <c r="E24" t="n">
         <v>4.425746139532285</v>
       </c>
+      <c r="F24" t="n">
+        <v>4.258762665759706</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -857,6 +929,9 @@
       <c r="E25" t="n">
         <v>0.4213661139698385</v>
       </c>
+      <c r="F25" t="n">
+        <v>0.3968064469423699</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -874,6 +949,9 @@
       <c r="E26" t="n">
         <v>0.3122743053466845</v>
       </c>
+      <c r="F26" t="n">
+        <v>0.2920032608144238</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -891,6 +969,9 @@
       <c r="E27" t="n">
         <v>0.250300738809979</v>
       </c>
+      <c r="F27" t="n">
+        <v>0.2215224613862163</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -908,6 +989,9 @@
       <c r="E28" t="n">
         <v>1.003125729348551</v>
       </c>
+      <c r="F28" t="n">
+        <v>0.9728311807946091</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -925,6 +1009,9 @@
       <c r="E29" t="n">
         <v>4.654705059835492</v>
       </c>
+      <c r="F29" t="n">
+        <v>4.272343691720728</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -942,6 +1029,9 @@
       <c r="E30" t="n">
         <v>0.8754001097957069</v>
       </c>
+      <c r="F30" t="n">
+        <v>0.8360754872869249</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -959,6 +1049,9 @@
       <c r="E31" t="n">
         <v>-0.3160735247271406</v>
       </c>
+      <c r="F31" t="n">
+        <v>-0.3532820157415948</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -976,6 +1069,9 @@
       <c r="E32" t="n">
         <v>0.7011752861778168</v>
       </c>
+      <c r="F32" t="n">
+        <v>0.6787116786581839</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -993,6 +1089,9 @@
       <c r="E33" t="n">
         <v>0.8559540949582878</v>
       </c>
+      <c r="F33" t="n">
+        <v>0.8365608506443152</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1010,6 +1109,9 @@
       <c r="E34" t="n">
         <v>-0.7189302401520412</v>
       </c>
+      <c r="F34" t="n">
+        <v>-0.7420126127256951</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1027,6 +1129,9 @@
       <c r="E35" t="n">
         <v>0.7980393932961181</v>
       </c>
+      <c r="F35" t="n">
+        <v>0.7915413671507118</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1044,6 +1149,9 @@
       <c r="E36" t="n">
         <v>0.7395860261111458</v>
       </c>
+      <c r="F36" t="n">
+        <v>0.7287407001360586</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1061,6 +1169,9 @@
       <c r="E37" t="n">
         <v>0.7097215971725575</v>
       </c>
+      <c r="F37" t="n">
+        <v>0.6973126854226342</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1078,6 +1189,9 @@
       <c r="E38" t="n">
         <v>0.6853823668620735</v>
       </c>
+      <c r="F38" t="n">
+        <v>0.6723954381615824</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1095,6 +1209,9 @@
       <c r="E39" t="n">
         <v>0.5746130955545922</v>
       </c>
+      <c r="F39" t="n">
+        <v>0.5723848509663865</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1112,6 +1229,9 @@
       <c r="E40" t="n">
         <v>0.7457993942262386</v>
       </c>
+      <c r="F40" t="n">
+        <v>0.7432190777164841</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1129,6 +1249,9 @@
       <c r="E41" t="n">
         <v>0.5440646841984613</v>
       </c>
+      <c r="F41" t="n">
+        <v>0.5408225199867269</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1146,6 +1269,9 @@
       <c r="E42" t="n">
         <v>0.6439435367320129</v>
       </c>
+      <c r="F42" t="n">
+        <v>0.6254733939945026</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1163,6 +1289,9 @@
       <c r="E43" t="n">
         <v>0.6851437963668882</v>
       </c>
+      <c r="F43" t="n">
+        <v>0.6757954948037895</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1180,6 +1309,9 @@
       <c r="E44" t="n">
         <v>0.6622459522214693</v>
       </c>
+      <c r="F44" t="n">
+        <v>0.6582877660637769</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1197,6 +1329,9 @@
       <c r="E45" t="n">
         <v>0.6288028937328897</v>
       </c>
+      <c r="F45" t="n">
+        <v>0.6183568414548382</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1214,6 +1349,9 @@
       <c r="E46" t="n">
         <v>-1.271612010106198</v>
       </c>
+      <c r="F46" t="n">
+        <v>-1.27385381619851</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1231,6 +1369,9 @@
       <c r="E47" t="n">
         <v>-0.9886784588588577</v>
       </c>
+      <c r="F47" t="n">
+        <v>-0.991556367095604</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1248,6 +1389,9 @@
       <c r="E48" t="n">
         <v>-0.8826439959900664</v>
       </c>
+      <c r="F48" t="n">
+        <v>-0.8846205035097687</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1265,6 +1409,9 @@
       <c r="E49" t="n">
         <v>-0.6471703845323308</v>
       </c>
+      <c r="F49" t="n">
+        <v>-0.6478085764714128</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1282,6 +1429,9 @@
       <c r="E50" t="n">
         <v>-0.05141931640286551</v>
       </c>
+      <c r="F50" t="n">
+        <v>-0.0521247504161771</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1299,6 +1449,9 @@
       <c r="E51" t="n">
         <v>-0.8729639076070035</v>
       </c>
+      <c r="F51" t="n">
+        <v>-0.8748084554251534</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1316,6 +1469,9 @@
       <c r="E52" t="n">
         <v>-0.8729639076070035</v>
       </c>
+      <c r="F52" t="n">
+        <v>-0.8748084554251534</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1333,6 +1489,9 @@
       <c r="E53" t="n">
         <v>-1.118399283333831</v>
       </c>
+      <c r="F53" t="n">
+        <v>-1.125114181806788</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1350,6 +1509,9 @@
       <c r="E54" t="n">
         <v>-0.185234103052067</v>
       </c>
+      <c r="F54" t="n">
+        <v>-0.183844142593231</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1367,6 +1529,9 @@
       <c r="E55" t="n">
         <v>-1.007640524675248</v>
       </c>
+      <c r="F55" t="n">
+        <v>-1.01002759265501</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1384,6 +1549,9 @@
       <c r="E56" t="n">
         <v>-0.8814316125723315</v>
       </c>
+      <c r="F56" t="n">
+        <v>-0.8802991859324085</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1401,6 +1569,9 @@
       <c r="E57" t="n">
         <v>-0.9133006486670864</v>
       </c>
+      <c r="F57" t="n">
+        <v>-0.9050096623117443</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1418,6 +1589,9 @@
       <c r="E58" t="n">
         <v>-1.091526292210452</v>
       </c>
+      <c r="F58" t="n">
+        <v>-1.076791198545989</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1435,6 +1609,9 @@
       <c r="E59" t="n">
         <v>-0.8266710382808649</v>
       </c>
+      <c r="F59" t="n">
+        <v>-0.817388558585352</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1452,6 +1629,9 @@
       <c r="E60" t="n">
         <v>-0.4629652518379018</v>
       </c>
+      <c r="F60" t="n">
+        <v>-0.4487973915176372</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1469,6 +1649,9 @@
       <c r="E61" t="n">
         <v>0.3760671398139814</v>
       </c>
+      <c r="F61" t="n">
+        <v>0.3783551760514738</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1486,6 +1669,9 @@
       <c r="E62" t="n">
         <v>-1.178811243742369</v>
       </c>
+      <c r="F62" t="n">
+        <v>-1.166003173256962</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1503,6 +1689,9 @@
       <c r="E63" t="n">
         <v>-0.6910750878967837</v>
       </c>
+      <c r="F63" t="n">
+        <v>-0.6702447609482318</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1520,6 +1709,9 @@
       <c r="E64" t="n">
         <v>-0.8872346792891966</v>
       </c>
+      <c r="F64" t="n">
+        <v>-0.8792242877226656</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1537,6 +1729,9 @@
       <c r="E65" t="n">
         <v>-0.07847335130381627</v>
       </c>
+      <c r="F65" t="n">
+        <v>-0.06525882843167267</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1554,6 +1749,9 @@
       <c r="E66" t="n">
         <v>-0.7547517506085408</v>
       </c>
+      <c r="F66" t="n">
+        <v>-0.741011262609779</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1570,6 +1768,9 @@
       </c>
       <c r="E67" t="n">
         <v>-0.7158653422760036</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.6991988193278766</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_11.xlsx
+++ b/predicted_variables_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,6 +452,9 @@
       <c r="F1" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -472,6 +475,9 @@
       <c r="F2" t="n">
         <v>-0.2697229264956203</v>
       </c>
+      <c r="G2" t="n">
+        <v>-0.2585837005653551</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -492,6 +498,9 @@
       <c r="F3" t="n">
         <v>0.2369930633617544</v>
       </c>
+      <c r="G3" t="n">
+        <v>0.2458197975775482</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -512,6 +521,9 @@
       <c r="F4" t="n">
         <v>0.1796667875431488</v>
       </c>
+      <c r="G4" t="n">
+        <v>0.1911151067937505</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -532,6 +544,9 @@
       <c r="F5" t="n">
         <v>-0.05183242411554642</v>
       </c>
+      <c r="G5" t="n">
+        <v>-0.04565572808168509</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -552,6 +567,9 @@
       <c r="F6" t="n">
         <v>0.1839853491745513</v>
       </c>
+      <c r="G6" t="n">
+        <v>0.1949670035917773</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -572,6 +590,9 @@
       <c r="F7" t="n">
         <v>-0.4225332147516093</v>
       </c>
+      <c r="G7" t="n">
+        <v>-0.4132874877196786</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -592,6 +613,9 @@
       <c r="F8" t="n">
         <v>-0.2220200895646588</v>
       </c>
+      <c r="G8" t="n">
+        <v>-0.2099647250390426</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -612,6 +636,9 @@
       <c r="F9" t="n">
         <v>-0.3702675277988424</v>
       </c>
+      <c r="G9" t="n">
+        <v>-0.3566747609063581</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -632,6 +659,9 @@
       <c r="F10" t="n">
         <v>0.3953494443208213</v>
       </c>
+      <c r="G10" t="n">
+        <v>0.4045364874245301</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -652,6 +682,9 @@
       <c r="F11" t="n">
         <v>-0.2140909286774803</v>
       </c>
+      <c r="G11" t="n">
+        <v>-0.2067043703950062</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -672,6 +705,9 @@
       <c r="F12" t="n">
         <v>-0.03420706836527727</v>
       </c>
+      <c r="G12" t="n">
+        <v>-0.0221938878435378</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -692,6 +728,9 @@
       <c r="F13" t="n">
         <v>-0.01131784395642922</v>
       </c>
+      <c r="G13" t="n">
+        <v>-0.01101485071976361</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -712,6 +751,9 @@
       <c r="F14" t="n">
         <v>0.1478411021013354</v>
       </c>
+      <c r="G14" t="n">
+        <v>0.1703698398783891</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -732,6 +774,9 @@
       <c r="F15" t="n">
         <v>0.08676068421529963</v>
       </c>
+      <c r="G15" t="n">
+        <v>0.1083090795231254</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -752,6 +797,9 @@
       <c r="F16" t="n">
         <v>0.4913742436560238</v>
       </c>
+      <c r="G16" t="n">
+        <v>0.5234654634326298</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -772,6 +820,9 @@
       <c r="F17" t="n">
         <v>0.6717437211840589</v>
       </c>
+      <c r="G17" t="n">
+        <v>0.6840405295662286</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -792,6 +843,9 @@
       <c r="F18" t="n">
         <v>0.008363229396697536</v>
       </c>
+      <c r="G18" t="n">
+        <v>-0.0005016112652250632</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -812,6 +866,9 @@
       <c r="F19" t="n">
         <v>0.4294491478854047</v>
       </c>
+      <c r="G19" t="n">
+        <v>0.4359119205989549</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -832,6 +889,9 @@
       <c r="F20" t="n">
         <v>0.425058470085012</v>
       </c>
+      <c r="G20" t="n">
+        <v>0.4528193008432646</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -852,6 +912,9 @@
       <c r="F21" t="n">
         <v>0.6412321840073463</v>
       </c>
+      <c r="G21" t="n">
+        <v>0.6661955545254368</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -872,6 +935,9 @@
       <c r="F22" t="n">
         <v>0.4556680513038007</v>
       </c>
+      <c r="G22" t="n">
+        <v>0.470294268794487</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -892,6 +958,9 @@
       <c r="F23" t="n">
         <v>0.004383357582646991</v>
       </c>
+      <c r="G23" t="n">
+        <v>0.01659729265955925</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -912,6 +981,9 @@
       <c r="F24" t="n">
         <v>4.258762665759706</v>
       </c>
+      <c r="G24" t="n">
+        <v>4.054953064231843</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -932,6 +1004,9 @@
       <c r="F25" t="n">
         <v>0.3968064469423699</v>
       </c>
+      <c r="G25" t="n">
+        <v>0.3753044886091611</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -952,6 +1027,9 @@
       <c r="F26" t="n">
         <v>0.2920032608144238</v>
       </c>
+      <c r="G26" t="n">
+        <v>0.2720401777661844</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -972,6 +1050,9 @@
       <c r="F27" t="n">
         <v>0.2215224613862163</v>
       </c>
+      <c r="G27" t="n">
+        <v>0.1942478278216429</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -992,6 +1073,9 @@
       <c r="F28" t="n">
         <v>0.9728311807946091</v>
       </c>
+      <c r="G28" t="n">
+        <v>0.9440062740717776</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1012,6 +1096,9 @@
       <c r="F29" t="n">
         <v>4.272343691720728</v>
       </c>
+      <c r="G29" t="n">
+        <v>3.910830813828042</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1032,6 +1119,9 @@
       <c r="F30" t="n">
         <v>0.8360754872869249</v>
       </c>
+      <c r="G30" t="n">
+        <v>0.8004040632590784</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1052,6 +1142,9 @@
       <c r="F31" t="n">
         <v>-0.3532820157415948</v>
       </c>
+      <c r="G31" t="n">
+        <v>-0.3850794604132627</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1072,6 +1165,9 @@
       <c r="F32" t="n">
         <v>0.6787116786581839</v>
       </c>
+      <c r="G32" t="n">
+        <v>0.6571696487080091</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1092,6 +1188,9 @@
       <c r="F33" t="n">
         <v>0.8365608506443152</v>
       </c>
+      <c r="G33" t="n">
+        <v>0.8189189117441676</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1112,6 +1211,9 @@
       <c r="F34" t="n">
         <v>-0.7420126127256951</v>
       </c>
+      <c r="G34" t="n">
+        <v>-0.7629874436964701</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1132,6 +1234,9 @@
       <c r="F35" t="n">
         <v>0.7915413671507118</v>
       </c>
+      <c r="G35" t="n">
+        <v>0.7859334480993705</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1152,6 +1257,9 @@
       <c r="F36" t="n">
         <v>0.7287407001360586</v>
       </c>
+      <c r="G36" t="n">
+        <v>0.7199844094757848</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1172,6 +1280,9 @@
       <c r="F37" t="n">
         <v>0.6973126854226342</v>
       </c>
+      <c r="G37" t="n">
+        <v>0.6872213967041072</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1192,6 +1303,9 @@
       <c r="F38" t="n">
         <v>0.6723954381615824</v>
       </c>
+      <c r="G38" t="n">
+        <v>0.6611615476984175</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1212,6 +1326,9 @@
       <c r="F39" t="n">
         <v>0.5723848509663865</v>
       </c>
+      <c r="G39" t="n">
+        <v>0.570728884153612</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1232,6 +1349,9 @@
       <c r="F40" t="n">
         <v>0.7432190777164841</v>
       </c>
+      <c r="G40" t="n">
+        <v>0.7408787971353855</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1252,6 +1372,9 @@
       <c r="F41" t="n">
         <v>0.5408225199867269</v>
       </c>
+      <c r="G41" t="n">
+        <v>0.5387640669596361</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1272,6 +1395,9 @@
       <c r="F42" t="n">
         <v>0.6254733939945026</v>
       </c>
+      <c r="G42" t="n">
+        <v>0.6097940093322383</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1292,6 +1418,9 @@
       <c r="F43" t="n">
         <v>0.6757954948037895</v>
       </c>
+      <c r="G43" t="n">
+        <v>0.6679999702776508</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1312,6 +1441,9 @@
       <c r="F44" t="n">
         <v>0.6582877660637769</v>
       </c>
+      <c r="G44" t="n">
+        <v>0.6554836662521776</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1332,6 +1464,9 @@
       <c r="F45" t="n">
         <v>0.6183568414548382</v>
       </c>
+      <c r="G45" t="n">
+        <v>0.6104890430854605</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1352,6 +1487,9 @@
       <c r="F46" t="n">
         <v>-1.27385381619851</v>
       </c>
+      <c r="G46" t="n">
+        <v>-1.27585356041505</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1372,6 +1510,9 @@
       <c r="F47" t="n">
         <v>-0.991556367095604</v>
       </c>
+      <c r="G47" t="n">
+        <v>-0.9940679546365556</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1392,6 +1533,9 @@
       <c r="F48" t="n">
         <v>-0.8846205035097687</v>
       </c>
+      <c r="G48" t="n">
+        <v>-0.8857862389472704</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1412,6 +1556,9 @@
       <c r="F49" t="n">
         <v>-0.6478085764714128</v>
       </c>
+      <c r="G49" t="n">
+        <v>-0.6479816922754632</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1432,6 +1579,9 @@
       <c r="F50" t="n">
         <v>-0.0521247504161771</v>
       </c>
+      <c r="G50" t="n">
+        <v>-0.05291520781199762</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1452,6 +1602,9 @@
       <c r="F51" t="n">
         <v>-0.8748084554251534</v>
       </c>
+      <c r="G51" t="n">
+        <v>-0.8758817749841676</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1472,6 +1625,9 @@
       <c r="F52" t="n">
         <v>-0.8748084554251534</v>
       </c>
+      <c r="G52" t="n">
+        <v>-0.8758817749841676</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1492,6 +1648,9 @@
       <c r="F53" t="n">
         <v>-1.125114181806788</v>
       </c>
+      <c r="G53" t="n">
+        <v>-1.130391715775394</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1512,6 +1671,9 @@
       <c r="F54" t="n">
         <v>-0.183844142593231</v>
       </c>
+      <c r="G54" t="n">
+        <v>-0.1824951057847221</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1532,6 +1694,9 @@
       <c r="F55" t="n">
         <v>-1.01002759265501</v>
       </c>
+      <c r="G55" t="n">
+        <v>-1.012195692918489</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1552,6 +1717,9 @@
       <c r="F56" t="n">
         <v>-0.8802991859324085</v>
       </c>
+      <c r="G56" t="n">
+        <v>-0.8799819373747383</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1572,6 +1740,9 @@
       <c r="F57" t="n">
         <v>-0.9050096623117443</v>
       </c>
+      <c r="G57" t="n">
+        <v>-0.8985477013043629</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1592,6 +1763,9 @@
       <c r="F58" t="n">
         <v>-1.076791198545989</v>
       </c>
+      <c r="G58" t="n">
+        <v>-1.064798856639636</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1612,6 +1786,9 @@
       <c r="F59" t="n">
         <v>-0.817388558585352</v>
       </c>
+      <c r="G59" t="n">
+        <v>-0.8091801939102927</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1632,6 +1809,9 @@
       <c r="F60" t="n">
         <v>-0.4487973915176372</v>
       </c>
+      <c r="G60" t="n">
+        <v>-0.4367263186280486</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1652,6 +1832,9 @@
       <c r="F61" t="n">
         <v>0.3783551760514738</v>
       </c>
+      <c r="G61" t="n">
+        <v>0.3804084694754896</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1672,6 +1855,9 @@
       <c r="F62" t="n">
         <v>-1.166003173256962</v>
       </c>
+      <c r="G62" t="n">
+        <v>-1.155852450792012</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1692,6 +1878,9 @@
       <c r="F63" t="n">
         <v>-0.6702447609482318</v>
       </c>
+      <c r="G63" t="n">
+        <v>-0.6512049461483104</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1712,6 +1901,9 @@
       <c r="F64" t="n">
         <v>-0.8792242877226656</v>
       </c>
+      <c r="G64" t="n">
+        <v>-0.8714788979910753</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1732,6 +1924,9 @@
       <c r="F65" t="n">
         <v>-0.06525882843167267</v>
       </c>
+      <c r="G65" t="n">
+        <v>-0.05405071726055597</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1752,6 +1947,9 @@
       <c r="F66" t="n">
         <v>-0.741011262609779</v>
       </c>
+      <c r="G66" t="n">
+        <v>-0.7304977113997513</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1771,6 +1969,9 @@
       </c>
       <c r="F67" t="n">
         <v>-0.6991988193278766</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-0.6870860793597703</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_11.xlsx
+++ b/predicted_variables_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,9 @@
       <c r="G1" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -478,6 +481,9 @@
       <c r="G2" t="n">
         <v>-0.2585837005653551</v>
       </c>
+      <c r="H2" t="n">
+        <v>-0.2486580058006687</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -501,6 +507,9 @@
       <c r="G3" t="n">
         <v>0.2458197975775482</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.2537879321831224</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -524,6 +533,9 @@
       <c r="G4" t="n">
         <v>0.1911151067937505</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.2017351844377749</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -547,6 +559,9 @@
       <c r="G5" t="n">
         <v>-0.04565572808168509</v>
       </c>
+      <c r="H5" t="n">
+        <v>-0.04053812014817603</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -570,6 +585,9 @@
       <c r="G6" t="n">
         <v>0.1949670035917773</v>
       </c>
+      <c r="H6" t="n">
+        <v>0.2043350491880648</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -593,6 +611,9 @@
       <c r="G7" t="n">
         <v>-0.4132874877196786</v>
       </c>
+      <c r="H7" t="n">
+        <v>-0.4047765198415454</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -616,6 +637,9 @@
       <c r="G8" t="n">
         <v>-0.2099647250390426</v>
       </c>
+      <c r="H8" t="n">
+        <v>-0.1985146662630592</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -639,6 +663,9 @@
       <c r="G9" t="n">
         <v>-0.3566747609063581</v>
       </c>
+      <c r="H9" t="n">
+        <v>-0.3435599536714747</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -662,6 +689,9 @@
       <c r="G10" t="n">
         <v>0.4045364874245301</v>
       </c>
+      <c r="H10" t="n">
+        <v>0.4121893689342709</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -685,6 +715,9 @@
       <c r="G11" t="n">
         <v>-0.2067043703950062</v>
       </c>
+      <c r="H11" t="n">
+        <v>-0.2001260269046931</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -708,6 +741,9 @@
       <c r="G12" t="n">
         <v>-0.0221938878435378</v>
       </c>
+      <c r="H12" t="n">
+        <v>-0.01284058192365879</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -731,6 +767,9 @@
       <c r="G13" t="n">
         <v>-0.01101485071976361</v>
       </c>
+      <c r="H13" t="n">
+        <v>-0.01102954967791316</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -754,6 +793,9 @@
       <c r="G14" t="n">
         <v>0.1703698398783891</v>
       </c>
+      <c r="H14" t="n">
+        <v>0.1882226809497938</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -777,6 +819,9 @@
       <c r="G15" t="n">
         <v>0.1083090795231254</v>
       </c>
+      <c r="H15" t="n">
+        <v>0.1241604991916016</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -800,6 +845,9 @@
       <c r="G16" t="n">
         <v>0.5234654634326298</v>
       </c>
+      <c r="H16" t="n">
+        <v>0.5483149797233537</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -823,6 +871,9 @@
       <c r="G17" t="n">
         <v>0.6840405295662286</v>
       </c>
+      <c r="H17" t="n">
+        <v>0.6912287629665451</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -846,6 +897,9 @@
       <c r="G18" t="n">
         <v>-0.0005016112652250632</v>
       </c>
+      <c r="H18" t="n">
+        <v>-0.009125733945827399</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -869,6 +923,9 @@
       <c r="G19" t="n">
         <v>0.4359119205989549</v>
       </c>
+      <c r="H19" t="n">
+        <v>0.4398244627638656</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -892,6 +949,9 @@
       <c r="G20" t="n">
         <v>0.4528193008432646</v>
       </c>
+      <c r="H20" t="n">
+        <v>0.4733763056559108</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -915,6 +975,9 @@
       <c r="G21" t="n">
         <v>0.6661955545254368</v>
       </c>
+      <c r="H21" t="n">
+        <v>0.6843353612599613</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -938,6 +1001,9 @@
       <c r="G22" t="n">
         <v>0.470294268794487</v>
       </c>
+      <c r="H22" t="n">
+        <v>0.4799229723104034</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -961,6 +1027,9 @@
       <c r="G23" t="n">
         <v>0.01659729265955925</v>
       </c>
+      <c r="H23" t="n">
+        <v>0.02442234678617705</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -984,6 +1053,9 @@
       <c r="G24" t="n">
         <v>4.054953064231843</v>
       </c>
+      <c r="H24" t="n">
+        <v>3.825110658174734</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1007,6 +1079,9 @@
       <c r="G25" t="n">
         <v>0.3753044886091611</v>
       </c>
+      <c r="H25" t="n">
+        <v>0.356741237964462</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1030,6 +1105,9 @@
       <c r="G26" t="n">
         <v>0.2720401777661844</v>
       </c>
+      <c r="H26" t="n">
+        <v>0.252764540840653</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1053,6 +1131,9 @@
       <c r="G27" t="n">
         <v>0.1942478278216429</v>
       </c>
+      <c r="H27" t="n">
+        <v>0.1687550886017189</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1076,6 +1157,9 @@
       <c r="G28" t="n">
         <v>0.9440062740717776</v>
       </c>
+      <c r="H28" t="n">
+        <v>0.9170804247536242</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1099,6 +1183,9 @@
       <c r="G29" t="n">
         <v>3.910830813828042</v>
       </c>
+      <c r="H29" t="n">
+        <v>3.572662170667994</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1122,6 +1209,9 @@
       <c r="G30" t="n">
         <v>0.8004040632590784</v>
       </c>
+      <c r="H30" t="n">
+        <v>0.7684522631403894</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1145,6 +1235,9 @@
       <c r="G31" t="n">
         <v>-0.3850794604132627</v>
       </c>
+      <c r="H31" t="n">
+        <v>-0.4117795650535993</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1168,6 +1261,9 @@
       <c r="G32" t="n">
         <v>0.6571696487080091</v>
       </c>
+      <c r="H32" t="n">
+        <v>0.6368937768845959</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1191,6 +1287,9 @@
       <c r="G33" t="n">
         <v>0.8189189117441676</v>
       </c>
+      <c r="H33" t="n">
+        <v>0.8031188062544118</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1214,6 +1313,9 @@
       <c r="G34" t="n">
         <v>-0.7629874436964701</v>
       </c>
+      <c r="H34" t="n">
+        <v>-0.7817626712430327</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1237,6 +1339,9 @@
       <c r="G35" t="n">
         <v>0.7859334480993705</v>
       </c>
+      <c r="H35" t="n">
+        <v>0.7812865459402143</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1260,6 +1365,9 @@
       <c r="G36" t="n">
         <v>0.7199844094757848</v>
       </c>
+      <c r="H36" t="n">
+        <v>0.7132774887592684</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1283,6 +1391,9 @@
       <c r="G37" t="n">
         <v>0.6872213967041072</v>
       </c>
+      <c r="H37" t="n">
+        <v>0.6793945118243504</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1306,6 +1417,9 @@
       <c r="G38" t="n">
         <v>0.6611615476984175</v>
       </c>
+      <c r="H38" t="n">
+        <v>0.6516359303979123</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1329,6 +1443,9 @@
       <c r="G39" t="n">
         <v>0.570728884153612</v>
       </c>
+      <c r="H39" t="n">
+        <v>0.569668527236323</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1352,6 +1469,9 @@
       <c r="G40" t="n">
         <v>0.7408787971353855</v>
       </c>
+      <c r="H40" t="n">
+        <v>0.7389182002304758</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1375,6 +1495,9 @@
       <c r="G41" t="n">
         <v>0.5387640669596361</v>
       </c>
+      <c r="H41" t="n">
+        <v>0.5377585264657089</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1398,6 +1521,9 @@
       <c r="G42" t="n">
         <v>0.6097940093322383</v>
       </c>
+      <c r="H42" t="n">
+        <v>0.5968638453446717</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1421,6 +1547,9 @@
       <c r="G43" t="n">
         <v>0.6679999702776508</v>
       </c>
+      <c r="H43" t="n">
+        <v>0.6616919234190003</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1444,6 +1573,9 @@
       <c r="G44" t="n">
         <v>0.6554836662521776</v>
       </c>
+      <c r="H44" t="n">
+        <v>0.653780693617365</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1467,6 +1599,9 @@
       <c r="G45" t="n">
         <v>0.6104890430854605</v>
       </c>
+      <c r="H45" t="n">
+        <v>0.6051198788382395</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1490,6 +1625,9 @@
       <c r="G46" t="n">
         <v>-1.27585356041505</v>
       </c>
+      <c r="H46" t="n">
+        <v>-1.27769972817062</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1513,6 +1651,9 @@
       <c r="G47" t="n">
         <v>-0.9940679546365556</v>
       </c>
+      <c r="H47" t="n">
+        <v>-0.9962910817434363</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1536,6 +1677,9 @@
       <c r="G48" t="n">
         <v>-0.8857862389472704</v>
       </c>
+      <c r="H48" t="n">
+        <v>-0.8863102010608876</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1559,6 +1703,9 @@
       <c r="G49" t="n">
         <v>-0.6479816922754632</v>
       </c>
+      <c r="H49" t="n">
+        <v>-0.6478108319567453</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1582,6 +1729,9 @@
       <c r="G50" t="n">
         <v>-0.05291520781199762</v>
       </c>
+      <c r="H50" t="n">
+        <v>-0.05379469730863717</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1605,6 +1755,9 @@
       <c r="G51" t="n">
         <v>-0.8758817749841676</v>
       </c>
+      <c r="H51" t="n">
+        <v>-0.876310823105262</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1628,6 +1781,9 @@
       <c r="G52" t="n">
         <v>-0.8758817749841676</v>
       </c>
+      <c r="H52" t="n">
+        <v>-0.876310823105262</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1651,6 +1807,9 @@
       <c r="G53" t="n">
         <v>-1.130391715775394</v>
       </c>
+      <c r="H53" t="n">
+        <v>-1.134468867879676</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1674,6 +1833,9 @@
       <c r="G54" t="n">
         <v>-0.1824951057847221</v>
       </c>
+      <c r="H54" t="n">
+        <v>-0.1812320818450068</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1697,6 +1859,9 @@
       <c r="G55" t="n">
         <v>-1.012195692918489</v>
       </c>
+      <c r="H55" t="n">
+        <v>-1.014207984330016</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1720,6 +1885,9 @@
       <c r="G56" t="n">
         <v>-0.8799819373747383</v>
       </c>
+      <c r="H56" t="n">
+        <v>-0.8803789574177997</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1743,6 +1911,9 @@
       <c r="G57" t="n">
         <v>-0.8985477013043629</v>
       </c>
+      <c r="H57" t="n">
+        <v>-0.8939071623896981</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1766,6 +1937,9 @@
       <c r="G58" t="n">
         <v>-1.064798856639636</v>
       </c>
+      <c r="H58" t="n">
+        <v>-1.055446938894026</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1789,6 +1963,9 @@
       <c r="G59" t="n">
         <v>-0.8091801939102927</v>
       </c>
+      <c r="H59" t="n">
+        <v>-0.8020873627633555</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1812,6 +1989,9 @@
       <c r="G60" t="n">
         <v>-0.4367263186280486</v>
       </c>
+      <c r="H60" t="n">
+        <v>-0.426702252409743</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1835,6 +2015,9 @@
       <c r="G61" t="n">
         <v>0.3804084694754896</v>
       </c>
+      <c r="H61" t="n">
+        <v>0.3822057321554957</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1858,6 +2041,9 @@
       <c r="G62" t="n">
         <v>-1.155852450792012</v>
       </c>
+      <c r="H62" t="n">
+        <v>-1.148291909493693</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1881,6 +2067,9 @@
       <c r="G63" t="n">
         <v>-0.6512049461483104</v>
       </c>
+      <c r="H63" t="n">
+        <v>-0.6340189984463519</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1904,6 +2093,9 @@
       <c r="G64" t="n">
         <v>-0.8714788979910753</v>
       </c>
+      <c r="H64" t="n">
+        <v>-0.8642651605912677</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1927,6 +2119,9 @@
       <c r="G65" t="n">
         <v>-0.05405071726055597</v>
       </c>
+      <c r="H65" t="n">
+        <v>-0.04475949600067026</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1950,6 +2145,9 @@
       <c r="G66" t="n">
         <v>-0.7304977113997513</v>
       </c>
+      <c r="H66" t="n">
+        <v>-0.7229833428128184</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1972,6 +2170,9 @@
       </c>
       <c r="G67" t="n">
         <v>-0.6870860793597703</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-0.6790713428715367</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_11.xlsx
+++ b/predicted_variables_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6 +458,9 @@
       <c r="H1" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -484,6 +487,9 @@
       <c r="H2" t="n">
         <v>-0.2486580058006687</v>
       </c>
+      <c r="I2" t="n">
+        <v>-0.2399899338358829</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -510,6 +516,9 @@
       <c r="H3" t="n">
         <v>0.2537879321831224</v>
       </c>
+      <c r="I3" t="n">
+        <v>0.2607629396112437</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -536,6 +545,9 @@
       <c r="H4" t="n">
         <v>0.2017351844377749</v>
       </c>
+      <c r="I4" t="n">
+        <v>0.2113879991586155</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -562,6 +574,9 @@
       <c r="H5" t="n">
         <v>-0.04053812014817603</v>
       </c>
+      <c r="I5" t="n">
+        <v>-0.03647109472463123</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -588,6 +603,9 @@
       <c r="H6" t="n">
         <v>0.2043350491880648</v>
       </c>
+      <c r="I6" t="n">
+        <v>0.2121114049493363</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -614,6 +632,9 @@
       <c r="H7" t="n">
         <v>-0.4047765198415454</v>
       </c>
+      <c r="I7" t="n">
+        <v>-0.3971185635863085</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -640,6 +661,9 @@
       <c r="H8" t="n">
         <v>-0.1985146662630592</v>
       </c>
+      <c r="I8" t="n">
+        <v>-0.1877987852888337</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -666,6 +690,9 @@
       <c r="H9" t="n">
         <v>-0.3435599536714747</v>
       </c>
+      <c r="I9" t="n">
+        <v>-0.3312630019085381</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -692,6 +719,9 @@
       <c r="H10" t="n">
         <v>0.4121893689342709</v>
       </c>
+      <c r="I10" t="n">
+        <v>0.4183651632186166</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -718,6 +748,9 @@
       <c r="H11" t="n">
         <v>-0.2001260269046931</v>
       </c>
+      <c r="I11" t="n">
+        <v>-0.1944008847072303</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -744,6 +777,9 @@
       <c r="H12" t="n">
         <v>-0.01284058192365879</v>
       </c>
+      <c r="I12" t="n">
+        <v>-0.006025411738777235</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -770,6 +806,9 @@
       <c r="H13" t="n">
         <v>-0.01102954967791316</v>
       </c>
+      <c r="I13" t="n">
+        <v>-0.01138498520510198</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -796,6 +835,9 @@
       <c r="H14" t="n">
         <v>0.1882226809497938</v>
       </c>
+      <c r="I14" t="n">
+        <v>0.2015699104214016</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -822,6 +864,9 @@
       <c r="H15" t="n">
         <v>0.1241604991916016</v>
       </c>
+      <c r="I15" t="n">
+        <v>0.1346236050011342</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -848,6 +893,9 @@
       <c r="H16" t="n">
         <v>0.5483149797233537</v>
       </c>
+      <c r="I16" t="n">
+        <v>0.5662518982643683</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -874,6 +922,9 @@
       <c r="H17" t="n">
         <v>0.6912287629665451</v>
       </c>
+      <c r="I17" t="n">
+        <v>0.693703246165029</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -900,6 +951,9 @@
       <c r="H18" t="n">
         <v>-0.009125733945827399</v>
       </c>
+      <c r="I18" t="n">
+        <v>-0.01763344728600165</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -926,6 +980,9 @@
       <c r="H19" t="n">
         <v>0.4398244627638656</v>
       </c>
+      <c r="I19" t="n">
+        <v>0.4413396794250147</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -952,6 +1009,9 @@
       <c r="H20" t="n">
         <v>0.4733763056559108</v>
       </c>
+      <c r="I20" t="n">
+        <v>0.487138232718649</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -978,6 +1038,9 @@
       <c r="H21" t="n">
         <v>0.6843353612599613</v>
       </c>
+      <c r="I21" t="n">
+        <v>0.6962630166454401</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1004,6 +1067,9 @@
       <c r="H22" t="n">
         <v>0.4799229723104034</v>
       </c>
+      <c r="I22" t="n">
+        <v>0.4849225686572904</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1030,6 +1096,9 @@
       <c r="H23" t="n">
         <v>0.02442234678617705</v>
       </c>
+      <c r="I23" t="n">
+        <v>0.02822237582501613</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1056,6 +1125,9 @@
       <c r="H24" t="n">
         <v>3.825110658174734</v>
       </c>
+      <c r="I24" t="n">
+        <v>3.578800989938825</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1082,6 +1154,9 @@
       <c r="H25" t="n">
         <v>0.356741237964462</v>
       </c>
+      <c r="I25" t="n">
+        <v>0.3409515050393576</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1108,6 +1183,9 @@
       <c r="H26" t="n">
         <v>0.252764540840653</v>
       </c>
+      <c r="I26" t="n">
+        <v>0.2344666674866952</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1134,6 +1212,9 @@
       <c r="H27" t="n">
         <v>0.1687550886017189</v>
       </c>
+      <c r="I27" t="n">
+        <v>0.1452322783496805</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1160,6 +1241,9 @@
       <c r="H28" t="n">
         <v>0.9170804247536242</v>
       </c>
+      <c r="I28" t="n">
+        <v>0.8923681221531975</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1186,6 +1270,9 @@
       <c r="H29" t="n">
         <v>3.572662170667994</v>
       </c>
+      <c r="I29" t="n">
+        <v>3.259676711156036</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1212,6 +1299,9 @@
       <c r="H30" t="n">
         <v>0.7684522631403894</v>
       </c>
+      <c r="I30" t="n">
+        <v>0.7402029965448569</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1238,6 +1328,9 @@
       <c r="H31" t="n">
         <v>-0.4117795650535993</v>
       </c>
+      <c r="I31" t="n">
+        <v>-0.4337475052154444</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1264,6 +1357,9 @@
       <c r="H32" t="n">
         <v>0.6368937768845959</v>
       </c>
+      <c r="I32" t="n">
+        <v>0.6181329599656747</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1290,6 +1386,9 @@
       <c r="H33" t="n">
         <v>0.8031188062544118</v>
       </c>
+      <c r="I33" t="n">
+        <v>0.7891872080386049</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1316,6 +1415,9 @@
       <c r="H34" t="n">
         <v>-0.7817626712430327</v>
       </c>
+      <c r="I34" t="n">
+        <v>-0.7983245111856181</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1342,6 +1444,9 @@
       <c r="H35" t="n">
         <v>0.7812865459402143</v>
       </c>
+      <c r="I35" t="n">
+        <v>0.777628693399434</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1368,6 +1473,9 @@
       <c r="H36" t="n">
         <v>0.7132774887592684</v>
       </c>
+      <c r="I36" t="n">
+        <v>0.7085295367886364</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1394,6 +1502,9 @@
       <c r="H37" t="n">
         <v>0.6793945118243504</v>
       </c>
+      <c r="I37" t="n">
+        <v>0.673726275969829</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1420,6 +1531,9 @@
       <c r="H38" t="n">
         <v>0.6516359303979123</v>
       </c>
+      <c r="I38" t="n">
+        <v>0.6437450291364579</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1446,6 +1560,9 @@
       <c r="H39" t="n">
         <v>0.569668527236323</v>
       </c>
+      <c r="I39" t="n">
+        <v>0.5692001073347744</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1472,6 +1589,9 @@
       <c r="H40" t="n">
         <v>0.7389182002304758</v>
       </c>
+      <c r="I40" t="n">
+        <v>0.7374310687651929</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1498,6 +1618,9 @@
       <c r="H41" t="n">
         <v>0.5377585264657089</v>
       </c>
+      <c r="I41" t="n">
+        <v>0.5376719091068294</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1524,6 +1647,9 @@
       <c r="H42" t="n">
         <v>0.5968638453446717</v>
       </c>
+      <c r="I42" t="n">
+        <v>0.586580032714773</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1550,6 +1676,9 @@
       <c r="H43" t="n">
         <v>0.6616919234190003</v>
       </c>
+      <c r="I43" t="n">
+        <v>0.6567825406926534</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1576,6 +1705,9 @@
       <c r="H44" t="n">
         <v>0.653780693617365</v>
       </c>
+      <c r="I44" t="n">
+        <v>0.6531018715661987</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1602,6 +1734,9 @@
       <c r="H45" t="n">
         <v>0.6051198788382395</v>
       </c>
+      <c r="I45" t="n">
+        <v>0.6021078728917915</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1628,6 +1763,9 @@
       <c r="H46" t="n">
         <v>-1.27769972817062</v>
       </c>
+      <c r="I46" t="n">
+        <v>-1.2794683148416</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1654,6 +1792,9 @@
       <c r="H47" t="n">
         <v>-0.9962910817434363</v>
       </c>
+      <c r="I47" t="n">
+        <v>-0.998296404448378</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1680,6 +1821,9 @@
       <c r="H48" t="n">
         <v>-0.8863102010608876</v>
       </c>
+      <c r="I48" t="n">
+        <v>-0.8863486881142942</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1706,6 +1850,9 @@
       <c r="H49" t="n">
         <v>-0.6478108319567453</v>
       </c>
+      <c r="I49" t="n">
+        <v>-0.6474059778354208</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1732,6 +1879,9 @@
       <c r="H50" t="n">
         <v>-0.05379469730863717</v>
       </c>
+      <c r="I50" t="n">
+        <v>-0.05476452154252355</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1758,6 +1908,9 @@
       <c r="H51" t="n">
         <v>-0.876310823105262</v>
       </c>
+      <c r="I51" t="n">
+        <v>-0.8762204373130351</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1784,6 +1937,9 @@
       <c r="H52" t="n">
         <v>-0.876310823105262</v>
       </c>
+      <c r="I52" t="n">
+        <v>-0.8762204373130351</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1810,6 +1966,9 @@
       <c r="H53" t="n">
         <v>-1.134468867879676</v>
       </c>
+      <c r="I53" t="n">
+        <v>-1.137565851916682</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1836,6 +1995,9 @@
       <c r="H54" t="n">
         <v>-0.1812320818450068</v>
       </c>
+      <c r="I54" t="n">
+        <v>-0.1800933771928603</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1862,6 +2024,9 @@
       <c r="H55" t="n">
         <v>-1.014207984330016</v>
       </c>
+      <c r="I55" t="n">
+        <v>-1.016120273641417</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1888,6 +2053,9 @@
       <c r="H56" t="n">
         <v>-0.8803789574177997</v>
       </c>
+      <c r="I56" t="n">
+        <v>-0.8813942484052719</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1914,6 +2082,9 @@
       <c r="H57" t="n">
         <v>-0.8939071623896981</v>
       </c>
+      <c r="I57" t="n">
+        <v>-0.8910321261692519</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1940,6 +2111,9 @@
       <c r="H58" t="n">
         <v>-1.055446938894026</v>
       </c>
+      <c r="I58" t="n">
+        <v>-1.048590042387727</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1966,6 +2140,9 @@
       <c r="H59" t="n">
         <v>-0.8020873627633555</v>
       </c>
+      <c r="I59" t="n">
+        <v>-0.7961233235149694</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1992,6 +2169,9 @@
       <c r="H60" t="n">
         <v>-0.426702252409743</v>
       </c>
+      <c r="I60" t="n">
+        <v>-0.4186407219247519</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2018,6 +2198,9 @@
       <c r="H61" t="n">
         <v>0.3822057321554957</v>
       </c>
+      <c r="I61" t="n">
+        <v>0.3837347776395303</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2044,6 +2227,9 @@
       <c r="H62" t="n">
         <v>-1.148291909493693</v>
       </c>
+      <c r="I62" t="n">
+        <v>-1.143201048750797</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2070,6 +2256,9 @@
       <c r="H63" t="n">
         <v>-0.6340189984463519</v>
       </c>
+      <c r="I63" t="n">
+        <v>-0.6187124271324761</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2096,6 +2285,9 @@
       <c r="H64" t="n">
         <v>-0.8642651605912677</v>
       </c>
+      <c r="I64" t="n">
+        <v>-0.8577860022739897</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2122,6 +2314,9 @@
       <c r="H65" t="n">
         <v>-0.04475949600067026</v>
       </c>
+      <c r="I65" t="n">
+        <v>-0.03727335732424719</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2148,6 +2343,9 @@
       <c r="H66" t="n">
         <v>-0.7229833428128184</v>
       </c>
+      <c r="I66" t="n">
+        <v>-0.7182108691304026</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2173,6 +2371,9 @@
       </c>
       <c r="H67" t="n">
         <v>-0.6790713428715367</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-0.674687964867723</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_11.xlsx
+++ b/predicted_variables_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,6 +461,9 @@
       <c r="I1" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -490,6 +493,9 @@
       <c r="I2" t="n">
         <v>-0.2399899338358829</v>
       </c>
+      <c r="J2" t="n">
+        <v>-0.2325893300250321</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -519,6 +525,9 @@
       <c r="I3" t="n">
         <v>0.2607629396112437</v>
       </c>
+      <c r="J3" t="n">
+        <v>0.2666651037255945</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -548,6 +557,9 @@
       <c r="I4" t="n">
         <v>0.2113879991586155</v>
       </c>
+      <c r="J4" t="n">
+        <v>0.2199812430059881</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -577,6 +589,9 @@
       <c r="I5" t="n">
         <v>-0.03647109472463123</v>
       </c>
+      <c r="J5" t="n">
+        <v>-0.03342082739552198</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -606,6 +621,9 @@
       <c r="I6" t="n">
         <v>0.2121114049493363</v>
       </c>
+      <c r="J6" t="n">
+        <v>0.2183527491130783</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -635,6 +653,9 @@
       <c r="I7" t="n">
         <v>-0.3971185635863085</v>
       </c>
+      <c r="J7" t="n">
+        <v>-0.390391823158076</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -664,6 +685,9 @@
       <c r="I8" t="n">
         <v>-0.1877987852888337</v>
       </c>
+      <c r="J8" t="n">
+        <v>-0.1779137245855895</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -693,6 +717,9 @@
       <c r="I9" t="n">
         <v>-0.3312630019085381</v>
       </c>
+      <c r="J9" t="n">
+        <v>-0.3200371423449215</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -722,6 +749,9 @@
       <c r="I10" t="n">
         <v>0.4183651632186166</v>
       </c>
+      <c r="J10" t="n">
+        <v>0.4231456725219149</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -751,6 +781,9 @@
       <c r="I11" t="n">
         <v>-0.1944008847072303</v>
       </c>
+      <c r="J11" t="n">
+        <v>-0.189547757639055</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -780,6 +813,9 @@
       <c r="I12" t="n">
         <v>-0.006025411738777235</v>
       </c>
+      <c r="J12" t="n">
+        <v>-0.001581263461901489</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -809,6 +845,9 @@
       <c r="I13" t="n">
         <v>-0.01138498520510198</v>
       </c>
+      <c r="J13" t="n">
+        <v>-0.01208669598745318</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -838,6 +877,9 @@
       <c r="I14" t="n">
         <v>0.2015699104214016</v>
       </c>
+      <c r="J14" t="n">
+        <v>0.2106751139334672</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -867,6 +909,9 @@
       <c r="I15" t="n">
         <v>0.1346236050011342</v>
       </c>
+      <c r="J15" t="n">
+        <v>0.1401044256079535</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -896,6 +941,9 @@
       <c r="I16" t="n">
         <v>0.5662518982643683</v>
       </c>
+      <c r="J16" t="n">
+        <v>0.5777387607685504</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -925,6 +973,9 @@
       <c r="I17" t="n">
         <v>0.693703246165029</v>
       </c>
+      <c r="J17" t="n">
+        <v>0.691930550138705</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -954,6 +1005,9 @@
       <c r="I18" t="n">
         <v>-0.01763344728600165</v>
       </c>
+      <c r="J18" t="n">
+        <v>-0.02610054170772974</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -983,6 +1037,9 @@
       <c r="I19" t="n">
         <v>0.4413396794250147</v>
       </c>
+      <c r="J19" t="n">
+        <v>0.440656129866506</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1012,6 +1069,9 @@
       <c r="I20" t="n">
         <v>0.487138232718649</v>
       </c>
+      <c r="J20" t="n">
+        <v>0.4946318128184233</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1041,6 +1101,9 @@
       <c r="I21" t="n">
         <v>0.6962630166454401</v>
       </c>
+      <c r="J21" t="n">
+        <v>0.7026374109373453</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1070,6 +1133,9 @@
       <c r="I22" t="n">
         <v>0.4849225686572904</v>
       </c>
+      <c r="J22" t="n">
+        <v>0.4857302300221922</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1099,6 +1165,9 @@
       <c r="I23" t="n">
         <v>0.02822237582501613</v>
       </c>
+      <c r="J23" t="n">
+        <v>0.02840925034245592</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1128,6 +1197,9 @@
       <c r="I24" t="n">
         <v>3.578800989938825</v>
       </c>
+      <c r="J24" t="n">
+        <v>3.324341965278029</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1157,6 +1229,9 @@
       <c r="I25" t="n">
         <v>0.3409515050393576</v>
       </c>
+      <c r="J25" t="n">
+        <v>0.3277485995003223</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1186,6 +1261,9 @@
       <c r="I26" t="n">
         <v>0.2344666674866952</v>
       </c>
+      <c r="J26" t="n">
+        <v>0.2173679136646852</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1215,6 +1293,9 @@
       <c r="I27" t="n">
         <v>0.1452322783496805</v>
       </c>
+      <c r="J27" t="n">
+        <v>0.1238038668862707</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1244,6 +1325,9 @@
       <c r="I28" t="n">
         <v>0.8923681221531975</v>
       </c>
+      <c r="J28" t="n">
+        <v>0.8700814467579204</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1273,6 +1357,9 @@
       <c r="I29" t="n">
         <v>3.259676711156036</v>
       </c>
+      <c r="J29" t="n">
+        <v>2.973080033602172</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1302,6 +1389,9 @@
       <c r="I30" t="n">
         <v>0.7402029965448569</v>
       </c>
+      <c r="J30" t="n">
+        <v>0.7155725568042335</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1331,6 +1421,9 @@
       <c r="I31" t="n">
         <v>-0.4337475052154444</v>
       </c>
+      <c r="J31" t="n">
+        <v>-0.4513816028248734</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1360,6 +1453,9 @@
       <c r="I32" t="n">
         <v>0.6181329599656747</v>
       </c>
+      <c r="J32" t="n">
+        <v>0.6010603325136534</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1389,6 +1485,9 @@
       <c r="I33" t="n">
         <v>0.7891872080386049</v>
       </c>
+      <c r="J33" t="n">
+        <v>0.7771083750557224</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1418,6 +1517,9 @@
       <c r="I34" t="n">
         <v>-0.7983245111856181</v>
       </c>
+      <c r="J34" t="n">
+        <v>-0.8127081174823179</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1447,6 +1549,9 @@
       <c r="I35" t="n">
         <v>0.777628693399434</v>
       </c>
+      <c r="J35" t="n">
+        <v>0.7749525291640198</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1476,6 +1581,9 @@
       <c r="I36" t="n">
         <v>0.7085295367886364</v>
       </c>
+      <c r="J36" t="n">
+        <v>0.7056110987126374</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1505,6 +1613,9 @@
       <c r="I37" t="n">
         <v>0.673726275969829</v>
       </c>
+      <c r="J37" t="n">
+        <v>0.670070645054833</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1534,6 +1645,9 @@
       <c r="I38" t="n">
         <v>0.6437450291364579</v>
       </c>
+      <c r="J38" t="n">
+        <v>0.6373923987729369</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1563,6 +1677,9 @@
       <c r="I39" t="n">
         <v>0.5692001073347744</v>
       </c>
+      <c r="J39" t="n">
+        <v>0.5692988046166232</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1592,6 +1709,9 @@
       <c r="I40" t="n">
         <v>0.7374310687651929</v>
       </c>
+      <c r="J40" t="n">
+        <v>0.7364726384842259</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1621,6 +1741,9 @@
       <c r="I41" t="n">
         <v>0.5376719091068294</v>
       </c>
+      <c r="J41" t="n">
+        <v>0.5383707862681557</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1650,6 +1773,9 @@
       <c r="I42" t="n">
         <v>0.586580032714773</v>
       </c>
+      <c r="J42" t="n">
+        <v>0.5787910606890209</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1679,6 +1805,9 @@
       <c r="I43" t="n">
         <v>0.6567825406926534</v>
       </c>
+      <c r="J43" t="n">
+        <v>0.6531654288962644</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1708,6 +1837,9 @@
       <c r="I44" t="n">
         <v>0.6531018715661987</v>
       </c>
+      <c r="J44" t="n">
+        <v>0.6533528578450517</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1737,6 +1869,9 @@
       <c r="I45" t="n">
         <v>0.6021078728917915</v>
       </c>
+      <c r="J45" t="n">
+        <v>0.6012652503572983</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1766,6 +1901,9 @@
       <c r="I46" t="n">
         <v>-1.2794683148416</v>
       </c>
+      <c r="J46" t="n">
+        <v>-1.28122331988424</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1795,6 +1933,9 @@
       <c r="I47" t="n">
         <v>-0.998296404448378</v>
       </c>
+      <c r="J47" t="n">
+        <v>-1.000147182172016</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1824,6 +1965,9 @@
       <c r="I48" t="n">
         <v>-0.8863486881142942</v>
       </c>
+      <c r="J48" t="n">
+        <v>-0.8860436714749874</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1853,6 +1997,9 @@
       <c r="I49" t="n">
         <v>-0.6474059778354208</v>
       </c>
+      <c r="J49" t="n">
+        <v>-0.6468650045041173</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1882,6 +2029,9 @@
       <c r="I50" t="n">
         <v>-0.05476452154252355</v>
       </c>
+      <c r="J50" t="n">
+        <v>-0.05582372235457665</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1911,6 +2061,9 @@
       <c r="I51" t="n">
         <v>-0.8762204373130351</v>
       </c>
+      <c r="J51" t="n">
+        <v>-0.8757301023773476</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1940,6 +2093,9 @@
       <c r="I52" t="n">
         <v>-0.8762204373130351</v>
       </c>
+      <c r="J52" t="n">
+        <v>-0.8757301023773476</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1969,6 +2125,9 @@
       <c r="I53" t="n">
         <v>-1.137565851916682</v>
       </c>
+      <c r="J53" t="n">
+        <v>-1.139884369196615</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1998,6 +2157,9 @@
       <c r="I54" t="n">
         <v>-0.1800933771928603</v>
       </c>
+      <c r="J54" t="n">
+        <v>-0.1791102441004701</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2027,6 +2189,9 @@
       <c r="I55" t="n">
         <v>-1.016120273641417</v>
       </c>
+      <c r="J55" t="n">
+        <v>-1.017981075198012</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2056,6 +2221,9 @@
       <c r="I56" t="n">
         <v>-0.8813942484052719</v>
       </c>
+      <c r="J56" t="n">
+        <v>-0.8829376128217861</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2085,6 +2253,9 @@
       <c r="I57" t="n">
         <v>-0.8910321261692519</v>
       </c>
+      <c r="J57" t="n">
+        <v>-0.8898282132779641</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2114,6 +2285,9 @@
       <c r="I58" t="n">
         <v>-1.048590042387727</v>
       </c>
+      <c r="J58" t="n">
+        <v>-1.044049607418846</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2143,6 +2317,9 @@
       <c r="I59" t="n">
         <v>-0.7961233235149694</v>
       </c>
+      <c r="J59" t="n">
+        <v>-0.7912765393118381</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2172,6 +2349,9 @@
       <c r="I60" t="n">
         <v>-0.4186407219247519</v>
       </c>
+      <c r="J60" t="n">
+        <v>-0.4124290313395794</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2201,6 +2381,9 @@
       <c r="I61" t="n">
         <v>0.3837347776395303</v>
       </c>
+      <c r="J61" t="n">
+        <v>0.3849915534241351</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2230,6 +2413,9 @@
       <c r="I62" t="n">
         <v>-1.143201048750797</v>
       </c>
+      <c r="J62" t="n">
+        <v>-1.140417879285215</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2259,6 +2445,9 @@
       <c r="I63" t="n">
         <v>-0.6187124271324761</v>
       </c>
+      <c r="J63" t="n">
+        <v>-0.6052757531001137</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2288,6 +2477,9 @@
       <c r="I64" t="n">
         <v>-0.8577860022739897</v>
       </c>
+      <c r="J64" t="n">
+        <v>-0.8521867431033616</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2317,6 +2509,9 @@
       <c r="I65" t="n">
         <v>-0.03727335732424719</v>
       </c>
+      <c r="J65" t="n">
+        <v>-0.03146311702363999</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2346,6 +2541,9 @@
       <c r="I66" t="n">
         <v>-0.7182108691304026</v>
       </c>
+      <c r="J66" t="n">
+        <v>-0.7159033532438138</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2374,6 +2572,9 @@
       </c>
       <c r="I67" t="n">
         <v>-0.674687964867723</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-0.673469655044304</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_11.xlsx
+++ b/predicted_variables_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,9 @@
       <c r="J1" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -496,6 +499,9 @@
       <c r="J2" t="n">
         <v>-0.2325893300250321</v>
       </c>
+      <c r="K2" t="n">
+        <v>-0.226436807862256</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -528,6 +534,9 @@
       <c r="J3" t="n">
         <v>0.2666651037255945</v>
       </c>
+      <c r="K3" t="n">
+        <v>0.271461195975632</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -560,6 +569,9 @@
       <c r="J4" t="n">
         <v>0.2199812430059881</v>
       </c>
+      <c r="K4" t="n">
+        <v>0.227463674264843</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -592,6 +604,9 @@
       <c r="J5" t="n">
         <v>-0.03342082739552198</v>
       </c>
+      <c r="K5" t="n">
+        <v>-0.0313334557520329</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -624,6 +639,9 @@
       <c r="J6" t="n">
         <v>0.2183527491130783</v>
       </c>
+      <c r="K6" t="n">
+        <v>0.2231433661965379</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -656,6 +674,9 @@
       <c r="J7" t="n">
         <v>-0.390391823158076</v>
       </c>
+      <c r="K7" t="n">
+        <v>-0.3846392369004336</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -688,6 +709,9 @@
       <c r="J8" t="n">
         <v>-0.1779137245855895</v>
       </c>
+      <c r="K8" t="n">
+        <v>-0.1689262206936</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -720,6 +744,9 @@
       <c r="J9" t="n">
         <v>-0.3200371423449215</v>
       </c>
+      <c r="K9" t="n">
+        <v>-0.3100587088812522</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -752,6 +779,9 @@
       <c r="J10" t="n">
         <v>0.4231456725219149</v>
       </c>
+      <c r="K10" t="n">
+        <v>0.426631517727688</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -784,6 +814,9 @@
       <c r="J11" t="n">
         <v>-0.189547757639055</v>
       </c>
+      <c r="K11" t="n">
+        <v>-0.1855629473378584</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -816,6 +849,9 @@
       <c r="J12" t="n">
         <v>-0.001581263461901489</v>
       </c>
+      <c r="K12" t="n">
+        <v>0.0006921637436503453</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -848,6 +884,9 @@
       <c r="J13" t="n">
         <v>-0.01208669598745318</v>
       </c>
+      <c r="K13" t="n">
+        <v>-0.01312612067772038</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -880,6 +919,9 @@
       <c r="J14" t="n">
         <v>0.2106751139334672</v>
       </c>
+      <c r="K14" t="n">
+        <v>0.2158717346483407</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -912,6 +954,9 @@
       <c r="J15" t="n">
         <v>0.1401044256079535</v>
       </c>
+      <c r="K15" t="n">
+        <v>0.1410781397069418</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -944,6 +989,9 @@
       <c r="J16" t="n">
         <v>0.5777387607685504</v>
       </c>
+      <c r="K16" t="n">
+        <v>0.5833354586391049</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -976,6 +1024,9 @@
       <c r="J17" t="n">
         <v>0.691930550138705</v>
       </c>
+      <c r="K17" t="n">
+        <v>0.6864230069916881</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1008,6 +1059,9 @@
       <c r="J18" t="n">
         <v>-0.02610054170772974</v>
       </c>
+      <c r="K18" t="n">
+        <v>-0.0345639961394392</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1040,6 +1094,9 @@
       <c r="J19" t="n">
         <v>0.440656129866506</v>
       </c>
+      <c r="K19" t="n">
+        <v>0.4380041868321989</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1072,6 +1129,9 @@
       <c r="J20" t="n">
         <v>0.4946318128184233</v>
       </c>
+      <c r="K20" t="n">
+        <v>0.4964666104826343</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1104,6 +1164,9 @@
       <c r="J21" t="n">
         <v>0.7026374109373453</v>
       </c>
+      <c r="K21" t="n">
+        <v>0.7041411054137652</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1136,6 +1199,9 @@
       <c r="J22" t="n">
         <v>0.4857302300221922</v>
       </c>
+      <c r="K22" t="n">
+        <v>0.4828275885238702</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1168,6 +1234,9 @@
       <c r="J23" t="n">
         <v>0.02840925034245592</v>
       </c>
+      <c r="K23" t="n">
+        <v>0.02542362524457556</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1200,6 +1269,9 @@
       <c r="J24" t="n">
         <v>3.324341965278029</v>
       </c>
+      <c r="K24" t="n">
+        <v>3.068818533484646</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1232,6 +1304,9 @@
       <c r="J25" t="n">
         <v>0.3277485995003223</v>
       </c>
+      <c r="K25" t="n">
+        <v>0.3169300168079207</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1264,6 +1339,9 @@
       <c r="J26" t="n">
         <v>0.2173679136646852</v>
       </c>
+      <c r="K26" t="n">
+        <v>0.2016273202970778</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1296,6 +1374,9 @@
       <c r="J27" t="n">
         <v>0.1238038668862707</v>
       </c>
+      <c r="K27" t="n">
+        <v>0.1045357207200419</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1328,6 +1409,9 @@
       <c r="J28" t="n">
         <v>0.8700814467579204</v>
       </c>
+      <c r="K28" t="n">
+        <v>0.8503427840778275</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1360,6 +1444,9 @@
       <c r="J29" t="n">
         <v>2.973080033602172</v>
       </c>
+      <c r="K29" t="n">
+        <v>2.713487991327717</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1392,6 +1479,9 @@
       <c r="J30" t="n">
         <v>0.7155725568042335</v>
       </c>
+      <c r="K30" t="n">
+        <v>0.6944238200039129</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1424,6 +1514,9 @@
       <c r="J31" t="n">
         <v>-0.4513816028248734</v>
       </c>
+      <c r="K31" t="n">
+        <v>-0.4650984543616371</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1456,6 +1549,9 @@
       <c r="J32" t="n">
         <v>0.6010603325136534</v>
       </c>
+      <c r="K32" t="n">
+        <v>0.585781467380485</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1488,6 +1584,9 @@
       <c r="J33" t="n">
         <v>0.7771083750557224</v>
       </c>
+      <c r="K33" t="n">
+        <v>0.7668304299033963</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1520,6 +1619,9 @@
       <c r="J34" t="n">
         <v>-0.8127081174823179</v>
       </c>
+      <c r="K34" t="n">
+        <v>-0.8249903278040118</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1552,6 +1654,9 @@
       <c r="J35" t="n">
         <v>0.7749525291640198</v>
       </c>
+      <c r="K35" t="n">
+        <v>0.7732222446373583</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1584,6 +1689,9 @@
       <c r="J36" t="n">
         <v>0.7056110987126374</v>
       </c>
+      <c r="K36" t="n">
+        <v>0.7043641546585213</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1616,6 +1724,9 @@
       <c r="J37" t="n">
         <v>0.670070645054833</v>
       </c>
+      <c r="K37" t="n">
+        <v>0.6682522841469248</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1648,6 +1759,9 @@
       <c r="J38" t="n">
         <v>0.6373923987729369</v>
       </c>
+      <c r="K38" t="n">
+        <v>0.6324643985827137</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1680,6 +1794,9 @@
       <c r="J39" t="n">
         <v>0.5692988046166232</v>
       </c>
+      <c r="K39" t="n">
+        <v>0.5699236969989016</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1712,6 +1829,9 @@
       <c r="J40" t="n">
         <v>0.7364726384842259</v>
       </c>
+      <c r="K40" t="n">
+        <v>0.7360660754615513</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1744,6 +1864,9 @@
       <c r="J41" t="n">
         <v>0.5383707862681557</v>
       </c>
+      <c r="K41" t="n">
+        <v>0.5397253959665819</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1776,6 +1899,9 @@
       <c r="J42" t="n">
         <v>0.5787910606890209</v>
       </c>
+      <c r="K42" t="n">
+        <v>0.5733088901639548</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1808,6 +1934,9 @@
       <c r="J43" t="n">
         <v>0.6531654288962644</v>
       </c>
+      <c r="K43" t="n">
+        <v>0.650722005384002</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1840,6 +1969,9 @@
       <c r="J44" t="n">
         <v>0.6533528578450517</v>
       </c>
+      <c r="K44" t="n">
+        <v>0.6544278292097043</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1872,6 +2004,9 @@
       <c r="J45" t="n">
         <v>0.6012652503572983</v>
       </c>
+      <c r="K45" t="n">
+        <v>0.6023717858370478</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1904,6 +2039,9 @@
       <c r="J46" t="n">
         <v>-1.28122331988424</v>
       </c>
+      <c r="K46" t="n">
+        <v>-1.283017136565986</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1936,6 +2074,9 @@
       <c r="J47" t="n">
         <v>-1.000147182172016</v>
       </c>
+      <c r="K47" t="n">
+        <v>-1.001898911547679</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1968,6 +2109,9 @@
       <c r="J48" t="n">
         <v>-0.8860436714749874</v>
       </c>
+      <c r="K48" t="n">
+        <v>-0.8855215973822332</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2000,6 +2144,9 @@
       <c r="J49" t="n">
         <v>-0.6468650045041173</v>
       </c>
+      <c r="K49" t="n">
+        <v>-0.6462731436114136</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2032,6 +2179,9 @@
       <c r="J50" t="n">
         <v>-0.05582372235457665</v>
       </c>
+      <c r="K50" t="n">
+        <v>-0.0569693266694999</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2064,6 +2214,9 @@
       <c r="J51" t="n">
         <v>-0.8757301023773476</v>
       </c>
+      <c r="K51" t="n">
+        <v>-0.8749515219266668</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2096,6 +2249,9 @@
       <c r="J52" t="n">
         <v>-0.8757301023773476</v>
       </c>
+      <c r="K52" t="n">
+        <v>-0.8749515219266668</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2128,6 +2284,9 @@
       <c r="J53" t="n">
         <v>-1.139884369196615</v>
       </c>
+      <c r="K53" t="n">
+        <v>-1.141606296004653</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2160,6 +2319,9 @@
       <c r="J54" t="n">
         <v>-0.1791102441004701</v>
       </c>
+      <c r="K54" t="n">
+        <v>-0.1783069257832232</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2192,6 +2354,9 @@
       <c r="J55" t="n">
         <v>-1.017981075198012</v>
       </c>
+      <c r="K55" t="n">
+        <v>-1.01983150830427</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2224,6 +2389,9 @@
       <c r="J56" t="n">
         <v>-0.8829376128217861</v>
       </c>
+      <c r="K56" t="n">
+        <v>-0.884925113760305</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2256,6 +2424,9 @@
       <c r="J57" t="n">
         <v>-0.8898282132779641</v>
       </c>
+      <c r="K57" t="n">
+        <v>-0.8901717938304792</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2288,6 +2459,9 @@
       <c r="J58" t="n">
         <v>-1.044049607418846</v>
       </c>
+      <c r="K58" t="n">
+        <v>-1.04162337457108</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2320,6 +2494,9 @@
       <c r="J59" t="n">
         <v>-0.7912765393118381</v>
       </c>
+      <c r="K59" t="n">
+        <v>-0.7875144779703938</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2352,6 +2529,9 @@
       <c r="J60" t="n">
         <v>-0.4124290313395794</v>
       </c>
+      <c r="K60" t="n">
+        <v>-0.4079331503987572</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2384,6 +2564,9 @@
       <c r="J61" t="n">
         <v>0.3849915534241351</v>
       </c>
+      <c r="K61" t="n">
+        <v>0.3859789596608688</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2416,6 +2599,9 @@
       <c r="J62" t="n">
         <v>-1.140417879285215</v>
       </c>
+      <c r="K62" t="n">
+        <v>-1.139749883976785</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2448,6 +2634,9 @@
       <c r="J63" t="n">
         <v>-0.6052757531001137</v>
       </c>
+      <c r="K63" t="n">
+        <v>-0.5936690190964093</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2480,6 +2669,9 @@
       <c r="J64" t="n">
         <v>-0.8521867431033616</v>
       </c>
+      <c r="K64" t="n">
+        <v>-0.8475619800216977</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2512,6 +2704,9 @@
       <c r="J65" t="n">
         <v>-0.03146311702363999</v>
       </c>
+      <c r="K65" t="n">
+        <v>-0.02718736873304686</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2544,6 +2739,9 @@
       <c r="J66" t="n">
         <v>-0.7159033532438138</v>
       </c>
+      <c r="K66" t="n">
+        <v>-0.7157737438450961</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2575,6 +2773,9 @@
       </c>
       <c r="J67" t="n">
         <v>-0.673469655044304</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-0.6749603145538948</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_11.xlsx
+++ b/predicted_variables_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,6 +467,9 @@
       <c r="K1" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -502,6 +505,9 @@
       <c r="K2" t="n">
         <v>-0.226436807862256</v>
       </c>
+      <c r="L2" t="n">
+        <v>-0.2214888291269967</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -537,6 +543,9 @@
       <c r="K3" t="n">
         <v>0.271461195975632</v>
       </c>
+      <c r="L3" t="n">
+        <v>0.2751565210549088</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -572,6 +581,9 @@
       <c r="K4" t="n">
         <v>0.227463674264843</v>
       </c>
+      <c r="L4" t="n">
+        <v>0.2338193944186326</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -607,6 +619,9 @@
       <c r="K5" t="n">
         <v>-0.0313334557520329</v>
       </c>
+      <c r="L5" t="n">
+        <v>-0.03013990656381782</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -642,6 +657,9 @@
       <c r="K6" t="n">
         <v>0.2231433661965379</v>
       </c>
+      <c r="L6" t="n">
+        <v>0.2265884016045408</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -677,6 +695,9 @@
       <c r="K7" t="n">
         <v>-0.3846392369004336</v>
       </c>
+      <c r="L7" t="n">
+        <v>-0.3798733823366636</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -712,6 +733,9 @@
       <c r="K8" t="n">
         <v>-0.1689262206936</v>
       </c>
+      <c r="L8" t="n">
+        <v>-0.1608758107408706</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -747,6 +771,9 @@
       <c r="K9" t="n">
         <v>-0.3100587088812522</v>
       </c>
+      <c r="L9" t="n">
+        <v>-0.3014369631186545</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -782,6 +809,9 @@
       <c r="K10" t="n">
         <v>0.426631517727688</v>
       </c>
+      <c r="L10" t="n">
+        <v>0.4289366478100516</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -817,6 +847,9 @@
       <c r="K11" t="n">
         <v>-0.1855629473378584</v>
       </c>
+      <c r="L11" t="n">
+        <v>-0.1824239371041259</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -852,6 +885,9 @@
       <c r="K12" t="n">
         <v>0.0006921637436503453</v>
       </c>
+      <c r="L12" t="n">
+        <v>0.001017408077940485</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -887,6 +923,9 @@
       <c r="K13" t="n">
         <v>-0.01312612067772038</v>
       </c>
+      <c r="L13" t="n">
+        <v>-0.01448373499838718</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -922,6 +961,9 @@
       <c r="K14" t="n">
         <v>0.2158717346483407</v>
       </c>
+      <c r="L14" t="n">
+        <v>0.2175417299175458</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -957,6 +999,9 @@
       <c r="K15" t="n">
         <v>0.1410781397069418</v>
       </c>
+      <c r="L15" t="n">
+        <v>0.1380638066408594</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -992,6 +1037,9 @@
       <c r="K16" t="n">
         <v>0.5833354586391049</v>
       </c>
+      <c r="L16" t="n">
+        <v>0.5836668269280176</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1027,6 +1075,9 @@
       <c r="K17" t="n">
         <v>0.6864230069916881</v>
       </c>
+      <c r="L17" t="n">
+        <v>0.6777159868858733</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1062,6 +1113,9 @@
       <c r="K18" t="n">
         <v>-0.0345639961394392</v>
       </c>
+      <c r="L18" t="n">
+        <v>-0.04303087048045974</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1097,6 +1151,9 @@
       <c r="K19" t="n">
         <v>0.4380041868321989</v>
       </c>
+      <c r="L19" t="n">
+        <v>0.4336336629353768</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1132,6 +1189,9 @@
       <c r="K20" t="n">
         <v>0.4964666104826343</v>
       </c>
+      <c r="L20" t="n">
+        <v>0.4933038420840845</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1167,6 +1227,9 @@
       <c r="K21" t="n">
         <v>0.7041411054137652</v>
       </c>
+      <c r="L21" t="n">
+        <v>0.7014597654220052</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1202,6 +1265,9 @@
       <c r="K22" t="n">
         <v>0.4828275885238702</v>
       </c>
+      <c r="L22" t="n">
+        <v>0.4767195668007994</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1237,6 +1303,9 @@
       <c r="K23" t="n">
         <v>0.02542362524457556</v>
       </c>
+      <c r="L23" t="n">
+        <v>0.01971812951604288</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1272,6 +1341,9 @@
       <c r="K24" t="n">
         <v>3.068818533484646</v>
       </c>
+      <c r="L24" t="n">
+        <v>2.818125736823268</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1307,6 +1379,9 @@
       <c r="K25" t="n">
         <v>0.3169300168079207</v>
       </c>
+      <c r="L25" t="n">
+        <v>0.308283625547649</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1342,6 +1417,9 @@
       <c r="K26" t="n">
         <v>0.2016273202970778</v>
       </c>
+      <c r="L26" t="n">
+        <v>0.1873483474376744</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1377,6 +1455,9 @@
       <c r="K27" t="n">
         <v>0.1045357207200419</v>
       </c>
+      <c r="L27" t="n">
+        <v>0.08744240090800867</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1412,6 +1493,9 @@
       <c r="K28" t="n">
         <v>0.8503427840778275</v>
       </c>
+      <c r="L28" t="n">
+        <v>0.8331968141523071</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1447,6 +1531,9 @@
       <c r="K29" t="n">
         <v>2.713487991327717</v>
       </c>
+      <c r="L29" t="n">
+        <v>2.480983167947103</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1482,6 +1569,9 @@
       <c r="K30" t="n">
         <v>0.6944238200039129</v>
       </c>
+      <c r="L30" t="n">
+        <v>0.6765765270731799</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1517,6 +1607,9 @@
       <c r="K31" t="n">
         <v>-0.4650984543616371</v>
       </c>
+      <c r="L31" t="n">
+        <v>-0.4753219599941087</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1552,6 +1645,9 @@
       <c r="K32" t="n">
         <v>0.585781467380485</v>
       </c>
+      <c r="L32" t="n">
+        <v>0.5723433857988818</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1587,6 +1683,9 @@
       <c r="K33" t="n">
         <v>0.7668304299033963</v>
       </c>
+      <c r="L33" t="n">
+        <v>0.758272399882812</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1622,6 +1721,9 @@
       <c r="K34" t="n">
         <v>-0.8249903278040118</v>
       </c>
+      <c r="L34" t="n">
+        <v>-0.8352808368874826</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1657,6 +1759,9 @@
       <c r="K35" t="n">
         <v>0.7732222446373583</v>
       </c>
+      <c r="L35" t="n">
+        <v>0.7723800239495565</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1692,6 +1797,9 @@
       <c r="K36" t="n">
         <v>0.7043641546585213</v>
       </c>
+      <c r="L36" t="n">
+        <v>0.7046115579580312</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1727,6 +1835,9 @@
       <c r="K37" t="n">
         <v>0.6682522841469248</v>
       </c>
+      <c r="L37" t="n">
+        <v>0.6680764380772222</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1762,6 +1873,9 @@
       <c r="K38" t="n">
         <v>0.6324643985827137</v>
       </c>
+      <c r="L38" t="n">
+        <v>0.6288354543251389</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1797,6 +1911,9 @@
       <c r="K39" t="n">
         <v>0.5699236969989016</v>
       </c>
+      <c r="L39" t="n">
+        <v>0.571022296709205</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1832,6 +1949,9 @@
       <c r="K40" t="n">
         <v>0.7360660754615513</v>
       </c>
+      <c r="L40" t="n">
+        <v>0.7362085859425739</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1867,6 +1987,9 @@
       <c r="K41" t="n">
         <v>0.5397253959665819</v>
       </c>
+      <c r="L41" t="n">
+        <v>0.541612141939071</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1902,6 +2025,9 @@
       <c r="K42" t="n">
         <v>0.5733088901639548</v>
       </c>
+      <c r="L42" t="n">
+        <v>0.5699199608619099</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1937,6 +2063,9 @@
       <c r="K43" t="n">
         <v>0.650722005384002</v>
       </c>
+      <c r="L43" t="n">
+        <v>0.6493263321992916</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1972,6 +2101,9 @@
       <c r="K44" t="n">
         <v>0.6544278292097043</v>
       </c>
+      <c r="L44" t="n">
+        <v>0.6562145899594007</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2007,6 +2139,9 @@
       <c r="K45" t="n">
         <v>0.6023717858370478</v>
       </c>
+      <c r="L45" t="n">
+        <v>0.6051870545731228</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2042,6 +2177,9 @@
       <c r="K46" t="n">
         <v>-1.283017136565986</v>
       </c>
+      <c r="L46" t="n">
+        <v>-1.284891329876442</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2077,6 +2215,9 @@
       <c r="K47" t="n">
         <v>-1.001898911547679</v>
       </c>
+      <c r="L47" t="n">
+        <v>-1.00359934999022</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2112,6 +2253,9 @@
       <c r="K48" t="n">
         <v>-0.8855215973822332</v>
       </c>
+      <c r="L48" t="n">
+        <v>-0.8848929048232408</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2147,6 +2291,9 @@
       <c r="K49" t="n">
         <v>-0.6462731436114136</v>
       </c>
+      <c r="L49" t="n">
+        <v>-0.6457029572380728</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2182,6 +2329,9 @@
       <c r="K50" t="n">
         <v>-0.0569693266694999</v>
       </c>
+      <c r="L50" t="n">
+        <v>-0.05819671890678171</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2217,6 +2367,9 @@
       <c r="K51" t="n">
         <v>-0.8749515219266668</v>
       </c>
+      <c r="L51" t="n">
+        <v>-0.8739868721011709</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2252,6 +2405,9 @@
       <c r="K52" t="n">
         <v>-0.8749515219266668</v>
       </c>
+      <c r="L52" t="n">
+        <v>-0.8739868721011709</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2287,6 +2443,9 @@
       <c r="K53" t="n">
         <v>-1.141606296004653</v>
       </c>
+      <c r="L53" t="n">
+        <v>-1.142893140532868</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2322,6 +2481,9 @@
       <c r="K54" t="n">
         <v>-0.1783069257832232</v>
       </c>
+      <c r="L54" t="n">
+        <v>-0.1777009776383218</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2357,6 +2519,9 @@
       <c r="K55" t="n">
         <v>-1.01983150830427</v>
       </c>
+      <c r="L55" t="n">
+        <v>-1.021705554140518</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2392,6 +2557,9 @@
       <c r="K56" t="n">
         <v>-0.884925113760305</v>
       </c>
+      <c r="L56" t="n">
+        <v>-0.8872795315406465</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2427,6 +2595,9 @@
       <c r="K57" t="n">
         <v>-0.8901717938304792</v>
       </c>
+      <c r="L57" t="n">
+        <v>-0.8919184605501699</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2462,6 +2633,9 @@
       <c r="K58" t="n">
         <v>-1.04162337457108</v>
       </c>
+      <c r="L58" t="n">
+        <v>-1.041094002388346</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2497,6 +2671,9 @@
       <c r="K59" t="n">
         <v>-0.7875144779703938</v>
       </c>
+      <c r="L59" t="n">
+        <v>-0.7847874442192708</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2532,6 +2709,9 @@
       <c r="K60" t="n">
         <v>-0.4079331503987572</v>
       </c>
+      <c r="L60" t="n">
+        <v>-0.4050040310397958</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2567,6 +2747,9 @@
       <c r="K61" t="n">
         <v>0.3859789596608688</v>
       </c>
+      <c r="L61" t="n">
+        <v>0.3867056586313609</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2602,6 +2785,9 @@
       <c r="K62" t="n">
         <v>-1.139749883976785</v>
       </c>
+      <c r="L62" t="n">
+        <v>-1.1409840476657</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2637,6 +2823,9 @@
       <c r="K63" t="n">
         <v>-0.5936690190964093</v>
       </c>
+      <c r="L63" t="n">
+        <v>-0.5838263754840748</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2672,6 +2861,9 @@
       <c r="K64" t="n">
         <v>-0.8475619800216977</v>
       </c>
+      <c r="L64" t="n">
+        <v>-0.8439624760486291</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2707,6 +2899,9 @@
       <c r="K65" t="n">
         <v>-0.02718736873304686</v>
       </c>
+      <c r="L65" t="n">
+        <v>-0.02429717832902889</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2742,6 +2937,9 @@
       <c r="K66" t="n">
         <v>-0.7157737438450961</v>
       </c>
+      <c r="L66" t="n">
+        <v>-0.7175331446029061</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2776,6 +2974,9 @@
       </c>
       <c r="K67" t="n">
         <v>-0.6749603145538948</v>
+      </c>
+      <c r="L67" t="n">
+        <v>-0.6787223006090178</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_11.xlsx
+++ b/predicted_variables_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L67"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,9 @@
       <c r="L1" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -508,6 +511,9 @@
       <c r="L2" t="n">
         <v>-0.2214888291269967</v>
       </c>
+      <c r="M2" t="n">
+        <v>-0.2176826145120233</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -546,6 +552,9 @@
       <c r="L3" t="n">
         <v>0.2751565210549088</v>
       </c>
+      <c r="M3" t="n">
+        <v>0.2777873883705328</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -584,6 +593,9 @@
       <c r="L4" t="n">
         <v>0.2338193944186326</v>
       </c>
+      <c r="M4" t="n">
+        <v>0.2390621312697032</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -622,6 +634,9 @@
       <c r="L5" t="n">
         <v>-0.03013990656381782</v>
       </c>
+      <c r="M5" t="n">
+        <v>-0.02976031921690545</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -660,6 +675,9 @@
       <c r="L6" t="n">
         <v>0.2265884016045408</v>
       </c>
+      <c r="M6" t="n">
+        <v>0.2288076888581899</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -698,6 +716,9 @@
       <c r="L7" t="n">
         <v>-0.3798733823366636</v>
       </c>
+      <c r="M7" t="n">
+        <v>-0.376081364745221</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -736,6 +757,9 @@
       <c r="L8" t="n">
         <v>-0.1608758107408706</v>
       </c>
+      <c r="M8" t="n">
+        <v>-0.1537779171320513</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -774,6 +798,9 @@
       <c r="L9" t="n">
         <v>-0.3014369631186545</v>
       </c>
+      <c r="M9" t="n">
+        <v>-0.2942238991037599</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -812,6 +839,9 @@
       <c r="L10" t="n">
         <v>0.4289366478100516</v>
       </c>
+      <c r="M10" t="n">
+        <v>0.4301833808043493</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -850,6 +880,9 @@
       <c r="L11" t="n">
         <v>-0.1824239371041259</v>
       </c>
+      <c r="M11" t="n">
+        <v>-0.1800930017500303</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -888,6 +921,9 @@
       <c r="L12" t="n">
         <v>0.001017408077940485</v>
       </c>
+      <c r="M12" t="n">
+        <v>-0.0003704188432420083</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -926,6 +962,9 @@
       <c r="L13" t="n">
         <v>-0.01448373499838718</v>
       </c>
+      <c r="M13" t="n">
+        <v>-0.01613190038471492</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -964,6 +1003,9 @@
       <c r="L14" t="n">
         <v>0.2175417299175458</v>
       </c>
+      <c r="M14" t="n">
+        <v>0.216096682498275</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1002,6 +1044,9 @@
       <c r="L15" t="n">
         <v>0.1380638066408594</v>
       </c>
+      <c r="M15" t="n">
+        <v>0.1316024009790425</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1040,6 +1085,9 @@
       <c r="L16" t="n">
         <v>0.5836668269280176</v>
       </c>
+      <c r="M16" t="n">
+        <v>0.5793942107113055</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1078,6 +1126,9 @@
       <c r="L17" t="n">
         <v>0.6777159868858733</v>
       </c>
+      <c r="M17" t="n">
+        <v>0.6663486684910432</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1116,6 +1167,9 @@
       <c r="L18" t="n">
         <v>-0.04303087048045974</v>
       </c>
+      <c r="M18" t="n">
+        <v>-0.05148605447303249</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1154,6 +1208,9 @@
       <c r="L19" t="n">
         <v>0.4336336629353768</v>
       </c>
+      <c r="M19" t="n">
+        <v>0.4278031487382584</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1192,6 +1249,9 @@
       <c r="L20" t="n">
         <v>0.4933038420840845</v>
       </c>
+      <c r="M20" t="n">
+        <v>0.485829291751757</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1230,6 +1290,9 @@
       <c r="L21" t="n">
         <v>0.7014597654220052</v>
       </c>
+      <c r="M21" t="n">
+        <v>0.6952648925161909</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1268,6 +1331,9 @@
       <c r="L22" t="n">
         <v>0.4767195668007994</v>
       </c>
+      <c r="M22" t="n">
+        <v>0.4679163414443283</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1306,6 +1372,9 @@
       <c r="L23" t="n">
         <v>0.01971812951604288</v>
       </c>
+      <c r="M23" t="n">
+        <v>0.01174318396272631</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1344,6 +1413,9 @@
       <c r="L24" t="n">
         <v>2.818125736823268</v>
       </c>
+      <c r="M24" t="n">
+        <v>2.577034366873511</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1382,6 +1454,9 @@
       <c r="L25" t="n">
         <v>0.308283625547649</v>
       </c>
+      <c r="M25" t="n">
+        <v>0.301592886832262</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1420,6 +1495,9 @@
       <c r="L26" t="n">
         <v>0.1873483474376744</v>
       </c>
+      <c r="M26" t="n">
+        <v>0.1745855812701735</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1458,6 +1536,9 @@
       <c r="L27" t="n">
         <v>0.08744240090800867</v>
       </c>
+      <c r="M27" t="n">
+        <v>0.07249430972519147</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1496,6 +1577,9 @@
       <c r="L28" t="n">
         <v>0.8331968141523071</v>
       </c>
+      <c r="M28" t="n">
+        <v>0.8186224375631799</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1534,6 +1618,9 @@
       <c r="L29" t="n">
         <v>2.480983167947103</v>
       </c>
+      <c r="M29" t="n">
+        <v>2.275179627973333</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1572,6 +1659,9 @@
       <c r="L30" t="n">
         <v>0.6765765270731799</v>
       </c>
+      <c r="M30" t="n">
+        <v>0.6618171654474888</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1610,6 +1700,9 @@
       <c r="L31" t="n">
         <v>-0.4753219599941087</v>
       </c>
+      <c r="M31" t="n">
+        <v>-0.4824736364830677</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1648,6 +1741,9 @@
       <c r="L32" t="n">
         <v>0.5723433857988818</v>
       </c>
+      <c r="M32" t="n">
+        <v>0.5607433079368184</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1686,6 +1782,9 @@
       <c r="L33" t="n">
         <v>0.758272399882812</v>
       </c>
+      <c r="M33" t="n">
+        <v>0.7513305829773057</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1724,6 +1823,9 @@
       <c r="L34" t="n">
         <v>-0.8352808368874826</v>
       </c>
+      <c r="M34" t="n">
+        <v>-0.8437143985648984</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1762,6 +1864,9 @@
       <c r="L35" t="n">
         <v>0.7723800239495565</v>
       </c>
+      <c r="M35" t="n">
+        <v>0.7723518700144161</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1800,6 +1905,9 @@
       <c r="L36" t="n">
         <v>0.7046115579580312</v>
       </c>
+      <c r="M36" t="n">
+        <v>0.7061652864489651</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1838,6 +1946,9 @@
       <c r="L37" t="n">
         <v>0.6680764380772222</v>
       </c>
+      <c r="M37" t="n">
+        <v>0.6693375700778973</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1876,6 +1987,9 @@
       <c r="L38" t="n">
         <v>0.6288354543251389</v>
       </c>
+      <c r="M38" t="n">
+        <v>0.6263728023421008</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1914,6 +2028,9 @@
       <c r="L39" t="n">
         <v>0.571022296709205</v>
       </c>
+      <c r="M39" t="n">
+        <v>0.5725345055209202</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1952,6 +2069,9 @@
       <c r="L40" t="n">
         <v>0.7362085859425739</v>
       </c>
+      <c r="M40" t="n">
+        <v>0.7368769976202708</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1990,6 +2110,9 @@
       <c r="L41" t="n">
         <v>0.541612141939071</v>
       </c>
+      <c r="M41" t="n">
+        <v>0.5439155143474744</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2028,6 +2151,9 @@
       <c r="L42" t="n">
         <v>0.5699199608619099</v>
       </c>
+      <c r="M42" t="n">
+        <v>0.5683949951487847</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2066,6 +2192,9 @@
       <c r="L43" t="n">
         <v>0.6493263321992916</v>
       </c>
+      <c r="M43" t="n">
+        <v>0.6488493420222458</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2104,6 +2233,9 @@
       <c r="L44" t="n">
         <v>0.6562145899594007</v>
       </c>
+      <c r="M44" t="n">
+        <v>0.6585989079210569</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2142,6 +2274,9 @@
       <c r="L45" t="n">
         <v>0.6051870545731228</v>
       </c>
+      <c r="M45" t="n">
+        <v>0.6094609742984233</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2180,6 +2315,9 @@
       <c r="L46" t="n">
         <v>-1.284891329876442</v>
       </c>
+      <c r="M46" t="n">
+        <v>-1.286877561373005</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2218,6 +2356,9 @@
       <c r="L47" t="n">
         <v>-1.00359934999022</v>
       </c>
+      <c r="M47" t="n">
+        <v>-1.005288731799844</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2256,6 +2397,9 @@
       <c r="L48" t="n">
         <v>-0.8848929048232408</v>
       </c>
+      <c r="M48" t="n">
+        <v>-0.8842520534804077</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2294,6 +2438,9 @@
       <c r="L49" t="n">
         <v>-0.6457029572380728</v>
       </c>
+      <c r="M49" t="n">
+        <v>-0.6452146706982922</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2332,6 +2479,9 @@
       <c r="L50" t="n">
         <v>-0.05819671890678171</v>
       </c>
+      <c r="M50" t="n">
+        <v>-0.05950001273994875</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2370,6 +2520,9 @@
       <c r="L51" t="n">
         <v>-0.8739868721011709</v>
       </c>
+      <c r="M51" t="n">
+        <v>-0.8729276518884589</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2408,6 +2561,9 @@
       <c r="L52" t="n">
         <v>-0.8739868721011709</v>
       </c>
+      <c r="M52" t="n">
+        <v>-0.8729276518884589</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2446,6 +2602,9 @@
       <c r="L53" t="n">
         <v>-1.142893140532868</v>
       </c>
+      <c r="M53" t="n">
+        <v>-1.143886059271068</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2484,6 +2643,9 @@
       <c r="L54" t="n">
         <v>-0.1777009776383218</v>
       </c>
+      <c r="M54" t="n">
+        <v>-0.1773037641253986</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2522,6 +2684,9 @@
       <c r="L55" t="n">
         <v>-1.021705554140518</v>
       </c>
+      <c r="M55" t="n">
+        <v>-1.023630461615835</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2560,6 +2725,9 @@
       <c r="L56" t="n">
         <v>-0.8872795315406465</v>
       </c>
+      <c r="M56" t="n">
+        <v>-0.8899306461626386</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2598,6 +2766,9 @@
       <c r="L57" t="n">
         <v>-0.8919184605501699</v>
       </c>
+      <c r="M57" t="n">
+        <v>-0.8949105851752552</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2636,6 +2807,9 @@
       <c r="L58" t="n">
         <v>-1.041094002388346</v>
       </c>
+      <c r="M58" t="n">
+        <v>-1.042236706369983</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2674,6 +2848,9 @@
       <c r="L59" t="n">
         <v>-0.7847874442192708</v>
       </c>
+      <c r="M59" t="n">
+        <v>-0.7830323118254503</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2712,6 +2889,9 @@
       <c r="L60" t="n">
         <v>-0.4050040310397958</v>
       </c>
+      <c r="M60" t="n">
+        <v>-0.4034833685866731</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2750,6 +2930,9 @@
       <c r="L61" t="n">
         <v>0.3867056586313609</v>
       </c>
+      <c r="M61" t="n">
+        <v>0.3871849068854218</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2788,6 +2971,9 @@
       <c r="L62" t="n">
         <v>-1.1409840476657</v>
       </c>
+      <c r="M62" t="n">
+        <v>-1.14389574949161</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2826,6 +3012,9 @@
       <c r="L63" t="n">
         <v>-0.5838263754840748</v>
       </c>
+      <c r="M63" t="n">
+        <v>-0.5756608147771083</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2864,6 +3053,9 @@
       <c r="L64" t="n">
         <v>-0.8439624760486291</v>
       </c>
+      <c r="M64" t="n">
+        <v>-0.8414019886048718</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2902,6 +3094,9 @@
       <c r="L65" t="n">
         <v>-0.02429717832902889</v>
       </c>
+      <c r="M65" t="n">
+        <v>-0.02264033099658441</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2940,6 +3135,9 @@
       <c r="L66" t="n">
         <v>-0.7175331446029061</v>
       </c>
+      <c r="M66" t="n">
+        <v>-0.7208978467507274</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2977,6 +3175,9 @@
       </c>
       <c r="L67" t="n">
         <v>-0.6787223006090178</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-0.6843430134064717</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_11.xlsx
+++ b/predicted_variables_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:N67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,6 +473,9 @@
       <c r="M1" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -514,6 +517,9 @@
       <c r="M2" t="n">
         <v>-0.2176826145120233</v>
       </c>
+      <c r="N2" t="n">
+        <v>-0.2149407622740689</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -555,6 +561,9 @@
       <c r="M3" t="n">
         <v>0.2777873883705328</v>
       </c>
+      <c r="N3" t="n">
+        <v>0.2794141555995228</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -596,6 +605,9 @@
       <c r="M4" t="n">
         <v>0.2390621312697032</v>
       </c>
+      <c r="N4" t="n">
+        <v>0.2432297241226532</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -637,6 +649,9 @@
       <c r="M5" t="n">
         <v>-0.02976031921690545</v>
       </c>
+      <c r="N5" t="n">
+        <v>-0.03010798321297478</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -678,6 +693,9 @@
       <c r="M6" t="n">
         <v>0.2288076888581899</v>
       </c>
+      <c r="N6" t="n">
+        <v>0.2299302393216734</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -719,6 +737,9 @@
       <c r="M7" t="n">
         <v>-0.376081364745221</v>
       </c>
+      <c r="N7" t="n">
+        <v>-0.3732295383349998</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -760,6 +781,9 @@
       <c r="M8" t="n">
         <v>-0.1537779171320513</v>
       </c>
+      <c r="N8" t="n">
+        <v>-0.1476271114645146</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -801,6 +825,9 @@
       <c r="M9" t="n">
         <v>-0.2942238991037599</v>
       </c>
+      <c r="N9" t="n">
+        <v>-0.2884237376061017</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -842,6 +869,9 @@
       <c r="M10" t="n">
         <v>0.4301833808043493</v>
       </c>
+      <c r="N10" t="n">
+        <v>0.4304980443379724</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -883,6 +913,9 @@
       <c r="M11" t="n">
         <v>-0.1800930017500303</v>
       </c>
+      <c r="N11" t="n">
+        <v>-0.1785206245645507</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -924,6 +957,9 @@
       <c r="M12" t="n">
         <v>-0.0003704188432420083</v>
       </c>
+      <c r="N12" t="n">
+        <v>-0.003231933973026901</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -965,6 +1001,9 @@
       <c r="M13" t="n">
         <v>-0.01613190038471492</v>
       </c>
+      <c r="N13" t="n">
+        <v>-0.01803737931627061</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1006,6 +1045,9 @@
       <c r="M14" t="n">
         <v>0.216096682498275</v>
       </c>
+      <c r="N14" t="n">
+        <v>0.2119614978468182</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1047,6 +1089,9 @@
       <c r="M15" t="n">
         <v>0.1316024009790425</v>
       </c>
+      <c r="N15" t="n">
+        <v>0.122238220700074</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1088,6 +1133,9 @@
       <c r="M16" t="n">
         <v>0.5793942107113055</v>
       </c>
+      <c r="N16" t="n">
+        <v>0.5711911578551081</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1129,6 +1177,9 @@
       <c r="M17" t="n">
         <v>0.6663486684910432</v>
       </c>
+      <c r="N17" t="n">
+        <v>0.6528482409596879</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1170,6 +1221,9 @@
       <c r="M18" t="n">
         <v>-0.05148605447303249</v>
       </c>
+      <c r="N18" t="n">
+        <v>-0.0598989208317473</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1211,6 +1265,9 @@
       <c r="M19" t="n">
         <v>0.4278031487382584</v>
       </c>
+      <c r="N19" t="n">
+        <v>0.4207710741090752</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1252,6 +1309,9 @@
       <c r="M20" t="n">
         <v>0.485829291751757</v>
       </c>
+      <c r="N20" t="n">
+        <v>0.4747304414521204</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1293,6 +1353,9 @@
       <c r="M21" t="n">
         <v>0.6952648925161909</v>
       </c>
+      <c r="N21" t="n">
+        <v>0.686199833823346</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1334,6 +1397,9 @@
       <c r="M22" t="n">
         <v>0.4679163414443283</v>
       </c>
+      <c r="N22" t="n">
+        <v>0.4569184417615123</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1375,6 +1441,9 @@
       <c r="M23" t="n">
         <v>0.01174318396272631</v>
       </c>
+      <c r="N23" t="n">
+        <v>0.001935411770206841</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1416,6 +1485,9 @@
       <c r="M24" t="n">
         <v>2.577034366873511</v>
       </c>
+      <c r="N24" t="n">
+        <v>2.349273825196833</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1457,6 +1529,9 @@
       <c r="M25" t="n">
         <v>0.301592886832262</v>
       </c>
+      <c r="N25" t="n">
+        <v>0.2966415412956348</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1498,6 +1573,9 @@
       <c r="M26" t="n">
         <v>0.1745855812701735</v>
       </c>
+      <c r="N26" t="n">
+        <v>0.1633515969742415</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1539,6 +1617,9 @@
       <c r="M27" t="n">
         <v>0.07249430972519147</v>
       </c>
+      <c r="N27" t="n">
+        <v>0.05962497563635075</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1580,6 +1661,9 @@
       <c r="M28" t="n">
         <v>0.8186224375631799</v>
       </c>
+      <c r="N28" t="n">
+        <v>0.8065443839102965</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1621,6 +1705,9 @@
       <c r="M29" t="n">
         <v>2.275179627973333</v>
       </c>
+      <c r="N29" t="n">
+        <v>2.095292038576299</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1662,6 +1749,9 @@
       <c r="M30" t="n">
         <v>0.6618171654474888</v>
       </c>
+      <c r="N30" t="n">
+        <v>0.6499082241401752</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1703,6 +1793,9 @@
       <c r="M31" t="n">
         <v>-0.4824736364830677</v>
       </c>
+      <c r="N31" t="n">
+        <v>-0.486964437560899</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1744,6 +1837,9 @@
       <c r="M32" t="n">
         <v>0.5607433079368184</v>
       </c>
+      <c r="N32" t="n">
+        <v>0.5509372191067102</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1785,6 +1881,9 @@
       <c r="M33" t="n">
         <v>0.7513305829773057</v>
       </c>
+      <c r="N33" t="n">
+        <v>0.7458845105905849</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1826,6 +1925,9 @@
       <c r="M34" t="n">
         <v>-0.8437143985648984</v>
       </c>
+      <c r="N34" t="n">
+        <v>-0.850443579153801</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1867,6 +1969,9 @@
       <c r="M35" t="n">
         <v>0.7723518700144161</v>
       </c>
+      <c r="N35" t="n">
+        <v>0.7730527679320232</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1908,6 +2013,9 @@
       <c r="M36" t="n">
         <v>0.7061652864489651</v>
       </c>
+      <c r="N36" t="n">
+        <v>0.7088334841107342</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1949,6 +2057,9 @@
       <c r="M37" t="n">
         <v>0.6693375700778973</v>
       </c>
+      <c r="N37" t="n">
+        <v>0.6718267352029978</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1990,6 +2101,9 @@
       <c r="M38" t="n">
         <v>0.6263728023421008</v>
       </c>
+      <c r="N38" t="n">
+        <v>0.6249406546335711</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2031,6 +2145,9 @@
       <c r="M39" t="n">
         <v>0.5725345055209202</v>
       </c>
+      <c r="N39" t="n">
+        <v>0.5743959979007996</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2072,6 +2189,9 @@
       <c r="M40" t="n">
         <v>0.7368769976202708</v>
       </c>
+      <c r="N40" t="n">
+        <v>0.738032774580678</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2113,6 +2233,9 @@
       <c r="M41" t="n">
         <v>0.5439155143474744</v>
       </c>
+      <c r="N41" t="n">
+        <v>0.5465294732949008</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2154,6 +2277,9 @@
       <c r="M42" t="n">
         <v>0.5683949951487847</v>
       </c>
+      <c r="N42" t="n">
+        <v>0.5684975102945873</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2195,6 +2321,9 @@
       <c r="M43" t="n">
         <v>0.6488493420222458</v>
       </c>
+      <c r="N43" t="n">
+        <v>0.6491624339628825</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2236,6 +2365,9 @@
       <c r="M44" t="n">
         <v>0.6585989079210569</v>
       </c>
+      <c r="N44" t="n">
+        <v>0.661468092376548</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2277,6 +2409,9 @@
       <c r="M45" t="n">
         <v>0.6094609742984233</v>
       </c>
+      <c r="N45" t="n">
+        <v>0.6149426451767694</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2318,6 +2453,9 @@
       <c r="M46" t="n">
         <v>-1.286877561373005</v>
       </c>
+      <c r="N46" t="n">
+        <v>-1.288998599584422</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2359,6 +2497,9 @@
       <c r="M47" t="n">
         <v>-1.005288731799844</v>
       </c>
+      <c r="N47" t="n">
+        <v>-1.00700013360833</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2400,6 +2541,9 @@
       <c r="M48" t="n">
         <v>-0.8842520534804077</v>
       </c>
+      <c r="N48" t="n">
+        <v>-0.8836779630814957</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2441,6 +2585,9 @@
       <c r="M49" t="n">
         <v>-0.6452146706982922</v>
       </c>
+      <c r="N49" t="n">
+        <v>-0.6448567780603117</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2482,6 +2629,9 @@
       <c r="M50" t="n">
         <v>-0.05950001273994875</v>
       </c>
+      <c r="N50" t="n">
+        <v>-0.060872403220015</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2523,6 +2673,9 @@
       <c r="M51" t="n">
         <v>-0.8729276518884589</v>
       </c>
+      <c r="N51" t="n">
+        <v>-0.8718540386654285</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2564,6 +2717,9 @@
       <c r="M52" t="n">
         <v>-0.8729276518884589</v>
       </c>
+      <c r="N52" t="n">
+        <v>-0.8718540386654285</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2605,6 +2761,9 @@
       <c r="M53" t="n">
         <v>-1.143886059271068</v>
       </c>
+      <c r="N53" t="n">
+        <v>-1.144706334322917</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2646,6 +2805,9 @@
       <c r="M54" t="n">
         <v>-0.1773037641253986</v>
       </c>
+      <c r="N54" t="n">
+        <v>-0.1771210658635411</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2687,6 +2849,9 @@
       <c r="M55" t="n">
         <v>-1.023630461615835</v>
       </c>
+      <c r="N55" t="n">
+        <v>-1.025627256547796</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2728,6 +2893,9 @@
       <c r="M56" t="n">
         <v>-0.8899306461626386</v>
       </c>
+      <c r="N56" t="n">
+        <v>-0.8928153490155082</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2769,6 +2937,9 @@
       <c r="M57" t="n">
         <v>-0.8949105851752552</v>
       </c>
+      <c r="N57" t="n">
+        <v>-0.8989838747409914</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2810,6 +2981,9 @@
       <c r="M58" t="n">
         <v>-1.042236706369983</v>
       </c>
+      <c r="N58" t="n">
+        <v>-1.044825824590377</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2851,6 +3025,9 @@
       <c r="M59" t="n">
         <v>-0.7830323118254503</v>
       </c>
+      <c r="N59" t="n">
+        <v>-0.7821760238878314</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2892,6 +3069,9 @@
       <c r="M60" t="n">
         <v>-0.4034833685866731</v>
       </c>
+      <c r="N60" t="n">
+        <v>-0.4032086836193468</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2933,6 +3113,9 @@
       <c r="M61" t="n">
         <v>0.3871849068854218</v>
       </c>
+      <c r="N61" t="n">
+        <v>0.3874334535933608</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2974,6 +3157,9 @@
       <c r="M62" t="n">
         <v>-1.14389574949161</v>
       </c>
+      <c r="N62" t="n">
+        <v>-1.148256424079245</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3015,6 +3201,9 @@
       <c r="M63" t="n">
         <v>-0.5756608147771083</v>
       </c>
+      <c r="N63" t="n">
+        <v>-0.5690688147890168</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -3056,6 +3245,9 @@
       <c r="M64" t="n">
         <v>-0.8414019886048718</v>
       </c>
+      <c r="N64" t="n">
+        <v>-0.8398638220715218</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3097,6 +3289,9 @@
       <c r="M65" t="n">
         <v>-0.02264033099658441</v>
       </c>
+      <c r="N65" t="n">
+        <v>-0.02206503580740004</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3138,6 +3333,9 @@
       <c r="M66" t="n">
         <v>-0.7208978467507274</v>
       </c>
+      <c r="N66" t="n">
+        <v>-0.7255950773049288</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3178,6 +3376,9 @@
       </c>
       <c r="M67" t="n">
         <v>-0.6843430134064717</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.6914398429336592</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_11.xlsx
+++ b/predicted_variables_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N67"/>
+  <dimension ref="A1:P67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,12 @@
       <c r="N1" s="1" t="n">
         <v>13</v>
       </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -520,6 +526,12 @@
       <c r="N2" t="n">
         <v>-0.2149407622740689</v>
       </c>
+      <c r="O2" t="n">
+        <v>-0.2131754727595466</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.2122923141471821</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -564,6 +576,12 @@
       <c r="N3" t="n">
         <v>0.2794141555995228</v>
       </c>
+      <c r="O3" t="n">
+        <v>0.2801149398482115</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.2799800570166809</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -608,6 +626,12 @@
       <c r="N4" t="n">
         <v>0.2432297241226532</v>
       </c>
+      <c r="O4" t="n">
+        <v>0.246378943620986</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.2485807460827568</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -652,6 +676,12 @@
       <c r="N5" t="n">
         <v>-0.03010798321297478</v>
       </c>
+      <c r="O5" t="n">
+        <v>-0.03109275454508465</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.03262393842493257</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -696,6 +726,12 @@
       <c r="N6" t="n">
         <v>0.2299302393216734</v>
       </c>
+      <c r="O6" t="n">
+        <v>0.2300894501463804</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.2294190496150571</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -740,6 +776,12 @@
       <c r="N7" t="n">
         <v>-0.3732295383349998</v>
       </c>
+      <c r="O7" t="n">
+        <v>-0.3712679412033655</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.370134358454537</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -784,6 +826,12 @@
       <c r="N8" t="n">
         <v>-0.1476271114645146</v>
       </c>
+      <c r="O8" t="n">
+        <v>-0.1424004189983353</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.1380605455470963</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -828,6 +876,12 @@
       <c r="N9" t="n">
         <v>-0.2884237376061017</v>
       </c>
+      <c r="O9" t="n">
+        <v>-0.2840019017429242</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-0.2808933117478161</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -872,6 +926,12 @@
       <c r="N10" t="n">
         <v>0.4304980443379724</v>
       </c>
+      <c r="O10" t="n">
+        <v>0.4300072528756786</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.4288348274975866</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -916,6 +976,12 @@
       <c r="N11" t="n">
         <v>-0.1785206245645507</v>
       </c>
+      <c r="O11" t="n">
+        <v>-0.1776486411344053</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-0.1774130572262902</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -960,6 +1026,12 @@
       <c r="N12" t="n">
         <v>-0.003231933973026901</v>
       </c>
+      <c r="O12" t="n">
+        <v>-0.007330408564802555</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-0.01243735386936105</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1004,6 +1076,12 @@
       <c r="N13" t="n">
         <v>-0.01803737931627061</v>
       </c>
+      <c r="O13" t="n">
+        <v>-0.02016350281592536</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-0.02247199030782319</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1048,6 +1126,12 @@
       <c r="N14" t="n">
         <v>0.2119614978468182</v>
       </c>
+      <c r="O14" t="n">
+        <v>0.2055607168371144</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.1973073775944194</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1092,6 +1176,12 @@
       <c r="N15" t="n">
         <v>0.122238220700074</v>
       </c>
+      <c r="O15" t="n">
+        <v>0.1105036265207869</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.09690696079854363</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1136,6 +1226,12 @@
       <c r="N16" t="n">
         <v>0.5711911578551081</v>
       </c>
+      <c r="O16" t="n">
+        <v>0.5597232267831413</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.5456317633757981</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1180,6 +1276,12 @@
       <c r="N17" t="n">
         <v>0.6528482409596879</v>
       </c>
+      <c r="O17" t="n">
+        <v>0.6377173923789013</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.6214248516976557</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1224,6 +1326,12 @@
       <c r="N18" t="n">
         <v>-0.0598989208317473</v>
       </c>
+      <c r="O18" t="n">
+        <v>-0.06822891428988065</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-0.07643014087704372</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1268,6 +1376,12 @@
       <c r="N19" t="n">
         <v>0.4207710741090752</v>
       </c>
+      <c r="O19" t="n">
+        <v>0.4127884575671337</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.4040932514367036</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1312,6 +1426,12 @@
       <c r="N20" t="n">
         <v>0.4747304414521204</v>
       </c>
+      <c r="O20" t="n">
+        <v>0.4606777447556887</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.4443098507845719</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1356,6 +1476,12 @@
       <c r="N21" t="n">
         <v>0.686199833823346</v>
       </c>
+      <c r="O21" t="n">
+        <v>0.6748689376511707</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.6618296354493669</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1400,6 +1526,12 @@
       <c r="N22" t="n">
         <v>0.4569184417615123</v>
       </c>
+      <c r="O22" t="n">
+        <v>0.4442048646922097</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.43022400969447</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1444,6 +1576,12 @@
       <c r="N23" t="n">
         <v>0.001935411770206841</v>
       </c>
+      <c r="O23" t="n">
+        <v>-0.00929146481804885</v>
+      </c>
+      <c r="P23" t="n">
+        <v>-0.02155341910114167</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1488,6 +1626,12 @@
       <c r="N24" t="n">
         <v>2.349273825196833</v>
       </c>
+      <c r="O24" t="n">
+        <v>2.137626993812669</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.944032336503853</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1532,6 +1676,12 @@
       <c r="N25" t="n">
         <v>0.2966415412956348</v>
       </c>
+      <c r="O25" t="n">
+        <v>0.2932176354579051</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.2911168707662191</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1576,6 +1726,12 @@
       <c r="N26" t="n">
         <v>0.1633515969742415</v>
       </c>
+      <c r="O26" t="n">
+        <v>0.1536237416503813</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.1453506594149139</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1620,6 +1776,12 @@
       <c r="N27" t="n">
         <v>0.05962497563635075</v>
       </c>
+      <c r="O27" t="n">
+        <v>0.04873815547952864</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.03971457012102407</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1664,6 +1826,12 @@
       <c r="N28" t="n">
         <v>0.8065443839102965</v>
       </c>
+      <c r="O28" t="n">
+        <v>0.7968442299292937</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.7893706035731111</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1708,6 +1876,12 @@
       <c r="N29" t="n">
         <v>2.095292038576299</v>
       </c>
+      <c r="O29" t="n">
+        <v>1.940205889843134</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.808546135876952</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1752,6 +1926,12 @@
       <c r="N30" t="n">
         <v>0.6499082241401752</v>
       </c>
+      <c r="O30" t="n">
+        <v>0.6405966768404027</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.6336215455029707</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1796,6 +1976,12 @@
       <c r="N31" t="n">
         <v>-0.486964437560899</v>
       </c>
+      <c r="O31" t="n">
+        <v>-0.4891880399900423</v>
+      </c>
+      <c r="P31" t="n">
+        <v>-0.4895155768456463</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1840,6 +2026,12 @@
       <c r="N32" t="n">
         <v>0.5509372191067102</v>
       </c>
+      <c r="O32" t="n">
+        <v>0.5428480139919223</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.5363730662674459</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1884,6 +2076,12 @@
       <c r="N33" t="n">
         <v>0.7458845105905849</v>
       </c>
+      <c r="O33" t="n">
+        <v>0.7418023556976109</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.7389457296152937</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1928,6 +2126,12 @@
       <c r="N34" t="n">
         <v>-0.850443579153801</v>
       </c>
+      <c r="O34" t="n">
+        <v>-0.855632259137435</v>
+      </c>
+      <c r="P34" t="n">
+        <v>-0.8594499354308205</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1972,6 +2176,12 @@
       <c r="N35" t="n">
         <v>0.7730527679320232</v>
       </c>
+      <c r="O35" t="n">
+        <v>0.7743911612233859</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.77627274197615</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2016,6 +2226,12 @@
       <c r="N36" t="n">
         <v>0.7088334841107342</v>
       </c>
+      <c r="O36" t="n">
+        <v>0.712426304240861</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.7167606036379857</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2060,6 +2276,12 @@
       <c r="N37" t="n">
         <v>0.6718267352029978</v>
       </c>
+      <c r="O37" t="n">
+        <v>0.6753376977688228</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.6796718420055534</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2104,6 +2326,12 @@
       <c r="N38" t="n">
         <v>0.6249406546335711</v>
       </c>
+      <c r="O38" t="n">
+        <v>0.6244037562755153</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.6246303325296554</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2148,6 +2376,12 @@
       <c r="N39" t="n">
         <v>0.5743959979007996</v>
       </c>
+      <c r="O39" t="n">
+        <v>0.5765410465624424</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.5789048193299544</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2192,6 +2426,12 @@
       <c r="N40" t="n">
         <v>0.738032774580678</v>
       </c>
+      <c r="O40" t="n">
+        <v>0.7396264366267948</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.741601377134533</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2236,6 +2476,12 @@
       <c r="N41" t="n">
         <v>0.5465294732949008</v>
       </c>
+      <c r="O41" t="n">
+        <v>0.5493583466030498</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.5523173013545054</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2280,6 +2526,12 @@
       <c r="N42" t="n">
         <v>0.5684975102945873</v>
       </c>
+      <c r="O42" t="n">
+        <v>0.569991015510952</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.5726449159847291</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2324,6 +2576,12 @@
       <c r="N43" t="n">
         <v>0.6491624339628825</v>
       </c>
+      <c r="O43" t="n">
+        <v>0.6501404410982843</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.6516639926053593</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2368,6 +2626,12 @@
       <c r="N44" t="n">
         <v>0.661468092376548</v>
       </c>
+      <c r="O44" t="n">
+        <v>0.6647138508065251</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.6682344770141849</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2412,6 +2676,12 @@
       <c r="N45" t="n">
         <v>0.6149426451767694</v>
       </c>
+      <c r="O45" t="n">
+        <v>0.6213875411771471</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.6285631502390373</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2456,6 +2726,12 @@
       <c r="N46" t="n">
         <v>-1.288998599584422</v>
       </c>
+      <c r="O46" t="n">
+        <v>-1.291269354579908</v>
+      </c>
+      <c r="P46" t="n">
+        <v>-1.29369789774598</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2500,6 +2776,12 @@
       <c r="N47" t="n">
         <v>-1.00700013360833</v>
       </c>
+      <c r="O47" t="n">
+        <v>-1.008759937911565</v>
+      </c>
+      <c r="P47" t="n">
+        <v>-1.010588359964148</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2544,6 +2826,12 @@
       <c r="N48" t="n">
         <v>-0.8836779630814957</v>
       </c>
+      <c r="O48" t="n">
+        <v>-0.8832347647304924</v>
+      </c>
+      <c r="P48" t="n">
+        <v>-0.8829727813914455</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2588,6 +2876,12 @@
       <c r="N49" t="n">
         <v>-0.6448567780603117</v>
       </c>
+      <c r="O49" t="n">
+        <v>-0.6446668412630039</v>
+      </c>
+      <c r="P49" t="n">
+        <v>-0.6446724187429936</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2632,6 +2926,12 @@
       <c r="N50" t="n">
         <v>-0.060872403220015</v>
       </c>
+      <c r="O50" t="n">
+        <v>-0.0623064789764915</v>
+      </c>
+      <c r="P50" t="n">
+        <v>-0.06379448653658987</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2676,6 +2976,12 @@
       <c r="N51" t="n">
         <v>-0.8718540386654285</v>
       </c>
+      <c r="O51" t="n">
+        <v>-0.8708346653137617</v>
+      </c>
+      <c r="P51" t="n">
+        <v>-0.8699267424614976</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2720,6 +3026,12 @@
       <c r="N52" t="n">
         <v>-0.8718540386654285</v>
       </c>
+      <c r="O52" t="n">
+        <v>-0.8708346653137617</v>
+      </c>
+      <c r="P52" t="n">
+        <v>-0.8699267424614976</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2764,6 +3076,12 @@
       <c r="N53" t="n">
         <v>-1.144706334322917</v>
       </c>
+      <c r="O53" t="n">
+        <v>-1.145456210415336</v>
+      </c>
+      <c r="P53" t="n">
+        <v>-1.146220005386163</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2808,6 +3126,12 @@
       <c r="N54" t="n">
         <v>-0.1771210658635411</v>
       </c>
+      <c r="O54" t="n">
+        <v>-0.1771537439387354</v>
+      </c>
+      <c r="P54" t="n">
+        <v>-0.1773984222435732</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2852,6 +3176,12 @@
       <c r="N55" t="n">
         <v>-1.025627256547796</v>
       </c>
+      <c r="O55" t="n">
+        <v>-1.027711304077249</v>
+      </c>
+      <c r="P55" t="n">
+        <v>-1.029892893037985</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2896,6 +3226,12 @@
       <c r="N56" t="n">
         <v>-0.8928153490155082</v>
       </c>
+      <c r="O56" t="n">
+        <v>-0.8958775851870255</v>
+      </c>
+      <c r="P56" t="n">
+        <v>-0.8990681458701696</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2940,6 +3276,12 @@
       <c r="N57" t="n">
         <v>-0.8989838747409914</v>
       </c>
+      <c r="O57" t="n">
+        <v>-0.9039728975102416</v>
+      </c>
+      <c r="P57" t="n">
+        <v>-0.9097155959343247</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2984,6 +3326,12 @@
       <c r="N58" t="n">
         <v>-1.044825824590377</v>
       </c>
+      <c r="O58" t="n">
+        <v>-1.048640281008608</v>
+      </c>
+      <c r="P58" t="n">
+        <v>-1.053467967632628</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3028,6 +3376,12 @@
       <c r="N59" t="n">
         <v>-0.7821760238878314</v>
       </c>
+      <c r="O59" t="n">
+        <v>-0.7821387775680643</v>
+      </c>
+      <c r="P59" t="n">
+        <v>-0.7828368414697199</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3072,6 +3426,12 @@
       <c r="N60" t="n">
         <v>-0.4032086836193468</v>
       </c>
+      <c r="O60" t="n">
+        <v>-0.4040176750207024</v>
+      </c>
+      <c r="P60" t="n">
+        <v>-0.405751829569123</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3116,6 +3476,12 @@
       <c r="N61" t="n">
         <v>0.3874334535933608</v>
       </c>
+      <c r="O61" t="n">
+        <v>0.3874705338414478</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.3873169753259534</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3160,6 +3526,12 @@
       <c r="N62" t="n">
         <v>-1.148256424079245</v>
       </c>
+      <c r="O62" t="n">
+        <v>-1.153839959483975</v>
+      </c>
+      <c r="P62" t="n">
+        <v>-1.160427858408202</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3204,6 +3576,12 @@
       <c r="N63" t="n">
         <v>-0.5690688147890168</v>
       </c>
+      <c r="O63" t="n">
+        <v>-0.5639347428903334</v>
+      </c>
+      <c r="P63" t="n">
+        <v>-0.5601349065073576</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -3248,6 +3626,12 @@
       <c r="N64" t="n">
         <v>-0.8398638220715218</v>
       </c>
+      <c r="O64" t="n">
+        <v>-0.839306959180219</v>
+      </c>
+      <c r="P64" t="n">
+        <v>-0.839671665433906</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3292,6 +3676,12 @@
       <c r="N65" t="n">
         <v>-0.02206503580740004</v>
       </c>
+      <c r="O65" t="n">
+        <v>-0.0224230499572382</v>
+      </c>
+      <c r="P65" t="n">
+        <v>-0.02357221422302512</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3336,6 +3726,12 @@
       <c r="N66" t="n">
         <v>-0.7255950773049288</v>
       </c>
+      <c r="O66" t="n">
+        <v>-0.7313674941256145</v>
+      </c>
+      <c r="P66" t="n">
+        <v>-0.7379765013040298</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3379,6 +3775,12 @@
       </c>
       <c r="N67" t="n">
         <v>-0.6914398429336592</v>
+      </c>
+      <c r="O67" t="n">
+        <v>-0.6996635732273118</v>
+      </c>
+      <c r="P67" t="n">
+        <v>-0.7087003905266219</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_11.xlsx
+++ b/predicted_variables_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P67"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,6 +482,9 @@
       <c r="P1" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -532,6 +535,9 @@
       <c r="P2" t="n">
         <v>-0.2122923141471821</v>
       </c>
+      <c r="Q2" t="n">
+        <v>-0.2121934951047888</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -582,6 +588,9 @@
       <c r="P3" t="n">
         <v>0.2799800570166809</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0.2791072145350352</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -632,6 +641,9 @@
       <c r="P4" t="n">
         <v>0.2485807460827568</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0.2499160265555272</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -682,6 +694,9 @@
       <c r="P5" t="n">
         <v>-0.03262393842493257</v>
       </c>
+      <c r="Q5" t="n">
+        <v>-0.03461264909409349</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -732,6 +747,9 @@
       <c r="P6" t="n">
         <v>0.2294190496150571</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0.2280497691397416</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -782,6 +800,9 @@
       <c r="P7" t="n">
         <v>-0.370134358454537</v>
       </c>
+      <c r="Q7" t="n">
+        <v>-0.3697579589547706</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -832,6 +853,9 @@
       <c r="P8" t="n">
         <v>-0.1380605455470963</v>
       </c>
+      <c r="Q8" t="n">
+        <v>-0.134558936448666</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -882,6 +906,9 @@
       <c r="P9" t="n">
         <v>-0.2808933117478161</v>
       </c>
+      <c r="Q9" t="n">
+        <v>-0.2790098885010219</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -932,6 +959,9 @@
       <c r="P10" t="n">
         <v>0.4288348274975866</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0.427099338436666</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -982,6 +1012,9 @@
       <c r="P11" t="n">
         <v>-0.1774130572262902</v>
       </c>
+      <c r="Q11" t="n">
+        <v>-0.1777465121177607</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1032,6 +1065,9 @@
       <c r="P12" t="n">
         <v>-0.01243735386936105</v>
       </c>
+      <c r="Q12" t="n">
+        <v>-0.01833684511619548</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1082,6 +1118,9 @@
       <c r="P13" t="n">
         <v>-0.02247199030782319</v>
       </c>
+      <c r="Q13" t="n">
+        <v>-0.02492443551857833</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1132,6 +1171,9 @@
       <c r="P14" t="n">
         <v>0.1973073775944194</v>
       </c>
+      <c r="Q14" t="n">
+        <v>0.1875942851301655</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1182,6 +1224,9 @@
       <c r="P15" t="n">
         <v>0.09690696079854363</v>
       </c>
+      <c r="Q15" t="n">
+        <v>0.08192341310522001</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1232,6 +1277,9 @@
       <c r="P16" t="n">
         <v>0.5456317633757981</v>
       </c>
+      <c r="Q16" t="n">
+        <v>0.5295213924573461</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1282,6 +1330,9 @@
       <c r="P17" t="n">
         <v>0.6214248516976557</v>
       </c>
+      <c r="Q17" t="n">
+        <v>0.604398691061599</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1332,6 +1383,9 @@
       <c r="P18" t="n">
         <v>-0.07643014087704372</v>
       </c>
+      <c r="Q18" t="n">
+        <v>-0.08445503763369633</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1382,6 +1436,9 @@
       <c r="P19" t="n">
         <v>0.4040932514367036</v>
       </c>
+      <c r="Q19" t="n">
+        <v>0.3949061516674932</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1432,6 +1489,9 @@
       <c r="P20" t="n">
         <v>0.4443098507845719</v>
       </c>
+      <c r="Q20" t="n">
+        <v>0.4262224838670081</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1482,6 +1542,9 @@
       <c r="P21" t="n">
         <v>0.6618296354493669</v>
       </c>
+      <c r="Q21" t="n">
+        <v>0.647587164759331</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1532,6 +1595,9 @@
       <c r="P22" t="n">
         <v>0.43022400969447</v>
       </c>
+      <c r="Q22" t="n">
+        <v>0.4153871765792074</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1582,6 +1648,9 @@
       <c r="P23" t="n">
         <v>-0.02155341910114167</v>
       </c>
+      <c r="Q23" t="n">
+        <v>-0.03450083090333912</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1632,6 +1701,9 @@
       <c r="P24" t="n">
         <v>1.944032336503853</v>
       </c>
+      <c r="Q24" t="n">
+        <v>1.76968900655697</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1682,6 +1754,9 @@
       <c r="P25" t="n">
         <v>0.2911168707662191</v>
       </c>
+      <c r="Q25" t="n">
+        <v>0.2901452750316599</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1732,6 +1807,9 @@
       <c r="P26" t="n">
         <v>0.1453506594149139</v>
       </c>
+      <c r="Q26" t="n">
+        <v>0.1384584100972798</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1782,6 +1860,9 @@
       <c r="P27" t="n">
         <v>0.03971457012102407</v>
       </c>
+      <c r="Q27" t="n">
+        <v>0.03241812216403425</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1832,6 +1913,9 @@
       <c r="P28" t="n">
         <v>0.7893706035731111</v>
       </c>
+      <c r="Q28" t="n">
+        <v>0.7839484186184905</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1882,6 +1966,9 @@
       <c r="P29" t="n">
         <v>1.808546135876952</v>
       </c>
+      <c r="Q29" t="n">
+        <v>1.698742176186881</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1932,6 +2019,9 @@
       <c r="P30" t="n">
         <v>0.6336215455029707</v>
       </c>
+      <c r="Q30" t="n">
+        <v>0.6287204629982548</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1982,6 +2072,9 @@
       <c r="P31" t="n">
         <v>-0.4895155768456463</v>
       </c>
+      <c r="Q31" t="n">
+        <v>-0.4882917396733714</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2032,6 +2125,9 @@
       <c r="P32" t="n">
         <v>0.5363730662674459</v>
       </c>
+      <c r="Q32" t="n">
+        <v>0.5313911065131316</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2082,6 +2178,9 @@
       <c r="P33" t="n">
         <v>0.7389457296152937</v>
       </c>
+      <c r="Q33" t="n">
+        <v>0.7371738303693059</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2132,6 +2231,9 @@
       <c r="P34" t="n">
         <v>-0.8594499354308205</v>
       </c>
+      <c r="Q34" t="n">
+        <v>-0.8620668586922948</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2182,6 +2284,9 @@
       <c r="P35" t="n">
         <v>0.77627274197615</v>
       </c>
+      <c r="Q35" t="n">
+        <v>0.7786035769474573</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2232,6 +2337,9 @@
       <c r="P36" t="n">
         <v>0.7167606036379857</v>
       </c>
+      <c r="Q36" t="n">
+        <v>0.7216635656639891</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2282,6 +2390,9 @@
       <c r="P37" t="n">
         <v>0.6796718420055534</v>
       </c>
+      <c r="Q37" t="n">
+        <v>0.6846419561847119</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2332,6 +2443,9 @@
       <c r="P38" t="n">
         <v>0.6246303325296554</v>
       </c>
+      <c r="Q38" t="n">
+        <v>0.6254944449587209</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2382,6 +2496,9 @@
       <c r="P39" t="n">
         <v>0.5789048193299544</v>
       </c>
+      <c r="Q39" t="n">
+        <v>0.5814251858259593</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2432,6 +2549,9 @@
       <c r="P40" t="n">
         <v>0.741601377134533</v>
       </c>
+      <c r="Q40" t="n">
+        <v>0.7438970912389301</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2482,6 +2602,9 @@
       <c r="P41" t="n">
         <v>0.5523173013545054</v>
       </c>
+      <c r="Q41" t="n">
+        <v>0.5553324527904741</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2532,6 +2655,9 @@
       <c r="P42" t="n">
         <v>0.5726449159847291</v>
       </c>
+      <c r="Q42" t="n">
+        <v>0.5762391856891792</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2582,6 +2708,9 @@
       <c r="P43" t="n">
         <v>0.6516639926053593</v>
       </c>
+      <c r="Q43" t="n">
+        <v>0.6536213097969776</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2632,6 +2761,9 @@
       <c r="P44" t="n">
         <v>0.6682344770141849</v>
       </c>
+      <c r="Q44" t="n">
+        <v>0.6719364348747948</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2682,6 +2814,9 @@
       <c r="P45" t="n">
         <v>0.6285631502390373</v>
       </c>
+      <c r="Q45" t="n">
+        <v>0.6362531926020546</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2732,6 +2867,9 @@
       <c r="P46" t="n">
         <v>-1.29369789774598</v>
       </c>
+      <c r="Q46" t="n">
+        <v>-1.296286440773492</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2782,6 +2920,9 @@
       <c r="P47" t="n">
         <v>-1.010588359964148</v>
       </c>
+      <c r="Q47" t="n">
+        <v>-1.012500011925459</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2832,6 +2973,9 @@
       <c r="P48" t="n">
         <v>-0.8829727813914455</v>
       </c>
+      <c r="Q48" t="n">
+        <v>-0.8829296667608113</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2882,6 +3026,9 @@
       <c r="P49" t="n">
         <v>-0.6446724187429936</v>
       </c>
+      <c r="Q49" t="n">
+        <v>-0.6448920712438444</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2932,6 +3079,9 @@
       <c r="P50" t="n">
         <v>-0.06379448653658987</v>
       </c>
+      <c r="Q50" t="n">
+        <v>-0.06532854526138804</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2982,6 +3132,9 @@
       <c r="P51" t="n">
         <v>-0.8699267424614976</v>
       </c>
+      <c r="Q51" t="n">
+        <v>-0.8691764566475174</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3032,6 +3185,9 @@
       <c r="P52" t="n">
         <v>-0.8699267424614976</v>
       </c>
+      <c r="Q52" t="n">
+        <v>-0.8691764566475174</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3082,6 +3238,9 @@
       <c r="P53" t="n">
         <v>-1.146220005386163</v>
       </c>
+      <c r="Q53" t="n">
+        <v>-1.147065418575057</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3132,6 +3291,9 @@
       <c r="P54" t="n">
         <v>-0.1773984222435732</v>
       </c>
+      <c r="Q54" t="n">
+        <v>-0.1778481596668872</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3182,6 +3344,9 @@
       <c r="P55" t="n">
         <v>-1.029892893037985</v>
       </c>
+      <c r="Q55" t="n">
+        <v>-1.032177821043414</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3232,6 +3397,9 @@
       <c r="P56" t="n">
         <v>-0.8990681458701696</v>
       </c>
+      <c r="Q56" t="n">
+        <v>-0.9023443377029057</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3282,6 +3450,9 @@
       <c r="P57" t="n">
         <v>-0.9097155959343247</v>
       </c>
+      <c r="Q57" t="n">
+        <v>-0.9160568402854189</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3332,6 +3503,9 @@
       <c r="P58" t="n">
         <v>-1.053467967632628</v>
       </c>
+      <c r="Q58" t="n">
+        <v>-1.059109106262687</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3382,6 +3556,9 @@
       <c r="P59" t="n">
         <v>-0.7828368414697199</v>
       </c>
+      <c r="Q59" t="n">
+        <v>-0.7841849820469899</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3432,6 +3609,9 @@
       <c r="P60" t="n">
         <v>-0.405751829569123</v>
       </c>
+      <c r="Q60" t="n">
+        <v>-0.4082593074195105</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3482,6 +3662,9 @@
       <c r="P61" t="n">
         <v>0.3873169753259534</v>
       </c>
+      <c r="Q61" t="n">
+        <v>0.3869944274180748</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3532,6 +3715,9 @@
       <c r="P62" t="n">
         <v>-1.160427858408202</v>
       </c>
+      <c r="Q62" t="n">
+        <v>-1.167813233312037</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3582,6 +3768,9 @@
       <c r="P63" t="n">
         <v>-0.5601349065073576</v>
       </c>
+      <c r="Q63" t="n">
+        <v>-0.5575411756851811</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -3632,6 +3821,9 @@
       <c r="P64" t="n">
         <v>-0.839671665433906</v>
       </c>
+      <c r="Q64" t="n">
+        <v>-0.8408845021243725</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3682,6 +3874,9 @@
       <c r="P65" t="n">
         <v>-0.02357221422302512</v>
       </c>
+      <c r="Q65" t="n">
+        <v>-0.025378418925492</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3732,6 +3927,9 @@
       <c r="P66" t="n">
         <v>-0.7379765013040298</v>
       </c>
+      <c r="Q66" t="n">
+        <v>-0.745204492715537</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3781,6 +3979,9 @@
       </c>
       <c r="P67" t="n">
         <v>-0.7087003905266219</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>-0.7182726720768082</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_11.xlsx
+++ b/predicted_variables_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q67"/>
+  <dimension ref="A1:R67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,9 @@
       <c r="Q1" s="1" t="n">
         <v>16</v>
       </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -538,6 +541,9 @@
       <c r="Q2" t="n">
         <v>-0.2121934951047888</v>
       </c>
+      <c r="R2" t="n">
+        <v>-0.2127806361620989</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -591,6 +597,9 @@
       <c r="Q3" t="n">
         <v>0.2791072145350352</v>
       </c>
+      <c r="R3" t="n">
+        <v>0.2775974524675505</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -644,6 +653,9 @@
       <c r="Q4" t="n">
         <v>0.2499160265555272</v>
       </c>
+      <c r="R4" t="n">
+        <v>0.2504719039877444</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -697,6 +709,9 @@
       <c r="Q5" t="n">
         <v>-0.03461264909409349</v>
       </c>
+      <c r="R5" t="n">
+        <v>-0.0369736750048236</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -750,6 +765,9 @@
       <c r="Q6" t="n">
         <v>0.2280497691397416</v>
       </c>
+      <c r="R6" t="n">
+        <v>0.2261067068196461</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -803,6 +821,9 @@
       <c r="Q7" t="n">
         <v>-0.3697579589547706</v>
       </c>
+      <c r="R7" t="n">
+        <v>-0.3700624782382243</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -856,6 +877,9 @@
       <c r="Q8" t="n">
         <v>-0.134558936448666</v>
       </c>
+      <c r="R8" t="n">
+        <v>-0.1318386021296502</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -909,6 +933,9 @@
       <c r="Q9" t="n">
         <v>-0.2790098885010219</v>
       </c>
+      <c r="R9" t="n">
+        <v>-0.2782472021640441</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -962,6 +989,9 @@
       <c r="Q10" t="n">
         <v>0.427099338436666</v>
       </c>
+      <c r="R10" t="n">
+        <v>0.4249122306478749</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1015,6 +1045,9 @@
       <c r="Q11" t="n">
         <v>-0.1777465121177607</v>
       </c>
+      <c r="R11" t="n">
+        <v>-0.1785803789458499</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1068,6 +1101,9 @@
       <c r="Q12" t="n">
         <v>-0.01833684511619548</v>
       </c>
+      <c r="R12" t="n">
+        <v>-0.02482869294766888</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1121,6 +1157,9 @@
       <c r="Q13" t="n">
         <v>-0.02492443551857833</v>
       </c>
+      <c r="R13" t="n">
+        <v>-0.02748348184097808</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1174,6 +1213,9 @@
       <c r="Q14" t="n">
         <v>0.1875942851301655</v>
       </c>
+      <c r="R14" t="n">
+        <v>0.1767874905753618</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1227,6 +1269,9 @@
       <c r="Q15" t="n">
         <v>0.08192341310522001</v>
       </c>
+      <c r="R15" t="n">
+        <v>0.06598854111126376</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1280,6 +1325,9 @@
       <c r="Q16" t="n">
         <v>0.5295213924573461</v>
       </c>
+      <c r="R16" t="n">
+        <v>0.5119508892128322</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1333,6 +1381,9 @@
       <c r="Q17" t="n">
         <v>0.604398691061599</v>
       </c>
+      <c r="R17" t="n">
+        <v>0.5870220562778372</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1386,6 +1437,9 @@
       <c r="Q18" t="n">
         <v>-0.08445503763369633</v>
       </c>
+      <c r="R18" t="n">
+        <v>-0.09225721535430759</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1439,6 +1493,9 @@
       <c r="Q19" t="n">
         <v>0.3949061516674932</v>
       </c>
+      <c r="R19" t="n">
+        <v>0.3854277140281063</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1492,6 +1549,9 @@
       <c r="Q20" t="n">
         <v>0.4262224838670081</v>
       </c>
+      <c r="R20" t="n">
+        <v>0.4069606134783043</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1545,6 +1605,9 @@
       <c r="Q21" t="n">
         <v>0.647587164759331</v>
       </c>
+      <c r="R21" t="n">
+        <v>0.6325916059345552</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1598,6 +1661,9 @@
       <c r="Q22" t="n">
         <v>0.4153871765792074</v>
       </c>
+      <c r="R22" t="n">
+        <v>0.4000643296071379</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1651,6 +1717,9 @@
       <c r="Q23" t="n">
         <v>-0.03450083090333912</v>
       </c>
+      <c r="R23" t="n">
+        <v>-0.04782136968328146</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1704,6 +1773,9 @@
       <c r="Q24" t="n">
         <v>1.76968900655697</v>
       </c>
+      <c r="R24" t="n">
+        <v>1.61516138456822</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1757,6 +1829,9 @@
       <c r="Q25" t="n">
         <v>0.2901452750316599</v>
       </c>
+      <c r="R25" t="n">
+        <v>0.2901212259348356</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1810,6 +1885,9 @@
       <c r="Q26" t="n">
         <v>0.1384584100972798</v>
       </c>
+      <c r="R26" t="n">
+        <v>0.1328560745311354</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1863,6 +1941,9 @@
       <c r="Q27" t="n">
         <v>0.03241812216403425</v>
       </c>
+      <c r="R27" t="n">
+        <v>0.02670149519813584</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1916,6 +1997,9 @@
       <c r="Q28" t="n">
         <v>0.7839484186184905</v>
       </c>
+      <c r="R28" t="n">
+        <v>0.7803870471020524</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1969,6 +2053,9 @@
       <c r="Q29" t="n">
         <v>1.698742176186881</v>
       </c>
+      <c r="R29" t="n">
+        <v>1.609087664615618</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2022,6 +2109,9 @@
       <c r="Q30" t="n">
         <v>0.6287204629982548</v>
       </c>
+      <c r="R30" t="n">
+        <v>0.6256352058336195</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2075,6 +2165,9 @@
       <c r="Q31" t="n">
         <v>-0.4882917396733714</v>
       </c>
+      <c r="R31" t="n">
+        <v>-0.4858321358241163</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2128,6 +2221,9 @@
       <c r="Q32" t="n">
         <v>0.5313911065131316</v>
       </c>
+      <c r="R32" t="n">
+        <v>0.527768335745558</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2181,6 +2277,9 @@
       <c r="Q33" t="n">
         <v>0.7371738303693059</v>
       </c>
+      <c r="R33" t="n">
+        <v>0.7363469365861521</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2234,6 +2333,9 @@
       <c r="Q34" t="n">
         <v>-0.8620668586922948</v>
       </c>
+      <c r="R34" t="n">
+        <v>-0.8636500019027864</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2287,6 +2389,9 @@
       <c r="Q35" t="n">
         <v>0.7786035769474573</v>
       </c>
+      <c r="R35" t="n">
+        <v>0.7812926086849585</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2340,6 +2445,9 @@
       <c r="Q36" t="n">
         <v>0.7216635656639891</v>
       </c>
+      <c r="R36" t="n">
+        <v>0.7269753511177036</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2393,6 +2501,9 @@
       <c r="Q37" t="n">
         <v>0.6846419561847119</v>
       </c>
+      <c r="R37" t="n">
+        <v>0.690074993375774</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2446,6 +2557,9 @@
       <c r="Q38" t="n">
         <v>0.6254944449587209</v>
       </c>
+      <c r="R38" t="n">
+        <v>0.6268777931040554</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2499,6 +2613,9 @@
       <c r="Q39" t="n">
         <v>0.5814251858259593</v>
       </c>
+      <c r="R39" t="n">
+        <v>0.5840440798909154</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2552,6 +2669,9 @@
       <c r="Q40" t="n">
         <v>0.7438970912389301</v>
       </c>
+      <c r="R40" t="n">
+        <v>0.7464518414561501</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2605,6 +2725,9 @@
       <c r="Q41" t="n">
         <v>0.5553324527904741</v>
       </c>
+      <c r="R41" t="n">
+        <v>0.5583406748484752</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2658,6 +2781,9 @@
       <c r="Q42" t="n">
         <v>0.5762391856891792</v>
       </c>
+      <c r="R42" t="n">
+        <v>0.5805679010493042</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2711,6 +2837,9 @@
       <c r="Q43" t="n">
         <v>0.6536213097969776</v>
       </c>
+      <c r="R43" t="n">
+        <v>0.6559094874500603</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2764,6 +2893,9 @@
       <c r="Q44" t="n">
         <v>0.6719364348747948</v>
       </c>
+      <c r="R44" t="n">
+        <v>0.675735409298905</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2817,6 +2949,9 @@
       <c r="Q45" t="n">
         <v>0.6362531926020546</v>
       </c>
+      <c r="R45" t="n">
+        <v>0.644260568974882</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2870,6 +3005,9 @@
       <c r="Q46" t="n">
         <v>-1.296286440773492</v>
       </c>
+      <c r="R46" t="n">
+        <v>-1.299032258029213</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2923,6 +3061,9 @@
       <c r="Q47" t="n">
         <v>-1.012500011925459</v>
       </c>
+      <c r="R47" t="n">
+        <v>-1.014504485095331</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2976,6 +3117,9 @@
       <c r="Q48" t="n">
         <v>-0.8829296667608113</v>
       </c>
+      <c r="R48" t="n">
+        <v>-0.8831316430889946</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3029,6 +3173,9 @@
       <c r="Q49" t="n">
         <v>-0.6448920712438444</v>
       </c>
+      <c r="R49" t="n">
+        <v>-0.645336402832167</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3082,6 +3229,9 @@
       <c r="Q50" t="n">
         <v>-0.06532854526138804</v>
       </c>
+      <c r="R50" t="n">
+        <v>-0.06690081604896056</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3135,6 +3285,9 @@
       <c r="Q51" t="n">
         <v>-0.8691764566475174</v>
       </c>
+      <c r="R51" t="n">
+        <v>-0.8686195820548175</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3188,6 +3341,9 @@
       <c r="Q52" t="n">
         <v>-0.8691764566475174</v>
       </c>
+      <c r="R52" t="n">
+        <v>-0.8686195820548175</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3241,6 +3397,9 @@
       <c r="Q53" t="n">
         <v>-1.147065418575057</v>
       </c>
+      <c r="R53" t="n">
+        <v>-1.148044971794951</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3294,6 +3453,9 @@
       <c r="Q54" t="n">
         <v>-0.1778481596668872</v>
       </c>
+      <c r="R54" t="n">
+        <v>-0.1784930928186103</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3347,6 +3509,9 @@
       <c r="Q55" t="n">
         <v>-1.032177821043414</v>
       </c>
+      <c r="R55" t="n">
+        <v>-1.034567966802649</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3400,6 +3565,9 @@
       <c r="Q56" t="n">
         <v>-0.9023443377029057</v>
       </c>
+      <c r="R56" t="n">
+        <v>-0.9056695594735783</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3453,6 +3621,9 @@
       <c r="Q57" t="n">
         <v>-0.9160568402854189</v>
       </c>
+      <c r="R57" t="n">
+        <v>-0.922851102800994</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3506,6 +3677,9 @@
       <c r="Q58" t="n">
         <v>-1.059109106262687</v>
       </c>
+      <c r="R58" t="n">
+        <v>-1.065378678685975</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3559,6 +3733,9 @@
       <c r="Q59" t="n">
         <v>-0.7841849820469899</v>
       </c>
+      <c r="R59" t="n">
+        <v>-0.7860984974562143</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3612,6 +3789,9 @@
       <c r="Q60" t="n">
         <v>-0.4082593074195105</v>
       </c>
+      <c r="R60" t="n">
+        <v>-0.4113971477852497</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3665,6 +3845,9 @@
       <c r="Q61" t="n">
         <v>0.3869944274180748</v>
       </c>
+      <c r="R61" t="n">
+        <v>0.386524714007905</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3718,6 +3901,9 @@
       <c r="Q62" t="n">
         <v>-1.167813233312037</v>
       </c>
+      <c r="R62" t="n">
+        <v>-1.175803737645804</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3771,6 +3957,9 @@
       <c r="Q63" t="n">
         <v>-0.5575411756851811</v>
       </c>
+      <c r="R63" t="n">
+        <v>-0.5560241368626609</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -3824,6 +4013,9 @@
       <c r="Q64" t="n">
         <v>-0.8408845021243725</v>
       </c>
+      <c r="R64" t="n">
+        <v>-0.8428627181269867</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3877,6 +4069,9 @@
       <c r="Q65" t="n">
         <v>-0.025378418925492</v>
       </c>
+      <c r="R65" t="n">
+        <v>-0.02771703979427818</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3930,6 +4125,9 @@
       <c r="Q66" t="n">
         <v>-0.745204492715537</v>
       </c>
+      <c r="R66" t="n">
+        <v>-0.7528561529762509</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3982,6 +4180,9 @@
       </c>
       <c r="Q67" t="n">
         <v>-0.7182726720768082</v>
+      </c>
+      <c r="R67" t="n">
+        <v>-0.7281387479312382</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_11.xlsx
+++ b/predicted_variables_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R67"/>
+  <dimension ref="A1:S67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,6 +488,9 @@
       <c r="R1" s="1" t="n">
         <v>17</v>
       </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -544,6 +547,9 @@
       <c r="R2" t="n">
         <v>-0.2127806361620989</v>
       </c>
+      <c r="S2" t="n">
+        <v>-0.2139570523918734</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -600,6 +606,9 @@
       <c r="R3" t="n">
         <v>0.2775974524675505</v>
       </c>
+      <c r="S3" t="n">
+        <v>0.2755518033095838</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -656,6 +665,9 @@
       <c r="R4" t="n">
         <v>0.2504719039877444</v>
       </c>
+      <c r="S4" t="n">
+        <v>0.2503385456771761</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -712,6 +724,9 @@
       <c r="R5" t="n">
         <v>-0.0369736750048236</v>
       </c>
+      <c r="S5" t="n">
+        <v>-0.03962689041940551</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -768,6 +783,9 @@
       <c r="R6" t="n">
         <v>0.2261067068196461</v>
       </c>
+      <c r="S6" t="n">
+        <v>0.2237073292682365</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -824,6 +842,9 @@
       <c r="R7" t="n">
         <v>-0.3700624782382243</v>
       </c>
+      <c r="S7" t="n">
+        <v>-0.3709689425126083</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -880,6 +901,9 @@
       <c r="R8" t="n">
         <v>-0.1318386021296502</v>
       </c>
+      <c r="S8" t="n">
+        <v>-0.1298366673580087</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -936,6 +960,9 @@
       <c r="R9" t="n">
         <v>-0.2782472021640441</v>
       </c>
+      <c r="S9" t="n">
+        <v>-0.278490243383376</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -992,6 +1019,9 @@
       <c r="R10" t="n">
         <v>0.4249122306478749</v>
       </c>
+      <c r="S10" t="n">
+        <v>0.4223764785073585</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1048,6 +1078,9 @@
       <c r="R11" t="n">
         <v>-0.1785803789458499</v>
       </c>
+      <c r="S11" t="n">
+        <v>-0.1798465096005281</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1104,6 +1137,9 @@
       <c r="R12" t="n">
         <v>-0.02482869294766888</v>
       </c>
+      <c r="S12" t="n">
+        <v>-0.03173059165023946</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1160,6 +1196,9 @@
       <c r="R13" t="n">
         <v>-0.02748348184097808</v>
       </c>
+      <c r="S13" t="n">
+        <v>-0.03011371718183513</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1216,6 +1255,9 @@
       <c r="R14" t="n">
         <v>0.1767874905753618</v>
       </c>
+      <c r="S14" t="n">
+        <v>0.1652217433962259</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1272,6 +1314,9 @@
       <c r="R15" t="n">
         <v>0.06598854111126376</v>
       </c>
+      <c r="S15" t="n">
+        <v>0.04949411972184327</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1328,6 +1373,9 @@
       <c r="R16" t="n">
         <v>0.5119508892128322</v>
       </c>
+      <c r="S16" t="n">
+        <v>0.4934270436294284</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1384,6 +1432,9 @@
       <c r="R17" t="n">
         <v>0.5870220562778372</v>
       </c>
+      <c r="S17" t="n">
+        <v>0.5696309743629077</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1440,6 +1491,9 @@
       <c r="R18" t="n">
         <v>-0.09225721535430759</v>
       </c>
+      <c r="S18" t="n">
+        <v>-0.09979357375324277</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1496,6 +1550,9 @@
       <c r="R19" t="n">
         <v>0.3854277140281063</v>
       </c>
+      <c r="S19" t="n">
+        <v>0.3758366032259381</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1552,6 +1609,9 @@
       <c r="R20" t="n">
         <v>0.4069606134783043</v>
       </c>
+      <c r="S20" t="n">
+        <v>0.3870135056487679</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1608,6 +1668,9 @@
       <c r="R21" t="n">
         <v>0.6325916059345552</v>
       </c>
+      <c r="S21" t="n">
+        <v>0.6172368852869951</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1664,6 +1727,9 @@
       <c r="R22" t="n">
         <v>0.4000643296071379</v>
       </c>
+      <c r="S22" t="n">
+        <v>0.3845818104688898</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1720,6 +1786,9 @@
       <c r="R23" t="n">
         <v>-0.04782136968328146</v>
       </c>
+      <c r="S23" t="n">
+        <v>-0.06124131976272915</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1776,6 +1845,9 @@
       <c r="R24" t="n">
         <v>1.61516138456822</v>
       </c>
+      <c r="S24" t="n">
+        <v>1.480480157554665</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1832,6 +1904,9 @@
       <c r="R25" t="n">
         <v>0.2901212259348356</v>
       </c>
+      <c r="S25" t="n">
+        <v>0.2908768759120867</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1888,6 +1963,9 @@
       <c r="R26" t="n">
         <v>0.1328560745311354</v>
       </c>
+      <c r="S26" t="n">
+        <v>0.1284407771219504</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1944,6 +2022,9 @@
       <c r="R27" t="n">
         <v>0.02670149519813584</v>
       </c>
+      <c r="S27" t="n">
+        <v>0.02241107655245075</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2000,6 +2081,9 @@
       <c r="R28" t="n">
         <v>0.7803870471020524</v>
       </c>
+      <c r="S28" t="n">
+        <v>0.7784873919979414</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2056,6 +2140,9 @@
       <c r="R29" t="n">
         <v>1.609087664615618</v>
       </c>
+      <c r="S29" t="n">
+        <v>1.537794150554355</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2112,6 +2199,9 @@
       <c r="R30" t="n">
         <v>0.6256352058336195</v>
       </c>
+      <c r="S30" t="n">
+        <v>0.6241162129154472</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2168,6 +2258,9 @@
       <c r="R31" t="n">
         <v>-0.4858321358241163</v>
       </c>
+      <c r="S31" t="n">
+        <v>-0.4824217612311033</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2224,6 +2317,9 @@
       <c r="R32" t="n">
         <v>0.527768335745558</v>
       </c>
+      <c r="S32" t="n">
+        <v>0.5253637405549709</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2280,6 +2376,9 @@
       <c r="R33" t="n">
         <v>0.7363469365861521</v>
       </c>
+      <c r="S33" t="n">
+        <v>0.7363292644216547</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2336,6 +2435,9 @@
       <c r="R34" t="n">
         <v>-0.8636500019027864</v>
       </c>
+      <c r="S34" t="n">
+        <v>-0.8643598283284393</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2392,6 +2494,9 @@
       <c r="R35" t="n">
         <v>0.7812926086849585</v>
       </c>
+      <c r="S35" t="n">
+        <v>0.7842535833927795</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2448,6 +2553,9 @@
       <c r="R36" t="n">
         <v>0.7269753511177036</v>
       </c>
+      <c r="S36" t="n">
+        <v>0.7325508893031636</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2504,6 +2612,9 @@
       <c r="R37" t="n">
         <v>0.690074993375774</v>
       </c>
+      <c r="S37" t="n">
+        <v>0.6958139267154893</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2560,6 +2671,9 @@
       <c r="R38" t="n">
         <v>0.6268777931040554</v>
       </c>
+      <c r="S38" t="n">
+        <v>0.6286710108572749</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2616,6 +2730,9 @@
       <c r="R39" t="n">
         <v>0.5840440798909154</v>
       </c>
+      <c r="S39" t="n">
+        <v>0.5867084683321449</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2672,6 +2789,9 @@
       <c r="R40" t="n">
         <v>0.7464518414561501</v>
       </c>
+      <c r="S40" t="n">
+        <v>0.749204799775717</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2728,6 +2848,9 @@
       <c r="R41" t="n">
         <v>0.5583406748484752</v>
       </c>
+      <c r="S41" t="n">
+        <v>0.5612891744875981</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2784,6 +2907,9 @@
       <c r="R42" t="n">
         <v>0.5805679010493042</v>
       </c>
+      <c r="S42" t="n">
+        <v>0.585441748900605</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2840,6 +2966,9 @@
       <c r="R43" t="n">
         <v>0.6559094874500603</v>
       </c>
+      <c r="S43" t="n">
+        <v>0.6584353196451244</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2896,6 +3025,9 @@
       <c r="R44" t="n">
         <v>0.675735409298905</v>
       </c>
+      <c r="S44" t="n">
+        <v>0.6795568994126061</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2952,6 +3084,9 @@
       <c r="R45" t="n">
         <v>0.644260568974882</v>
       </c>
+      <c r="S45" t="n">
+        <v>0.6524092028822184</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3008,6 +3143,9 @@
       <c r="R46" t="n">
         <v>-1.299032258029213</v>
       </c>
+      <c r="S46" t="n">
+        <v>-1.301928543434926</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3064,6 +3202,9 @@
       <c r="R47" t="n">
         <v>-1.014504485095331</v>
       </c>
+      <c r="S47" t="n">
+        <v>-1.016606935817036</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3120,6 +3261,9 @@
       <c r="R48" t="n">
         <v>-0.8831316430889946</v>
       </c>
+      <c r="S48" t="n">
+        <v>-0.8835947884706475</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3176,6 +3320,9 @@
       <c r="R49" t="n">
         <v>-0.645336402832167</v>
       </c>
+      <c r="S49" t="n">
+        <v>-0.6460091038633445</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3232,6 +3379,9 @@
       <c r="R50" t="n">
         <v>-0.06690081604896056</v>
       </c>
+      <c r="S50" t="n">
+        <v>-0.06850362953310365</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3288,6 +3438,9 @@
       <c r="R51" t="n">
         <v>-0.8686195820548175</v>
       </c>
+      <c r="S51" t="n">
+        <v>-0.8682822500828268</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3344,6 +3497,9 @@
       <c r="R52" t="n">
         <v>-0.8686195820548175</v>
       </c>
+      <c r="S52" t="n">
+        <v>-0.8682822500828268</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3400,6 +3556,9 @@
       <c r="R53" t="n">
         <v>-1.148044971794951</v>
       </c>
+      <c r="S53" t="n">
+        <v>-1.149197526817543</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3456,6 +3615,9 @@
       <c r="R54" t="n">
         <v>-0.1784930928186103</v>
       </c>
+      <c r="S54" t="n">
+        <v>-0.1793210367866492</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3512,6 +3674,9 @@
       <c r="R55" t="n">
         <v>-1.034567966802649</v>
       </c>
+      <c r="S55" t="n">
+        <v>-1.03706184118864</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3568,6 +3733,9 @@
       <c r="R56" t="n">
         <v>-0.9056695594735783</v>
       </c>
+      <c r="S56" t="n">
+        <v>-0.9090128164887902</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3624,6 +3792,9 @@
       <c r="R57" t="n">
         <v>-0.922851102800994</v>
       </c>
+      <c r="S57" t="n">
+        <v>-0.9299643488887482</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3680,6 +3851,9 @@
       <c r="R58" t="n">
         <v>-1.065378678685975</v>
       </c>
+      <c r="S58" t="n">
+        <v>-1.072108032000455</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3736,6 +3910,9 @@
       <c r="R59" t="n">
         <v>-0.7860984974562143</v>
       </c>
+      <c r="S59" t="n">
+        <v>-0.7884948738387976</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3792,6 +3969,9 @@
       <c r="R60" t="n">
         <v>-0.4113971477852497</v>
       </c>
+      <c r="S60" t="n">
+        <v>-0.4150328567347476</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3848,6 +4028,9 @@
       <c r="R61" t="n">
         <v>0.386524714007905</v>
       </c>
+      <c r="S61" t="n">
+        <v>0.3859293057735604</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3904,6 +4087,9 @@
       <c r="R62" t="n">
         <v>-1.175803737645804</v>
       </c>
+      <c r="S62" t="n">
+        <v>-1.184223555186319</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3960,6 +4146,9 @@
       <c r="R63" t="n">
         <v>-0.5560241368626609</v>
       </c>
+      <c r="S63" t="n">
+        <v>-0.5554557648606603</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4016,6 +4205,9 @@
       <c r="R64" t="n">
         <v>-0.8428627181269867</v>
       </c>
+      <c r="S64" t="n">
+        <v>-0.8455180191319993</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4072,6 +4264,9 @@
       <c r="R65" t="n">
         <v>-0.02771703979427818</v>
       </c>
+      <c r="S65" t="n">
+        <v>-0.03047389691147792</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4128,6 +4323,9 @@
       <c r="R66" t="n">
         <v>-0.7528561529762509</v>
       </c>
+      <c r="S66" t="n">
+        <v>-0.7607589557759783</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4183,6 +4381,9 @@
       </c>
       <c r="R67" t="n">
         <v>-0.7281387479312382</v>
+      </c>
+      <c r="S67" t="n">
+        <v>-0.7380918309124119</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_11.xlsx
+++ b/predicted_variables_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S67"/>
+  <dimension ref="A1:T67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,6 +491,9 @@
       <c r="S1" s="1" t="n">
         <v>18</v>
       </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -550,6 +553,9 @@
       <c r="S2" t="n">
         <v>-0.2139570523918734</v>
       </c>
+      <c r="T2" t="n">
+        <v>-0.2156295756070882</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -609,6 +615,9 @@
       <c r="S3" t="n">
         <v>0.2755518033095838</v>
       </c>
+      <c r="T3" t="n">
+        <v>0.2730686221139365</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -668,6 +677,9 @@
       <c r="S4" t="n">
         <v>0.2503385456771761</v>
       </c>
+      <c r="T4" t="n">
+        <v>0.2496065171593652</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -727,6 +739,9 @@
       <c r="S5" t="n">
         <v>-0.03962689041940551</v>
       </c>
+      <c r="T5" t="n">
+        <v>-0.04249826260258216</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -786,6 +801,9 @@
       <c r="S6" t="n">
         <v>0.2237073292682365</v>
       </c>
+      <c r="T6" t="n">
+        <v>0.2209600461618825</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -845,6 +863,9 @@
       <c r="S7" t="n">
         <v>-0.3709689425126083</v>
       </c>
+      <c r="T7" t="n">
+        <v>-0.3723979463710162</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -904,6 +925,9 @@
       <c r="S8" t="n">
         <v>-0.1298366673580087</v>
       </c>
+      <c r="T8" t="n">
+        <v>-0.1284866207027489</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -963,6 +987,9 @@
       <c r="S9" t="n">
         <v>-0.278490243383376</v>
       </c>
+      <c r="T9" t="n">
+        <v>-0.2796183286407259</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1022,6 +1049,9 @@
       <c r="S10" t="n">
         <v>0.4223764785073585</v>
       </c>
+      <c r="T10" t="n">
+        <v>0.4195857069706584</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1081,6 +1111,9 @@
       <c r="S11" t="n">
         <v>-0.1798465096005281</v>
       </c>
+      <c r="T11" t="n">
+        <v>-0.181478643547821</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1140,6 +1173,9 @@
       <c r="S12" t="n">
         <v>-0.03173059165023946</v>
       </c>
+      <c r="T12" t="n">
+        <v>-0.03887938393683174</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1199,6 +1235,9 @@
       <c r="S13" t="n">
         <v>-0.03011371718183513</v>
       </c>
+      <c r="T13" t="n">
+        <v>-0.03278232203663937</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1258,6 +1297,9 @@
       <c r="S14" t="n">
         <v>0.1652217433962259</v>
       </c>
+      <c r="T14" t="n">
+        <v>0.1531976587496235</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1317,6 +1359,9 @@
       <c r="S15" t="n">
         <v>0.04949411972184327</v>
       </c>
+      <c r="T15" t="n">
+        <v>0.03278597619383908</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1376,6 +1421,9 @@
       <c r="S16" t="n">
         <v>0.4934270436294284</v>
       </c>
+      <c r="T16" t="n">
+        <v>0.4744011046890501</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1435,6 +1483,9 @@
       <c r="S17" t="n">
         <v>0.5696309743629077</v>
       </c>
+      <c r="T17" t="n">
+        <v>0.5525138861511274</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1494,6 +1545,9 @@
       <c r="S18" t="n">
         <v>-0.09979357375324277</v>
       </c>
+      <c r="T18" t="n">
+        <v>-0.1070257905056548</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1553,6 +1607,9 @@
       <c r="S19" t="n">
         <v>0.3758366032259381</v>
       </c>
+      <c r="T19" t="n">
+        <v>0.3662887967938275</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1612,6 +1669,9 @@
       <c r="S20" t="n">
         <v>0.3870135056487679</v>
       </c>
+      <c r="T20" t="n">
+        <v>0.3668122288791793</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1671,6 +1731,9 @@
       <c r="S21" t="n">
         <v>0.6172368852869951</v>
       </c>
+      <c r="T21" t="n">
+        <v>0.6018613960490161</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1730,6 +1793,9 @@
       <c r="S22" t="n">
         <v>0.3845818104688898</v>
       </c>
+      <c r="T22" t="n">
+        <v>0.3692216790354917</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1789,6 +1855,9 @@
       <c r="S23" t="n">
         <v>-0.06124131976272915</v>
       </c>
+      <c r="T23" t="n">
+        <v>-0.07452561785404956</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1848,6 +1917,9 @@
       <c r="S24" t="n">
         <v>1.480480157554665</v>
       </c>
+      <c r="T24" t="n">
+        <v>1.365237732279871</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1907,6 +1979,9 @@
       <c r="S25" t="n">
         <v>0.2908768759120867</v>
       </c>
+      <c r="T25" t="n">
+        <v>0.2922590413238513</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1966,6 +2041,9 @@
       <c r="S26" t="n">
         <v>0.1284407771219504</v>
       </c>
+      <c r="T26" t="n">
+        <v>0.1251020902978028</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2025,6 +2103,9 @@
       <c r="S27" t="n">
         <v>0.02241107655245075</v>
       </c>
+      <c r="T27" t="n">
+        <v>0.01939118244935847</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2084,6 +2165,9 @@
       <c r="S28" t="n">
         <v>0.7784873919979414</v>
       </c>
+      <c r="T28" t="n">
+        <v>0.7780478683029944</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2143,6 +2227,9 @@
       <c r="S29" t="n">
         <v>1.537794150554355</v>
       </c>
+      <c r="T29" t="n">
+        <v>1.483038007699642</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2202,6 +2289,9 @@
       <c r="S30" t="n">
         <v>0.6241162129154472</v>
       </c>
+      <c r="T30" t="n">
+        <v>0.6239261410621735</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2261,6 +2351,9 @@
       <c r="S31" t="n">
         <v>-0.4824217612311033</v>
       </c>
+      <c r="T31" t="n">
+        <v>-0.4783144346427555</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2320,6 +2413,9 @@
       <c r="S32" t="n">
         <v>0.5253637405549709</v>
       </c>
+      <c r="T32" t="n">
+        <v>0.5240336093744657</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2379,6 +2475,9 @@
       <c r="S33" t="n">
         <v>0.7363292644216547</v>
       </c>
+      <c r="T33" t="n">
+        <v>0.7369912238600419</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2438,6 +2537,9 @@
       <c r="S34" t="n">
         <v>-0.8643598283284393</v>
       </c>
+      <c r="T34" t="n">
+        <v>-0.8643478046132127</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2497,6 +2599,9 @@
       <c r="S35" t="n">
         <v>0.7842535833927795</v>
       </c>
+      <c r="T35" t="n">
+        <v>0.7874064656759783</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2556,6 +2661,9 @@
       <c r="S36" t="n">
         <v>0.7325508893031636</v>
       </c>
+      <c r="T36" t="n">
+        <v>0.7382609281844243</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2615,6 +2723,9 @@
       <c r="S37" t="n">
         <v>0.6958139267154893</v>
       </c>
+      <c r="T37" t="n">
+        <v>0.7017188243083677</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2674,6 +2785,9 @@
       <c r="S38" t="n">
         <v>0.6286710108572749</v>
       </c>
+      <c r="T38" t="n">
+        <v>0.6307745147510514</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2733,6 +2847,9 @@
       <c r="S39" t="n">
         <v>0.5867084683321449</v>
       </c>
+      <c r="T39" t="n">
+        <v>0.5893709787931185</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2792,6 +2909,9 @@
       <c r="S40" t="n">
         <v>0.749204799775717</v>
       </c>
+      <c r="T40" t="n">
+        <v>0.7520977137908823</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2851,6 +2971,9 @@
       <c r="S41" t="n">
         <v>0.5612891744875981</v>
       </c>
+      <c r="T41" t="n">
+        <v>0.5641348876435255</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2910,6 +3033,9 @@
       <c r="S42" t="n">
         <v>0.585441748900605</v>
       </c>
+      <c r="T42" t="n">
+        <v>0.590689634949912</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2969,6 +3095,9 @@
       <c r="S43" t="n">
         <v>0.6584353196451244</v>
       </c>
+      <c r="T43" t="n">
+        <v>0.6611157332781209</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3028,6 +3157,9 @@
       <c r="S44" t="n">
         <v>0.6795568994126061</v>
       </c>
+      <c r="T44" t="n">
+        <v>0.6833364289078909</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3087,6 +3219,9 @@
       <c r="S45" t="n">
         <v>0.6524092028822184</v>
       </c>
+      <c r="T45" t="n">
+        <v>0.6605449455237076</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3146,6 +3281,9 @@
       <c r="S46" t="n">
         <v>-1.301928543434926</v>
       </c>
+      <c r="T46" t="n">
+        <v>-1.304965197608951</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3205,6 +3343,9 @@
       <c r="S47" t="n">
         <v>-1.016606935817036</v>
       </c>
+      <c r="T47" t="n">
+        <v>-1.018808663907505</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3264,6 +3405,9 @@
       <c r="S48" t="n">
         <v>-0.8835947884706475</v>
       </c>
+      <c r="T48" t="n">
+        <v>-0.884326332992965</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3323,6 +3467,9 @@
       <c r="S49" t="n">
         <v>-0.6460091038633445</v>
       </c>
+      <c r="T49" t="n">
+        <v>-0.6469079699875506</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3382,6 +3529,9 @@
       <c r="S50" t="n">
         <v>-0.06850362953310365</v>
       </c>
+      <c r="T50" t="n">
+        <v>-0.07012958059224908</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3441,6 +3591,9 @@
       <c r="S51" t="n">
         <v>-0.8682822500828268</v>
       </c>
+      <c r="T51" t="n">
+        <v>-0.8681818275322161</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3500,6 +3653,9 @@
       <c r="S52" t="n">
         <v>-0.8682822500828268</v>
       </c>
+      <c r="T52" t="n">
+        <v>-0.8681818275322161</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3559,6 +3715,9 @@
       <c r="S53" t="n">
         <v>-1.149197526817543</v>
       </c>
+      <c r="T53" t="n">
+        <v>-1.150549831856708</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3618,6 +3777,9 @@
       <c r="S54" t="n">
         <v>-0.1793210367866492</v>
       </c>
+      <c r="T54" t="n">
+        <v>-0.180318036501744</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3677,6 +3839,9 @@
       <c r="S55" t="n">
         <v>-1.03706184118864</v>
       </c>
+      <c r="T55" t="n">
+        <v>-1.039655111721158</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3736,6 +3901,9 @@
       <c r="S56" t="n">
         <v>-0.9090128164887902</v>
       </c>
+      <c r="T56" t="n">
+        <v>-0.9123482003253128</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3795,6 +3963,9 @@
       <c r="S57" t="n">
         <v>-0.9299643488887482</v>
       </c>
+      <c r="T57" t="n">
+        <v>-0.9372752503765259</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3854,6 +4025,9 @@
       <c r="S58" t="n">
         <v>-1.072108032000455</v>
       </c>
+      <c r="T58" t="n">
+        <v>-1.079145774503088</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3913,6 +4087,9 @@
       <c r="S59" t="n">
         <v>-0.7884948738387976</v>
       </c>
+      <c r="T59" t="n">
+        <v>-0.7912950905825679</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3972,6 +4149,9 @@
       <c r="S60" t="n">
         <v>-0.4150328567347476</v>
       </c>
+      <c r="T60" t="n">
+        <v>-0.4190454497029014</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4031,6 +4211,9 @@
       <c r="S61" t="n">
         <v>0.3859293057735604</v>
       </c>
+      <c r="T61" t="n">
+        <v>0.3852289034757131</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4090,6 +4273,9 @@
       <c r="S62" t="n">
         <v>-1.184223555186319</v>
       </c>
+      <c r="T62" t="n">
+        <v>-1.192914578972495</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4149,6 +4335,9 @@
       <c r="S63" t="n">
         <v>-0.5554557648606603</v>
       </c>
+      <c r="T63" t="n">
+        <v>-0.5557116219235153</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4208,6 +4397,9 @@
       <c r="S64" t="n">
         <v>-0.8455180191319993</v>
       </c>
+      <c r="T64" t="n">
+        <v>-0.8487597350432448</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4267,6 +4459,9 @@
       <c r="S65" t="n">
         <v>-0.03047389691147792</v>
       </c>
+      <c r="T65" t="n">
+        <v>-0.03354579786406646</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4326,6 +4521,9 @@
       <c r="S66" t="n">
         <v>-0.7607589557759783</v>
       </c>
+      <c r="T66" t="n">
+        <v>-0.768763001207773</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4384,6 +4582,9 @@
       </c>
       <c r="S67" t="n">
         <v>-0.7380918309124119</v>
+      </c>
+      <c r="T67" t="n">
+        <v>-0.7479583025935695</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_11.xlsx
+++ b/predicted_variables_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T67"/>
+  <dimension ref="A1:U67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,9 @@
       <c r="T1" s="1" t="n">
         <v>19</v>
       </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -556,6 +559,9 @@
       <c r="T2" t="n">
         <v>-0.2156295756070882</v>
       </c>
+      <c r="U2" t="n">
+        <v>-0.2177099550355459</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -618,6 +624,9 @@
       <c r="T3" t="n">
         <v>0.2730686221139365</v>
       </c>
+      <c r="U3" t="n">
+        <v>0.2702415257336001</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -680,6 +689,9 @@
       <c r="T4" t="n">
         <v>0.2496065171593652</v>
       </c>
+      <c r="U4" t="n">
+        <v>0.2483646279242101</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -742,6 +754,9 @@
       <c r="T5" t="n">
         <v>-0.04249826260258216</v>
       </c>
+      <c r="U5" t="n">
+        <v>-0.04552050786578649</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -804,6 +819,9 @@
       <c r="T6" t="n">
         <v>0.2209600461618825</v>
       </c>
+      <c r="U6" t="n">
+        <v>0.217963285143397</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -866,6 +884,9 @@
       <c r="T7" t="n">
         <v>-0.3723979463710162</v>
       </c>
+      <c r="U7" t="n">
+        <v>-0.3742715098641222</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -928,6 +949,9 @@
       <c r="T8" t="n">
         <v>-0.1284866207027489</v>
       </c>
+      <c r="U8" t="n">
+        <v>-0.1277202567444469</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -990,6 +1014,9 @@
       <c r="T9" t="n">
         <v>-0.2796183286407259</v>
       </c>
+      <c r="U9" t="n">
+        <v>-0.2815091780076107</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1052,6 +1079,9 @@
       <c r="T10" t="n">
         <v>0.4195857069706584</v>
       </c>
+      <c r="U10" t="n">
+        <v>0.4166237125137668</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1114,6 +1144,9 @@
       <c r="T11" t="n">
         <v>-0.181478643547821</v>
       </c>
+      <c r="U11" t="n">
+        <v>-0.1834135080711208</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1176,6 +1209,9 @@
       <c r="T12" t="n">
         <v>-0.03887938393683174</v>
       </c>
+      <c r="U12" t="n">
+        <v>-0.04613158410725189</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1238,6 +1274,9 @@
       <c r="T13" t="n">
         <v>-0.03278232203663937</v>
       </c>
+      <c r="U13" t="n">
+        <v>-0.03545950584218652</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1300,6 +1339,9 @@
       <c r="T14" t="n">
         <v>0.1531976587496235</v>
       </c>
+      <c r="U14" t="n">
+        <v>0.1409803360264687</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1362,6 +1404,9 @@
       <c r="T15" t="n">
         <v>0.03278597619383908</v>
       </c>
+      <c r="U15" t="n">
+        <v>0.01616347120200491</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1424,6 +1469,9 @@
       <c r="T16" t="n">
         <v>0.4744011046890501</v>
       </c>
+      <c r="U16" t="n">
+        <v>0.4552673871778233</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1486,6 +1534,9 @@
       <c r="T17" t="n">
         <v>0.5525138861511274</v>
       </c>
+      <c r="U17" t="n">
+        <v>0.5359125656187328</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1548,6 +1599,9 @@
       <c r="T18" t="n">
         <v>-0.1070257905056548</v>
       </c>
+      <c r="U18" t="n">
+        <v>-0.1139212835307211</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1610,6 +1664,9 @@
       <c r="T19" t="n">
         <v>0.3662887967938275</v>
       </c>
+      <c r="U19" t="n">
+        <v>0.3569175695390946</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1672,6 +1729,9 @@
       <c r="T20" t="n">
         <v>0.3668122288791793</v>
       </c>
+      <c r="U20" t="n">
+        <v>0.3467291909508065</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1734,6 +1794,9 @@
       <c r="T21" t="n">
         <v>0.6018613960490161</v>
       </c>
+      <c r="U21" t="n">
+        <v>0.5867499025693917</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1796,6 +1859,9 @@
       <c r="T22" t="n">
         <v>0.3692216790354917</v>
       </c>
+      <c r="U22" t="n">
+        <v>0.3542223710570429</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1858,6 +1924,9 @@
       <c r="T23" t="n">
         <v>-0.07452561785404956</v>
       </c>
+      <c r="U23" t="n">
+        <v>-0.08747686183314245</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1920,6 +1989,9 @@
       <c r="T24" t="n">
         <v>1.365237732279871</v>
       </c>
+      <c r="U24" t="n">
+        <v>1.268676414826533</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1982,6 +2054,9 @@
       <c r="T25" t="n">
         <v>0.2922590413238513</v>
       </c>
+      <c r="U25" t="n">
+        <v>0.2941296263299438</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2044,6 +2119,9 @@
       <c r="T26" t="n">
         <v>0.1251020902978028</v>
       </c>
+      <c r="U26" t="n">
+        <v>0.1227258141108375</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2106,6 +2184,9 @@
       <c r="T27" t="n">
         <v>0.01939118244935847</v>
       </c>
+      <c r="U27" t="n">
+        <v>0.01748759434947795</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2168,6 +2249,9 @@
       <c r="T28" t="n">
         <v>0.7780478683029944</v>
       </c>
+      <c r="U28" t="n">
+        <v>0.7788693366340633</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2230,6 +2314,9 @@
       <c r="T29" t="n">
         <v>1.483038007699642</v>
       </c>
+      <c r="U29" t="n">
+        <v>1.443000479752707</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2292,6 +2379,9 @@
       <c r="T30" t="n">
         <v>0.6239261410621735</v>
       </c>
+      <c r="U30" t="n">
+        <v>0.6248425330405585</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2354,6 +2444,9 @@
       <c r="T31" t="n">
         <v>-0.4783144346427555</v>
       </c>
+      <c r="U31" t="n">
+        <v>-0.4737330348231542</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2416,6 +2509,9 @@
       <c r="T32" t="n">
         <v>0.5240336093744657</v>
       </c>
+      <c r="U32" t="n">
+        <v>0.5236352765666499</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2478,6 +2574,9 @@
       <c r="T33" t="n">
         <v>0.7369912238600419</v>
       </c>
+      <c r="U33" t="n">
+        <v>0.7382111242151256</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2540,6 +2639,9 @@
       <c r="T34" t="n">
         <v>-0.8643478046132127</v>
       </c>
+      <c r="U34" t="n">
+        <v>-0.8637545891556513</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2602,6 +2704,9 @@
       <c r="T35" t="n">
         <v>0.7874064656759783</v>
       </c>
+      <c r="U35" t="n">
+        <v>0.7906784047483499</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2664,6 +2769,9 @@
       <c r="T36" t="n">
         <v>0.7382609281844243</v>
       </c>
+      <c r="U36" t="n">
+        <v>0.7439924629827941</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2726,6 +2834,9 @@
       <c r="T37" t="n">
         <v>0.7017188243083677</v>
       </c>
+      <c r="U37" t="n">
+        <v>0.7076672696015187</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2788,6 +2899,9 @@
       <c r="T38" t="n">
         <v>0.6307745147510514</v>
       </c>
+      <c r="U38" t="n">
+        <v>0.6330989654411386</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2850,6 +2964,9 @@
       <c r="T39" t="n">
         <v>0.5893709787931185</v>
       </c>
+      <c r="U39" t="n">
+        <v>0.5919902394648201</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2912,6 +3029,9 @@
       <c r="T40" t="n">
         <v>0.7520977137908823</v>
       </c>
+      <c r="U40" t="n">
+        <v>0.7550761496521181</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2974,6 +3094,9 @@
       <c r="T41" t="n">
         <v>0.5641348876435255</v>
       </c>
+      <c r="U41" t="n">
+        <v>0.5668437488377245</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3036,6 +3159,9 @@
       <c r="T42" t="n">
         <v>0.590689634949912</v>
       </c>
+      <c r="U42" t="n">
+        <v>0.5961595240212266</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3098,6 +3224,9 @@
       <c r="T43" t="n">
         <v>0.6611157332781209</v>
       </c>
+      <c r="U43" t="n">
+        <v>0.6638778929780359</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3160,6 +3289,9 @@
       <c r="T44" t="n">
         <v>0.6833364289078909</v>
       </c>
+      <c r="U44" t="n">
+        <v>0.6870194456060422</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3222,6 +3354,9 @@
       <c r="T45" t="n">
         <v>0.6605449455237076</v>
       </c>
+      <c r="U45" t="n">
+        <v>0.6685357080858669</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3284,6 +3419,9 @@
       <c r="T46" t="n">
         <v>-1.304965197608951</v>
       </c>
+      <c r="U46" t="n">
+        <v>-1.308129543964159</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3346,6 +3484,9 @@
       <c r="T47" t="n">
         <v>-1.018808663907505</v>
       </c>
+      <c r="U47" t="n">
+        <v>-1.021107674761515</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3408,6 +3549,9 @@
       <c r="T48" t="n">
         <v>-0.884326332992965</v>
       </c>
+      <c r="U48" t="n">
+        <v>-0.8853259310332063</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3470,6 +3614,9 @@
       <c r="T49" t="n">
         <v>-0.6469079699875506</v>
       </c>
+      <c r="U49" t="n">
+        <v>-0.6480258774679972</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3532,6 +3679,9 @@
       <c r="T50" t="n">
         <v>-0.07012958059224908</v>
       </c>
+      <c r="U50" t="n">
+        <v>-0.07177159600577304</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3594,6 +3744,9 @@
       <c r="T51" t="n">
         <v>-0.8681818275322161</v>
       </c>
+      <c r="U51" t="n">
+        <v>-0.8683278606143502</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3656,6 +3809,9 @@
       <c r="T52" t="n">
         <v>-0.8681818275322161</v>
       </c>
+      <c r="U52" t="n">
+        <v>-0.8683278606143502</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3718,6 +3874,9 @@
       <c r="T53" t="n">
         <v>-1.150549831856708</v>
       </c>
+      <c r="U53" t="n">
+        <v>-1.152118057479036</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3780,6 +3939,9 @@
       <c r="T54" t="n">
         <v>-0.180318036501744</v>
       </c>
+      <c r="U54" t="n">
+        <v>-0.1814688649618031</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3842,6 +4004,9 @@
       <c r="T55" t="n">
         <v>-1.039655111721158</v>
       </c>
+      <c r="U55" t="n">
+        <v>-1.042341096975741</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3904,6 +4069,9 @@
       <c r="T56" t="n">
         <v>-0.9123482003253128</v>
       </c>
+      <c r="U56" t="n">
+        <v>-0.9156543576256949</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3966,6 +4134,9 @@
       <c r="T57" t="n">
         <v>-0.9372752503765259</v>
       </c>
+      <c r="U57" t="n">
+        <v>-0.9446758274059323</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4028,6 +4199,9 @@
       <c r="T58" t="n">
         <v>-1.079145774503088</v>
       </c>
+      <c r="U58" t="n">
+        <v>-1.08635807890311</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4090,6 +4264,9 @@
       <c r="T59" t="n">
         <v>-0.7912950905825679</v>
       </c>
+      <c r="U59" t="n">
+        <v>-0.7944246083616289</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4152,6 +4329,9 @@
       <c r="T60" t="n">
         <v>-0.4190454497029014</v>
       </c>
+      <c r="U60" t="n">
+        <v>-0.4233260261262286</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4214,6 +4394,9 @@
       <c r="T61" t="n">
         <v>0.3852289034757131</v>
       </c>
+      <c r="U61" t="n">
+        <v>0.3844431213359586</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4276,6 +4459,9 @@
       <c r="T62" t="n">
         <v>-1.192914578972495</v>
       </c>
+      <c r="U62" t="n">
+        <v>-1.201736912463881</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4338,6 +4524,9 @@
       <c r="T63" t="n">
         <v>-0.5557116219235153</v>
       </c>
+      <c r="U63" t="n">
+        <v>-0.5566726088364379</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4400,6 +4589,9 @@
       <c r="T64" t="n">
         <v>-0.8487597350432448</v>
       </c>
+      <c r="U64" t="n">
+        <v>-0.8524974223312692</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4462,6 +4654,9 @@
       <c r="T65" t="n">
         <v>-0.03354579786406646</v>
       </c>
+      <c r="U65" t="n">
+        <v>-0.03684072931244412</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4524,6 +4719,9 @@
       <c r="T66" t="n">
         <v>-0.768763001207773</v>
       </c>
+      <c r="U66" t="n">
+        <v>-0.7767403282770162</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4585,6 +4783,9 @@
       </c>
       <c r="T67" t="n">
         <v>-0.7479583025935695</v>
+      </c>
+      <c r="U67" t="n">
+        <v>-0.757595528448374</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_11.xlsx
+++ b/predicted_variables_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U67"/>
+  <dimension ref="A1:V67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,6 +497,9 @@
       <c r="U1" s="1" t="n">
         <v>20</v>
       </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -562,6 +565,9 @@
       <c r="U2" t="n">
         <v>-0.2177099550355459</v>
       </c>
+      <c r="V2" t="n">
+        <v>-0.2201158818967198</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -627,6 +633,9 @@
       <c r="U3" t="n">
         <v>0.2702415257336001</v>
       </c>
+      <c r="V3" t="n">
+        <v>0.2671578724570522</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -692,6 +701,9 @@
       <c r="U4" t="n">
         <v>0.2483646279242101</v>
       </c>
+      <c r="V4" t="n">
+        <v>0.246698232476833</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -757,6 +769,9 @@
       <c r="U5" t="n">
         <v>-0.04552050786578649</v>
       </c>
+      <c r="V5" t="n">
+        <v>-0.04863345046640886</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -822,6 +837,9 @@
       <c r="U6" t="n">
         <v>0.217963285143397</v>
       </c>
+      <c r="V6" t="n">
+        <v>0.2148049925527417</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -887,6 +905,9 @@
       <c r="U7" t="n">
         <v>-0.3742715098641222</v>
       </c>
+      <c r="V7" t="n">
+        <v>-0.376514549436292</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -952,6 +973,9 @@
       <c r="U8" t="n">
         <v>-0.1277202567444469</v>
       </c>
+      <c r="V8" t="n">
+        <v>-0.1274693161655395</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1017,6 +1041,9 @@
       <c r="U9" t="n">
         <v>-0.2815091780076107</v>
       </c>
+      <c r="V9" t="n">
+        <v>-0.2840422229280526</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1082,6 +1109,9 @@
       <c r="U10" t="n">
         <v>0.4166237125137668</v>
       </c>
+      <c r="V10" t="n">
+        <v>0.4135643171069094</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1147,6 +1177,9 @@
       <c r="U11" t="n">
         <v>-0.1834135080711208</v>
       </c>
+      <c r="V11" t="n">
+        <v>-0.1855916422695209</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1212,6 +1245,9 @@
       <c r="U12" t="n">
         <v>-0.04613158410725189</v>
       </c>
+      <c r="V12" t="n">
+        <v>-0.05336329683145727</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1277,6 +1313,9 @@
       <c r="U13" t="n">
         <v>-0.03545950584218652</v>
       </c>
+      <c r="V13" t="n">
+        <v>-0.0381187660622429</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1342,6 +1381,9 @@
       <c r="U14" t="n">
         <v>0.1409803360264687</v>
       </c>
+      <c r="V14" t="n">
+        <v>0.1287991709271079</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1407,6 +1449,9 @@
       <c r="U15" t="n">
         <v>0.01616347120200491</v>
       </c>
+      <c r="V15" t="n">
+        <v>-0.0001196981286334386</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1472,6 +1517,9 @@
       <c r="U16" t="n">
         <v>0.4552673871778233</v>
       </c>
+      <c r="V16" t="n">
+        <v>0.4363636383742889</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1537,6 +1585,9 @@
       <c r="U17" t="n">
         <v>0.5359125656187328</v>
       </c>
+      <c r="V17" t="n">
+        <v>0.5200241123356723</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1602,6 +1653,9 @@
       <c r="U18" t="n">
         <v>-0.1139212835307211</v>
       </c>
+      <c r="V18" t="n">
+        <v>-0.1204537405144869</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1667,6 +1721,9 @@
       <c r="U19" t="n">
         <v>0.3569175695390946</v>
       </c>
+      <c r="V19" t="n">
+        <v>0.3478340949383075</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1732,6 +1789,9 @@
       <c r="U20" t="n">
         <v>0.3467291909508065</v>
       </c>
+      <c r="V20" t="n">
+        <v>0.3270793033968954</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1797,6 +1857,9 @@
       <c r="U21" t="n">
         <v>0.5867499025693917</v>
       </c>
+      <c r="V21" t="n">
+        <v>0.5721364185960338</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1862,6 +1925,9 @@
       <c r="U22" t="n">
         <v>0.3542223710570429</v>
       </c>
+      <c r="V22" t="n">
+        <v>0.3397803830089245</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1927,6 +1993,9 @@
       <c r="U23" t="n">
         <v>-0.08747686183314245</v>
       </c>
+      <c r="V23" t="n">
+        <v>-0.09993352996846445</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1992,6 +2061,9 @@
       <c r="U24" t="n">
         <v>1.268676414826533</v>
       </c>
+      <c r="V24" t="n">
+        <v>1.189768358947876</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2057,6 +2129,9 @@
       <c r="U25" t="n">
         <v>0.2941296263299438</v>
       </c>
+      <c r="V25" t="n">
+        <v>0.2963656544517938</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2122,6 +2197,9 @@
       <c r="U26" t="n">
         <v>0.1227258141108375</v>
       </c>
+      <c r="V26" t="n">
+        <v>0.1211971472125185</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2187,6 +2265,9 @@
       <c r="U27" t="n">
         <v>0.01748759434947795</v>
       </c>
+      <c r="V27" t="n">
+        <v>0.01655043817086572</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2252,6 +2333,9 @@
       <c r="U28" t="n">
         <v>0.7788693366340633</v>
       </c>
+      <c r="V28" t="n">
+        <v>0.7807590597646087</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2317,6 +2401,9 @@
       <c r="U29" t="n">
         <v>1.443000479752707</v>
       </c>
+      <c r="V29" t="n">
+        <v>1.415900967556839</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2382,6 +2469,9 @@
       <c r="U30" t="n">
         <v>0.6248425330405585</v>
       </c>
+      <c r="V30" t="n">
+        <v>0.6266596900091546</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2447,6 +2537,9 @@
       <c r="U31" t="n">
         <v>-0.4737330348231542</v>
       </c>
+      <c r="V31" t="n">
+        <v>-0.4688703857625974</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2512,6 +2605,9 @@
       <c r="U32" t="n">
         <v>0.5236352765666499</v>
       </c>
+      <c r="V32" t="n">
+        <v>0.5240301415923153</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2577,6 +2673,9 @@
       <c r="U33" t="n">
         <v>0.7382111242151256</v>
       </c>
+      <c r="V33" t="n">
+        <v>0.739876387277552</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2642,6 +2741,9 @@
       <c r="U34" t="n">
         <v>-0.8637545891556513</v>
       </c>
+      <c r="V34" t="n">
+        <v>-0.8627088165223789</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2707,6 +2809,9 @@
       <c r="U35" t="n">
         <v>0.7906784047483499</v>
       </c>
+      <c r="V35" t="n">
+        <v>0.7940043176988008</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2772,6 +2877,9 @@
       <c r="U36" t="n">
         <v>0.7439924629827941</v>
       </c>
+      <c r="V36" t="n">
+        <v>0.7496486581322515</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2837,6 +2945,9 @@
       <c r="U37" t="n">
         <v>0.7076672696015187</v>
       </c>
+      <c r="V37" t="n">
+        <v>0.7135542485245878</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2902,6 +3013,9 @@
       <c r="U38" t="n">
         <v>0.6330989654411386</v>
       </c>
+      <c r="V38" t="n">
+        <v>0.6355654042589641</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2967,6 +3081,9 @@
       <c r="U39" t="n">
         <v>0.5919902394648201</v>
       </c>
+      <c r="V39" t="n">
+        <v>0.594530981399069</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3032,6 +3149,9 @@
       <c r="U40" t="n">
         <v>0.7550761496521181</v>
       </c>
+      <c r="V40" t="n">
+        <v>0.7580903668441951</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3097,6 +3217,9 @@
       <c r="U41" t="n">
         <v>0.5668437488377245</v>
       </c>
+      <c r="V41" t="n">
+        <v>0.569389879751764</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3162,6 +3285,9 @@
       <c r="U42" t="n">
         <v>0.5961595240212266</v>
       </c>
+      <c r="V42" t="n">
+        <v>0.6017186419759522</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3227,6 +3353,9 @@
       <c r="U43" t="n">
         <v>0.6638778929780359</v>
       </c>
+      <c r="V43" t="n">
+        <v>0.6666590390041002</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3292,6 +3421,9 @@
       <c r="U44" t="n">
         <v>0.6870194456060422</v>
       </c>
+      <c r="V44" t="n">
+        <v>0.6905609771812966</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3357,6 +3489,9 @@
       <c r="U45" t="n">
         <v>0.6685357080858669</v>
       </c>
+      <c r="V45" t="n">
+        <v>0.676270977217807</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3422,6 +3557,9 @@
       <c r="U46" t="n">
         <v>-1.308129543964159</v>
       </c>
+      <c r="V46" t="n">
+        <v>-1.311406974262227</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3487,6 +3625,9 @@
       <c r="U47" t="n">
         <v>-1.021107674761515</v>
       </c>
+      <c r="V47" t="n">
+        <v>-1.023499217964737</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3552,6 +3693,9 @@
       <c r="U48" t="n">
         <v>-0.8853259310332063</v>
       </c>
+      <c r="V48" t="n">
+        <v>-0.8865868840418406</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3617,6 +3761,9 @@
       <c r="U49" t="n">
         <v>-0.6480258774679972</v>
       </c>
+      <c r="V49" t="n">
+        <v>-0.6493517002888501</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3682,6 +3829,9 @@
       <c r="U50" t="n">
         <v>-0.07177159600577304</v>
       </c>
+      <c r="V50" t="n">
+        <v>-0.07342298145680889</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3747,6 +3897,9 @@
       <c r="U51" t="n">
         <v>-0.8683278606143502</v>
       </c>
+      <c r="V51" t="n">
+        <v>-0.8687230483478741</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3812,6 +3965,9 @@
       <c r="U52" t="n">
         <v>-0.8683278606143502</v>
       </c>
+      <c r="V52" t="n">
+        <v>-0.8687230483478741</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3877,6 +4033,9 @@
       <c r="U53" t="n">
         <v>-1.152118057479036</v>
       </c>
+      <c r="V53" t="n">
+        <v>-1.153909289772353</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3942,6 +4101,9 @@
       <c r="U54" t="n">
         <v>-0.1814688649618031</v>
       </c>
+      <c r="V54" t="n">
+        <v>-0.1827574671566109</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4007,6 +4169,9 @@
       <c r="U55" t="n">
         <v>-1.042341096975741</v>
       </c>
+      <c r="V55" t="n">
+        <v>-1.045111228491982</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4072,6 +4237,9 @@
       <c r="U56" t="n">
         <v>-0.9156543576256949</v>
       </c>
+      <c r="V56" t="n">
+        <v>-0.9189139668732269</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4137,6 +4305,9 @@
       <c r="U57" t="n">
         <v>-0.9446758274059323</v>
       </c>
+      <c r="V57" t="n">
+        <v>-0.9520716219251582</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4202,6 +4373,9 @@
       <c r="U58" t="n">
         <v>-1.08635807890311</v>
       </c>
+      <c r="V58" t="n">
+        <v>-1.093628505232794</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4267,6 +4441,9 @@
       <c r="U59" t="n">
         <v>-0.7944246083616289</v>
       </c>
+      <c r="V59" t="n">
+        <v>-0.7978140774803567</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4332,6 +4509,9 @@
       <c r="U60" t="n">
         <v>-0.4233260261262286</v>
       </c>
+      <c r="V60" t="n">
+        <v>-0.4277779536772175</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4397,6 +4577,9 @@
       <c r="U61" t="n">
         <v>0.3844431213359586</v>
       </c>
+      <c r="V61" t="n">
+        <v>0.3835902582613362</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4462,6 +4645,9 @@
       <c r="U62" t="n">
         <v>-1.201736912463881</v>
       </c>
+      <c r="V62" t="n">
+        <v>-1.210568820269208</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4527,6 +4713,9 @@
       <c r="U63" t="n">
         <v>-0.5566726088364379</v>
       </c>
+      <c r="V63" t="n">
+        <v>-0.5582263042000083</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4592,6 +4781,9 @@
       <c r="U64" t="n">
         <v>-0.8524974223312692</v>
       </c>
+      <c r="V64" t="n">
+        <v>-0.8566429487927533</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4657,6 +4849,9 @@
       <c r="U65" t="n">
         <v>-0.03684072931244412</v>
       </c>
+      <c r="V65" t="n">
+        <v>-0.04027776040009086</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4722,6 +4917,9 @@
       <c r="U66" t="n">
         <v>-0.7767403282770162</v>
       </c>
+      <c r="V66" t="n">
+        <v>-0.7845838282361769</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4786,6 +4984,9 @@
       </c>
       <c r="U67" t="n">
         <v>-0.757595528448374</v>
+      </c>
+      <c r="V67" t="n">
+        <v>-0.7668893557799342</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_11.xlsx
+++ b/predicted_variables_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V67"/>
+  <dimension ref="A1:W67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,6 +500,9 @@
       <c r="V1" s="1" t="n">
         <v>21</v>
       </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -568,6 +571,9 @@
       <c r="V2" t="n">
         <v>-0.2201158818967198</v>
       </c>
+      <c r="W2" t="n">
+        <v>-0.222771686186995</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -636,6 +642,9 @@
       <c r="V3" t="n">
         <v>0.2671578724570522</v>
       </c>
+      <c r="W3" t="n">
+        <v>0.2638977103725538</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -704,6 +713,9 @@
       <c r="V4" t="n">
         <v>0.246698232476833</v>
       </c>
+      <c r="W4" t="n">
+        <v>0.24468793971171</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -772,6 +784,9 @@
       <c r="V5" t="n">
         <v>-0.04863345046640886</v>
       </c>
+      <c r="W5" t="n">
+        <v>-0.05178413653604847</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -840,6 +855,9 @@
       <c r="V6" t="n">
         <v>0.2148049925527417</v>
       </c>
+      <c r="W6" t="n">
+        <v>0.2115624870260104</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -908,6 +926,9 @@
       <c r="V7" t="n">
         <v>-0.376514549436292</v>
       </c>
+      <c r="W7" t="n">
+        <v>-0.3790560024539911</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -976,6 +997,9 @@
       <c r="V8" t="n">
         <v>-0.1274693161655395</v>
       </c>
+      <c r="W8" t="n">
+        <v>-0.1276668381817591</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1044,6 +1068,9 @@
       <c r="V9" t="n">
         <v>-0.2840422229280526</v>
       </c>
+      <c r="W9" t="n">
+        <v>-0.2871012142986041</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1112,6 +1139,9 @@
       <c r="V10" t="n">
         <v>0.4135643171069094</v>
       </c>
+      <c r="W10" t="n">
+        <v>0.410471491413446</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1180,6 +1210,9 @@
       <c r="V11" t="n">
         <v>-0.1855916422695209</v>
       </c>
+      <c r="W11" t="n">
+        <v>-0.187957979329956</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1248,6 +1281,9 @@
       <c r="V12" t="n">
         <v>-0.05336329683145727</v>
       </c>
+      <c r="W12" t="n">
+        <v>-0.06046965932621807</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1316,6 +1352,9 @@
       <c r="V13" t="n">
         <v>-0.0381187660622429</v>
       </c>
+      <c r="W13" t="n">
+        <v>-0.04073700247460271</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1384,6 +1423,9 @@
       <c r="V14" t="n">
         <v>0.1287991709271079</v>
       </c>
+      <c r="W14" t="n">
+        <v>0.1168486191188836</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1452,6 +1494,9 @@
       <c r="V15" t="n">
         <v>-0.0001196981286334386</v>
       </c>
+      <c r="W15" t="n">
+        <v>-0.01585367116821387</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1520,6 +1565,9 @@
       <c r="V16" t="n">
         <v>0.4363636383742889</v>
       </c>
+      <c r="W16" t="n">
+        <v>0.4179727898997182</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1588,6 +1636,9 @@
       <c r="V17" t="n">
         <v>0.5200241123356723</v>
       </c>
+      <c r="W17" t="n">
+        <v>0.5050037356871335</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1656,6 +1707,9 @@
       <c r="V18" t="n">
         <v>-0.1204537405144869</v>
       </c>
+      <c r="W18" t="n">
+        <v>-0.126603301921565</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1724,6 +1778,9 @@
       <c r="V19" t="n">
         <v>0.3478340949383075</v>
       </c>
+      <c r="W19" t="n">
+        <v>0.3391285150362957</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1792,6 +1849,9 @@
       <c r="V20" t="n">
         <v>0.3270793033968954</v>
       </c>
+      <c r="W20" t="n">
+        <v>0.3081224031090081</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1860,6 +1920,9 @@
       <c r="V21" t="n">
         <v>0.5721364185960338</v>
       </c>
+      <c r="W21" t="n">
+        <v>0.5582077834919185</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1928,6 +1991,9 @@
       <c r="V22" t="n">
         <v>0.3397803830089245</v>
       </c>
+      <c r="W22" t="n">
+        <v>0.3260527226766841</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1996,6 +2062,9 @@
       <c r="V23" t="n">
         <v>-0.09993352996846445</v>
       </c>
+      <c r="W23" t="n">
+        <v>-0.1117676244522958</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2064,6 +2133,9 @@
       <c r="V24" t="n">
         <v>1.189768358947876</v>
       </c>
+      <c r="W24" t="n">
+        <v>1.127286771958434</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2132,6 +2204,9 @@
       <c r="V25" t="n">
         <v>0.2963656544517938</v>
       </c>
+      <c r="W25" t="n">
+        <v>0.2988589794217759</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2200,6 +2275,9 @@
       <c r="V26" t="n">
         <v>0.1211971472125185</v>
       </c>
+      <c r="W26" t="n">
+        <v>0.1204032826529503</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2268,6 +2346,9 @@
       <c r="V27" t="n">
         <v>0.01655043817086572</v>
       </c>
+      <c r="W27" t="n">
+        <v>0.01643645430382488</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2336,6 +2417,9 @@
       <c r="V28" t="n">
         <v>0.7807590597646087</v>
       </c>
+      <c r="W28" t="n">
+        <v>0.7835337700060921</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2404,6 +2488,9 @@
       <c r="V29" t="n">
         <v>1.415900967556839</v>
       </c>
+      <c r="W29" t="n">
+        <v>1.400023901207209</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2472,6 +2559,9 @@
       <c r="V30" t="n">
         <v>0.6266596900091546</v>
       </c>
+      <c r="W30" t="n">
+        <v>0.6291898486197878</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2540,6 +2630,9 @@
       <c r="V31" t="n">
         <v>-0.4688703857625974</v>
       </c>
+      <c r="W31" t="n">
+        <v>-0.4638906445146036</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2608,6 +2701,9 @@
       <c r="V32" t="n">
         <v>0.5240301415923153</v>
       </c>
+      <c r="W32" t="n">
+        <v>0.5250860247557798</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2676,6 +2772,9 @@
       <c r="V33" t="n">
         <v>0.739876387277552</v>
       </c>
+      <c r="W33" t="n">
+        <v>0.7418843308473206</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2744,6 +2843,9 @@
       <c r="V34" t="n">
         <v>-0.8627088165223789</v>
       </c>
+      <c r="W34" t="n">
+        <v>-0.8613263946968447</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2812,6 +2914,9 @@
       <c r="V35" t="n">
         <v>0.7940043176988008</v>
       </c>
+      <c r="W35" t="n">
+        <v>0.7973271536236909</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2880,6 +2985,9 @@
       <c r="V36" t="n">
         <v>0.7496486581322515</v>
       </c>
+      <c r="W36" t="n">
+        <v>0.7551483694032022</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2948,6 +3056,9 @@
       <c r="V37" t="n">
         <v>0.7135542485245878</v>
       </c>
+      <c r="W37" t="n">
+        <v>0.7192916161917852</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3016,6 +3127,9 @@
       <c r="V38" t="n">
         <v>0.6355654042589641</v>
       </c>
+      <c r="W38" t="n">
+        <v>0.6381051245893979</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3084,6 +3198,9 @@
       <c r="V39" t="n">
         <v>0.594530981399069</v>
       </c>
+      <c r="W39" t="n">
+        <v>0.5969639507590244</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3152,6 +3269,9 @@
       <c r="V40" t="n">
         <v>0.7580903668441951</v>
       </c>
+      <c r="W40" t="n">
+        <v>0.7610958794604441</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3220,6 +3340,9 @@
       <c r="V41" t="n">
         <v>0.569389879751764</v>
       </c>
+      <c r="W41" t="n">
+        <v>0.5717547350090305</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3288,6 +3411,9 @@
       <c r="V42" t="n">
         <v>0.6017186419759522</v>
       </c>
+      <c r="W42" t="n">
+        <v>0.607253162756198</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3356,6 +3482,9 @@
       <c r="V43" t="n">
         <v>0.6666590390041002</v>
       </c>
+      <c r="W43" t="n">
+        <v>0.6694061154899191</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3424,6 +3553,9 @@
       <c r="V44" t="n">
         <v>0.6905609771812966</v>
       </c>
+      <c r="W44" t="n">
+        <v>0.6939251033973234</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3492,6 +3624,9 @@
       <c r="V45" t="n">
         <v>0.676270977217807</v>
       </c>
+      <c r="W45" t="n">
+        <v>0.6836608559543897</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3560,6 +3695,9 @@
       <c r="V46" t="n">
         <v>-1.311406974262227</v>
       </c>
+      <c r="W46" t="n">
+        <v>-1.314781525216034</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3628,6 +3766,9 @@
       <c r="V47" t="n">
         <v>-1.023499217964737</v>
       </c>
+      <c r="W47" t="n">
+        <v>-1.025976296610332</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3696,6 +3837,9 @@
       <c r="V48" t="n">
         <v>-0.8865868840418406</v>
       </c>
+      <c r="W48" t="n">
+        <v>-0.8880972943986577</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3764,6 +3908,9 @@
       <c r="V49" t="n">
         <v>-0.6493517002888501</v>
       </c>
+      <c r="W49" t="n">
+        <v>-0.6508711589091802</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3832,6 +3979,9 @@
       <c r="V50" t="n">
         <v>-0.07342298145680889</v>
       </c>
+      <c r="W50" t="n">
+        <v>-0.07507745310082013</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3900,6 +4050,9 @@
       <c r="V51" t="n">
         <v>-0.8687230483478741</v>
       </c>
+      <c r="W51" t="n">
+        <v>-0.86936421508041</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3968,6 +4121,9 @@
       <c r="V52" t="n">
         <v>-0.8687230483478741</v>
       </c>
+      <c r="W52" t="n">
+        <v>-0.86936421508041</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4036,6 +4192,9 @@
       <c r="V53" t="n">
         <v>-1.153909289772353</v>
       </c>
+      <c r="W53" t="n">
+        <v>-1.155922955454543</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4104,6 +4263,9 @@
       <c r="V54" t="n">
         <v>-0.1827574671566109</v>
       </c>
+      <c r="W54" t="n">
+        <v>-0.1841673503114137</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4172,6 +4334,9 @@
       <c r="V55" t="n">
         <v>-1.045111228491982</v>
       </c>
+      <c r="W55" t="n">
+        <v>-1.047955478393768</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4240,6 +4405,9 @@
       <c r="V56" t="n">
         <v>-0.9189139668732269</v>
       </c>
+      <c r="W56" t="n">
+        <v>-0.9221132373101171</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4308,6 +4476,9 @@
       <c r="V57" t="n">
         <v>-0.9520716219251582</v>
       </c>
+      <c r="W57" t="n">
+        <v>-0.9593814983619438</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4376,6 +4547,9 @@
       <c r="V58" t="n">
         <v>-1.093628505232794</v>
       </c>
+      <c r="W58" t="n">
+        <v>-1.100857447402381</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4444,6 +4618,9 @@
       <c r="V59" t="n">
         <v>-0.7978140774803567</v>
       </c>
+      <c r="W59" t="n">
+        <v>-0.8013998050331963</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4512,6 +4689,9 @@
       <c r="V60" t="n">
         <v>-0.4277779536772175</v>
       </c>
+      <c r="W60" t="n">
+        <v>-0.4323167360805361</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4580,6 +4760,9 @@
       <c r="V61" t="n">
         <v>0.3835902582613362</v>
       </c>
+      <c r="W61" t="n">
+        <v>0.3826871443512123</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4648,6 +4831,9 @@
       <c r="V62" t="n">
         <v>-1.210568820269208</v>
       </c>
+      <c r="W62" t="n">
+        <v>-1.219306246025382</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4716,6 +4902,9 @@
       <c r="V63" t="n">
         <v>-0.5582263042000083</v>
       </c>
+      <c r="W63" t="n">
+        <v>-0.5602679346039743</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4784,6 +4973,9 @@
       <c r="V64" t="n">
         <v>-0.8566429487927533</v>
       </c>
+      <c r="W64" t="n">
+        <v>-0.8611121142467388</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4852,6 +5044,9 @@
       <c r="V65" t="n">
         <v>-0.04027776040009086</v>
       </c>
+      <c r="W65" t="n">
+        <v>-0.0437867178200044</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4920,6 +5115,9 @@
       <c r="V66" t="n">
         <v>-0.7845838282361769</v>
       </c>
+      <c r="W66" t="n">
+        <v>-0.7922058706112891</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4987,6 +5185,9 @@
       </c>
       <c r="V67" t="n">
         <v>-0.7668893557799342</v>
+      </c>
+      <c r="W67" t="n">
+        <v>-0.7757514259819996</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_11.xlsx
+++ b/predicted_variables_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W67"/>
+  <dimension ref="A1:X67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,6 +503,9 @@
       <c r="W1" s="1" t="n">
         <v>22</v>
       </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -574,6 +577,9 @@
       <c r="W2" t="n">
         <v>-0.222771686186995</v>
       </c>
+      <c r="X2" t="n">
+        <v>-0.2256087540418421</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -645,6 +651,9 @@
       <c r="W3" t="n">
         <v>0.2638977103725538</v>
       </c>
+      <c r="X3" t="n">
+        <v>0.2605331235226386</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -716,6 +725,9 @@
       <c r="W4" t="n">
         <v>0.24468793971171</v>
       </c>
+      <c r="X4" t="n">
+        <v>0.2424086806237868</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -787,6 +799,9 @@
       <c r="W5" t="n">
         <v>-0.05178413653604847</v>
       </c>
+      <c r="X5" t="n">
+        <v>-0.0549267515559342</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -858,6 +873,9 @@
       <c r="W6" t="n">
         <v>0.2115624870260104</v>
       </c>
+      <c r="X6" t="n">
+        <v>0.2083025973337519</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -929,6 +947,9 @@
       <c r="W7" t="n">
         <v>-0.3790560024539911</v>
       </c>
+      <c r="X7" t="n">
+        <v>-0.3818296473115314</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1000,6 +1021,9 @@
       <c r="W8" t="n">
         <v>-0.1276668381817591</v>
       </c>
+      <c r="X8" t="n">
+        <v>-0.1282482461950194</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1071,6 +1095,9 @@
       <c r="W9" t="n">
         <v>-0.2871012142986041</v>
       </c>
+      <c r="X9" t="n">
+        <v>-0.2905762079471635</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1142,6 +1169,9 @@
       <c r="W10" t="n">
         <v>0.410471491413446</v>
       </c>
+      <c r="X10" t="n">
+        <v>0.4073996884626956</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1213,6 +1243,9 @@
       <c r="W11" t="n">
         <v>-0.187957979329956</v>
       </c>
+      <c r="X11" t="n">
+        <v>-0.1904622216942272</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1284,6 +1317,9 @@
       <c r="W12" t="n">
         <v>-0.06046965932621807</v>
       </c>
+      <c r="X12" t="n">
+        <v>-0.0673639220092577</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1355,6 +1391,9 @@
       <c r="W13" t="n">
         <v>-0.04073700247460271</v>
       </c>
+      <c r="X13" t="n">
+        <v>-0.04329451622472646</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1426,6 +1465,9 @@
       <c r="W14" t="n">
         <v>0.1168486191188836</v>
       </c>
+      <c r="X14" t="n">
+        <v>0.1052896916700503</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1497,6 +1539,9 @@
       <c r="W15" t="n">
         <v>-0.01585367116821387</v>
       </c>
+      <c r="X15" t="n">
+        <v>-0.03086983826838256</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1568,6 +1613,9 @@
       <c r="W16" t="n">
         <v>0.4179727898997182</v>
       </c>
+      <c r="X16" t="n">
+        <v>0.4003257571150651</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1639,6 +1687,9 @@
       <c r="W17" t="n">
         <v>0.5050037356871335</v>
       </c>
+      <c r="X17" t="n">
+        <v>0.4909680858768689</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1710,6 +1761,9 @@
       <c r="W18" t="n">
         <v>-0.126603301921565</v>
       </c>
+      <c r="X18" t="n">
+        <v>-0.1323564745032635</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1781,6 +1835,9 @@
       <c r="W19" t="n">
         <v>0.3391285150362957</v>
       </c>
+      <c r="X19" t="n">
+        <v>0.3308713482815752</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1852,6 +1909,9 @@
       <c r="W20" t="n">
         <v>0.3081224031090081</v>
       </c>
+      <c r="X20" t="n">
+        <v>0.2900666010781847</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1923,6 +1983,9 @@
       <c r="W21" t="n">
         <v>0.5582077834919185</v>
       </c>
+      <c r="X21" t="n">
+        <v>0.5451076972881979</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1994,6 +2057,9 @@
       <c r="W22" t="n">
         <v>0.3260527226766841</v>
       </c>
+      <c r="X22" t="n">
+        <v>0.3131598967044892</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2065,6 +2131,9 @@
       <c r="W23" t="n">
         <v>-0.1117676244522958</v>
       </c>
+      <c r="X23" t="n">
+        <v>-0.1228819247023503</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2136,6 +2205,9 @@
       <c r="W24" t="n">
         <v>1.127286771958434</v>
       </c>
+      <c r="X24" t="n">
+        <v>1.079868262612438</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2207,6 +2279,9 @@
       <c r="W25" t="n">
         <v>0.2988589794217759</v>
       </c>
+      <c r="X25" t="n">
+        <v>0.3015157426638286</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2278,6 +2353,9 @@
       <c r="W26" t="n">
         <v>0.1204032826529503</v>
       </c>
+      <c r="X26" t="n">
+        <v>0.1202354738395443</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2349,6 +2427,9 @@
       <c r="W27" t="n">
         <v>0.01643645430382488</v>
       </c>
+      <c r="X27" t="n">
+        <v>0.01701071665789694</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2420,6 +2501,9 @@
       <c r="W28" t="n">
         <v>0.7835337700060921</v>
       </c>
+      <c r="X28" t="n">
+        <v>0.7870219451345248</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2491,6 +2575,9 @@
       <c r="W29" t="n">
         <v>1.400023901207209</v>
       </c>
+      <c r="X29" t="n">
+        <v>1.393739690851028</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2562,6 +2649,9 @@
       <c r="W30" t="n">
         <v>0.6291898486197878</v>
       </c>
+      <c r="X30" t="n">
+        <v>0.6322637650644737</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2633,6 +2723,9 @@
       <c r="W31" t="n">
         <v>-0.4638906445146036</v>
       </c>
+      <c r="X31" t="n">
+        <v>-0.4589310599700394</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2704,6 +2797,9 @@
       <c r="W32" t="n">
         <v>0.5250860247557798</v>
       </c>
+      <c r="X32" t="n">
+        <v>0.5266789295383905</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2775,6 +2871,9 @@
       <c r="W33" t="n">
         <v>0.7418843308473206</v>
       </c>
+      <c r="X33" t="n">
+        <v>0.7441425861152898</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2846,6 +2945,9 @@
       <c r="W34" t="n">
         <v>-0.8613263946968447</v>
       </c>
+      <c r="X34" t="n">
+        <v>-0.8597102324552001</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2917,6 +3019,9 @@
       <c r="W35" t="n">
         <v>0.7973271536236909</v>
       </c>
+      <c r="X35" t="n">
+        <v>0.8005978985414548</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2988,6 +3093,9 @@
       <c r="W36" t="n">
         <v>0.7551483694032022</v>
       </c>
+      <c r="X36" t="n">
+        <v>0.7604253624527307</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3059,6 +3167,9 @@
       <c r="W37" t="n">
         <v>0.7192916161917852</v>
       </c>
+      <c r="X37" t="n">
+        <v>0.7248072448390576</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3130,6 +3241,9 @@
       <c r="W38" t="n">
         <v>0.6381051245893979</v>
       </c>
+      <c r="X38" t="n">
+        <v>0.6406593337042386</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3201,6 +3315,9 @@
       <c r="W39" t="n">
         <v>0.5969639507590244</v>
       </c>
+      <c r="X39" t="n">
+        <v>0.5992656739041272</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3272,6 +3389,9 @@
       <c r="W40" t="n">
         <v>0.7610958794604441</v>
       </c>
+      <c r="X40" t="n">
+        <v>0.7640537563199528</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3343,6 +3463,9 @@
       <c r="W41" t="n">
         <v>0.5717547350090305</v>
       </c>
+      <c r="X41" t="n">
+        <v>0.5739262364227278</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3414,6 +3537,9 @@
       <c r="W42" t="n">
         <v>0.607253162756198</v>
       </c>
+      <c r="X42" t="n">
+        <v>0.6126674939671654</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3485,6 +3611,9 @@
       <c r="W43" t="n">
         <v>0.6694061154899191</v>
       </c>
+      <c r="X43" t="n">
+        <v>0.6720752408198196</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3556,6 +3685,9 @@
       <c r="W44" t="n">
         <v>0.6939251033973234</v>
       </c>
+      <c r="X44" t="n">
+        <v>0.6970842977577411</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3627,6 +3759,9 @@
       <c r="W45" t="n">
         <v>0.6836608559543897</v>
       </c>
+      <c r="X45" t="n">
+        <v>0.690634756326682</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3698,6 +3833,9 @@
       <c r="W46" t="n">
         <v>-1.314781525216034</v>
       </c>
+      <c r="X46" t="n">
+        <v>-1.318236388405805</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3769,6 +3907,9 @@
       <c r="W47" t="n">
         <v>-1.025976296610332</v>
       </c>
+      <c r="X47" t="n">
+        <v>-1.028530142710244</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3840,6 +3981,9 @@
       <c r="W48" t="n">
         <v>-0.8880972943986577</v>
       </c>
+      <c r="X48" t="n">
+        <v>-0.8898411364181893</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3911,6 +4055,9 @@
       <c r="W49" t="n">
         <v>-0.6508711589091802</v>
       </c>
+      <c r="X49" t="n">
+        <v>-0.6525675941844165</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3982,6 +4129,9 @@
       <c r="W50" t="n">
         <v>-0.07507745310082013</v>
       </c>
+      <c r="X50" t="n">
+        <v>-0.07672915783194073</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4053,6 +4203,9 @@
       <c r="W51" t="n">
         <v>-0.86936421508041</v>
       </c>
+      <c r="X51" t="n">
+        <v>-0.8702432577530214</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4124,6 +4277,9 @@
       <c r="W52" t="n">
         <v>-0.86936421508041</v>
       </c>
+      <c r="X52" t="n">
+        <v>-0.8702432577530214</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4195,6 +4351,9 @@
       <c r="W53" t="n">
         <v>-1.155922955454543</v>
       </c>
+      <c r="X53" t="n">
+        <v>-1.158152159860019</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4266,6 +4425,9 @@
       <c r="W54" t="n">
         <v>-0.1841673503114137</v>
       </c>
+      <c r="X54" t="n">
+        <v>-0.1856819222559006</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4337,6 +4499,9 @@
       <c r="W55" t="n">
         <v>-1.047955478393768</v>
       </c>
+      <c r="X55" t="n">
+        <v>-1.050862751389182</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4408,6 +4573,9 @@
       <c r="W56" t="n">
         <v>-0.9221132373101171</v>
       </c>
+      <c r="X56" t="n">
+        <v>-0.9252414397599095</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4479,6 +4647,9 @@
       <c r="W57" t="n">
         <v>-0.9593814983619438</v>
       </c>
+      <c r="X57" t="n">
+        <v>-0.9665371573317131</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4550,6 +4721,9 @@
       <c r="W58" t="n">
         <v>-1.100857447402381</v>
       </c>
+      <c r="X58" t="n">
+        <v>-1.107961296396431</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4621,6 +4795,9 @@
       <c r="W59" t="n">
         <v>-0.8013998050331963</v>
       </c>
+      <c r="X59" t="n">
+        <v>-0.8051240183738744</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4692,6 +4869,9 @@
       <c r="W60" t="n">
         <v>-0.4323167360805361</v>
       </c>
+      <c r="X60" t="n">
+        <v>-0.4368696325565392</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4763,6 +4943,9 @@
       <c r="W61" t="n">
         <v>0.3826871443512123</v>
       </c>
+      <c r="X61" t="n">
+        <v>0.3817490505023921</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4834,6 +5017,9 @@
       <c r="W62" t="n">
         <v>-1.219306246025382</v>
       </c>
+      <c r="X62" t="n">
+        <v>-1.227862002468435</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4905,6 +5091,9 @@
       <c r="W63" t="n">
         <v>-0.5602679346039743</v>
       </c>
+      <c r="X63" t="n">
+        <v>-0.5627010215149325</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4976,6 +5165,9 @@
       <c r="W64" t="n">
         <v>-0.8611121142467388</v>
       </c>
+      <c r="X64" t="n">
+        <v>-0.8658258630682032</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5047,6 +5239,9 @@
       <c r="W65" t="n">
         <v>-0.0437867178200044</v>
       </c>
+      <c r="X65" t="n">
+        <v>-0.04730768687121809</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5118,6 +5313,9 @@
       <c r="W66" t="n">
         <v>-0.7922058706112891</v>
       </c>
+      <c r="X66" t="n">
+        <v>-0.7995367383669667</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5188,6 +5386,9 @@
       </c>
       <c r="W67" t="n">
         <v>-0.7757514259819996</v>
+      </c>
+      <c r="X67" t="n">
+        <v>-0.7841164099983786</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_11.xlsx
+++ b/predicted_variables_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X67"/>
+  <dimension ref="A1:Y67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,6 +506,9 @@
       <c r="X1" s="1" t="n">
         <v>23</v>
       </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -580,6 +583,9 @@
       <c r="X2" t="n">
         <v>-0.2256087540418421</v>
       </c>
+      <c r="Y2" t="n">
+        <v>-0.2285657120317465</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -654,6 +660,9 @@
       <c r="X3" t="n">
         <v>0.2605331235226386</v>
       </c>
+      <c r="Y3" t="n">
+        <v>0.2571279083636313</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -728,6 +737,9 @@
       <c r="X4" t="n">
         <v>0.2424086806237868</v>
       </c>
+      <c r="Y4" t="n">
+        <v>0.2399290842621304</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -802,6 +814,9 @@
       <c r="X5" t="n">
         <v>-0.0549267515559342</v>
       </c>
+      <c r="Y5" t="n">
+        <v>-0.05802238509058871</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -876,6 +891,9 @@
       <c r="X6" t="n">
         <v>0.2083025973337519</v>
       </c>
+      <c r="Y6" t="n">
+        <v>0.205082022002648</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -950,6 +968,9 @@
       <c r="X7" t="n">
         <v>-0.3818296473115314</v>
       </c>
+      <c r="Y7" t="n">
+        <v>-0.3847746610574009</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1024,6 +1045,9 @@
       <c r="X8" t="n">
         <v>-0.1282482461950194</v>
       </c>
+      <c r="Y8" t="n">
+        <v>-0.1291521914857485</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1098,6 +1122,9 @@
       <c r="X9" t="n">
         <v>-0.2905762079471635</v>
       </c>
+      <c r="Y9" t="n">
+        <v>-0.2943650067032381</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1172,6 +1199,9 @@
       <c r="X10" t="n">
         <v>0.4073996884626956</v>
       </c>
+      <c r="Y10" t="n">
+        <v>0.4043943353977775</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1246,6 +1276,9 @@
       <c r="X11" t="n">
         <v>-0.1904622216942272</v>
       </c>
+      <c r="Y11" t="n">
+        <v>-0.1930590423395208</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1320,6 +1353,9 @@
       <c r="X12" t="n">
         <v>-0.0673639220092577</v>
       </c>
+      <c r="Y12" t="n">
+        <v>-0.07397626829615742</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1394,6 +1430,9 @@
       <c r="X13" t="n">
         <v>-0.04329451622472646</v>
       </c>
+      <c r="Y13" t="n">
+        <v>-0.04577491979883291</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1468,6 +1507,9 @@
       <c r="X14" t="n">
         <v>0.1052896916700503</v>
       </c>
+      <c r="Y14" t="n">
+        <v>0.09425198833177623</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1542,6 +1584,9 @@
       <c r="X15" t="n">
         <v>-0.03086983826838256</v>
       </c>
+      <c r="Y15" t="n">
+        <v>-0.04503772684039369</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1616,6 +1661,9 @@
       <c r="X16" t="n">
         <v>0.4003257571150651</v>
       </c>
+      <c r="Y16" t="n">
+        <v>0.3836049905352381</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1690,6 +1738,9 @@
       <c r="X17" t="n">
         <v>0.4909680858768689</v>
       </c>
+      <c r="Y17" t="n">
+        <v>0.4779989243911735</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1764,6 +1815,9 @@
       <c r="X18" t="n">
         <v>-0.1323564745032635</v>
       </c>
+      <c r="Y18" t="n">
+        <v>-0.1377058423620228</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1838,6 +1892,9 @@
       <c r="X19" t="n">
         <v>0.3308713482815752</v>
       </c>
+      <c r="Y19" t="n">
+        <v>0.3231151236912103</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1912,6 +1969,9 @@
       <c r="X20" t="n">
         <v>0.2900666010781847</v>
       </c>
+      <c r="Y20" t="n">
+        <v>0.2730722726423142</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1986,6 +2046,9 @@
       <c r="X21" t="n">
         <v>0.5451076972881979</v>
       </c>
+      <c r="Y21" t="n">
+        <v>0.532941013662932</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2060,6 +2123,9 @@
       <c r="X22" t="n">
         <v>0.3131598967044892</v>
       </c>
+      <c r="Y22" t="n">
+        <v>0.3011892405204686</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2134,6 +2200,9 @@
       <c r="X23" t="n">
         <v>-0.1228819247023503</v>
       </c>
+      <c r="Y23" t="n">
+        <v>-0.1332070067082562</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2208,6 +2277,9 @@
       <c r="X24" t="n">
         <v>1.079868262612438</v>
       </c>
+      <c r="Y24" t="n">
+        <v>1.046066521900782</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2282,6 +2354,9 @@
       <c r="X25" t="n">
         <v>0.3015157426638286</v>
       </c>
+      <c r="Y25" t="n">
+        <v>0.3042556385887123</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2356,6 +2431,9 @@
       <c r="X26" t="n">
         <v>0.1202354738395443</v>
       </c>
+      <c r="Y26" t="n">
+        <v>0.1205906231870043</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2430,6 +2508,9 @@
       <c r="X27" t="n">
         <v>0.01701071665789694</v>
       </c>
+      <c r="Y27" t="n">
+        <v>0.01814786430483152</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2504,6 +2585,9 @@
       <c r="X28" t="n">
         <v>0.7870219451345248</v>
       </c>
+      <c r="Y28" t="n">
+        <v>0.7910653940477811</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2578,6 +2662,9 @@
       <c r="X29" t="n">
         <v>1.393739690851028</v>
       </c>
+      <c r="Y29" t="n">
+        <v>1.395520341058611</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2652,6 +2739,9 @@
       <c r="X30" t="n">
         <v>0.6322637650644737</v>
       </c>
+      <c r="Y30" t="n">
+        <v>0.635730805540304</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2726,6 +2816,9 @@
       <c r="X31" t="n">
         <v>-0.4589310599700394</v>
       </c>
+      <c r="Y31" t="n">
+        <v>-0.4541039869553317</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2800,6 +2893,9 @@
       <c r="X32" t="n">
         <v>0.5266789295383905</v>
       </c>
+      <c r="Y32" t="n">
+        <v>0.5286942852160502</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2874,6 +2970,9 @@
       <c r="X33" t="n">
         <v>0.7441425861152898</v>
       </c>
+      <c r="Y33" t="n">
+        <v>0.746569210316692</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2948,6 +3047,9 @@
       <c r="X34" t="n">
         <v>-0.8597102324552001</v>
       </c>
+      <c r="Y34" t="n">
+        <v>-0.8579503180283723</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3022,6 +3124,9 @@
       <c r="X35" t="n">
         <v>0.8005978985414548</v>
       </c>
+      <c r="Y35" t="n">
+        <v>0.8037753756890617</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3096,6 +3201,9 @@
       <c r="X36" t="n">
         <v>0.7604253624527307</v>
       </c>
+      <c r="Y36" t="n">
+        <v>0.7654273121641316</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3170,6 +3278,9 @@
       <c r="X37" t="n">
         <v>0.7248072448390576</v>
       </c>
+      <c r="Y37" t="n">
+        <v>0.7300439420989342</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3244,6 +3355,9 @@
       <c r="X38" t="n">
         <v>0.6406593337042386</v>
       </c>
+      <c r="Y38" t="n">
+        <v>0.6431786552510457</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3318,6 +3432,9 @@
       <c r="X39" t="n">
         <v>0.5992656739041272</v>
       </c>
+      <c r="Y39" t="n">
+        <v>0.601418113180629</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3392,6 +3509,9 @@
       <c r="X40" t="n">
         <v>0.7640537563199528</v>
       </c>
+      <c r="Y40" t="n">
+        <v>0.7669307085026261</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3466,6 +3586,9 @@
       <c r="X41" t="n">
         <v>0.5739262364227278</v>
       </c>
+      <c r="Y41" t="n">
+        <v>0.575897920401269</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3540,6 +3663,9 @@
       <c r="X42" t="n">
         <v>0.6126674939671654</v>
       </c>
+      <c r="Y42" t="n">
+        <v>0.6178832621505437</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3614,6 +3740,9 @@
       <c r="X43" t="n">
         <v>0.6720752408198196</v>
       </c>
+      <c r="Y43" t="n">
+        <v>0.674631065572077</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3688,6 +3817,9 @@
       <c r="X44" t="n">
         <v>0.6970842977577411</v>
       </c>
+      <c r="Y44" t="n">
+        <v>0.7000186837203711</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3762,6 +3894,9 @@
       <c r="X45" t="n">
         <v>0.690634756326682</v>
       </c>
+      <c r="Y45" t="n">
+        <v>0.6971398526401652</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3836,6 +3971,9 @@
       <c r="X46" t="n">
         <v>-1.318236388405805</v>
       </c>
+      <c r="Y46" t="n">
+        <v>-1.321754356218968</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3910,6 +4048,9 @@
       <c r="X47" t="n">
         <v>-1.028530142710244</v>
       </c>
+      <c r="Y47" t="n">
+        <v>-1.031150655208193</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3984,6 +4125,9 @@
       <c r="X48" t="n">
         <v>-0.8898411364181893</v>
       </c>
+      <c r="Y48" t="n">
+        <v>-0.8917992353256903</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4058,6 +4202,9 @@
       <c r="X49" t="n">
         <v>-0.6525675941844165</v>
       </c>
+      <c r="Y49" t="n">
+        <v>-0.6544226630131126</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4132,6 +4279,9 @@
       <c r="X50" t="n">
         <v>-0.07672915783194073</v>
       </c>
+      <c r="Y50" t="n">
+        <v>-0.07837268533927963</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4206,6 +4356,9 @@
       <c r="X51" t="n">
         <v>-0.8702432577530214</v>
       </c>
+      <c r="Y51" t="n">
+        <v>-0.8713480489836435</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4280,6 +4433,9 @@
       <c r="X52" t="n">
         <v>-0.8702432577530214</v>
       </c>
+      <c r="Y52" t="n">
+        <v>-0.8713480489836435</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4354,6 +4510,9 @@
       <c r="X53" t="n">
         <v>-1.158152159860019</v>
       </c>
+      <c r="Y53" t="n">
+        <v>-1.160584924341463</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4428,6 +4587,9 @@
       <c r="X54" t="n">
         <v>-0.1856819222559006</v>
       </c>
+      <c r="Y54" t="n">
+        <v>-0.1872847804941448</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4502,6 +4664,9 @@
       <c r="X55" t="n">
         <v>-1.050862751389182</v>
       </c>
+      <c r="Y55" t="n">
+        <v>-1.053821240224847</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4576,6 +4741,9 @@
       <c r="X56" t="n">
         <v>-0.9252414397599095</v>
       </c>
+      <c r="Y56" t="n">
+        <v>-0.9282904753236738</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4650,6 +4818,9 @@
       <c r="X57" t="n">
         <v>-0.9665371573317131</v>
       </c>
+      <c r="Y57" t="n">
+        <v>-0.9734824373230075</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4724,6 +4895,9 @@
       <c r="X58" t="n">
         <v>-1.107961296396431</v>
       </c>
+      <c r="Y58" t="n">
+        <v>-1.114871400912235</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4798,6 +4972,9 @@
       <c r="X59" t="n">
         <v>-0.8051240183738744</v>
       </c>
+      <c r="Y59" t="n">
+        <v>-0.8089349600113448</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4872,6 +5049,9 @@
       <c r="X60" t="n">
         <v>-0.4368696325565392</v>
       </c>
+      <c r="Y60" t="n">
+        <v>-0.4413750895367859</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4946,6 +5126,9 @@
       <c r="X61" t="n">
         <v>0.3817490505023921</v>
       </c>
+      <c r="Y61" t="n">
+        <v>0.3807896497792456</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5020,6 +5203,9 @@
       <c r="X62" t="n">
         <v>-1.227862002468435</v>
       </c>
+      <c r="Y62" t="n">
+        <v>-1.236164724864959</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5094,6 +5280,9 @@
       <c r="X63" t="n">
         <v>-0.5627010215149325</v>
       </c>
+      <c r="Y63" t="n">
+        <v>-0.5654377509914881</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5168,6 +5357,9 @@
       <c r="X64" t="n">
         <v>-0.8658258630682032</v>
       </c>
+      <c r="Y64" t="n">
+        <v>-0.870711143991864</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5242,6 +5434,9 @@
       <c r="X65" t="n">
         <v>-0.04730768687121809</v>
       </c>
+      <c r="Y65" t="n">
+        <v>-0.05079038630503877</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5316,6 +5511,9 @@
       <c r="X66" t="n">
         <v>-0.7995367383669667</v>
       </c>
+      <c r="Y66" t="n">
+        <v>-0.806522952888753</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5389,6 +5587,9 @@
       </c>
       <c r="X67" t="n">
         <v>-0.7841164099983786</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>-0.7919392539701064</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_11.xlsx
+++ b/predicted_variables_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y67"/>
+  <dimension ref="A1:Z67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,6 +509,9 @@
       <c r="Y1" s="1" t="n">
         <v>24</v>
       </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -586,6 +589,9 @@
       <c r="Y2" t="n">
         <v>-0.2285657120317465</v>
       </c>
+      <c r="Z2" t="n">
+        <v>-0.231588421337396</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -663,6 +669,9 @@
       <c r="Y3" t="n">
         <v>0.2571279083636313</v>
       </c>
+      <c r="Z3" t="n">
+        <v>0.2537375183492921</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -740,6 +749,9 @@
       <c r="Y4" t="n">
         <v>0.2399290842621304</v>
       </c>
+      <c r="Z4" t="n">
+        <v>0.2373111137893722</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -817,6 +829,9 @@
       <c r="Y5" t="n">
         <v>-0.05802238509058871</v>
       </c>
+      <c r="Z5" t="n">
+        <v>-0.06103868110042497</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -894,6 +909,9 @@
       <c r="Y6" t="n">
         <v>0.205082022002648</v>
       </c>
+      <c r="Z6" t="n">
+        <v>0.2019478554764368</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -971,6 +989,9 @@
       <c r="Y7" t="n">
         <v>-0.3847746610574009</v>
       </c>
+      <c r="Z7" t="n">
+        <v>-0.3878359547742943</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1048,6 +1069,9 @@
       <c r="Y8" t="n">
         <v>-0.1291521914857485</v>
       </c>
+      <c r="Z8" t="n">
+        <v>-0.13032118168829</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1125,6 +1149,9 @@
       <c r="Y9" t="n">
         <v>-0.2943650067032381</v>
       </c>
+      <c r="Z9" t="n">
+        <v>-0.2983741367095243</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1202,6 +1229,9 @@
       <c r="Y10" t="n">
         <v>0.4043943353977775</v>
       </c>
+      <c r="Z10" t="n">
+        <v>0.4014924378597231</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1279,6 +1309,9 @@
       <c r="Y11" t="n">
         <v>-0.1930590423395208</v>
       </c>
+      <c r="Z11" t="n">
+        <v>-0.1957081429833217</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1356,6 +1389,9 @@
       <c r="Y12" t="n">
         <v>-0.07397626829615742</v>
       </c>
+      <c r="Z12" t="n">
+        <v>-0.08025245926440333</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1433,6 +1469,9 @@
       <c r="Y13" t="n">
         <v>-0.04577491979883291</v>
       </c>
+      <c r="Z13" t="n">
+        <v>-0.04816498047439095</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1510,6 +1549,9 @@
       <c r="Y14" t="n">
         <v>0.09425198833177623</v>
       </c>
+      <c r="Z14" t="n">
+        <v>0.08383610207442407</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1587,6 +1629,9 @@
       <c r="Y15" t="n">
         <v>-0.04503772684039369</v>
       </c>
+      <c r="Z15" t="n">
+        <v>-0.05826155304862378</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1664,6 +1709,9 @@
       <c r="Y16" t="n">
         <v>0.3836049905352381</v>
       </c>
+      <c r="Z16" t="n">
+        <v>0.3679485273909517</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1741,6 +1789,9 @@
       <c r="Y17" t="n">
         <v>0.4779989243911735</v>
       </c>
+      <c r="Z17" t="n">
+        <v>0.4661469633315811</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1818,6 +1869,9 @@
       <c r="Y18" t="n">
         <v>-0.1377058423620228</v>
       </c>
+      <c r="Z18" t="n">
+        <v>-0.1426496326265415</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1895,6 +1949,9 @@
       <c r="Y19" t="n">
         <v>0.3231151236912103</v>
       </c>
+      <c r="Z19" t="n">
+        <v>0.315896148515079</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1972,6 +2029,9 @@
       <c r="Y20" t="n">
         <v>0.2730722726423142</v>
       </c>
+      <c r="Z20" t="n">
+        <v>0.257256448583597</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2049,6 +2109,9 @@
       <c r="Y21" t="n">
         <v>0.532941013662932</v>
       </c>
+      <c r="Z21" t="n">
+        <v>0.5217781269709318</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2126,6 +2189,9 @@
       <c r="Y22" t="n">
         <v>0.3011892405204686</v>
       </c>
+      <c r="Z22" t="n">
+        <v>0.2901984296651924</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2203,6 +2269,9 @@
       <c r="Y23" t="n">
         <v>-0.1332070067082562</v>
       </c>
+      <c r="Z23" t="n">
+        <v>-0.1426981563920827</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2280,6 +2349,9 @@
       <c r="Y24" t="n">
         <v>1.046066521900782</v>
       </c>
+      <c r="Z24" t="n">
+        <v>1.024397751844749</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2357,6 +2429,9 @@
       <c r="Y25" t="n">
         <v>0.3042556385887123</v>
       </c>
+      <c r="Z25" t="n">
+        <v>0.3070110416583856</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2434,6 +2509,9 @@
       <c r="Y26" t="n">
         <v>0.1205906231870043</v>
       </c>
+      <c r="Z26" t="n">
+        <v>0.1213724493018764</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2511,6 +2589,9 @@
       <c r="Y27" t="n">
         <v>0.01814786430483152</v>
       </c>
+      <c r="Z27" t="n">
+        <v>0.01973291064014187</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2588,6 +2669,9 @@
       <c r="Y28" t="n">
         <v>0.7910653940477811</v>
       </c>
+      <c r="Z28" t="n">
+        <v>0.7955202519433351</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2665,6 +2749,9 @@
       <c r="Y29" t="n">
         <v>1.395520341058611</v>
       </c>
+      <c r="Z29" t="n">
+        <v>1.403950356805779</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2742,6 +2829,9 @@
       <c r="Y30" t="n">
         <v>0.635730805540304</v>
       </c>
+      <c r="Z30" t="n">
+        <v>0.6394586363479583</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2819,6 +2909,9 @@
       <c r="Y31" t="n">
         <v>-0.4541039869553317</v>
       </c>
+      <c r="Z31" t="n">
+        <v>-0.4494990570441902</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2896,6 +2989,9 @@
       <c r="Y32" t="n">
         <v>0.5286942852160502</v>
       </c>
+      <c r="Z32" t="n">
+        <v>0.5310277433019968</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2973,6 +3069,9 @@
       <c r="Y33" t="n">
         <v>0.746569210316692</v>
       </c>
+      <c r="Z33" t="n">
+        <v>0.7490925520630278</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3050,6 +3149,9 @@
       <c r="Y34" t="n">
         <v>-0.8579503180283723</v>
       </c>
+      <c r="Z34" t="n">
+        <v>-0.8561240764091064</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3127,6 +3229,9 @@
       <c r="Y35" t="n">
         <v>0.8037753756890617</v>
       </c>
+      <c r="Z35" t="n">
+        <v>0.8068258896658096</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3204,6 +3309,9 @@
       <c r="Y36" t="n">
         <v>0.7654273121641316</v>
       </c>
+      <c r="Z36" t="n">
+        <v>0.7701146548237912</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3281,6 +3389,9 @@
       <c r="Y37" t="n">
         <v>0.7300439420989342</v>
       </c>
+      <c r="Z37" t="n">
+        <v>0.734958215688164</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3358,6 +3469,9 @@
       <c r="Y38" t="n">
         <v>0.6431786552510457</v>
       </c>
+      <c r="Z38" t="n">
+        <v>0.6456225164651717</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3435,6 +3549,9 @@
       <c r="Y39" t="n">
         <v>0.601418113180629</v>
       </c>
+      <c r="Z39" t="n">
+        <v>0.6034082460446628</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3512,6 +3629,9 @@
       <c r="Y40" t="n">
         <v>0.7669307085026261</v>
       </c>
+      <c r="Z40" t="n">
+        <v>0.7696990081865147</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3589,6 +3709,9 @@
       <c r="Y41" t="n">
         <v>0.575897920401269</v>
       </c>
+      <c r="Z41" t="n">
+        <v>0.5776681172717576</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3666,6 +3789,9 @@
       <c r="Y42" t="n">
         <v>0.6178832621505437</v>
       </c>
+      <c r="Z42" t="n">
+        <v>0.6228380855808491</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3743,6 +3869,9 @@
       <c r="Y43" t="n">
         <v>0.674631065572077</v>
       </c>
+      <c r="Z43" t="n">
+        <v>0.6770460568531601</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3820,6 +3949,9 @@
       <c r="Y44" t="n">
         <v>0.7000186837203711</v>
       </c>
+      <c r="Z44" t="n">
+        <v>0.7027152430186558</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3897,6 +4029,9 @@
       <c r="Y45" t="n">
         <v>0.6971398526401652</v>
       </c>
+      <c r="Z45" t="n">
+        <v>0.7031393870739369</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3974,6 +4109,9 @@
       <c r="Y46" t="n">
         <v>-1.321754356218968</v>
       </c>
+      <c r="Z46" t="n">
+        <v>-1.325318206848529</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4051,6 +4189,9 @@
       <c r="Y47" t="n">
         <v>-1.031150655208193</v>
       </c>
+      <c r="Z47" t="n">
+        <v>-1.033826798163902</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4128,6 +4269,9 @@
       <c r="Y48" t="n">
         <v>-0.8917992353256903</v>
       </c>
+      <c r="Z48" t="n">
+        <v>-0.8939501490445207</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4205,6 +4349,9 @@
       <c r="Y49" t="n">
         <v>-0.6544226630131126</v>
       </c>
+      <c r="Z49" t="n">
+        <v>-0.6564169547428207</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4282,6 +4429,9 @@
       <c r="Y50" t="n">
         <v>-0.07837268533927963</v>
       </c>
+      <c r="Z50" t="n">
+        <v>-0.08000307414209762</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4359,6 +4509,9 @@
       <c r="Y51" t="n">
         <v>-0.8713480489836435</v>
       </c>
+      <c r="Z51" t="n">
+        <v>-0.8726632819771512</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4436,6 +4589,9 @@
       <c r="Y52" t="n">
         <v>-0.8713480489836435</v>
       </c>
+      <c r="Z52" t="n">
+        <v>-0.8726632819771512</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4513,6 +4669,9 @@
       <c r="Y53" t="n">
         <v>-1.160584924341463</v>
       </c>
+      <c r="Z53" t="n">
+        <v>-1.16320531452132</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4590,6 +4749,9 @@
       <c r="Y54" t="n">
         <v>-0.1872847804941448</v>
       </c>
+      <c r="Z54" t="n">
+        <v>-0.1889599550270151</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4667,6 +4829,9 @@
       <c r="Y55" t="n">
         <v>-1.053821240224847</v>
       </c>
+      <c r="Z55" t="n">
+        <v>-1.056818744090573</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4744,6 +4909,9 @@
       <c r="Y56" t="n">
         <v>-0.9282904753236738</v>
       </c>
+      <c r="Z56" t="n">
+        <v>-0.9312544848436883</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4821,6 +4989,9 @@
       <c r="Y57" t="n">
         <v>-0.9734824373230075</v>
       </c>
+      <c r="Z57" t="n">
+        <v>-0.9801724681196313</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4898,6 +5069,9 @@
       <c r="Y58" t="n">
         <v>-1.114871400912235</v>
       </c>
+      <c r="Z58" t="n">
+        <v>-1.121532893801345</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4975,6 +5149,9 @@
       <c r="Y59" t="n">
         <v>-0.8089349600113448</v>
       </c>
+      <c r="Z59" t="n">
+        <v>-0.8127868458513322</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5052,6 +5229,9 @@
       <c r="Y60" t="n">
         <v>-0.4413750895367859</v>
       </c>
+      <c r="Z60" t="n">
+        <v>-0.4457820372375776</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -5129,6 +5309,9 @@
       <c r="Y61" t="n">
         <v>0.3807896497792456</v>
       </c>
+      <c r="Z61" t="n">
+        <v>0.3798210203431092</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5206,6 +5389,9 @@
       <c r="Y62" t="n">
         <v>-1.236164724864959</v>
       </c>
+      <c r="Z62" t="n">
+        <v>-1.244157664889045</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5283,6 +5469,9 @@
       <c r="Y63" t="n">
         <v>-0.5654377509914881</v>
       </c>
+      <c r="Z63" t="n">
+        <v>-0.5683991106268355</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5360,6 +5549,9 @@
       <c r="Y64" t="n">
         <v>-0.870711143991864</v>
       </c>
+      <c r="Z64" t="n">
+        <v>-0.8757014701172577</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5437,6 +5629,9 @@
       <c r="Y65" t="n">
         <v>-0.05079038630503877</v>
       </c>
+      <c r="Z65" t="n">
+        <v>-0.05419345783627016</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5514,6 +5709,9 @@
       <c r="Y66" t="n">
         <v>-0.806522952888753</v>
       </c>
+      <c r="Z66" t="n">
+        <v>-0.8131255543034284</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5590,6 +5788,9 @@
       </c>
       <c r="Y67" t="n">
         <v>-0.7919392539701064</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>-0.7991925019840197</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_11.xlsx
+++ b/predicted_variables_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z67"/>
+  <dimension ref="A1:AA67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,6 +512,9 @@
       <c r="Z1" s="1" t="n">
         <v>25</v>
       </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -592,6 +595,9 @@
       <c r="Z2" t="n">
         <v>-0.231588421337396</v>
       </c>
+      <c r="AA2" t="n">
+        <v>-0.2346298205107299</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -672,6 +678,9 @@
       <c r="Z3" t="n">
         <v>0.2537375183492921</v>
       </c>
+      <c r="AA3" t="n">
+        <v>0.2504092208485832</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -752,6 +761,9 @@
       <c r="Z4" t="n">
         <v>0.2373111137893722</v>
       </c>
+      <c r="AA4" t="n">
+        <v>0.2346099178688092</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -832,6 +844,9 @@
       <c r="Z5" t="n">
         <v>-0.06103868110042497</v>
       </c>
+      <c r="AA5" t="n">
+        <v>-0.06394940662650869</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -912,6 +927,9 @@
       <c r="Z6" t="n">
         <v>0.2019478554764368</v>
       </c>
+      <c r="AA6" t="n">
+        <v>0.1989382331677673</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -992,6 +1010,9 @@
       <c r="Z7" t="n">
         <v>-0.3878359547742943</v>
       </c>
+      <c r="AA7" t="n">
+        <v>-0.3909643241223873</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1072,6 +1093,9 @@
       <c r="Z8" t="n">
         <v>-0.13032118168829</v>
       </c>
+      <c r="AA8" t="n">
+        <v>-0.1317020211683375</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1152,6 +1176,9 @@
       <c r="Z9" t="n">
         <v>-0.2983741367095243</v>
       </c>
+      <c r="AA9" t="n">
+        <v>-0.3025194314915008</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1232,6 +1259,9 @@
       <c r="Z10" t="n">
         <v>0.4014924378597231</v>
       </c>
+      <c r="AA10" t="n">
+        <v>0.3987232585993784</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1312,6 +1342,9 @@
       <c r="Z11" t="n">
         <v>-0.1957081429833217</v>
       </c>
+      <c r="AA11" t="n">
+        <v>-0.1983741970284221</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1392,6 +1425,9 @@
       <c r="Z12" t="n">
         <v>-0.08025245926440333</v>
       </c>
+      <c r="AA12" t="n">
+        <v>-0.08615237436187892</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1472,6 +1508,9 @@
       <c r="Z13" t="n">
         <v>-0.04816498047439095</v>
       </c>
+      <c r="AA13" t="n">
+        <v>-0.05045441627197152</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1552,6 +1591,9 @@
       <c r="Z14" t="n">
         <v>0.08383610207442407</v>
       </c>
+      <c r="AA14" t="n">
+        <v>0.07411625530150499</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1632,6 +1674,9 @@
       <c r="Z15" t="n">
         <v>-0.05826155304862378</v>
       </c>
+      <c r="AA15" t="n">
+        <v>-0.07047659856469982</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1712,6 +1757,9 @@
       <c r="Z16" t="n">
         <v>0.3679485273909517</v>
       </c>
+      <c r="AA16" t="n">
+        <v>0.3534543340760813</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1792,6 +1840,9 @@
       <c r="Z17" t="n">
         <v>0.4661469633315811</v>
       </c>
+      <c r="AA17" t="n">
+        <v>0.4554357372168438</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1872,6 +1923,9 @@
       <c r="Z18" t="n">
         <v>-0.1426496326265415</v>
       </c>
+      <c r="AA18" t="n">
+        <v>-0.1471911832189459</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1952,6 +2006,9 @@
       <c r="Z19" t="n">
         <v>0.315896148515079</v>
       </c>
+      <c r="AA19" t="n">
+        <v>0.3092363342440477</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2032,6 +2089,9 @@
       <c r="Z20" t="n">
         <v>0.257256448583597</v>
       </c>
+      <c r="AA20" t="n">
+        <v>0.2426974095567426</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2112,6 +2172,9 @@
       <c r="Z21" t="n">
         <v>0.5217781269709318</v>
       </c>
+      <c r="AA21" t="n">
+        <v>0.5116593237393698</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2192,6 +2255,9 @@
       <c r="Z22" t="n">
         <v>0.2901984296651924</v>
       </c>
+      <c r="AA22" t="n">
+        <v>0.2802190430444932</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2272,6 +2338,9 @@
       <c r="Z23" t="n">
         <v>-0.1426981563920827</v>
       </c>
+      <c r="AA23" t="n">
+        <v>-0.1513322787355305</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2352,6 +2421,9 @@
       <c r="Z24" t="n">
         <v>1.024397751844749</v>
       </c>
+      <c r="AA24" t="n">
+        <v>1.013378409526031</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2432,6 +2504,9 @@
       <c r="Z25" t="n">
         <v>0.3070110416583856</v>
       </c>
+      <c r="AA25" t="n">
+        <v>0.3097260415511735</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2512,6 +2587,9 @@
       <c r="Z26" t="n">
         <v>0.1213724493018764</v>
       </c>
+      <c r="AA26" t="n">
+        <v>0.1224922888166953</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2592,6 +2670,9 @@
       <c r="Z27" t="n">
         <v>0.01973291064014187</v>
       </c>
+      <c r="AA27" t="n">
+        <v>0.02166169337564867</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2672,6 +2753,9 @@
       <c r="Z28" t="n">
         <v>0.7955202519433351</v>
       </c>
+      <c r="AA28" t="n">
+        <v>0.8002574798871203</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2752,6 +2836,9 @@
       <c r="Z29" t="n">
         <v>1.403950356805779</v>
       </c>
+      <c r="AA29" t="n">
+        <v>1.417733575287897</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2832,6 +2919,9 @@
       <c r="Z30" t="n">
         <v>0.6394586363479583</v>
       </c>
+      <c r="AA30" t="n">
+        <v>0.6433325983898608</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2912,6 +3002,9 @@
       <c r="Z31" t="n">
         <v>-0.4494990570441902</v>
       </c>
+      <c r="AA31" t="n">
+        <v>-0.4451854242699751</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2992,6 +3085,9 @@
       <c r="Z32" t="n">
         <v>0.5310277433019968</v>
       </c>
+      <c r="AA32" t="n">
+        <v>0.5335855983546518</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3072,6 +3168,9 @@
       <c r="Z33" t="n">
         <v>0.7490925520630278</v>
       </c>
+      <c r="AA33" t="n">
+        <v>0.7516509214791293</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3152,6 +3251,9 @@
       <c r="Z34" t="n">
         <v>-0.8561240764091064</v>
       </c>
+      <c r="AA34" t="n">
+        <v>-0.8542969402678281</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3232,6 +3334,9 @@
       <c r="Z35" t="n">
         <v>0.8068258896658096</v>
       </c>
+      <c r="AA35" t="n">
+        <v>0.8097227564453473</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3312,6 +3417,9 @@
       <c r="Z36" t="n">
         <v>0.7701146548237912</v>
       </c>
+      <c r="AA36" t="n">
+        <v>0.7744593531648014</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3392,6 +3500,9 @@
       <c r="Z37" t="n">
         <v>0.734958215688164</v>
       </c>
+      <c r="AA37" t="n">
+        <v>0.7395189478639406</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3472,6 +3583,9 @@
       <c r="Z38" t="n">
         <v>0.6456225164651717</v>
       </c>
+      <c r="AA38" t="n">
+        <v>0.6479584578331472</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3552,6 +3666,9 @@
       <c r="Z39" t="n">
         <v>0.6034082460446628</v>
       </c>
+      <c r="AA39" t="n">
+        <v>0.6052275949794005</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3632,6 +3749,9 @@
       <c r="Z40" t="n">
         <v>0.7696990081865147</v>
       </c>
+      <c r="AA40" t="n">
+        <v>0.7723362775147504</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3712,6 +3832,9 @@
       <c r="Z41" t="n">
         <v>0.5776681172717576</v>
       </c>
+      <c r="AA41" t="n">
+        <v>0.5792391761136199</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3792,6 +3915,9 @@
       <c r="Z42" t="n">
         <v>0.6228380855808491</v>
       </c>
+      <c r="AA42" t="n">
+        <v>0.6274842089819833</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3872,6 +3998,9 @@
       <c r="Z43" t="n">
         <v>0.6770460568531601</v>
       </c>
+      <c r="AA43" t="n">
+        <v>0.67929974137158</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3952,6 +4081,9 @@
       <c r="Z44" t="n">
         <v>0.7027152430186558</v>
       </c>
+      <c r="AA44" t="n">
+        <v>0.7051670064989676</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4032,6 +4164,9 @@
       <c r="Z45" t="n">
         <v>0.7031393870739369</v>
       </c>
+      <c r="AA45" t="n">
+        <v>0.7086109027233235</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4112,6 +4247,9 @@
       <c r="Z46" t="n">
         <v>-1.325318206848529</v>
       </c>
+      <c r="AA46" t="n">
+        <v>-1.328911031645706</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4192,6 +4330,9 @@
       <c r="Z47" t="n">
         <v>-1.033826798163902</v>
       </c>
+      <c r="AA47" t="n">
+        <v>-1.036546957682666</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4272,6 +4413,9 @@
       <c r="Z48" t="n">
         <v>-0.8939501490445207</v>
       </c>
+      <c r="AA48" t="n">
+        <v>-0.8962709509596843</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4352,6 +4496,9 @@
       <c r="Z49" t="n">
         <v>-0.6564169547428207</v>
       </c>
+      <c r="AA49" t="n">
+        <v>-0.6585305293444864</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4432,6 +4579,9 @@
       <c r="Z50" t="n">
         <v>-0.08000307414209762</v>
       </c>
+      <c r="AA50" t="n">
+        <v>-0.08161581306534892</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4512,6 +4662,9 @@
       <c r="Z51" t="n">
         <v>-0.8726632819771512</v>
       </c>
+      <c r="AA51" t="n">
+        <v>-0.8741712476017443</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4592,6 +4745,9 @@
       <c r="Z52" t="n">
         <v>-0.8726632819771512</v>
       </c>
+      <c r="AA52" t="n">
+        <v>-0.8741712476017443</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4672,6 +4828,9 @@
       <c r="Z53" t="n">
         <v>-1.16320531452132</v>
       </c>
+      <c r="AA53" t="n">
+        <v>-1.165994454997402</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4752,6 +4911,9 @@
       <c r="Z54" t="n">
         <v>-0.1889599550270151</v>
       </c>
+      <c r="AA54" t="n">
+        <v>-0.1906921082513884</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4832,6 +4994,9 @@
       <c r="Z55" t="n">
         <v>-1.056818744090573</v>
       </c>
+      <c r="AA55" t="n">
+        <v>-1.059842949919703</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4912,6 +5077,9 @@
       <c r="Z56" t="n">
         <v>-0.9312544848436883</v>
       </c>
+      <c r="AA56" t="n">
+        <v>-0.9341294996729318</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4992,6 +5160,9 @@
       <c r="Z57" t="n">
         <v>-0.9801724681196313</v>
       </c>
+      <c r="AA57" t="n">
+        <v>-0.9865727289361509</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5072,6 +5243,9 @@
       <c r="Z58" t="n">
         <v>-1.121532893801345</v>
       </c>
+      <c r="AA58" t="n">
+        <v>-1.127903440724417</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5152,6 +5326,9 @@
       <c r="Z59" t="n">
         <v>-0.8127868458513322</v>
       </c>
+      <c r="AA59" t="n">
+        <v>-0.8166397151031632</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5232,6 +5409,9 @@
       <c r="Z60" t="n">
         <v>-0.4457820372375776</v>
       </c>
+      <c r="AA60" t="n">
+        <v>-0.4500490955782361</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -5312,6 +5492,9 @@
       <c r="Z61" t="n">
         <v>0.3798210203431092</v>
       </c>
+      <c r="AA61" t="n">
+        <v>0.3788536809873614</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5392,6 +5575,9 @@
       <c r="Z62" t="n">
         <v>-1.244157664889045</v>
       </c>
+      <c r="AA62" t="n">
+        <v>-1.251797388547617</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5472,6 +5658,9 @@
       <c r="Z63" t="n">
         <v>-0.5683991106268355</v>
       </c>
+      <c r="AA63" t="n">
+        <v>-0.571514835058578</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5552,6 +5741,9 @@
       <c r="Z64" t="n">
         <v>-0.8757014701172577</v>
       </c>
+      <c r="AA64" t="n">
+        <v>-0.8807372282077298</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5632,6 +5824,9 @@
       <c r="Z65" t="n">
         <v>-0.05419345783627016</v>
       </c>
+      <c r="AA65" t="n">
+        <v>-0.05748370437335098</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5712,6 +5907,9 @@
       <c r="Z66" t="n">
         <v>-0.8131255543034284</v>
       </c>
+      <c r="AA66" t="n">
+        <v>-0.8193183887546587</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5791,6 +5989,9 @@
       </c>
       <c r="Z67" t="n">
         <v>-0.7991925019840197</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>-0.8058637451506663</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_11.xlsx
+++ b/predicted_variables_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA67"/>
+  <dimension ref="A1:AB67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,6 +515,9 @@
       <c r="AA1" s="1" t="n">
         <v>26</v>
       </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -598,6 +601,9 @@
       <c r="AA2" t="n">
         <v>-0.2346298205107299</v>
       </c>
+      <c r="AB2" t="n">
+        <v>-0.2376496509181364</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -681,6 +687,9 @@
       <c r="AA3" t="n">
         <v>0.2504092208485832</v>
       </c>
+      <c r="AB3" t="n">
+        <v>0.2471824174648283</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -764,6 +773,9 @@
       <c r="AA4" t="n">
         <v>0.2346099178688092</v>
       </c>
+      <c r="AB4" t="n">
+        <v>0.2318738567920533</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -847,6 +859,9 @@
       <c r="AA5" t="n">
         <v>-0.06394940662650869</v>
       </c>
+      <c r="AB5" t="n">
+        <v>-0.06673396630114617</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -930,6 +945,9 @@
       <c r="AA6" t="n">
         <v>0.1989382331677673</v>
       </c>
+      <c r="AB6" t="n">
+        <v>0.1960830552370471</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1013,6 +1031,9 @@
       <c r="AA7" t="n">
         <v>-0.3909643241223873</v>
       </c>
+      <c r="AB7" t="n">
+        <v>-0.3941164489791548</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1096,6 +1117,9 @@
       <c r="AA8" t="n">
         <v>-0.1317020211683375</v>
       </c>
+      <c r="AB8" t="n">
+        <v>-0.1332460896692045</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1179,6 +1203,9 @@
       <c r="AA9" t="n">
         <v>-0.3025194314915008</v>
       </c>
+      <c r="AB9" t="n">
+        <v>-0.306726291493669</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1262,6 +1289,9 @@
       <c r="AA10" t="n">
         <v>0.3987232585993784</v>
       </c>
+      <c r="AB10" t="n">
+        <v>0.3961090386213312</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1345,6 +1375,9 @@
       <c r="AA11" t="n">
         <v>-0.1983741970284221</v>
       </c>
+      <c r="AB11" t="n">
+        <v>-0.2010267018091846</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1428,6 +1461,9 @@
       <c r="AA12" t="n">
         <v>-0.08615237436187892</v>
       </c>
+      <c r="AB12" t="n">
+        <v>-0.09164850581601329</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1511,6 +1547,9 @@
       <c r="AA13" t="n">
         <v>-0.05045441627197152</v>
       </c>
+      <c r="AB13" t="n">
+        <v>-0.05263566012586907</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1594,6 +1633,9 @@
       <c r="AA14" t="n">
         <v>0.07411625530150499</v>
       </c>
+      <c r="AB14" t="n">
+        <v>0.06514305359753515</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1677,6 +1719,9 @@
       <c r="AA15" t="n">
         <v>-0.07047659856469982</v>
       </c>
+      <c r="AB15" t="n">
+        <v>-0.0816455400310086</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1760,6 +1805,9 @@
       <c r="AA16" t="n">
         <v>0.3534543340760813</v>
       </c>
+      <c r="AB16" t="n">
+        <v>0.3401847699316842</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1843,6 +1891,9 @@
       <c r="AA17" t="n">
         <v>0.4554357372168438</v>
       </c>
+      <c r="AB17" t="n">
+        <v>0.4458654015030358</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1926,6 +1977,9 @@
       <c r="AA18" t="n">
         <v>-0.1471911832189459</v>
       </c>
+      <c r="AB18" t="n">
+        <v>-0.1513383513897256</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2009,6 +2063,9 @@
       <c r="AA19" t="n">
         <v>0.3092363342440477</v>
       </c>
+      <c r="AB19" t="n">
+        <v>0.3031450217874305</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2092,6 +2149,9 @@
       <c r="AA20" t="n">
         <v>0.2426974095567426</v>
       </c>
+      <c r="AB20" t="n">
+        <v>0.2294393259744436</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2175,6 +2235,9 @@
       <c r="AA21" t="n">
         <v>0.5116593237393698</v>
       </c>
+      <c r="AB21" t="n">
+        <v>0.5025989996005321</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2258,6 +2321,9 @@
       <c r="AA22" t="n">
         <v>0.2802190430444932</v>
       </c>
+      <c r="AB22" t="n">
+        <v>0.2712600770140517</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2341,6 +2407,9 @@
       <c r="AA23" t="n">
         <v>-0.1513322787355305</v>
       </c>
+      <c r="AB23" t="n">
+        <v>-0.1591048810384285</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2424,6 +2493,9 @@
       <c r="AA24" t="n">
         <v>1.013378409526031</v>
       </c>
+      <c r="AB24" t="n">
+        <v>1.011555925798028</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2507,6 +2579,9 @@
       <c r="AA25" t="n">
         <v>0.3097260415511735</v>
       </c>
+      <c r="AB25" t="n">
+        <v>0.3123554252489842</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2590,6 +2665,9 @@
       <c r="AA26" t="n">
         <v>0.1224922888166953</v>
       </c>
+      <c r="AB26" t="n">
+        <v>0.123869587029986</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2673,6 +2751,9 @@
       <c r="AA27" t="n">
         <v>0.02166169337564867</v>
       </c>
+      <c r="AB27" t="n">
+        <v>0.02384102500311354</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2756,6 +2837,9 @@
       <c r="AA28" t="n">
         <v>0.8002574798871203</v>
       </c>
+      <c r="AB28" t="n">
+        <v>0.8051629564050791</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2839,6 +2923,9 @@
       <c r="AA29" t="n">
         <v>1.417733575287897</v>
       </c>
+      <c r="AB29" t="n">
+        <v>1.435696537167594</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2922,6 +3009,9 @@
       <c r="AA30" t="n">
         <v>0.6433325983898608</v>
       </c>
+      <c r="AB30" t="n">
+        <v>0.6472548412287445</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3005,6 +3095,9 @@
       <c r="AA31" t="n">
         <v>-0.4451854242699751</v>
       </c>
+      <c r="AB31" t="n">
+        <v>-0.4412140197130173</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3088,6 +3181,9 @@
       <c r="AA32" t="n">
         <v>0.5335855983546518</v>
       </c>
+      <c r="AB32" t="n">
+        <v>0.5362848987515568</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3171,6 +3267,9 @@
       <c r="AA33" t="n">
         <v>0.7516509214791293</v>
       </c>
+      <c r="AB33" t="n">
+        <v>0.7541921113304341</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3254,6 +3353,9 @@
       <c r="AA34" t="n">
         <v>-0.8542969402678281</v>
       </c>
+      <c r="AB34" t="n">
+        <v>-0.8525230776843377</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3337,6 +3439,9 @@
       <c r="AA35" t="n">
         <v>0.8097227564453473</v>
       </c>
+      <c r="AB35" t="n">
+        <v>0.8124457549134514</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3420,6 +3525,9 @@
       <c r="AA36" t="n">
         <v>0.7744593531648014</v>
       </c>
+      <c r="AB36" t="n">
+        <v>0.7784436230896851</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3503,6 +3611,9 @@
       <c r="AA37" t="n">
         <v>0.7395189478639406</v>
       </c>
+      <c r="AB37" t="n">
+        <v>0.7437060311332164</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3586,6 +3697,9 @@
       <c r="AA38" t="n">
         <v>0.6479584578331472</v>
       </c>
+      <c r="AB38" t="n">
+        <v>0.6501613967596522</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3669,6 +3783,9 @@
       <c r="AA39" t="n">
         <v>0.6052275949794005</v>
       </c>
+      <c r="AB39" t="n">
+        <v>0.6068717307991377</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3752,6 +3869,9 @@
       <c r="AA40" t="n">
         <v>0.7723362775147504</v>
       </c>
+      <c r="AB40" t="n">
+        <v>0.774825180960436</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3835,6 +3955,9 @@
       <c r="AA41" t="n">
         <v>0.5792391761136199</v>
       </c>
+      <c r="AB41" t="n">
+        <v>0.5806167443316435</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3918,6 +4041,9 @@
       <c r="AA42" t="n">
         <v>0.6274842089819833</v>
       </c>
+      <c r="AB42" t="n">
+        <v>0.6317870617066905</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4001,6 +4127,9 @@
       <c r="AA43" t="n">
         <v>0.67929974137158</v>
       </c>
+      <c r="AB43" t="n">
+        <v>0.6813779335397703</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4084,6 +4213,9 @@
       <c r="AA44" t="n">
         <v>0.7051670064989676</v>
       </c>
+      <c r="AB44" t="n">
+        <v>0.7073722514320215</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4167,6 +4299,9 @@
       <c r="AA45" t="n">
         <v>0.7086109027233235</v>
       </c>
+      <c r="AB45" t="n">
+        <v>0.7135444640604345</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4250,6 +4385,9 @@
       <c r="AA46" t="n">
         <v>-1.328911031645706</v>
       </c>
+      <c r="AB46" t="n">
+        <v>-1.33251650834226</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4333,6 +4471,9 @@
       <c r="AA47" t="n">
         <v>-1.036546957682666</v>
       </c>
+      <c r="AB47" t="n">
+        <v>-1.039299257092868</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4416,6 +4557,9 @@
       <c r="AA48" t="n">
         <v>-0.8962709509596843</v>
       </c>
+      <c r="AB48" t="n">
+        <v>-0.8987379144949272</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4499,6 +4643,9 @@
       <c r="AA49" t="n">
         <v>-0.6585305293444864</v>
       </c>
+      <c r="AB49" t="n">
+        <v>-0.6607433798973287</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4582,6 +4729,9 @@
       <c r="AA50" t="n">
         <v>-0.08161581306534892</v>
       </c>
+      <c r="AB50" t="n">
+        <v>-0.08320683907076962</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4665,6 +4815,9 @@
       <c r="AA51" t="n">
         <v>-0.8741712476017443</v>
       </c>
+      <c r="AB51" t="n">
+        <v>-0.8758525376704034</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4748,6 +4901,9 @@
       <c r="AA52" t="n">
         <v>-0.8741712476017443</v>
       </c>
+      <c r="AB52" t="n">
+        <v>-0.8758525376704034</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4831,6 +4987,9 @@
       <c r="AA53" t="n">
         <v>-1.165994454997402</v>
       </c>
+      <c r="AB53" t="n">
+        <v>-1.168931429556329</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4914,6 +5073,9 @@
       <c r="AA54" t="n">
         <v>-0.1906921082513884</v>
       </c>
+      <c r="AB54" t="n">
+        <v>-0.1924666953931823</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4997,6 +5159,9 @@
       <c r="AA55" t="n">
         <v>-1.059842949919703</v>
       </c>
+      <c r="AB55" t="n">
+        <v>-1.062881676997041</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5080,6 +5245,9 @@
       <c r="AA56" t="n">
         <v>-0.9341294996729318</v>
       </c>
+      <c r="AB56" t="n">
+        <v>-0.9369131325942474</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5163,6 +5331,9 @@
       <c r="AA57" t="n">
         <v>-0.9865727289361509</v>
       </c>
+      <c r="AB57" t="n">
+        <v>-0.9926580543051615</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5246,6 +5417,9 @@
       <c r="AA58" t="n">
         <v>-1.127903440724417</v>
       </c>
+      <c r="AB58" t="n">
+        <v>-1.133951956450747</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5329,6 +5503,9 @@
       <c r="AA59" t="n">
         <v>-0.8166397151031632</v>
       </c>
+      <c r="AB59" t="n">
+        <v>-0.82045919648429</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5412,6 +5589,9 @@
       <c r="AA60" t="n">
         <v>-0.4500490955782361</v>
       </c>
+      <c r="AB60" t="n">
+        <v>-0.4541437262280501</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -5495,6 +5675,9 @@
       <c r="AA61" t="n">
         <v>0.3788536809873614</v>
       </c>
+      <c r="AB61" t="n">
+        <v>0.3778966515904346</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5578,6 +5761,9 @@
       <c r="AA62" t="n">
         <v>-1.251797388547617</v>
       </c>
+      <c r="AB62" t="n">
+        <v>-1.259052429407087</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5661,6 +5847,9 @@
       <c r="AA63" t="n">
         <v>-0.571514835058578</v>
       </c>
+      <c r="AB63" t="n">
+        <v>-0.5747231975299972</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5744,6 +5933,9 @@
       <c r="AA64" t="n">
         <v>-0.8807372282077298</v>
       </c>
+      <c r="AB64" t="n">
+        <v>-0.8857657817737639</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5827,6 +6019,9 @@
       <c r="AA65" t="n">
         <v>-0.05748370437335098</v>
       </c>
+      <c r="AB65" t="n">
+        <v>-0.0606353046414044</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5910,6 +6105,9 @@
       <c r="AA66" t="n">
         <v>-0.8193183887546587</v>
       </c>
+      <c r="AB66" t="n">
+        <v>-0.8250864419764536</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5992,6 +6190,9 @@
       </c>
       <c r="AA67" t="n">
         <v>-0.8058637451506663</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>-0.8119532312036932</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_11.xlsx
+++ b/predicted_variables_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB67"/>
+  <dimension ref="A1:AC67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,9 @@
       <c r="AB1" s="1" t="n">
         <v>27</v>
       </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -604,6 +607,9 @@
       <c r="AB2" t="n">
         <v>-0.2376496509181364</v>
       </c>
+      <c r="AC2" t="n">
+        <v>-0.2406140943214022</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -690,6 +696,9 @@
       <c r="AB3" t="n">
         <v>0.2471824174648283</v>
       </c>
+      <c r="AC3" t="n">
+        <v>0.2440890856775016</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -776,6 +785,9 @@
       <c r="AB4" t="n">
         <v>0.2318738567920533</v>
       </c>
+      <c r="AC4" t="n">
+        <v>0.2291446673329579</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -862,6 +874,9 @@
       <c r="AB5" t="n">
         <v>-0.06673396630114617</v>
       </c>
+      <c r="AC5" t="n">
+        <v>-0.06937688520156129</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -948,6 +963,9 @@
       <c r="AB6" t="n">
         <v>0.1960830552370471</v>
       </c>
+      <c r="AC6" t="n">
+        <v>0.193404755963705</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1034,6 +1052,9 @@
       <c r="AB7" t="n">
         <v>-0.3941164489791548</v>
       </c>
+      <c r="AC7" t="n">
+        <v>-0.3972547723415104</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1120,6 +1141,9 @@
       <c r="AB8" t="n">
         <v>-0.1332460896692045</v>
       </c>
+      <c r="AC8" t="n">
+        <v>-0.1349094840788714</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1206,6 +1230,9 @@
       <c r="AB9" t="n">
         <v>-0.306726291493669</v>
       </c>
+      <c r="AC9" t="n">
+        <v>-0.3109296800622177</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1292,6 +1319,9 @@
       <c r="AB10" t="n">
         <v>0.3961090386213312</v>
       </c>
+      <c r="AC10" t="n">
+        <v>0.3936657353073279</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1378,6 +1408,9 @@
       <c r="AB11" t="n">
         <v>-0.2010267018091846</v>
       </c>
+      <c r="AC11" t="n">
+        <v>-0.2036397614285875</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1464,6 +1497,9 @@
       <c r="AB12" t="n">
         <v>-0.09164850581601329</v>
       </c>
+      <c r="AC12" t="n">
+        <v>-0.09672445228707655</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1550,6 +1586,9 @@
       <c r="AB13" t="n">
         <v>-0.05263566012586907</v>
       </c>
+      <c r="AC13" t="n">
+        <v>-0.05470360501236653</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1636,6 +1675,9 @@
       <c r="AB14" t="n">
         <v>0.06514305359753515</v>
       </c>
+      <c r="AC14" t="n">
+        <v>0.05694626590874572</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1722,6 +1764,9 @@
       <c r="AB15" t="n">
         <v>-0.0816455400310086</v>
       </c>
+      <c r="AC15" t="n">
+        <v>-0.09175483064678579</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1808,6 +1853,9 @@
       <c r="AB16" t="n">
         <v>0.3401847699316842</v>
       </c>
+      <c r="AC16" t="n">
+        <v>0.3281710384989244</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1894,6 +1942,9 @@
       <c r="AB17" t="n">
         <v>0.4458654015030358</v>
       </c>
+      <c r="AC17" t="n">
+        <v>0.4374163786708912</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1980,6 +2031,9 @@
       <c r="AB18" t="n">
         <v>-0.1513383513897256</v>
       </c>
+      <c r="AC18" t="n">
+        <v>-0.1551028938541894</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2066,6 +2120,9 @@
       <c r="AB19" t="n">
         <v>0.3031450217874305</v>
       </c>
+      <c r="AC19" t="n">
+        <v>0.2976207606193687</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2152,6 +2209,9 @@
       <c r="AB20" t="n">
         <v>0.2294393259744436</v>
       </c>
+      <c r="AC20" t="n">
+        <v>0.2174968206654627</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2238,6 +2298,9 @@
       <c r="AB21" t="n">
         <v>0.5025989996005321</v>
       </c>
+      <c r="AC21" t="n">
+        <v>0.4945896689892319</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2324,6 +2387,9 @@
       <c r="AB22" t="n">
         <v>0.2712600770140517</v>
       </c>
+      <c r="AC22" t="n">
+        <v>0.2633113339631765</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2410,6 +2476,9 @@
       <c r="AB23" t="n">
         <v>-0.1591048810384285</v>
       </c>
+      <c r="AC23" t="n">
+        <v>-0.1660271884666397</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2496,6 +2565,9 @@
       <c r="AB24" t="n">
         <v>1.011555925798028</v>
       </c>
+      <c r="AC24" t="n">
+        <v>1.017533102663997</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2582,6 +2654,9 @@
       <c r="AB25" t="n">
         <v>0.3123554252489842</v>
       </c>
+      <c r="AC25" t="n">
+        <v>0.3148636378195548</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2668,6 +2743,9 @@
       <c r="AB26" t="n">
         <v>0.123869587029986</v>
       </c>
+      <c r="AC26" t="n">
+        <v>0.1254321280378708</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2754,6 +2832,9 @@
       <c r="AB27" t="n">
         <v>0.02384102500311354</v>
       </c>
+      <c r="AC27" t="n">
+        <v>0.02618859840637159</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2840,6 +2921,9 @@
       <c r="AB28" t="n">
         <v>0.8051629564050791</v>
       </c>
+      <c r="AC28" t="n">
+        <v>0.8101372401707213</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2926,6 +3010,9 @@
       <c r="AB29" t="n">
         <v>1.435696537167594</v>
       </c>
+      <c r="AC29" t="n">
+        <v>1.456788972263572</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3012,6 +3099,9 @@
       <c r="AB30" t="n">
         <v>0.6472548412287445</v>
       </c>
+      <c r="AC30" t="n">
+        <v>0.6511432819143821</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3098,6 +3188,9 @@
       <c r="AB31" t="n">
         <v>-0.4412140197130173</v>
       </c>
+      <c r="AC31" t="n">
+        <v>-0.4376197632025211</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3184,6 +3277,9 @@
       <c r="AB32" t="n">
         <v>0.5362848987515568</v>
       </c>
+      <c r="AC32" t="n">
+        <v>0.539053306930971</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3270,6 +3366,9 @@
       <c r="AB33" t="n">
         <v>0.7541921113304341</v>
       </c>
+      <c r="AC33" t="n">
+        <v>0.7566728091947834</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3356,6 +3455,9 @@
       <c r="AB34" t="n">
         <v>-0.8525230776843377</v>
       </c>
+      <c r="AC34" t="n">
+        <v>-0.8508462281925864</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3442,6 +3544,9 @@
       <c r="AB35" t="n">
         <v>0.8124457549134514</v>
       </c>
+      <c r="AC35" t="n">
+        <v>0.8149805295849545</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3528,6 +3633,9 @@
       <c r="AB36" t="n">
         <v>0.7784436230896851</v>
       </c>
+      <c r="AC36" t="n">
+        <v>0.7820586607843981</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3614,6 +3722,9 @@
       <c r="AB37" t="n">
         <v>0.7437060311332164</v>
       </c>
+      <c r="AC37" t="n">
+        <v>0.7475090060123553</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3700,6 +3811,9 @@
       <c r="AB38" t="n">
         <v>0.6501613967596522</v>
       </c>
+      <c r="AC38" t="n">
+        <v>0.6522128710339778</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3786,6 +3900,9 @@
       <c r="AB39" t="n">
         <v>0.6068717307991377</v>
       </c>
+      <c r="AC39" t="n">
+        <v>0.6083397675037359</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3872,6 +3989,9 @@
       <c r="AB40" t="n">
         <v>0.774825180960436</v>
       </c>
+      <c r="AC40" t="n">
+        <v>0.7771530495681939</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3958,6 +4078,9 @@
       <c r="AB41" t="n">
         <v>0.5806167443316435</v>
       </c>
+      <c r="AC41" t="n">
+        <v>0.5818091076236498</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4044,6 +4167,9 @@
       <c r="AB42" t="n">
         <v>0.6317870617066905</v>
       </c>
+      <c r="AC42" t="n">
+        <v>0.6357237891101204</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4130,6 +4256,9 @@
       <c r="AB43" t="n">
         <v>0.6813779335397703</v>
       </c>
+      <c r="AC43" t="n">
+        <v>0.6832719694239</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4216,6 +4345,9 @@
       <c r="AB44" t="n">
         <v>0.7073722514320215</v>
       </c>
+      <c r="AC44" t="n">
+        <v>0.7093337236037445</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4302,6 +4434,9 @@
       <c r="AB45" t="n">
         <v>0.7135444640604345</v>
       </c>
+      <c r="AC45" t="n">
+        <v>0.7179409113620281</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4388,6 +4523,9 @@
       <c r="AB46" t="n">
         <v>-1.33251650834226</v>
       </c>
+      <c r="AC46" t="n">
+        <v>-1.336119123841242</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4474,6 +4612,9 @@
       <c r="AB47" t="n">
         <v>-1.039299257092868</v>
       </c>
+      <c r="AC47" t="n">
+        <v>-1.042071830706139</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4560,6 +4701,9 @@
       <c r="AB48" t="n">
         <v>-0.8987379144949272</v>
       </c>
+      <c r="AC48" t="n">
+        <v>-0.9013271024209565</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4646,6 +4790,9 @@
       <c r="AB49" t="n">
         <v>-0.6607433798973287</v>
       </c>
+      <c r="AC49" t="n">
+        <v>-0.6630358230723108</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4732,6 +4879,9 @@
       <c r="AB50" t="n">
         <v>-0.08320683907076962</v>
       </c>
+      <c r="AC50" t="n">
+        <v>-0.08477253197782558</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4818,6 +4968,9 @@
       <c r="AB51" t="n">
         <v>-0.8758525376704034</v>
       </c>
+      <c r="AC51" t="n">
+        <v>-0.8776866715354658</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4904,6 +5057,9 @@
       <c r="AB52" t="n">
         <v>-0.8758525376704034</v>
       </c>
+      <c r="AC52" t="n">
+        <v>-0.8776866715354658</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4990,6 +5146,9 @@
       <c r="AB53" t="n">
         <v>-1.168931429556329</v>
       </c>
+      <c r="AC53" t="n">
+        <v>-1.171994068712584</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5076,6 +5235,9 @@
       <c r="AB54" t="n">
         <v>-0.1924666953931823</v>
       </c>
+      <c r="AC54" t="n">
+        <v>-0.1942700889673339</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5162,6 +5324,9 @@
       <c r="AB55" t="n">
         <v>-1.062881676997041</v>
       </c>
+      <c r="AC55" t="n">
+        <v>-1.065923085747283</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5248,6 +5413,9 @@
       <c r="AB56" t="n">
         <v>-0.9369131325942474</v>
       </c>
+      <c r="AC56" t="n">
+        <v>-0.9396043066048725</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5334,6 +5502,9 @@
       <c r="AB57" t="n">
         <v>-0.9926580543051615</v>
       </c>
+      <c r="AC57" t="n">
+        <v>-0.9984116219156028</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5420,6 +5591,9 @@
       <c r="AB58" t="n">
         <v>-1.133951956450747</v>
       </c>
+      <c r="AC58" t="n">
+        <v>-1.139657324501045</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5506,6 +5680,9 @@
       <c r="AB59" t="n">
         <v>-0.82045919648429</v>
       </c>
+      <c r="AC59" t="n">
+        <v>-0.8242162117961027</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5592,6 +5769,9 @@
       <c r="AB60" t="n">
         <v>-0.4541437262280501</v>
       </c>
+      <c r="AC60" t="n">
+        <v>-0.4580413605379699</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -5678,6 +5858,9 @@
       <c r="AB61" t="n">
         <v>0.3778966515904346</v>
       </c>
+      <c r="AC61" t="n">
+        <v>0.376957532003624</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5764,6 +5947,9 @@
       <c r="AB62" t="n">
         <v>-1.259052429407087</v>
       </c>
+      <c r="AC62" t="n">
+        <v>-1.265901937451945</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5850,6 +6036,9 @@
       <c r="AB63" t="n">
         <v>-0.5747231975299972</v>
       </c>
+      <c r="AC63" t="n">
+        <v>-0.5779706807669164</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5936,6 +6125,9 @@
       <c r="AB64" t="n">
         <v>-0.8857657817737639</v>
       </c>
+      <c r="AC64" t="n">
+        <v>-0.8907414075098655</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6022,6 +6214,9 @@
       <c r="AB65" t="n">
         <v>-0.0606353046414044</v>
       </c>
+      <c r="AC65" t="n">
+        <v>-0.06362902613860966</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -6108,6 +6303,9 @@
       <c r="AB66" t="n">
         <v>-0.8250864419764536</v>
       </c>
+      <c r="AC66" t="n">
+        <v>-0.8304242480157195</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -6193,6 +6391,9 @@
       </c>
       <c r="AB67" t="n">
         <v>-0.8119532312036932</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>-0.817471656436586</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_11.xlsx
+++ b/predicted_variables_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC67"/>
+  <dimension ref="A1:AD67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,6 +521,9 @@
       <c r="AC1" s="1" t="n">
         <v>28</v>
       </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -610,6 +613,9 @@
       <c r="AC2" t="n">
         <v>-0.2406140943214022</v>
       </c>
+      <c r="AD2" t="n">
+        <v>-0.2434953476175283</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -699,6 +705,9 @@
       <c r="AC3" t="n">
         <v>0.2440890856775016</v>
       </c>
+      <c r="AD3" t="n">
+        <v>0.2411543062500625</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -788,6 +797,9 @@
       <c r="AC4" t="n">
         <v>0.2291446673329579</v>
       </c>
+      <c r="AD4" t="n">
+        <v>0.2264577349328486</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -877,6 +889,9 @@
       <c r="AC5" t="n">
         <v>-0.06937688520156129</v>
       </c>
+      <c r="AD5" t="n">
+        <v>-0.07186727815406313</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -966,6 +981,9 @@
       <c r="AC6" t="n">
         <v>0.193404755963705</v>
       </c>
+      <c r="AD6" t="n">
+        <v>0.1909190919382662</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1055,6 +1073,9 @@
       <c r="AC7" t="n">
         <v>-0.3972547723415104</v>
       </c>
+      <c r="AD7" t="n">
+        <v>-0.4003472848638983</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1144,6 +1165,9 @@
       <c r="AC8" t="n">
         <v>-0.1349094840788714</v>
       </c>
+      <c r="AD8" t="n">
+        <v>-0.13665304619061</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1233,6 +1257,9 @@
       <c r="AC9" t="n">
         <v>-0.3109296800622177</v>
       </c>
+      <c r="AD9" t="n">
+        <v>-0.3150739097885209</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1322,6 +1349,9 @@
       <c r="AC10" t="n">
         <v>0.3936657353073279</v>
       </c>
+      <c r="AD10" t="n">
+        <v>0.3914037574018363</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1411,6 +1441,9 @@
       <c r="AC11" t="n">
         <v>-0.2036397614285875</v>
       </c>
+      <c r="AD11" t="n">
+        <v>-0.2061918183528655</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1500,6 +1533,9 @@
       <c r="AC12" t="n">
         <v>-0.09672445228707655</v>
       </c>
+      <c r="AD12" t="n">
+        <v>-0.1013734467838605</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1589,6 +1625,9 @@
       <c r="AC13" t="n">
         <v>-0.05470360501236653</v>
       </c>
+      <c r="AD13" t="n">
+        <v>-0.05665534017195153</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1678,6 +1717,9 @@
       <c r="AC14" t="n">
         <v>0.05694626590874572</v>
       </c>
+      <c r="AD14" t="n">
+        <v>0.04953756028873901</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1767,6 +1809,9 @@
       <c r="AC15" t="n">
         <v>-0.09175483064678579</v>
       </c>
+      <c r="AD15" t="n">
+        <v>-0.1008112089444332</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1856,6 +1901,9 @@
       <c r="AC16" t="n">
         <v>0.3281710384989244</v>
       </c>
+      <c r="AD16" t="n">
+        <v>0.3174175234682555</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1945,6 +1993,9 @@
       <c r="AC17" t="n">
         <v>0.4374163786708912</v>
       </c>
+      <c r="AD17" t="n">
+        <v>0.4300527951726832</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2034,6 +2085,9 @@
       <c r="AC18" t="n">
         <v>-0.1551028938541894</v>
       </c>
+      <c r="AD18" t="n">
+        <v>-0.1584998425684573</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2123,6 +2177,9 @@
       <c r="AC19" t="n">
         <v>0.2976207606193687</v>
       </c>
+      <c r="AD19" t="n">
+        <v>0.2926530085669882</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2212,6 +2269,9 @@
       <c r="AC20" t="n">
         <v>0.2174968206654627</v>
       </c>
+      <c r="AD20" t="n">
+        <v>0.2068593619453842</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2301,6 +2361,9 @@
       <c r="AC21" t="n">
         <v>0.4945896689892319</v>
       </c>
+      <c r="AD21" t="n">
+        <v>0.4876057170186596</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2390,6 +2453,9 @@
       <c r="AC22" t="n">
         <v>0.2633113339631765</v>
       </c>
+      <c r="AD22" t="n">
+        <v>0.2563466300553582</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2479,6 +2545,9 @@
       <c r="AC23" t="n">
         <v>-0.1660271884666397</v>
       </c>
+      <c r="AD23" t="n">
+        <v>-0.1721234330757843</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2568,6 +2637,9 @@
       <c r="AC24" t="n">
         <v>1.017533102663997</v>
       </c>
+      <c r="AD24" t="n">
+        <v>1.029986901727581</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2657,6 +2729,9 @@
       <c r="AC25" t="n">
         <v>0.3148636378195548</v>
       </c>
+      <c r="AD25" t="n">
+        <v>0.3172237472952627</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2746,6 +2821,9 @@
       <c r="AC26" t="n">
         <v>0.1254321280378708</v>
       </c>
+      <c r="AD26" t="n">
+        <v>0.127116050660869</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2835,6 +2913,9 @@
       <c r="AC27" t="n">
         <v>0.02618859840637159</v>
       </c>
+      <c r="AD27" t="n">
+        <v>0.02863269666523919</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2924,6 +3005,9 @@
       <c r="AC28" t="n">
         <v>0.8101372401707213</v>
       </c>
+      <c r="AD28" t="n">
+        <v>0.8150950737689828</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3013,6 +3097,9 @@
       <c r="AC29" t="n">
         <v>1.456788972263572</v>
       </c>
+      <c r="AD29" t="n">
+        <v>1.480081925340209</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3102,6 +3189,9 @@
       <c r="AC30" t="n">
         <v>0.6511432819143821</v>
       </c>
+      <c r="AD30" t="n">
+        <v>0.6549304440720856</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3191,6 +3281,9 @@
       <c r="AC31" t="n">
         <v>-0.4376197632025211</v>
       </c>
+      <c r="AD31" t="n">
+        <v>-0.4344236928511671</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3280,6 +3373,9 @@
       <c r="AC32" t="n">
         <v>0.539053306930971</v>
       </c>
+      <c r="AD32" t="n">
+        <v>0.5418287619647881</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3369,6 +3465,9 @@
       <c r="AC33" t="n">
         <v>0.7566728091947834</v>
       </c>
+      <c r="AD33" t="n">
+        <v>0.7590579347600286</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3458,6 +3557,9 @@
       <c r="AC34" t="n">
         <v>-0.8508462281925864</v>
       </c>
+      <c r="AD34" t="n">
+        <v>-0.8493006065528109</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3547,6 +3649,9 @@
       <c r="AC35" t="n">
         <v>0.8149805295849545</v>
       </c>
+      <c r="AD35" t="n">
+        <v>0.8173179686844623</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3636,6 +3741,9 @@
       <c r="AC36" t="n">
         <v>0.7820586607843981</v>
       </c>
+      <c r="AD36" t="n">
+        <v>0.7853034001083214</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3725,6 +3833,9 @@
       <c r="AC37" t="n">
         <v>0.7475090060123553</v>
       </c>
+      <c r="AD37" t="n">
+        <v>0.7509257322972265</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3814,6 +3925,9 @@
       <c r="AC38" t="n">
         <v>0.6522128710339778</v>
       </c>
+      <c r="AD38" t="n">
+        <v>0.6541002827100032</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3903,6 +4017,9 @@
       <c r="AC39" t="n">
         <v>0.6083397675037359</v>
       </c>
+      <c r="AD39" t="n">
+        <v>0.6096338629339471</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3992,6 +4109,9 @@
       <c r="AC40" t="n">
         <v>0.7771530495681939</v>
       </c>
+      <c r="AD40" t="n">
+        <v>0.7793114607147709</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4081,6 +4201,9 @@
       <c r="AC41" t="n">
         <v>0.5818091076236498</v>
       </c>
+      <c r="AD41" t="n">
+        <v>0.5828265931538731</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4170,6 +4293,9 @@
       <c r="AC42" t="n">
         <v>0.6357237891101204</v>
       </c>
+      <c r="AD42" t="n">
+        <v>0.639281796344157</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4259,6 +4385,9 @@
       <c r="AC43" t="n">
         <v>0.6832719694239</v>
       </c>
+      <c r="AD43" t="n">
+        <v>0.684977962573836</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4348,6 +4477,9 @@
       <c r="AC44" t="n">
         <v>0.7093337236037445</v>
       </c>
+      <c r="AD44" t="n">
+        <v>0.7110578976698174</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4437,6 +4569,9 @@
       <c r="AC45" t="n">
         <v>0.7179409113620281</v>
       </c>
+      <c r="AD45" t="n">
+        <v>0.7218101840899095</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4526,6 +4661,9 @@
       <c r="AC46" t="n">
         <v>-1.336119123841242</v>
       </c>
+      <c r="AD46" t="n">
+        <v>-1.33970435041906</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4615,6 +4753,9 @@
       <c r="AC47" t="n">
         <v>-1.042071830706139</v>
       </c>
+      <c r="AD47" t="n">
+        <v>-1.044853057215293</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4704,6 +4845,9 @@
       <c r="AC48" t="n">
         <v>-0.9013271024209565</v>
       </c>
+      <c r="AD48" t="n">
+        <v>-0.9040148653691811</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4793,6 +4937,9 @@
       <c r="AC49" t="n">
         <v>-0.6630358230723108</v>
       </c>
+      <c r="AD49" t="n">
+        <v>-0.665388822118349</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4882,6 +5029,9 @@
       <c r="AC50" t="n">
         <v>-0.08477253197782558</v>
       </c>
+      <c r="AD50" t="n">
+        <v>-0.08630970636698901</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4971,6 +5121,9 @@
       <c r="AC51" t="n">
         <v>-0.8776866715354658</v>
       </c>
+      <c r="AD51" t="n">
+        <v>-0.8796526455772899</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5060,6 +5213,9 @@
       <c r="AC52" t="n">
         <v>-0.8776866715354658</v>
       </c>
+      <c r="AD52" t="n">
+        <v>-0.8796526455772899</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5149,6 +5305,9 @@
       <c r="AC53" t="n">
         <v>-1.171994068712584</v>
       </c>
+      <c r="AD53" t="n">
+        <v>-1.175159628528284</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5238,6 +5397,9 @@
       <c r="AC54" t="n">
         <v>-0.1942700889673339</v>
       </c>
+      <c r="AD54" t="n">
+        <v>-0.1960896707274253</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5327,6 +5489,9 @@
       <c r="AC55" t="n">
         <v>-1.065923085747283</v>
       </c>
+      <c r="AD55" t="n">
+        <v>-1.068955852009542</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5416,6 +5581,9 @@
       <c r="AC56" t="n">
         <v>-0.9396043066048725</v>
       </c>
+      <c r="AD56" t="n">
+        <v>-0.9422030186120706</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5505,6 +5673,9 @@
       <c r="AC57" t="n">
         <v>-0.9984116219156028</v>
       </c>
+      <c r="AD57" t="n">
+        <v>-1.00382394896676</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5594,6 +5765,9 @@
       <c r="AC58" t="n">
         <v>-1.139657324501045</v>
       </c>
+      <c r="AD58" t="n">
+        <v>-1.145007147454882</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5683,6 +5857,9 @@
       <c r="AC59" t="n">
         <v>-0.8242162117961027</v>
       </c>
+      <c r="AD59" t="n">
+        <v>-0.8278866346510209</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5772,6 +5949,9 @@
       <c r="AC60" t="n">
         <v>-0.4580413605379699</v>
       </c>
+      <c r="AD60" t="n">
+        <v>-0.4617245269087338</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -5861,6 +6041,9 @@
       <c r="AC61" t="n">
         <v>0.376957532003624</v>
       </c>
+      <c r="AD61" t="n">
+        <v>0.3760425939884569</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5950,6 +6133,9 @@
       <c r="AC62" t="n">
         <v>-1.265901937451945</v>
       </c>
+      <c r="AD62" t="n">
+        <v>-1.27233435452353</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6039,6 +6225,9 @@
       <c r="AC63" t="n">
         <v>-0.5779706807669164</v>
       </c>
+      <c r="AD63" t="n">
+        <v>-0.5812115561672193</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -6128,6 +6317,9 @@
       <c r="AC64" t="n">
         <v>-0.8907414075098655</v>
       </c>
+      <c r="AD64" t="n">
+        <v>-0.8956250997391458</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6217,6 +6409,9 @@
       <c r="AC65" t="n">
         <v>-0.06362902613860966</v>
       </c>
+      <c r="AD65" t="n">
+        <v>-0.066451453377361</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -6306,6 +6501,9 @@
       <c r="AC66" t="n">
         <v>-0.8304242480157195</v>
       </c>
+      <c r="AD66" t="n">
+        <v>-0.8353343932414291</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -6394,6 +6592,9 @@
       </c>
       <c r="AC67" t="n">
         <v>-0.817471656436586</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>-0.8224381519125984</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_11.xlsx
+++ b/predicted_variables_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD67"/>
+  <dimension ref="A1:AE67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,9 @@
       <c r="AD1" s="1" t="n">
         <v>29</v>
       </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -616,6 +619,9 @@
       <c r="AD2" t="n">
         <v>-0.2434953476175283</v>
       </c>
+      <c r="AE2" t="n">
+        <v>-0.2462711556783642</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -708,6 +714,9 @@
       <c r="AD3" t="n">
         <v>0.2411543062500625</v>
       </c>
+      <c r="AE3" t="n">
+        <v>0.2383968468310867</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -800,6 +809,9 @@
       <c r="AD4" t="n">
         <v>0.2264577349328486</v>
       </c>
+      <c r="AE4" t="n">
+        <v>0.2238424462558444</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -892,6 +904,9 @@
       <c r="AD5" t="n">
         <v>-0.07186727815406313</v>
       </c>
+      <c r="AE5" t="n">
+        <v>-0.07419831976428651</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -984,6 +999,9 @@
       <c r="AD6" t="n">
         <v>0.1909190919382662</v>
       </c>
+      <c r="AE6" t="n">
+        <v>0.1886359278956758</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1076,6 +1094,9 @@
       <c r="AD7" t="n">
         <v>-0.4003472848638983</v>
       </c>
+      <c r="AE7" t="n">
+        <v>-0.4033672377722418</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1168,6 +1189,9 @@
       <c r="AD8" t="n">
         <v>-0.13665304619061</v>
       </c>
+      <c r="AE8" t="n">
+        <v>-0.1384422971183228</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1260,6 +1284,9 @@
       <c r="AD9" t="n">
         <v>-0.3150739097885209</v>
       </c>
+      <c r="AE9" t="n">
+        <v>-0.3191122661499725</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1352,6 +1379,9 @@
       <c r="AD10" t="n">
         <v>0.3914037574018363</v>
       </c>
+      <c r="AE10" t="n">
+        <v>0.38932868141896</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1444,6 +1474,9 @@
       <c r="AD11" t="n">
         <v>-0.2061918183528655</v>
       </c>
+      <c r="AE11" t="n">
+        <v>-0.2086653490593988</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1536,6 +1569,9 @@
       <c r="AD12" t="n">
         <v>-0.1013734467838605</v>
       </c>
+      <c r="AE12" t="n">
+        <v>-0.1055969449480291</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1628,6 +1664,9 @@
       <c r="AD13" t="n">
         <v>-0.05665534017195153</v>
       </c>
+      <c r="AE13" t="n">
+        <v>-0.05848988634406244</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1720,6 +1759,9 @@
       <c r="AD14" t="n">
         <v>0.04953756028873901</v>
       </c>
+      <c r="AE14" t="n">
+        <v>0.04291314164455614</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1812,6 +1854,9 @@
       <c r="AD15" t="n">
         <v>-0.1008112089444332</v>
       </c>
+      <c r="AE15" t="n">
+        <v>-0.1088383893606996</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1904,6 +1949,9 @@
       <c r="AD16" t="n">
         <v>0.3174175234682555</v>
       </c>
+      <c r="AE16" t="n">
+        <v>0.3079059329546847</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1996,6 +2044,9 @@
       <c r="AD17" t="n">
         <v>0.4300527951726832</v>
       </c>
+      <c r="AE17" t="n">
+        <v>0.4237256709913573</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2088,6 +2139,9 @@
       <c r="AD18" t="n">
         <v>-0.1584998425684573</v>
       </c>
+      <c r="AE18" t="n">
+        <v>-0.1615468944301224</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2180,6 +2234,9 @@
       <c r="AD19" t="n">
         <v>0.2926530085669882</v>
       </c>
+      <c r="AE19" t="n">
+        <v>0.2882237287488998</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2272,6 +2329,9 @@
       <c r="AD20" t="n">
         <v>0.2068593619453842</v>
       </c>
+      <c r="AE20" t="n">
+        <v>0.1974954202128234</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2364,6 +2424,9 @@
       <c r="AD21" t="n">
         <v>0.4876057170186596</v>
       </c>
+      <c r="AE21" t="n">
+        <v>0.4816068609771431</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2456,6 +2519,9 @@
       <c r="AD22" t="n">
         <v>0.2563466300553582</v>
       </c>
+      <c r="AE22" t="n">
+        <v>0.2503267841308827</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2548,6 +2614,9 @@
       <c r="AD23" t="n">
         <v>-0.1721234330757843</v>
       </c>
+      <c r="AE23" t="n">
+        <v>-0.177428343601751</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2640,6 +2709,9 @@
       <c r="AD24" t="n">
         <v>1.029986901727581</v>
       </c>
+      <c r="AE24" t="n">
+        <v>1.047682318596734</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2732,6 +2804,9 @@
       <c r="AD25" t="n">
         <v>0.3172237472952627</v>
       </c>
+      <c r="AE25" t="n">
+        <v>0.3194164334614685</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2824,6 +2899,9 @@
       <c r="AD26" t="n">
         <v>0.127116050660869</v>
       </c>
+      <c r="AE26" t="n">
+        <v>0.1288656916483567</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2916,6 +2994,9 @@
       <c r="AD27" t="n">
         <v>0.02863269666523919</v>
       </c>
+      <c r="AE27" t="n">
+        <v>0.03111175025666265</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3008,6 +3089,9 @@
       <c r="AD28" t="n">
         <v>0.8150950737689828</v>
       </c>
+      <c r="AE28" t="n">
+        <v>0.8199646894655132</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3100,6 +3184,9 @@
       <c r="AD29" t="n">
         <v>1.480081925340209</v>
       </c>
+      <c r="AE29" t="n">
+        <v>1.504763993157588</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3192,6 +3279,9 @@
       <c r="AD30" t="n">
         <v>0.6549304440720856</v>
       </c>
+      <c r="AE30" t="n">
+        <v>0.6585622236621292</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3284,6 +3374,9 @@
       <c r="AD31" t="n">
         <v>-0.4344236928511671</v>
       </c>
+      <c r="AE31" t="n">
+        <v>-0.4316349837576846</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3376,6 +3469,9 @@
       <c r="AD32" t="n">
         <v>0.5418287619647881</v>
       </c>
+      <c r="AE32" t="n">
+        <v>0.5445589906171605</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3468,6 +3564,9 @@
       <c r="AD33" t="n">
         <v>0.7590579347600286</v>
       </c>
+      <c r="AE33" t="n">
+        <v>0.7613199307458618</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3560,6 +3659,9 @@
       <c r="AD34" t="n">
         <v>-0.8493006065528109</v>
       </c>
+      <c r="AE34" t="n">
+        <v>-0.8479118409393955</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3652,6 +3754,9 @@
       <c r="AD35" t="n">
         <v>0.8173179686844623</v>
       </c>
+      <c r="AE35" t="n">
+        <v>0.8194535769336033</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3744,6 +3849,9 @@
       <c r="AD36" t="n">
         <v>0.7853034001083214</v>
       </c>
+      <c r="AE36" t="n">
+        <v>0.7881833226234062</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3836,6 +3944,9 @@
       <c r="AD37" t="n">
         <v>0.7509257322972265</v>
       </c>
+      <c r="AE37" t="n">
+        <v>0.7539611173519317</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3928,6 +4039,9 @@
       <c r="AD38" t="n">
         <v>0.6541002827100032</v>
       </c>
+      <c r="AE38" t="n">
+        <v>0.6558161584791645</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4020,6 +4134,9 @@
       <c r="AD39" t="n">
         <v>0.6096338629339471</v>
       </c>
+      <c r="AE39" t="n">
+        <v>0.6107587361067467</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4112,6 +4229,9 @@
       <c r="AD40" t="n">
         <v>0.7793114607147709</v>
       </c>
+      <c r="AE40" t="n">
+        <v>0.7812957927567019</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4204,6 +4324,9 @@
       <c r="AD41" t="n">
         <v>0.5828265931538731</v>
       </c>
+      <c r="AE41" t="n">
+        <v>0.5836810365447652</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4296,6 +4419,9 @@
       <c r="AD42" t="n">
         <v>0.639281796344157</v>
       </c>
+      <c r="AE42" t="n">
+        <v>0.6424573347067133</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4388,6 +4514,9 @@
       <c r="AD43" t="n">
         <v>0.684977962573836</v>
       </c>
+      <c r="AE43" t="n">
+        <v>0.6864960936801533</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4480,6 +4609,9 @@
       <c r="AD44" t="n">
         <v>0.7110578976698174</v>
       </c>
+      <c r="AE44" t="n">
+        <v>0.7125542852441563</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4572,6 +4704,9 @@
       <c r="AD45" t="n">
         <v>0.7218101840899095</v>
       </c>
+      <c r="AE45" t="n">
+        <v>0.7251697384924801</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4664,6 +4799,9 @@
       <c r="AD46" t="n">
         <v>-1.33970435041906</v>
       </c>
+      <c r="AE46" t="n">
+        <v>-1.34325877928268</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4756,6 +4894,9 @@
       <c r="AD47" t="n">
         <v>-1.044853057215293</v>
       </c>
+      <c r="AE47" t="n">
+        <v>-1.047631754385792</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4848,6 +4989,9 @@
       <c r="AD48" t="n">
         <v>-0.9040148653691811</v>
       </c>
+      <c r="AE48" t="n">
+        <v>-0.9067782551336613</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4940,6 +5084,9 @@
       <c r="AD49" t="n">
         <v>-0.665388822118349</v>
       </c>
+      <c r="AE49" t="n">
+        <v>-0.6677842473958988</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5032,6 +5179,9 @@
       <c r="AD50" t="n">
         <v>-0.08630970636698901</v>
       </c>
+      <c r="AE50" t="n">
+        <v>-0.08781560082496238</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5124,6 +5274,9 @@
       <c r="AD51" t="n">
         <v>-0.8796526455772899</v>
       </c>
+      <c r="AE51" t="n">
+        <v>-0.8817294070991697</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5216,6 +5369,9 @@
       <c r="AD52" t="n">
         <v>-0.8796526455772899</v>
       </c>
+      <c r="AE52" t="n">
+        <v>-0.8817294070991697</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5308,6 +5464,9 @@
       <c r="AD53" t="n">
         <v>-1.175159628528284</v>
       </c>
+      <c r="AE53" t="n">
+        <v>-1.178405366252698</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5400,6 +5559,9 @@
       <c r="AD54" t="n">
         <v>-0.1960896707274253</v>
       </c>
+      <c r="AE54" t="n">
+        <v>-0.1979138944914091</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5492,6 +5654,9 @@
       <c r="AD55" t="n">
         <v>-1.068955852009542</v>
       </c>
+      <c r="AE55" t="n">
+        <v>-1.071969308488668</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5584,6 +5749,9 @@
       <c r="AD56" t="n">
         <v>-0.9422030186120706</v>
       </c>
+      <c r="AE56" t="n">
+        <v>-0.9447101347671103</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5676,6 +5844,9 @@
       <c r="AD57" t="n">
         <v>-1.00382394896676</v>
       </c>
+      <c r="AE57" t="n">
+        <v>-1.008891917168867</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5768,6 +5939,9 @@
       <c r="AD58" t="n">
         <v>-1.145007147454882</v>
       </c>
+      <c r="AE58" t="n">
+        <v>-1.149996548212679</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5860,6 +6034,9 @@
       <c r="AD59" t="n">
         <v>-0.8278866346510209</v>
       </c>
+      <c r="AE59" t="n">
+        <v>-0.8314509191764673</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5952,6 +6129,9 @@
       <c r="AD60" t="n">
         <v>-0.4617245269087338</v>
       </c>
+      <c r="AE60" t="n">
+        <v>-0.4651819958155894</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -6044,6 +6224,9 @@
       <c r="AD61" t="n">
         <v>0.3760425939884569</v>
       </c>
+      <c r="AE61" t="n">
+        <v>0.3751568817869096</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -6136,6 +6319,9 @@
       <c r="AD62" t="n">
         <v>-1.27233435452353</v>
       </c>
+      <c r="AE62" t="n">
+        <v>-1.278346139424661</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6228,6 +6414,9 @@
       <c r="AD63" t="n">
         <v>-0.5812115561672193</v>
       </c>
+      <c r="AE63" t="n">
+        <v>-0.5844073962038302</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -6320,6 +6509,9 @@
       <c r="AD64" t="n">
         <v>-0.8956250997391458</v>
       </c>
+      <c r="AE64" t="n">
+        <v>-0.9003842728315206</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6412,6 +6604,9 @@
       <c r="AD65" t="n">
         <v>-0.066451453377361</v>
       </c>
+      <c r="AE65" t="n">
+        <v>-0.06909424413636292</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -6504,6 +6699,9 @@
       <c r="AD66" t="n">
         <v>-0.8353343932414291</v>
       </c>
+      <c r="AE66" t="n">
+        <v>-0.8398261287257769</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -6595,6 +6793,9 @@
       </c>
       <c r="AD67" t="n">
         <v>-0.8224381519125984</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>-0.8268784682310815</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_11.xlsx
+++ b/predicted_variables_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE67"/>
+  <dimension ref="A1:AF67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,6 +527,9 @@
       <c r="AE1" s="1" t="n">
         <v>30</v>
       </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -622,6 +625,9 @@
       <c r="AE2" t="n">
         <v>-0.2462711556783642</v>
       </c>
+      <c r="AF2" t="n">
+        <v>-0.2489243195832068</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -717,6 +723,9 @@
       <c r="AE3" t="n">
         <v>0.2383968468310867</v>
       </c>
+      <c r="AF3" t="n">
+        <v>0.2358297775130572</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -812,6 +821,9 @@
       <c r="AE4" t="n">
         <v>0.2238424462558444</v>
       </c>
+      <c r="AF4" t="n">
+        <v>0.221322599255851</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -907,6 +919,9 @@
       <c r="AE5" t="n">
         <v>-0.07419831976428651</v>
       </c>
+      <c r="AF5" t="n">
+        <v>-0.07636672619464588</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1002,6 +1017,9 @@
       <c r="AE6" t="n">
         <v>0.1886359278956758</v>
       </c>
+      <c r="AF6" t="n">
+        <v>0.1865600038071507</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1097,6 +1115,9 @@
       <c r="AE7" t="n">
         <v>-0.4033672377722418</v>
       </c>
+      <c r="AF7" t="n">
+        <v>-0.4062928035320864</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1192,6 +1213,9 @@
       <c r="AE8" t="n">
         <v>-0.1384422971183228</v>
       </c>
+      <c r="AF8" t="n">
+        <v>-0.1402472967539104</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1287,6 +1311,9 @@
       <c r="AE9" t="n">
         <v>-0.3191122661499725</v>
       </c>
+      <c r="AF9" t="n">
+        <v>-0.3230065087782586</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1382,6 +1409,9 @@
       <c r="AE10" t="n">
         <v>0.38932868141896</v>
       </c>
+      <c r="AF10" t="n">
+        <v>0.3874419379603373</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1477,6 +1507,9 @@
       <c r="AE11" t="n">
         <v>-0.2086653490593988</v>
       </c>
+      <c r="AF11" t="n">
+        <v>-0.2110465364668904</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1572,6 +1605,9 @@
       <c r="AE12" t="n">
         <v>-0.1055969449480291</v>
       </c>
+      <c r="AF12" t="n">
+        <v>-0.1094032924345303</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1667,6 +1703,9 @@
       <c r="AE13" t="n">
         <v>-0.05848988634406244</v>
       </c>
+      <c r="AF13" t="n">
+        <v>-0.06020793608214725</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1762,6 +1801,9 @@
       <c r="AE14" t="n">
         <v>0.04291314164455614</v>
       </c>
+      <c r="AF14" t="n">
+        <v>0.0370562523855783</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1857,6 +1899,9 @@
       <c r="AE15" t="n">
         <v>-0.1088383893606996</v>
       </c>
+      <c r="AF15" t="n">
+        <v>-0.1158739723894881</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1952,6 +1997,9 @@
       <c r="AE16" t="n">
         <v>0.3079059329546847</v>
       </c>
+      <c r="AF16" t="n">
+        <v>0.2995991976462972</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2047,6 +2095,9 @@
       <c r="AE17" t="n">
         <v>0.4237256709913573</v>
       </c>
+      <c r="AF17" t="n">
+        <v>0.4183758383985369</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2142,6 +2193,9 @@
       <c r="AE18" t="n">
         <v>-0.1615468944301224</v>
       </c>
+      <c r="AF18" t="n">
+        <v>-0.1642638284160115</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2237,6 +2291,9 @@
       <c r="AE19" t="n">
         <v>0.2882237287488998</v>
       </c>
+      <c r="AF19" t="n">
+        <v>0.2843088681371568</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2332,6 +2389,9 @@
       <c r="AE20" t="n">
         <v>0.1974954202128234</v>
       </c>
+      <c r="AF20" t="n">
+        <v>0.1893563421029316</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2427,6 +2487,9 @@
       <c r="AE21" t="n">
         <v>0.4816068609771431</v>
       </c>
+      <c r="AF21" t="n">
+        <v>0.4765413032488917</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2522,6 +2585,9 @@
       <c r="AE22" t="n">
         <v>0.2503267841308827</v>
       </c>
+      <c r="AF22" t="n">
+        <v>0.2452023637863444</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2617,6 +2683,9 @@
       <c r="AE23" t="n">
         <v>-0.177428343601751</v>
       </c>
+      <c r="AF23" t="n">
+        <v>-0.1819848521974746</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2712,6 +2781,9 @@
       <c r="AE24" t="n">
         <v>1.047682318596734</v>
       </c>
+      <c r="AF24" t="n">
+        <v>1.069482003158815</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2807,6 +2879,9 @@
       <c r="AE25" t="n">
         <v>0.3194164334614685</v>
       </c>
+      <c r="AF25" t="n">
+        <v>0.3214290155862253</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2902,6 +2977,9 @@
       <c r="AE26" t="n">
         <v>0.1288656916483567</v>
       </c>
+      <c r="AF26" t="n">
+        <v>0.1306332927337535</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2997,6 +3075,9 @@
       <c r="AE27" t="n">
         <v>0.03111175025666265</v>
       </c>
+      <c r="AF27" t="n">
+        <v>0.03357377914790755</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3092,6 +3173,9 @@
       <c r="AE28" t="n">
         <v>0.8199646894655132</v>
       </c>
+      <c r="AF28" t="n">
+        <v>0.8246869692937772</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3187,6 +3271,9 @@
       <c r="AE29" t="n">
         <v>1.504763993157588</v>
       </c>
+      <c r="AF29" t="n">
+        <v>1.530136088388857</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3282,6 +3369,9 @@
       <c r="AE30" t="n">
         <v>0.6585622236621292</v>
       </c>
+      <c r="AF30" t="n">
+        <v>0.6619966195932513</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3377,6 +3467,9 @@
       <c r="AE31" t="n">
         <v>-0.4316349837576846</v>
       </c>
+      <c r="AF31" t="n">
+        <v>-0.4292528360300145</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3472,6 +3565,9 @@
       <c r="AE32" t="n">
         <v>0.5445589906171605</v>
       </c>
+      <c r="AF32" t="n">
+        <v>0.547200906588298</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3567,6 +3663,9 @@
       <c r="AE33" t="n">
         <v>0.7613199307458618</v>
       </c>
+      <c r="AF33" t="n">
+        <v>0.7634380308924036</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3662,6 +3761,9 @@
       <c r="AE34" t="n">
         <v>-0.8479118409393955</v>
       </c>
+      <c r="AF34" t="n">
+        <v>-0.846697918717721</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3757,6 +3859,9 @@
       <c r="AE35" t="n">
         <v>0.8194535769336033</v>
       </c>
+      <c r="AF35" t="n">
+        <v>0.8213868581992021</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3852,6 +3957,9 @@
       <c r="AE36" t="n">
         <v>0.7881833226234062</v>
       </c>
+      <c r="AF36" t="n">
+        <v>0.7907093363560719</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3947,6 +4055,9 @@
       <c r="AE37" t="n">
         <v>0.7539611173519317</v>
       </c>
+      <c r="AF37" t="n">
+        <v>0.7566259183000794</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4042,6 +4153,9 @@
       <c r="AE38" t="n">
         <v>0.6558161584791645</v>
       </c>
+      <c r="AF38" t="n">
+        <v>0.6573574387402499</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4137,6 +4251,9 @@
       <c r="AE39" t="n">
         <v>0.6107587361067467</v>
       </c>
+      <c r="AF39" t="n">
+        <v>0.6117212092665132</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4232,6 +4349,9 @@
       <c r="AE40" t="n">
         <v>0.7812957927567019</v>
       </c>
+      <c r="AF40" t="n">
+        <v>0.7831047701692302</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4327,6 +4447,9 @@
       <c r="AE41" t="n">
         <v>0.5836810365447652</v>
       </c>
+      <c r="AF41" t="n">
+        <v>0.5843853116521017</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4422,6 +4545,9 @@
       <c r="AE42" t="n">
         <v>0.6424573347067133</v>
       </c>
+      <c r="AF42" t="n">
+        <v>0.6452541529883298</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4517,6 +4643,9 @@
       <c r="AE43" t="n">
         <v>0.6864960936801533</v>
       </c>
+      <c r="AF43" t="n">
+        <v>0.6878299425958283</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4612,6 +4741,9 @@
       <c r="AE44" t="n">
         <v>0.7125542852441563</v>
       </c>
+      <c r="AF44" t="n">
+        <v>0.7138347969213999</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4707,6 +4839,9 @@
       <c r="AE45" t="n">
         <v>0.7251697384924801</v>
       </c>
+      <c r="AF45" t="n">
+        <v>0.728043076709728</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4802,6 +4937,9 @@
       <c r="AE46" t="n">
         <v>-1.34325877928268</v>
       </c>
+      <c r="AF46" t="n">
+        <v>-1.346770215480151</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4897,6 +5035,9 @@
       <c r="AE47" t="n">
         <v>-1.047631754385792</v>
       </c>
+      <c r="AF47" t="n">
+        <v>-1.050397337176573</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4992,6 +5133,9 @@
       <c r="AE48" t="n">
         <v>-0.9067782551336613</v>
       </c>
+      <c r="AF48" t="n">
+        <v>-0.9095953590786093</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5087,6 +5231,9 @@
       <c r="AE49" t="n">
         <v>-0.6677842473958988</v>
       </c>
+      <c r="AF49" t="n">
+        <v>-0.6702050798186847</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5182,6 +5329,9 @@
       <c r="AE50" t="n">
         <v>-0.08781560082496238</v>
       </c>
+      <c r="AF50" t="n">
+        <v>-0.08928786463847754</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5277,6 +5427,9 @@
       <c r="AE51" t="n">
         <v>-0.8817294070991697</v>
       </c>
+      <c r="AF51" t="n">
+        <v>-0.8838962555973738</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5372,6 +5525,9 @@
       <c r="AE52" t="n">
         <v>-0.8817294070991697</v>
       </c>
+      <c r="AF52" t="n">
+        <v>-0.8838962555973738</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5467,6 +5623,9 @@
       <c r="AE53" t="n">
         <v>-1.178405366252698</v>
       </c>
+      <c r="AF53" t="n">
+        <v>-1.181709019431782</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5562,6 +5721,9 @@
       <c r="AE54" t="n">
         <v>-0.1979138944914091</v>
       </c>
+      <c r="AF54" t="n">
+        <v>-0.1997323231221608</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5657,6 +5819,9 @@
       <c r="AE55" t="n">
         <v>-1.071969308488668</v>
       </c>
+      <c r="AF55" t="n">
+        <v>-1.07495355539909</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5752,6 +5917,9 @@
       <c r="AE56" t="n">
         <v>-0.9447101347671103</v>
       </c>
+      <c r="AF56" t="n">
+        <v>-0.9471272141013626</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5847,6 +6015,9 @@
       <c r="AE57" t="n">
         <v>-1.008891917168867</v>
       </c>
+      <c r="AF57" t="n">
+        <v>-1.013617841212071</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5942,6 +6113,9 @@
       <c r="AE58" t="n">
         <v>-1.149996548212679</v>
       </c>
+      <c r="AF58" t="n">
+        <v>-1.154627036726521</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -6037,6 +6211,9 @@
       <c r="AE59" t="n">
         <v>-0.8314509191764673</v>
       </c>
+      <c r="AF59" t="n">
+        <v>-0.8348937109335988</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -6132,6 +6309,9 @@
       <c r="AE60" t="n">
         <v>-0.4651819958155894</v>
       </c>
+      <c r="AF60" t="n">
+        <v>-0.4684079562302971</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -6227,6 +6407,9 @@
       <c r="AE61" t="n">
         <v>0.3751568817869096</v>
       </c>
+      <c r="AF61" t="n">
+        <v>0.3743043177407571</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -6322,6 +6505,9 @@
       <c r="AE62" t="n">
         <v>-1.278346139424661</v>
       </c>
+      <c r="AF62" t="n">
+        <v>-1.283940559325719</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6417,6 +6603,9 @@
       <c r="AE63" t="n">
         <v>-0.5844073962038302</v>
       </c>
+      <c r="AF63" t="n">
+        <v>-0.5875265411519489</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -6512,6 +6701,9 @@
       <c r="AE64" t="n">
         <v>-0.9003842728315206</v>
       </c>
+      <c r="AF64" t="n">
+        <v>-0.9049923872350197</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6607,6 +6799,9 @@
       <c r="AE65" t="n">
         <v>-0.06909424413636292</v>
       </c>
+      <c r="AF65" t="n">
+        <v>-0.07155342295273254</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -6702,6 +6897,9 @@
       <c r="AE66" t="n">
         <v>-0.8398261287257769</v>
       </c>
+      <c r="AF66" t="n">
+        <v>-0.8439140985112221</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -6796,6 +6994,9 @@
       </c>
       <c r="AE67" t="n">
         <v>-0.8268784682310815</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>-0.8308233573883271</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_11.xlsx
+++ b/predicted_variables_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF67"/>
+  <dimension ref="A1:AG67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,6 +530,9 @@
       <c r="AF1" s="1" t="n">
         <v>31</v>
       </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -628,6 +631,9 @@
       <c r="AF2" t="n">
         <v>-0.2489243195832068</v>
       </c>
+      <c r="AG2" t="n">
+        <v>-0.2514421943477801</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -726,6 +732,9 @@
       <c r="AF3" t="n">
         <v>0.2358297775130572</v>
       </c>
+      <c r="AG3" t="n">
+        <v>0.2334610987689391</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -824,6 +833,9 @@
       <c r="AF4" t="n">
         <v>0.221322599255851</v>
       </c>
+      <c r="AG4" t="n">
+        <v>0.2189168515913834</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -922,6 +934,9 @@
       <c r="AF5" t="n">
         <v>-0.07636672619464588</v>
       </c>
+      <c r="AG5" t="n">
+        <v>-0.07837225699764337</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1020,6 +1035,9 @@
       <c r="AF6" t="n">
         <v>0.1865600038071507</v>
       </c>
+      <c r="AG6" t="n">
+        <v>0.1846916708808468</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1118,6 +1136,9 @@
       <c r="AF7" t="n">
         <v>-0.4062928035320864</v>
       </c>
+      <c r="AG7" t="n">
+        <v>-0.4091067006193083</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1216,6 +1237,9 @@
       <c r="AF8" t="n">
         <v>-0.1402472967539104</v>
       </c>
+      <c r="AG8" t="n">
+        <v>-0.1420424444353574</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1314,6 +1338,9 @@
       <c r="AF9" t="n">
         <v>-0.3230065087782586</v>
       </c>
+      <c r="AG9" t="n">
+        <v>-0.3267262846198639</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1412,6 +1439,9 @@
       <c r="AF10" t="n">
         <v>0.3874419379603373</v>
       </c>
+      <c r="AG10" t="n">
+        <v>0.3857414596717973</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1510,6 +1540,9 @@
       <c r="AF11" t="n">
         <v>-0.2110465364668904</v>
       </c>
+      <c r="AG11" t="n">
+        <v>-0.21332492963122</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1608,6 +1641,9 @@
       <c r="AF12" t="n">
         <v>-0.1094032924345303</v>
       </c>
+      <c r="AG12" t="n">
+        <v>-0.1128064841239767</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1706,6 +1742,9 @@
       <c r="AF13" t="n">
         <v>-0.06020793608214725</v>
       </c>
+      <c r="AG13" t="n">
+        <v>-0.06181160369859495</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1804,6 +1843,9 @@
       <c r="AF14" t="n">
         <v>0.0370562523855783</v>
       </c>
+      <c r="AG14" t="n">
+        <v>0.03193950873902989</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1902,6 +1944,9 @@
       <c r="AF15" t="n">
         <v>-0.1158739723894881</v>
       </c>
+      <c r="AG15" t="n">
+        <v>-0.1219665985546936</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2000,6 +2045,9 @@
       <c r="AF16" t="n">
         <v>0.2995991976462972</v>
       </c>
+      <c r="AG16" t="n">
+        <v>0.2924450862104561</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2098,6 +2146,9 @@
       <c r="AF17" t="n">
         <v>0.4183758383985369</v>
       </c>
+      <c r="AG17" t="n">
+        <v>0.4139365781596142</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2196,6 +2247,9 @@
       <c r="AF18" t="n">
         <v>-0.1642638284160115</v>
       </c>
+      <c r="AG18" t="n">
+        <v>-0.1666719597783446</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2294,6 +2348,9 @@
       <c r="AF19" t="n">
         <v>0.2843088681371568</v>
       </c>
+      <c r="AG19" t="n">
+        <v>0.2808797085328317</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2392,6 +2449,9 @@
       <c r="AF20" t="n">
         <v>0.1893563421029316</v>
       </c>
+      <c r="AG20" t="n">
+        <v>0.1823799130657908</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2490,6 +2550,9 @@
       <c r="AF21" t="n">
         <v>0.4765413032488917</v>
       </c>
+      <c r="AG21" t="n">
+        <v>0.4723485686352986</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2588,6 +2651,9 @@
       <c r="AF22" t="n">
         <v>0.2452023637863444</v>
       </c>
+      <c r="AG22" t="n">
+        <v>0.2409161757195001</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2686,6 +2752,9 @@
       <c r="AF23" t="n">
         <v>-0.1819848521974746</v>
       </c>
+      <c r="AG23" t="n">
+        <v>-0.1858420256061642</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2784,6 +2853,9 @@
       <c r="AF24" t="n">
         <v>1.069482003158815</v>
       </c>
+      <c r="AG24" t="n">
+        <v>1.094352240016104</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2882,6 +2954,9 @@
       <c r="AF25" t="n">
         <v>0.3214290155862253</v>
       </c>
+      <c r="AG25" t="n">
+        <v>0.3232545301175121</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2980,6 +3055,9 @@
       <c r="AF26" t="n">
         <v>0.1306332927337535</v>
       </c>
+      <c r="AG26" t="n">
+        <v>0.1323786033586474</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3078,6 +3156,9 @@
       <c r="AF27" t="n">
         <v>0.03357377914790755</v>
       </c>
+      <c r="AG27" t="n">
+        <v>0.03597575190793643</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3176,6 +3257,9 @@
       <c r="AF28" t="n">
         <v>0.8246869692937772</v>
       </c>
+      <c r="AG28" t="n">
+        <v>0.8292145038304067</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3274,6 +3358,9 @@
       <c r="AF29" t="n">
         <v>1.530136088388857</v>
       </c>
+      <c r="AG29" t="n">
+        <v>1.555605092210426</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3372,6 +3459,9 @@
       <c r="AF30" t="n">
         <v>0.6619966195932513</v>
       </c>
+      <c r="AG30" t="n">
+        <v>0.6652024601091734</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3470,6 +3560,9 @@
       <c r="AF31" t="n">
         <v>-0.4292528360300145</v>
       </c>
+      <c r="AG31" t="n">
+        <v>-0.4272682194483157</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3568,6 +3661,9 @@
       <c r="AF32" t="n">
         <v>0.547200906588298</v>
       </c>
+      <c r="AG32" t="n">
+        <v>0.5497199316485111</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3666,6 +3762,9 @@
       <c r="AF33" t="n">
         <v>0.7634380308924036</v>
       </c>
+      <c r="AG33" t="n">
+        <v>0.7653975239911348</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3764,6 +3863,9 @@
       <c r="AF34" t="n">
         <v>-0.846697918717721</v>
       </c>
+      <c r="AG34" t="n">
+        <v>-0.8456701186267894</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3862,6 +3964,9 @@
       <c r="AF35" t="n">
         <v>0.8213868581992021</v>
       </c>
+      <c r="AG35" t="n">
+        <v>0.8231207196024217</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3960,6 +4065,9 @@
       <c r="AF36" t="n">
         <v>0.7907093363560719</v>
       </c>
+      <c r="AG36" t="n">
+        <v>0.792896734258619</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4058,6 +4166,9 @@
       <c r="AF37" t="n">
         <v>0.7566259183000794</v>
       </c>
+      <c r="AG37" t="n">
+        <v>0.7589356295896041</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4156,6 +4267,9 @@
       <c r="AF38" t="n">
         <v>0.6573574387402499</v>
       </c>
+      <c r="AG38" t="n">
+        <v>0.6587248043222431</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4254,6 +4368,9 @@
       <c r="AF39" t="n">
         <v>0.6117212092665132</v>
       </c>
+      <c r="AG39" t="n">
+        <v>0.6125297803339627</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4352,6 +4469,9 @@
       <c r="AF40" t="n">
         <v>0.7831047701692302</v>
       </c>
+      <c r="AG40" t="n">
+        <v>0.7847400115315499</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4450,6 +4570,9 @@
       <c r="AF41" t="n">
         <v>0.5843853116521017</v>
       </c>
+      <c r="AG41" t="n">
+        <v>0.5849529208945911</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4548,6 +4671,9 @@
       <c r="AF42" t="n">
         <v>0.6452541529883298</v>
       </c>
+      <c r="AG42" t="n">
+        <v>0.6476822298773909</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4646,6 +4772,9 @@
       <c r="AF43" t="n">
         <v>0.6878299425958283</v>
       </c>
+      <c r="AG43" t="n">
+        <v>0.688985868469746</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4744,6 +4873,9 @@
       <c r="AF44" t="n">
         <v>0.7138347969213999</v>
       </c>
+      <c r="AG44" t="n">
+        <v>0.7149131618214886</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4842,6 +4974,9 @@
       <c r="AF45" t="n">
         <v>0.728043076709728</v>
       </c>
+      <c r="AG45" t="n">
+        <v>0.7304583982281992</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4940,6 +5075,9 @@
       <c r="AF46" t="n">
         <v>-1.346770215480151</v>
       </c>
+      <c r="AG46" t="n">
+        <v>-1.350227738169869</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5038,6 +5176,9 @@
       <c r="AF47" t="n">
         <v>-1.050397337176573</v>
       </c>
+      <c r="AG47" t="n">
+        <v>-1.053139941790921</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5136,6 +5277,9 @@
       <c r="AF48" t="n">
         <v>-0.9095953590786093</v>
       </c>
+      <c r="AG48" t="n">
+        <v>-0.9124455624008544</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5234,6 +5378,9 @@
       <c r="AF49" t="n">
         <v>-0.6702050798186847</v>
       </c>
+      <c r="AG49" t="n">
+        <v>-0.6726355627023554</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5332,6 +5479,9 @@
       <c r="AF50" t="n">
         <v>-0.08928786463847754</v>
       </c>
+      <c r="AG50" t="n">
+        <v>-0.09072454204440049</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5430,6 +5580,9 @@
       <c r="AF51" t="n">
         <v>-0.8838962555973738</v>
       </c>
+      <c r="AG51" t="n">
+        <v>-0.886133175429158</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5528,6 +5681,9 @@
       <c r="AF52" t="n">
         <v>-0.8838962555973738</v>
       </c>
+      <c r="AG52" t="n">
+        <v>-0.886133175429158</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5626,6 +5782,9 @@
       <c r="AF53" t="n">
         <v>-1.181709019431782</v>
       </c>
+      <c r="AG53" t="n">
+        <v>-1.185049195857515</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5724,6 +5883,9 @@
       <c r="AF54" t="n">
         <v>-0.1997323231221608</v>
       </c>
+      <c r="AG54" t="n">
+        <v>-0.201535642812237</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5822,6 +5984,9 @@
       <c r="AF55" t="n">
         <v>-1.07495355539909</v>
       </c>
+      <c r="AG55" t="n">
+        <v>-1.077899542575035</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5920,6 +6085,9 @@
       <c r="AF56" t="n">
         <v>-0.9471272141013626</v>
       </c>
+      <c r="AG56" t="n">
+        <v>-0.9494563572381842</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -6018,6 +6186,9 @@
       <c r="AF57" t="n">
         <v>-1.013617841212071</v>
       </c>
+      <c r="AG57" t="n">
+        <v>-1.018008591221778</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -6116,6 +6287,9 @@
       <c r="AF58" t="n">
         <v>-1.154627036726521</v>
       </c>
+      <c r="AG58" t="n">
+        <v>-1.158905452058192</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -6214,6 +6388,9 @@
       <c r="AF59" t="n">
         <v>-0.8348937109335988</v>
       </c>
+      <c r="AG59" t="n">
+        <v>-0.8382034500626878</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -6312,6 +6489,9 @@
       <c r="AF60" t="n">
         <v>-0.4684079562302971</v>
       </c>
+      <c r="AG60" t="n">
+        <v>-0.4714012334878018</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -6410,6 +6590,9 @@
       <c r="AF61" t="n">
         <v>0.3743043177407571</v>
       </c>
+      <c r="AG61" t="n">
+        <v>0.3734878100788028</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -6508,6 +6691,9 @@
       <c r="AF62" t="n">
         <v>-1.283940559325719</v>
       </c>
+      <c r="AG62" t="n">
+        <v>-1.289126558912512</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6606,6 +6792,9 @@
       <c r="AF63" t="n">
         <v>-0.5875265411519489</v>
       </c>
+      <c r="AG63" t="n">
+        <v>-0.5905435378387685</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -6704,6 +6893,9 @@
       <c r="AF64" t="n">
         <v>-0.9049923872350197</v>
       </c>
+      <c r="AG64" t="n">
+        <v>-0.9094285208634947</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6802,6 +6994,9 @@
       <c r="AF65" t="n">
         <v>-0.07155342295273254</v>
       </c>
+      <c r="AG65" t="n">
+        <v>-0.07382871824557348</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -6900,6 +7095,9 @@
       <c r="AF66" t="n">
         <v>-0.8439140985112221</v>
       </c>
+      <c r="AG66" t="n">
+        <v>-0.8476171869754076</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -6997,6 +7195,9 @@
       </c>
       <c r="AF67" t="n">
         <v>-0.8308233573883271</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>-0.8343071461027886</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_11.xlsx
+++ b/predicted_variables_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG67"/>
+  <dimension ref="A1:AH67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,6 +533,9 @@
       <c r="AG1" s="1" t="n">
         <v>32</v>
       </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -634,6 +637,9 @@
       <c r="AG2" t="n">
         <v>-0.2514421943477801</v>
       </c>
+      <c r="AH2" t="n">
+        <v>-0.2538161875109394</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -735,6 +741,9 @@
       <c r="AG3" t="n">
         <v>0.2334610987689391</v>
       </c>
+      <c r="AH3" t="n">
+        <v>0.2312943661778942</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -836,6 +845,9 @@
       <c r="AG4" t="n">
         <v>0.2189168515913834</v>
       </c>
+      <c r="AH4" t="n">
+        <v>0.2166391914839252</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -937,6 +949,9 @@
       <c r="AG5" t="n">
         <v>-0.07837225699764337</v>
       </c>
+      <c r="AH5" t="n">
+        <v>-0.08021724308734532</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1038,6 +1053,9 @@
       <c r="AG6" t="n">
         <v>0.1846916708808468</v>
       </c>
+      <c r="AH6" t="n">
+        <v>0.1830275874567532</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1139,6 +1157,9 @@
       <c r="AG7" t="n">
         <v>-0.4091067006193083</v>
       </c>
+      <c r="AH7" t="n">
+        <v>-0.4117957960630798</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1240,6 +1261,9 @@
       <c r="AG8" t="n">
         <v>-0.1420424444353574</v>
       </c>
+      <c r="AH8" t="n">
+        <v>-0.1438062349049823</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1341,6 +1365,9 @@
       <c r="AG9" t="n">
         <v>-0.3267262846198639</v>
       </c>
+      <c r="AH9" t="n">
+        <v>-0.3302484818110373</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1442,6 +1469,9 @@
       <c r="AG10" t="n">
         <v>0.3857414596717973</v>
       </c>
+      <c r="AH10" t="n">
+        <v>0.3842222851895233</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1543,6 +1573,9 @@
       <c r="AG11" t="n">
         <v>-0.21332492963122</v>
       </c>
+      <c r="AH11" t="n">
+        <v>-0.2154930992570059</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1644,6 +1677,9 @@
       <c r="AG12" t="n">
         <v>-0.1128064841239767</v>
       </c>
+      <c r="AH12" t="n">
+        <v>-0.1158250231202323</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1745,6 +1781,9 @@
       <c r="AG13" t="n">
         <v>-0.06181160369859495</v>
       </c>
+      <c r="AH13" t="n">
+        <v>-0.06330418816081992</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1846,6 +1885,9 @@
       <c r="AG14" t="n">
         <v>0.03193950873902989</v>
       </c>
+      <c r="AH14" t="n">
+        <v>0.02752705505741055</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1947,6 +1989,9 @@
       <c r="AG15" t="n">
         <v>-0.1219665985546936</v>
       </c>
+      <c r="AH15" t="n">
+        <v>-0.127173359721678</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2048,6 +2093,9 @@
       <c r="AG16" t="n">
         <v>0.2924450862104561</v>
       </c>
+      <c r="AH16" t="n">
+        <v>0.2863795156069218</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2149,6 +2197,9 @@
       <c r="AG17" t="n">
         <v>0.4139365781596142</v>
       </c>
+      <c r="AH17" t="n">
+        <v>0.4103359704107332</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2250,6 +2301,9 @@
       <c r="AG18" t="n">
         <v>-0.1666719597783446</v>
       </c>
+      <c r="AH18" t="n">
+        <v>-0.1687936377951748</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2351,6 +2405,9 @@
       <c r="AG19" t="n">
         <v>0.2808797085328317</v>
       </c>
+      <c r="AH19" t="n">
+        <v>0.2779040856605179</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2452,6 +2509,9 @@
       <c r="AG20" t="n">
         <v>0.1823799130657908</v>
       </c>
+      <c r="AH20" t="n">
+        <v>0.1764935925413098</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2553,6 +2613,9 @@
       <c r="AG21" t="n">
         <v>0.4723485686352986</v>
       </c>
+      <c r="AH21" t="n">
+        <v>0.4689620275473126</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2654,6 +2717,9 @@
       <c r="AG22" t="n">
         <v>0.2409161757195001</v>
       </c>
+      <c r="AH22" t="n">
+        <v>0.2374054960046124</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2755,6 +2821,9 @@
       <c r="AG23" t="n">
         <v>-0.1858420256061642</v>
       </c>
+      <c r="AH23" t="n">
+        <v>-0.1890532216117061</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2856,6 +2925,9 @@
       <c r="AG24" t="n">
         <v>1.094352240016104</v>
       </c>
+      <c r="AH24" t="n">
+        <v>1.121365852220416</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2957,6 +3029,9 @@
       <c r="AG25" t="n">
         <v>0.3232545301175121</v>
       </c>
+      <c r="AH25" t="n">
+        <v>0.3248908660766959</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3058,6 +3133,9 @@
       <c r="AG26" t="n">
         <v>0.1323786033586474</v>
       </c>
+      <c r="AH26" t="n">
+        <v>0.1340684064372964</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3159,6 +3237,9 @@
       <c r="AG27" t="n">
         <v>0.03597575190793643</v>
       </c>
+      <c r="AH27" t="n">
+        <v>0.03828288905916291</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3260,6 +3341,9 @@
       <c r="AG28" t="n">
         <v>0.8292145038304067</v>
       </c>
+      <c r="AH28" t="n">
+        <v>0.8335105868835984</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3361,6 +3445,9 @@
       <c r="AG29" t="n">
         <v>1.555605092210426</v>
       </c>
+      <c r="AH29" t="n">
+        <v>1.580676707070495</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3462,6 +3549,9 @@
       <c r="AG30" t="n">
         <v>0.6652024601091734</v>
       </c>
+      <c r="AH30" t="n">
+        <v>0.6681581495770104</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3563,6 +3653,9 @@
       <c r="AG31" t="n">
         <v>-0.4272682194483157</v>
       </c>
+      <c r="AH31" t="n">
+        <v>-0.4256654677998095</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3664,6 +3757,9 @@
       <c r="AG32" t="n">
         <v>0.5497199316485111</v>
       </c>
+      <c r="AH32" t="n">
+        <v>0.5520892669450137</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3765,6 +3861,9 @@
       <c r="AG33" t="n">
         <v>0.7653975239911348</v>
       </c>
+      <c r="AH33" t="n">
+        <v>0.7671890290632023</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3866,6 +3965,9 @@
       <c r="AG34" t="n">
         <v>-0.8456701186267894</v>
       </c>
+      <c r="AH34" t="n">
+        <v>-0.8448339130011153</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3967,6 +4069,9 @@
       <c r="AG35" t="n">
         <v>0.8231207196024217</v>
       </c>
+      <c r="AH35" t="n">
+        <v>0.8246609057196329</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4068,6 +4173,9 @@
       <c r="AG36" t="n">
         <v>0.792896734258619</v>
       </c>
+      <c r="AH36" t="n">
+        <v>0.7947642392143351</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4169,6 +4277,9 @@
       <c r="AG37" t="n">
         <v>0.7589356295896041</v>
       </c>
+      <c r="AH37" t="n">
+        <v>0.7609094630531544</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4270,6 +4381,9 @@
       <c r="AG38" t="n">
         <v>0.6587248043222431</v>
       </c>
+      <c r="AH38" t="n">
+        <v>0.6599220471399585</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4371,6 +4485,9 @@
       <c r="AG39" t="n">
         <v>0.6125297803339627</v>
       </c>
+      <c r="AH39" t="n">
+        <v>0.6131942295168524</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4472,6 +4589,9 @@
       <c r="AG40" t="n">
         <v>0.7847400115315499</v>
       </c>
+      <c r="AH40" t="n">
+        <v>0.7862055899530177</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4573,6 +4693,9 @@
       <c r="AG41" t="n">
         <v>0.5849529208945911</v>
       </c>
+      <c r="AH41" t="n">
+        <v>0.5853976430794234</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4674,6 +4797,9 @@
       <c r="AG42" t="n">
         <v>0.6476822298773909</v>
       </c>
+      <c r="AH42" t="n">
+        <v>0.6497565982794636</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4775,6 +4901,9 @@
       <c r="AG43" t="n">
         <v>0.688985868469746</v>
       </c>
+      <c r="AH43" t="n">
+        <v>0.6899724414937802</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4876,6 +5005,9 @@
       <c r="AG44" t="n">
         <v>0.7149131618214886</v>
       </c>
+      <c r="AH44" t="n">
+        <v>0.7158044061961015</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4977,6 +5109,9 @@
       <c r="AG45" t="n">
         <v>0.7304583982281992</v>
       </c>
+      <c r="AH45" t="n">
+        <v>0.7324473794384623</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5078,6 +5213,9 @@
       <c r="AG46" t="n">
         <v>-1.350227738169869</v>
       </c>
+      <c r="AH46" t="n">
+        <v>-1.353621730215187</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5179,6 +5317,9 @@
       <c r="AG47" t="n">
         <v>-1.053139941790921</v>
       </c>
+      <c r="AH47" t="n">
+        <v>-1.055850518417123</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5280,6 +5421,9 @@
       <c r="AG48" t="n">
         <v>-0.9124455624008544</v>
       </c>
+      <c r="AH48" t="n">
+        <v>-0.9153097451900822</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5381,6 +5525,9 @@
       <c r="AG49" t="n">
         <v>-0.6726355627023554</v>
       </c>
+      <c r="AH49" t="n">
+        <v>-0.6750613075189273</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5482,6 +5629,9 @@
       <c r="AG50" t="n">
         <v>-0.09072454204440049</v>
       </c>
+      <c r="AH50" t="n">
+        <v>-0.09212405417783574</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5583,6 +5733,9 @@
       <c r="AG51" t="n">
         <v>-0.886133175429158</v>
       </c>
+      <c r="AH51" t="n">
+        <v>-0.8884211046232793</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5684,6 +5837,9 @@
       <c r="AG52" t="n">
         <v>-0.886133175429158</v>
       </c>
+      <c r="AH52" t="n">
+        <v>-0.8884211046232793</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5785,6 +5941,9 @@
       <c r="AG53" t="n">
         <v>-1.185049195857515</v>
       </c>
+      <c r="AH53" t="n">
+        <v>-1.188405682130499</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5886,6 +6045,9 @@
       <c r="AG54" t="n">
         <v>-0.201535642812237</v>
       </c>
+      <c r="AH54" t="n">
+        <v>-0.2033156576779712</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5987,6 +6149,9 @@
       <c r="AG55" t="n">
         <v>-1.077899542575035</v>
       </c>
+      <c r="AH55" t="n">
+        <v>-1.080799125510962</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -6088,6 +6253,9 @@
       <c r="AG56" t="n">
         <v>-0.9494563572381842</v>
       </c>
+      <c r="AH56" t="n">
+        <v>-0.9517000771718993</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -6189,6 +6357,9 @@
       <c r="AG57" t="n">
         <v>-1.018008591221778</v>
       </c>
+      <c r="AH57" t="n">
+        <v>-1.022074776281273</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -6290,6 +6461,9 @@
       <c r="AG58" t="n">
         <v>-1.158905452058192</v>
       </c>
+      <c r="AH58" t="n">
+        <v>-1.1628429859297</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -6391,6 +6565,9 @@
       <c r="AG59" t="n">
         <v>-0.8382034500626878</v>
       </c>
+      <c r="AH59" t="n">
+        <v>-0.8413719747772843</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -6492,6 +6669,9 @@
       <c r="AG60" t="n">
         <v>-0.4714012334878018</v>
       </c>
+      <c r="AH60" t="n">
+        <v>-0.4741645556469812</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -6593,6 +6773,9 @@
       <c r="AG61" t="n">
         <v>0.3734878100788028</v>
       </c>
+      <c r="AH61" t="n">
+        <v>0.3727093605743653</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -6694,6 +6877,9 @@
       <c r="AG62" t="n">
         <v>-1.289126558912512</v>
       </c>
+      <c r="AH62" t="n">
+        <v>-1.293917714596759</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6795,6 +6981,9 @@
       <c r="AG63" t="n">
         <v>-0.5905435378387685</v>
       </c>
+      <c r="AH63" t="n">
+        <v>-0.5934385651027629</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -6896,6 +7085,9 @@
       <c r="AG64" t="n">
         <v>-0.9094285208634947</v>
       </c>
+      <c r="AH64" t="n">
+        <v>-0.9136769041378325</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6997,6 +7189,9 @@
       <c r="AG65" t="n">
         <v>-0.07382871824557348</v>
       </c>
+      <c r="AH65" t="n">
+        <v>-0.07592294719874557</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -7098,6 +7293,9 @@
       <c r="AG66" t="n">
         <v>-0.8476171869754076</v>
       </c>
+      <c r="AH66" t="n">
+        <v>-0.8509574852577795</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -7198,6 +7396,9 @@
       </c>
       <c r="AG67" t="n">
         <v>-0.8343071461027886</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>-0.8373664920693322</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_11.xlsx
+++ b/predicted_variables_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH67"/>
+  <dimension ref="A1:AI67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,6 +536,9 @@
       <c r="AH1" s="1" t="n">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -640,6 +643,9 @@
       <c r="AH2" t="n">
         <v>-0.2538161875109394</v>
       </c>
+      <c r="AI2" t="n">
+        <v>-0.2560412676127581</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -744,6 +750,9 @@
       <c r="AH3" t="n">
         <v>0.2312943661778942</v>
       </c>
+      <c r="AI3" t="n">
+        <v>0.2293292997275168</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -848,6 +857,9 @@
       <c r="AH4" t="n">
         <v>0.2166391914839252</v>
       </c>
+      <c r="AI4" t="n">
+        <v>0.21449941794803</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -952,6 +964,9 @@
       <c r="AH5" t="n">
         <v>-0.08021724308734532</v>
       </c>
+      <c r="AI5" t="n">
+        <v>-0.08190614512608099</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1056,6 +1071,9 @@
       <c r="AH6" t="n">
         <v>0.1830275874567532</v>
       </c>
+      <c r="AI6" t="n">
+        <v>0.1815613685024022</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1160,6 +1178,9 @@
       <c r="AH7" t="n">
         <v>-0.4117957960630798</v>
       </c>
+      <c r="AI7" t="n">
+        <v>-0.4143506970955848</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1264,6 +1285,9 @@
       <c r="AH8" t="n">
         <v>-0.1438062349049823</v>
       </c>
+      <c r="AI8" t="n">
+        <v>-0.1455209817182448</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1368,6 +1392,9 @@
       <c r="AH9" t="n">
         <v>-0.3302484818110373</v>
       </c>
+      <c r="AI9" t="n">
+        <v>-0.3335565482877849</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1472,6 +1499,9 @@
       <c r="AH10" t="n">
         <v>0.3842222851895233</v>
       </c>
+      <c r="AI10" t="n">
+        <v>0.3828771155212065</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1576,6 +1606,9 @@
       <c r="AH11" t="n">
         <v>-0.2154930992570059</v>
       </c>
+      <c r="AI11" t="n">
+        <v>-0.2175462959295461</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1680,6 +1713,9 @@
       <c r="AH12" t="n">
         <v>-0.1158250231202323</v>
       </c>
+      <c r="AI12" t="n">
+        <v>-0.1184808837250372</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1784,6 +1820,9 @@
       <c r="AH13" t="n">
         <v>-0.06330418816081992</v>
       </c>
+      <c r="AI13" t="n">
+        <v>-0.06468995127644113</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1888,6 +1927,9 @@
       <c r="AH14" t="n">
         <v>0.02752705505741055</v>
       </c>
+      <c r="AI14" t="n">
+        <v>0.02377652603853429</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1992,6 +2034,9 @@
       <c r="AH15" t="n">
         <v>-0.127173359721678</v>
       </c>
+      <c r="AI15" t="n">
+        <v>-0.1315574729218673</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2096,6 +2141,9 @@
       <c r="AH16" t="n">
         <v>0.2863795156069218</v>
       </c>
+      <c r="AI16" t="n">
+        <v>0.2813295451891509</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2200,6 +2248,9 @@
       <c r="AH17" t="n">
         <v>0.4103359704107332</v>
       </c>
+      <c r="AI17" t="n">
+        <v>0.4074989641990566</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2304,6 +2355,9 @@
       <c r="AH18" t="n">
         <v>-0.1687936377951748</v>
       </c>
+      <c r="AI18" t="n">
+        <v>-0.1706517910920374</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2408,6 +2462,9 @@
       <c r="AH19" t="n">
         <v>0.2779040856605179</v>
       </c>
+      <c r="AI19" t="n">
+        <v>0.2753474758430257</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2512,6 +2569,9 @@
       <c r="AH20" t="n">
         <v>0.1764935925413098</v>
       </c>
+      <c r="AI20" t="n">
+        <v>0.1716174162406912</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2616,6 +2676,9 @@
       <c r="AH21" t="n">
         <v>0.4689620275473126</v>
       </c>
+      <c r="AI21" t="n">
+        <v>0.4663111128430654</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2720,6 +2783,9 @@
       <c r="AH22" t="n">
         <v>0.2374054960046124</v>
       </c>
+      <c r="AI22" t="n">
+        <v>0.2346040424756984</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2824,6 +2890,9 @@
       <c r="AH23" t="n">
         <v>-0.1890532216117061</v>
       </c>
+      <c r="AI23" t="n">
+        <v>-0.1916744666283168</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2928,6 +2997,9 @@
       <c r="AH24" t="n">
         <v>1.121365852220416</v>
       </c>
+      <c r="AI24" t="n">
+        <v>1.149702538484342</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3032,6 +3104,9 @@
       <c r="AH25" t="n">
         <v>0.3248908660766959</v>
       </c>
+      <c r="AI25" t="n">
+        <v>0.3263399632020247</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3136,6 +3211,9 @@
       <c r="AH26" t="n">
         <v>0.1340684064372964</v>
       </c>
+      <c r="AI26" t="n">
+        <v>0.1356759904780745</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3240,6 +3318,9 @@
       <c r="AH27" t="n">
         <v>0.03828288905916291</v>
       </c>
+      <c r="AI27" t="n">
+        <v>0.04046793350593836</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3344,6 +3425,9 @@
       <c r="AH28" t="n">
         <v>0.8335105868835984</v>
       </c>
+      <c r="AI28" t="n">
+        <v>0.8375481770049167</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3448,6 +3532,9 @@
       <c r="AH29" t="n">
         <v>1.580676707070495</v>
       </c>
+      <c r="AI29" t="n">
+        <v>1.604947775281441</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3552,6 +3639,9 @@
       <c r="AH30" t="n">
         <v>0.6681581495770104</v>
       </c>
+      <c r="AI30" t="n">
+        <v>0.6708504549423326</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3656,6 +3746,9 @@
       <c r="AH31" t="n">
         <v>-0.4256654677998095</v>
       </c>
+      <c r="AI31" t="n">
+        <v>-0.4244237203907892</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3760,6 +3853,9 @@
       <c r="AH32" t="n">
         <v>0.5520892669450137</v>
       </c>
+      <c r="AI32" t="n">
+        <v>0.5542891379541683</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3864,6 +3960,9 @@
       <c r="AH33" t="n">
         <v>0.7671890290632023</v>
       </c>
+      <c r="AI33" t="n">
+        <v>0.7688077934868154</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3968,6 +4067,9 @@
       <c r="AH34" t="n">
         <v>-0.8448339130011153</v>
       </c>
+      <c r="AI34" t="n">
+        <v>-0.8441898277126358</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4072,6 +4174,9 @@
       <c r="AH35" t="n">
         <v>0.8246609057196329</v>
       </c>
+      <c r="AI35" t="n">
+        <v>0.8260154690564768</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4176,6 +4281,9 @@
       <c r="AH36" t="n">
         <v>0.7947642392143351</v>
       </c>
+      <c r="AI36" t="n">
+        <v>0.7963331391639507</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4280,6 +4388,9 @@
       <c r="AH37" t="n">
         <v>0.7609094630531544</v>
       </c>
+      <c r="AI37" t="n">
+        <v>0.7625694241435395</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4384,6 +4495,9 @@
       <c r="AH38" t="n">
         <v>0.6599220471399585</v>
       </c>
+      <c r="AI38" t="n">
+        <v>0.660955488886785</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4488,6 +4602,9 @@
       <c r="AH39" t="n">
         <v>0.6131942295168524</v>
       </c>
+      <c r="AI39" t="n">
+        <v>0.6137252623053837</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4592,6 +4709,9 @@
       <c r="AH40" t="n">
         <v>0.7862055899530177</v>
       </c>
+      <c r="AI40" t="n">
+        <v>0.7875076132190542</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4696,6 +4816,9 @@
       <c r="AH41" t="n">
         <v>0.5853976430794234</v>
       </c>
+      <c r="AI41" t="n">
+        <v>0.5857332351192726</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4800,6 +4923,9 @@
       <c r="AH42" t="n">
         <v>0.6497565982794636</v>
       </c>
+      <c r="AI42" t="n">
+        <v>0.6514962682193466</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4904,6 +5030,9 @@
       <c r="AH43" t="n">
         <v>0.6899724414937802</v>
       </c>
+      <c r="AI43" t="n">
+        <v>0.6907999279854451</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5008,6 +5137,9 @@
       <c r="AH44" t="n">
         <v>0.7158044061961015</v>
       </c>
+      <c r="AI44" t="n">
+        <v>0.7165243910582189</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5112,6 +5244,9 @@
       <c r="AH45" t="n">
         <v>0.7324473794384623</v>
       </c>
+      <c r="AI45" t="n">
+        <v>0.7340440830816916</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5216,6 +5351,9 @@
       <c r="AH46" t="n">
         <v>-1.353621730215187</v>
       </c>
+      <c r="AI46" t="n">
+        <v>-1.356943880989143</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5320,6 +5458,9 @@
       <c r="AH47" t="n">
         <v>-1.055850518417123</v>
       </c>
+      <c r="AI47" t="n">
+        <v>-1.058520895583555</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5424,6 +5565,9 @@
       <c r="AH48" t="n">
         <v>-0.9153097451900822</v>
       </c>
+      <c r="AI48" t="n">
+        <v>-0.9181704212395301</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5528,6 +5672,9 @@
       <c r="AH49" t="n">
         <v>-0.6750613075189273</v>
       </c>
+      <c r="AI49" t="n">
+        <v>-0.6774693589518069</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5632,6 +5779,9 @@
       <c r="AH50" t="n">
         <v>-0.09212405417783574</v>
       </c>
+      <c r="AI50" t="n">
+        <v>-0.09348517891013799</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5736,6 +5886,9 @@
       <c r="AH51" t="n">
         <v>-0.8884211046232793</v>
       </c>
+      <c r="AI51" t="n">
+        <v>-0.8907421450316576</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5840,6 +5993,9 @@
       <c r="AH52" t="n">
         <v>-0.8884211046232793</v>
       </c>
+      <c r="AI52" t="n">
+        <v>-0.8907421450316576</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5944,6 +6100,9 @@
       <c r="AH53" t="n">
         <v>-1.188405682130499</v>
       </c>
+      <c r="AI53" t="n">
+        <v>-1.191759678764824</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -6048,6 +6207,9 @@
       <c r="AH54" t="n">
         <v>-0.2033156576779712</v>
       </c>
+      <c r="AI54" t="n">
+        <v>-0.2050652675133005</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -6152,6 +6314,9 @@
       <c r="AH55" t="n">
         <v>-1.080799125510962</v>
       </c>
+      <c r="AI55" t="n">
+        <v>-1.083645097920068</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -6256,6 +6421,9 @@
       <c r="AH56" t="n">
         <v>-0.9517000771718993</v>
       </c>
+      <c r="AI56" t="n">
+        <v>-0.9538611893805282</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -6360,6 +6528,9 @@
       <c r="AH57" t="n">
         <v>-1.022074776281273</v>
       </c>
+      <c r="AI57" t="n">
+        <v>-1.025829993390415</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -6464,6 +6635,9 @@
       <c r="AH58" t="n">
         <v>-1.1628429859297</v>
       </c>
+      <c r="AI58" t="n">
+        <v>-1.166454291041904</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -6568,6 +6742,9 @@
       <c r="AH59" t="n">
         <v>-0.8413719747772843</v>
       </c>
+      <c r="AI59" t="n">
+        <v>-0.8443941317388064</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -6672,6 +6849,9 @@
       <c r="AH60" t="n">
         <v>-0.4741645556469812</v>
       </c>
+      <c r="AI60" t="n">
+        <v>-0.4767038729917151</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -6776,6 +6956,9 @@
       <c r="AH61" t="n">
         <v>0.3727093605743653</v>
       </c>
+      <c r="AI61" t="n">
+        <v>0.3719701702554161</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -6880,6 +7063,9 @@
       <c r="AH62" t="n">
         <v>-1.293917714596759</v>
       </c>
+      <c r="AI62" t="n">
+        <v>-1.298331277885827</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6984,6 +7170,9 @@
       <c r="AH63" t="n">
         <v>-0.5934385651027629</v>
       </c>
+      <c r="AI63" t="n">
+        <v>-0.5961968580315832</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -7088,6 +7277,9 @@
       <c r="AH64" t="n">
         <v>-0.9136769041378325</v>
       </c>
+      <c r="AI64" t="n">
+        <v>-0.9177264339684555</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -7192,6 +7384,9 @@
       <c r="AH65" t="n">
         <v>-0.07592294719874557</v>
       </c>
+      <c r="AI65" t="n">
+        <v>-0.07784145075027148</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -7296,6 +7491,9 @@
       <c r="AH66" t="n">
         <v>-0.8509574852577795</v>
       </c>
+      <c r="AI66" t="n">
+        <v>-0.8539593743138583</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -7399,6 +7597,9 @@
       </c>
       <c r="AH67" t="n">
         <v>-0.8373664920693322</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>-0.8400393126845596</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_11.xlsx
+++ b/predicted_variables_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI67"/>
+  <dimension ref="A1:AJ67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,6 +539,9 @@
       <c r="AI1" s="1" t="n">
         <v>34</v>
       </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -646,6 +649,9 @@
       <c r="AI2" t="n">
         <v>-0.2560412676127581</v>
       </c>
+      <c r="AJ2" t="n">
+        <v>-0.2581154896388251</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -753,6 +759,9 @@
       <c r="AI3" t="n">
         <v>0.2293292997275168</v>
       </c>
+      <c r="AJ3" t="n">
+        <v>0.2275623683076652</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -860,6 +869,9 @@
       <c r="AI4" t="n">
         <v>0.21449941794803</v>
       </c>
+      <c r="AJ4" t="n">
+        <v>0.2125036197566302</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -967,6 +979,9 @@
       <c r="AI5" t="n">
         <v>-0.08190614512608099</v>
       </c>
+      <c r="AJ5" t="n">
+        <v>-0.0834451451527721</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1074,6 +1089,9 @@
       <c r="AI6" t="n">
         <v>0.1815613685024022</v>
       </c>
+      <c r="AJ6" t="n">
+        <v>0.1802841846127792</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1181,6 +1199,9 @@
       <c r="AI7" t="n">
         <v>-0.4143506970955848</v>
       </c>
+      <c r="AJ7" t="n">
+        <v>-0.4167653412265244</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1288,6 +1309,9 @@
       <c r="AI8" t="n">
         <v>-0.1455209817182448</v>
       </c>
+      <c r="AJ8" t="n">
+        <v>-0.1471725185310747</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1395,6 +1419,9 @@
       <c r="AI9" t="n">
         <v>-0.3335565482877849</v>
       </c>
+      <c r="AJ9" t="n">
+        <v>-0.3366397949665786</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1502,6 +1529,9 @@
       <c r="AI10" t="n">
         <v>0.3828771155212065</v>
       </c>
+      <c r="AJ10" t="n">
+        <v>0.3816968209610813</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1609,6 +1639,9 @@
       <c r="AI11" t="n">
         <v>-0.2175462959295461</v>
       </c>
+      <c r="AJ11" t="n">
+        <v>-0.2194821165818577</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1716,6 +1749,9 @@
       <c r="AI12" t="n">
         <v>-0.1184808837250372</v>
       </c>
+      <c r="AJ12" t="n">
+        <v>-0.120798579661358</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1823,6 +1859,9 @@
       <c r="AI13" t="n">
         <v>-0.06468995127644113</v>
       </c>
+      <c r="AJ13" t="n">
+        <v>-0.06597391272384143</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1930,6 +1969,9 @@
       <c r="AI14" t="n">
         <v>0.02377652603853429</v>
       </c>
+      <c r="AJ14" t="n">
+        <v>0.02064081273600629</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2037,6 +2079,9 @@
       <c r="AI15" t="n">
         <v>-0.1315574729218673</v>
       </c>
+      <c r="AJ15" t="n">
+        <v>-0.1351862154678932</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2144,6 +2189,9 @@
       <c r="AI16" t="n">
         <v>0.2813295451891509</v>
       </c>
+      <c r="AJ16" t="n">
+        <v>0.2772160521963676</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2251,6 +2299,9 @@
       <c r="AI17" t="n">
         <v>0.4074989641990566</v>
       </c>
+      <c r="AJ17" t="n">
+        <v>0.4053491746677931</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2358,6 +2409,9 @@
       <c r="AI18" t="n">
         <v>-0.1706517910920374</v>
       </c>
+      <c r="AJ18" t="n">
+        <v>-0.1722695226061446</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2465,6 +2519,9 @@
       <c r="AI19" t="n">
         <v>0.2753474758430257</v>
       </c>
+      <c r="AJ19" t="n">
+        <v>0.273173952537912</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2572,6 +2629,9 @@
       <c r="AI20" t="n">
         <v>0.1716174162406912</v>
       </c>
+      <c r="AJ20" t="n">
+        <v>0.1676665679531189</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2679,6 +2739,9 @@
       <c r="AI21" t="n">
         <v>0.4663111128430654</v>
       </c>
+      <c r="AJ21" t="n">
+        <v>0.4643232426411034</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2786,6 +2849,9 @@
       <c r="AI22" t="n">
         <v>0.2346040424756984</v>
       </c>
+      <c r="AJ22" t="n">
+        <v>0.2324436962406504</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2893,6 +2959,9 @@
       <c r="AI23" t="n">
         <v>-0.1916744666283168</v>
       </c>
+      <c r="AJ23" t="n">
+        <v>-0.1937630466493125</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3000,6 +3069,9 @@
       <c r="AI24" t="n">
         <v>1.149702538484342</v>
       </c>
+      <c r="AJ24" t="n">
+        <v>1.178647101797753</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3107,6 +3179,9 @@
       <c r="AI25" t="n">
         <v>0.3263399632020247</v>
       </c>
+      <c r="AJ25" t="n">
+        <v>0.3276070757519924</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3214,6 +3289,9 @@
       <c r="AI26" t="n">
         <v>0.1356759904780745</v>
       </c>
+      <c r="AJ26" t="n">
+        <v>0.1371805877480339</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3321,6 +3399,9 @@
       <c r="AI27" t="n">
         <v>0.04046793350593836</v>
       </c>
+      <c r="AJ27" t="n">
+        <v>0.04251040701330717</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3428,6 +3509,9 @@
       <c r="AI28" t="n">
         <v>0.8375481770049167</v>
       </c>
+      <c r="AJ28" t="n">
+        <v>0.8413088512275044</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3535,6 +3619,9 @@
       <c r="AI29" t="n">
         <v>1.604947775281441</v>
       </c>
+      <c r="AJ29" t="n">
+        <v>1.628098288010932</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3642,6 +3729,9 @@
       <c r="AI30" t="n">
         <v>0.6708504549423326</v>
       </c>
+      <c r="AJ30" t="n">
+        <v>0.6732733465932306</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3749,6 +3839,9 @@
       <c r="AI31" t="n">
         <v>-0.4244237203907892</v>
       </c>
+      <c r="AJ31" t="n">
+        <v>-0.4235182116858854</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3856,6 +3949,9 @@
       <c r="AI32" t="n">
         <v>0.5542891379541683</v>
       </c>
+      <c r="AJ32" t="n">
+        <v>0.55630603234683</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3963,6 +4059,9 @@
       <c r="AI33" t="n">
         <v>0.7688077934868154</v>
       </c>
+      <c r="AJ33" t="n">
+        <v>0.770253023088456</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4070,6 +4169,9 @@
       <c r="AI34" t="n">
         <v>-0.8441898277126358</v>
       </c>
+      <c r="AJ34" t="n">
+        <v>-0.8437342508725005</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4177,6 +4279,9 @@
       <c r="AI35" t="n">
         <v>0.8260154690564768</v>
       </c>
+      <c r="AJ35" t="n">
+        <v>0.8271942809762827</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4284,6 +4389,9 @@
       <c r="AI36" t="n">
         <v>0.7963331391639507</v>
       </c>
+      <c r="AJ36" t="n">
+        <v>0.79762651337654</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4391,6 +4499,9 @@
       <c r="AI37" t="n">
         <v>0.7625694241435395</v>
       </c>
+      <c r="AJ37" t="n">
+        <v>0.7639394853345234</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4498,6 +4609,9 @@
       <c r="AI38" t="n">
         <v>0.660955488886785</v>
       </c>
+      <c r="AJ38" t="n">
+        <v>0.661833450120802</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4605,6 +4719,9 @@
       <c r="AI39" t="n">
         <v>0.6137252623053837</v>
       </c>
+      <c r="AJ39" t="n">
+        <v>0.6141341898518651</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4712,6 +4829,9 @@
       <c r="AI40" t="n">
         <v>0.7875076132190542</v>
       </c>
+      <c r="AJ40" t="n">
+        <v>0.7886538290110672</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4819,6 +4939,9 @@
       <c r="AI41" t="n">
         <v>0.5857332351192726</v>
       </c>
+      <c r="AJ41" t="n">
+        <v>0.5859731837063679</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4926,6 +5049,9 @@
       <c r="AI42" t="n">
         <v>0.6514962682193466</v>
       </c>
+      <c r="AJ42" t="n">
+        <v>0.6529232516675797</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5033,6 +5159,9 @@
       <c r="AI43" t="n">
         <v>0.6907999279854451</v>
       </c>
+      <c r="AJ43" t="n">
+        <v>0.6914798291363142</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5140,6 +5269,9 @@
       <c r="AI44" t="n">
         <v>0.7165243910582189</v>
       </c>
+      <c r="AJ44" t="n">
+        <v>0.7170894076003773</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5247,6 +5379,9 @@
       <c r="AI45" t="n">
         <v>0.7340440830816916</v>
       </c>
+      <c r="AJ45" t="n">
+        <v>0.7352839963324969</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5354,6 +5489,9 @@
       <c r="AI46" t="n">
         <v>-1.356943880989143</v>
       </c>
+      <c r="AJ46" t="n">
+        <v>-1.360187166153161</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5461,6 +5599,9 @@
       <c r="AI47" t="n">
         <v>-1.058520895583555</v>
       </c>
+      <c r="AJ47" t="n">
+        <v>-1.061143819136404</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5568,6 +5709,9 @@
       <c r="AI48" t="n">
         <v>-0.9181704212395301</v>
       </c>
+      <c r="AJ48" t="n">
+        <v>-0.9210118254318759</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5675,6 +5819,9 @@
       <c r="AI49" t="n">
         <v>-0.6774693589518069</v>
       </c>
+      <c r="AJ49" t="n">
+        <v>-0.6798482244652295</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5782,6 +5929,9 @@
       <c r="AI50" t="n">
         <v>-0.09348517891013799</v>
       </c>
+      <c r="AJ50" t="n">
+        <v>-0.09480702882296647</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5889,6 +6039,9 @@
       <c r="AI51" t="n">
         <v>-0.8907421450316576</v>
       </c>
+      <c r="AJ51" t="n">
+        <v>-0.8930797192641611</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5996,6 +6149,9 @@
       <c r="AI52" t="n">
         <v>-0.8907421450316576</v>
       </c>
+      <c r="AJ52" t="n">
+        <v>-0.8930797192641611</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -6103,6 +6259,9 @@
       <c r="AI53" t="n">
         <v>-1.191759678764824</v>
       </c>
+      <c r="AJ53" t="n">
+        <v>-1.195093969729431</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -6210,6 +6369,9 @@
       <c r="AI54" t="n">
         <v>-0.2050652675133005</v>
       </c>
+      <c r="AJ54" t="n">
+        <v>-0.206778431391322</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -6317,6 +6479,9 @@
       <c r="AI55" t="n">
         <v>-1.083645097920068</v>
       </c>
+      <c r="AJ55" t="n">
+        <v>-1.086431203461687</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -6424,6 +6589,9 @@
       <c r="AI56" t="n">
         <v>-0.9538611893805282</v>
       </c>
+      <c r="AJ56" t="n">
+        <v>-0.9559427188354879</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -6531,6 +6699,9 @@
       <c r="AI57" t="n">
         <v>-1.025829993390415</v>
       </c>
+      <c r="AJ57" t="n">
+        <v>-1.02929014410874</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -6638,6 +6809,9 @@
       <c r="AI58" t="n">
         <v>-1.166454291041904</v>
       </c>
+      <c r="AJ58" t="n">
+        <v>-1.169756675201104</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -6745,6 +6919,9 @@
       <c r="AI59" t="n">
         <v>-0.8443941317388064</v>
       </c>
+      <c r="AJ59" t="n">
+        <v>-0.847267398510421</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -6852,6 +7029,9 @@
       <c r="AI60" t="n">
         <v>-0.4767038729917151</v>
       </c>
+      <c r="AJ60" t="n">
+        <v>-0.4790277334105564</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -6959,6 +7139,9 @@
       <c r="AI61" t="n">
         <v>0.3719701702554161</v>
       </c>
+      <c r="AJ61" t="n">
+        <v>0.3712707417423945</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -7066,6 +7249,9 @@
       <c r="AI62" t="n">
         <v>-1.298331277885827</v>
       </c>
+      <c r="AJ62" t="n">
+        <v>-1.302387309511028</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -7173,6 +7359,9 @@
       <c r="AI63" t="n">
         <v>-0.5961968580315832</v>
       </c>
+      <c r="AJ63" t="n">
+        <v>-0.5988081407941153</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -7280,6 +7469,9 @@
       <c r="AI64" t="n">
         <v>-0.9177264339684555</v>
       </c>
+      <c r="AJ64" t="n">
+        <v>-0.9215701793608686</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -7387,6 +7579,9 @@
       <c r="AI65" t="n">
         <v>-0.07784145075027148</v>
       </c>
+      <c r="AJ65" t="n">
+        <v>-0.07959157965206426</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -7494,6 +7689,9 @@
       <c r="AI66" t="n">
         <v>-0.8539593743138583</v>
       </c>
+      <c r="AJ66" t="n">
+        <v>-0.8566487204345734</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -7600,6 +7798,9 @@
       </c>
       <c r="AI67" t="n">
         <v>-0.8400393126845596</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>-0.8423638746063772</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_11.xlsx
+++ b/predicted_variables_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ67"/>
+  <dimension ref="A1:AK67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,6 +542,9 @@
       <c r="AJ1" s="1" t="n">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -652,6 +655,9 @@
       <c r="AJ2" t="n">
         <v>-0.2581154896388251</v>
       </c>
+      <c r="AK2" t="n">
+        <v>-0.2600395428655006</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -762,6 +768,9 @@
       <c r="AJ3" t="n">
         <v>0.2275623683076652</v>
       </c>
+      <c r="AK3" t="n">
+        <v>0.2259873423636928</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -872,6 +881,9 @@
       <c r="AJ4" t="n">
         <v>0.2125036197566302</v>
       </c>
+      <c r="AK4" t="n">
+        <v>0.210654644584616</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -982,6 +994,9 @@
       <c r="AJ5" t="n">
         <v>-0.0834451451527721</v>
       </c>
+      <c r="AK5" t="n">
+        <v>-0.08484177312069599</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1092,6 +1107,9 @@
       <c r="AJ6" t="n">
         <v>0.1802841846127792</v>
       </c>
+      <c r="AK6" t="n">
+        <v>0.1791853081770801</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1202,6 +1220,9 @@
       <c r="AJ7" t="n">
         <v>-0.4167653412265244</v>
       </c>
+      <c r="AK7" t="n">
+        <v>-0.4190365923288707</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1312,6 +1333,9 @@
       <c r="AJ8" t="n">
         <v>-0.1471725185310747</v>
       </c>
+      <c r="AK8" t="n">
+        <v>-0.148749887147714</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1422,6 +1446,9 @@
       <c r="AJ9" t="n">
         <v>-0.3366397949665786</v>
       </c>
+      <c r="AK9" t="n">
+        <v>-0.3394926997138888</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1532,6 +1559,9 @@
       <c r="AJ10" t="n">
         <v>0.3816968209610813</v>
       </c>
+      <c r="AK10" t="n">
+        <v>0.3806708979306392</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1642,6 +1672,9 @@
       <c r="AJ11" t="n">
         <v>-0.2194821165818577</v>
       </c>
+      <c r="AK11" t="n">
+        <v>-0.2213001835415464</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1752,6 +1785,9 @@
       <c r="AJ12" t="n">
         <v>-0.120798579661358</v>
       </c>
+      <c r="AK12" t="n">
+        <v>-0.1228043365757868</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1862,6 +1898,9 @@
       <c r="AJ13" t="n">
         <v>-0.06597391272384143</v>
       </c>
+      <c r="AK13" t="n">
+        <v>-0.06716166286535735</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1972,6 +2011,9 @@
       <c r="AJ14" t="n">
         <v>0.02064081273600629</v>
       </c>
+      <c r="AK14" t="n">
+        <v>0.01806963285826518</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2082,6 +2124,9 @@
       <c r="AJ15" t="n">
         <v>-0.1351862154678932</v>
       </c>
+      <c r="AK15" t="n">
+        <v>-0.1381291153037073</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2192,6 +2237,9 @@
       <c r="AJ16" t="n">
         <v>0.2772160521963676</v>
       </c>
+      <c r="AK16" t="n">
+        <v>0.2739560929239624</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2302,6 +2350,9 @@
       <c r="AJ17" t="n">
         <v>0.4053491746677931</v>
       </c>
+      <c r="AK17" t="n">
+        <v>0.4038104204576812</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2412,6 +2463,9 @@
       <c r="AJ18" t="n">
         <v>-0.1722695226061446</v>
       </c>
+      <c r="AK18" t="n">
+        <v>-0.173669754750886</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2522,6 +2576,9 @@
       <c r="AJ19" t="n">
         <v>0.273173952537912</v>
       </c>
+      <c r="AK19" t="n">
+        <v>0.2713470170978627</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2632,6 +2689,9 @@
       <c r="AJ20" t="n">
         <v>0.1676665679531189</v>
       </c>
+      <c r="AK20" t="n">
+        <v>0.1645536292535419</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2742,6 +2802,9 @@
       <c r="AJ21" t="n">
         <v>0.4643232426411034</v>
       </c>
+      <c r="AK21" t="n">
+        <v>0.4629254646301207</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2852,6 +2915,9 @@
       <c r="AJ22" t="n">
         <v>0.2324436962406504</v>
       </c>
+      <c r="AK22" t="n">
+        <v>0.2308559828756402</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2962,6 +3028,9 @@
       <c r="AJ23" t="n">
         <v>-0.1937630466493125</v>
       </c>
+      <c r="AK23" t="n">
+        <v>-0.1953763011804046</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3072,6 +3141,9 @@
       <c r="AJ24" t="n">
         <v>1.178647101797753</v>
       </c>
+      <c r="AK24" t="n">
+        <v>1.207585977426928</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3182,6 +3254,9 @@
       <c r="AJ25" t="n">
         <v>0.3276070757519924</v>
       </c>
+      <c r="AK25" t="n">
+        <v>0.3287001031764679</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3292,6 +3367,9 @@
       <c r="AJ26" t="n">
         <v>0.1371805877480339</v>
       </c>
+      <c r="AK26" t="n">
+        <v>0.1385667949581824</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3402,6 +3480,9 @@
       <c r="AJ27" t="n">
         <v>0.04251040701330717</v>
       </c>
+      <c r="AK27" t="n">
+        <v>0.04439586834322894</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3512,6 +3593,9 @@
       <c r="AJ28" t="n">
         <v>0.8413088512275044</v>
       </c>
+      <c r="AK28" t="n">
+        <v>0.8447817716733024</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3622,6 +3706,9 @@
       <c r="AJ29" t="n">
         <v>1.628098288010932</v>
       </c>
+      <c r="AK29" t="n">
+        <v>1.649883272914969</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3732,6 +3819,9 @@
       <c r="AJ30" t="n">
         <v>0.6732733465932306</v>
       </c>
+      <c r="AK30" t="n">
+        <v>0.6754269045936419</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3842,6 +3932,9 @@
       <c r="AJ31" t="n">
         <v>-0.4235182116858854</v>
       </c>
+      <c r="AK31" t="n">
+        <v>-0.4229214126344965</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3952,6 +4045,9 @@
       <c r="AJ32" t="n">
         <v>0.55630603234683</v>
       </c>
+      <c r="AK32" t="n">
+        <v>0.5581319463955989</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4062,6 +4158,9 @@
       <c r="AJ33" t="n">
         <v>0.770253023088456</v>
       </c>
+      <c r="AK33" t="n">
+        <v>0.7715272508805838</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4172,6 +4271,9 @@
       <c r="AJ34" t="n">
         <v>-0.8437342508725005</v>
       </c>
+      <c r="AK34" t="n">
+        <v>-0.8434601840944584</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4282,6 +4384,9 @@
       <c r="AJ35" t="n">
         <v>0.8271942809762827</v>
       </c>
+      <c r="AK35" t="n">
+        <v>0.8282085856428983</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4392,6 +4497,9 @@
       <c r="AJ36" t="n">
         <v>0.79762651337654</v>
       </c>
+      <c r="AK36" t="n">
+        <v>0.7986685489140437</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4502,6 +4610,9 @@
       <c r="AJ37" t="n">
         <v>0.7639394853345234</v>
       </c>
+      <c r="AK37" t="n">
+        <v>0.7650448556018454</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4612,6 +4723,9 @@
       <c r="AJ38" t="n">
         <v>0.661833450120802</v>
       </c>
+      <c r="AK38" t="n">
+        <v>0.6625657707090337</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4722,6 +4836,9 @@
       <c r="AJ39" t="n">
         <v>0.6141341898518651</v>
       </c>
+      <c r="AK39" t="n">
+        <v>0.6144326467736987</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4832,6 +4949,9 @@
       <c r="AJ40" t="n">
         <v>0.7886538290110672</v>
       </c>
+      <c r="AK40" t="n">
+        <v>0.7896532589669718</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4942,6 +5062,9 @@
       <c r="AJ41" t="n">
         <v>0.5859731837063679</v>
       </c>
+      <c r="AK41" t="n">
+        <v>0.5861305028401209</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5052,6 +5175,9 @@
       <c r="AJ42" t="n">
         <v>0.6529232516675797</v>
       </c>
+      <c r="AK42" t="n">
+        <v>0.6540616900172176</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5162,6 +5288,9 @@
       <c r="AJ43" t="n">
         <v>0.6914798291363142</v>
       </c>
+      <c r="AK43" t="n">
+        <v>0.6920244726815212</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5272,6 +5401,9 @@
       <c r="AJ44" t="n">
         <v>0.7170894076003773</v>
       </c>
+      <c r="AK44" t="n">
+        <v>0.7175158282778041</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5382,6 +5514,9 @@
       <c r="AJ45" t="n">
         <v>0.7352839963324969</v>
       </c>
+      <c r="AK45" t="n">
+        <v>0.7362031939719774</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5492,6 +5627,9 @@
       <c r="AJ46" t="n">
         <v>-1.360187166153161</v>
       </c>
+      <c r="AK46" t="n">
+        <v>-1.363345808018089</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5602,6 +5740,9 @@
       <c r="AJ47" t="n">
         <v>-1.061143819136404</v>
       </c>
+      <c r="AK47" t="n">
+        <v>-1.063712968862626</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5712,6 +5853,9 @@
       <c r="AJ48" t="n">
         <v>-0.9210118254318759</v>
       </c>
+      <c r="AK48" t="n">
+        <v>-0.9238199562960256</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5822,6 +5966,9 @@
       <c r="AJ49" t="n">
         <v>-0.6798482244652295</v>
       </c>
+      <c r="AK49" t="n">
+        <v>-0.6821878733656256</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5932,6 +6079,9 @@
       <c r="AJ50" t="n">
         <v>-0.09480702882296647</v>
       </c>
+      <c r="AK50" t="n">
+        <v>-0.09608902761425214</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6042,6 +6192,9 @@
       <c r="AJ51" t="n">
         <v>-0.8930797192641611</v>
       </c>
+      <c r="AK51" t="n">
+        <v>-0.895418679928815</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -6152,6 +6305,9 @@
       <c r="AJ52" t="n">
         <v>-0.8930797192641611</v>
       </c>
+      <c r="AK52" t="n">
+        <v>-0.895418679928815</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -6262,6 +6418,9 @@
       <c r="AJ53" t="n">
         <v>-1.195093969729431</v>
       </c>
+      <c r="AK53" t="n">
+        <v>-1.198393034142575</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -6372,6 +6531,9 @@
       <c r="AJ54" t="n">
         <v>-0.206778431391322</v>
       </c>
+      <c r="AK54" t="n">
+        <v>-0.2084501196332533</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -6482,6 +6644,9 @@
       <c r="AJ55" t="n">
         <v>-1.086431203461687</v>
       </c>
+      <c r="AK55" t="n">
+        <v>-1.089152129296474</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -6592,6 +6757,9 @@
       <c r="AJ56" t="n">
         <v>-0.9559427188354879</v>
       </c>
+      <c r="AK56" t="n">
+        <v>-0.9579478217644286</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -6702,6 +6870,9 @@
       <c r="AJ57" t="n">
         <v>-1.02929014410874</v>
       </c>
+      <c r="AK57" t="n">
+        <v>-1.032472819483914</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -6812,6 +6983,9 @@
       <c r="AJ58" t="n">
         <v>-1.169756675201104</v>
       </c>
+      <c r="AK58" t="n">
+        <v>-1.172769380579239</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -6922,6 +7096,9 @@
       <c r="AJ59" t="n">
         <v>-0.847267398510421</v>
       </c>
+      <c r="AK59" t="n">
+        <v>-0.8499915221726024</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -7032,6 +7209,9 @@
       <c r="AJ60" t="n">
         <v>-0.4790277334105564</v>
       </c>
+      <c r="AK60" t="n">
+        <v>-0.4811467148886544</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -7142,6 +7322,9 @@
       <c r="AJ61" t="n">
         <v>0.3712707417423945</v>
       </c>
+      <c r="AK61" t="n">
+        <v>0.3706109771096742</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -7252,6 +7435,9 @@
       <c r="AJ62" t="n">
         <v>-1.302387309511028</v>
       </c>
+      <c r="AK62" t="n">
+        <v>-1.306107903994733</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -7362,6 +7548,9 @@
       <c r="AJ63" t="n">
         <v>-0.5988081407941153</v>
       </c>
+      <c r="AK63" t="n">
+        <v>-0.6012660759541238</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -7472,6 +7661,9 @@
       <c r="AJ64" t="n">
         <v>-0.9215701793608686</v>
       </c>
+      <c r="AK64" t="n">
+        <v>-0.9252048890793723</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -7582,6 +7774,9 @@
       <c r="AJ65" t="n">
         <v>-0.07959157965206426</v>
       </c>
+      <c r="AK65" t="n">
+        <v>-0.08118223149793645</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -7692,6 +7887,9 @@
       <c r="AJ66" t="n">
         <v>-0.8566487204345734</v>
       </c>
+      <c r="AK66" t="n">
+        <v>-0.8590521778551891</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -7801,6 +7999,9 @@
       </c>
       <c r="AJ67" t="n">
         <v>-0.8423638746063772</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>-0.8443780318806534</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_11.xlsx
+++ b/predicted_variables_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK67"/>
+  <dimension ref="A1:AL67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,6 +545,9 @@
       <c r="AK1" s="1" t="n">
         <v>36</v>
       </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -658,6 +661,9 @@
       <c r="AK2" t="n">
         <v>-0.2600395428655006</v>
       </c>
+      <c r="AL2" t="n">
+        <v>-0.2618163251702488</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -771,6 +777,9 @@
       <c r="AK3" t="n">
         <v>0.2259873423636928</v>
       </c>
+      <c r="AL3" t="n">
+        <v>0.2245958096268903</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -884,6 +893,9 @@
       <c r="AK4" t="n">
         <v>0.210654644584616</v>
       </c>
+      <c r="AL4" t="n">
+        <v>0.2089525515436447</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -997,6 +1009,9 @@
       <c r="AK5" t="n">
         <v>-0.08484177312069599</v>
       </c>
+      <c r="AL5" t="n">
+        <v>-0.08610456909026648</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1110,6 +1125,9 @@
       <c r="AK6" t="n">
         <v>0.1791853081770801</v>
       </c>
+      <c r="AL6" t="n">
+        <v>0.1782526057756106</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1223,6 +1241,9 @@
       <c r="AK7" t="n">
         <v>-0.4190365923288707</v>
       </c>
+      <c r="AL7" t="n">
+        <v>-0.4211638488385885</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1336,6 +1357,9 @@
       <c r="AK8" t="n">
         <v>-0.148749887147714</v>
       </c>
+      <c r="AL8" t="n">
+        <v>-0.1502450198409321</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1449,6 +1473,9 @@
       <c r="AK9" t="n">
         <v>-0.3394926997138888</v>
       </c>
+      <c r="AL9" t="n">
+        <v>-0.3421142252104164</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1562,6 +1589,9 @@
       <c r="AK10" t="n">
         <v>0.3806708979306392</v>
       </c>
+      <c r="AL10" t="n">
+        <v>0.3797878761403033</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1675,6 +1705,9 @@
       <c r="AK11" t="n">
         <v>-0.2213001835415464</v>
       </c>
+      <c r="AL11" t="n">
+        <v>-0.2230018395175236</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1788,6 +1821,9 @@
       <c r="AK12" t="n">
         <v>-0.1228043365757868</v>
       </c>
+      <c r="AL12" t="n">
+        <v>-0.1245253661478805</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1901,6 +1937,9 @@
       <c r="AK13" t="n">
         <v>-0.06716166286535735</v>
       </c>
+      <c r="AL13" t="n">
+        <v>-0.06825919379032236</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2014,6 +2053,9 @@
       <c r="AK14" t="n">
         <v>0.01806963285826518</v>
       </c>
+      <c r="AL14" t="n">
+        <v>0.01601090940097036</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2127,6 +2169,9 @@
       <c r="AK15" t="n">
         <v>-0.1381291153037073</v>
       </c>
+      <c r="AL15" t="n">
+        <v>-0.1404563869381073</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2240,6 +2285,9 @@
       <c r="AK16" t="n">
         <v>0.2739560929239624</v>
       </c>
+      <c r="AL16" t="n">
+        <v>0.2714649589189309</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2353,6 +2401,9 @@
       <c r="AK17" t="n">
         <v>0.4038104204576812</v>
       </c>
+      <c r="AL17" t="n">
+        <v>0.4028080164010192</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2466,6 +2517,9 @@
       <c r="AK18" t="n">
         <v>-0.173669754750886</v>
       </c>
+      <c r="AL18" t="n">
+        <v>-0.1748749241700267</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2579,6 +2633,9 @@
       <c r="AK19" t="n">
         <v>0.2713470170978627</v>
       </c>
+      <c r="AL19" t="n">
+        <v>0.2698303096213902</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2692,6 +2749,9 @@
       <c r="AK20" t="n">
         <v>0.1645536292535419</v>
       </c>
+      <c r="AL20" t="n">
+        <v>0.1621905199019229</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2805,6 +2865,9 @@
       <c r="AK21" t="n">
         <v>0.4629254646301207</v>
       </c>
+      <c r="AL21" t="n">
+        <v>0.4620458395373297</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2918,6 +2981,9 @@
       <c r="AK22" t="n">
         <v>0.2308559828756402</v>
       </c>
+      <c r="AL22" t="n">
+        <v>0.2297733263479211</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3031,6 +3097,9 @@
       <c r="AK23" t="n">
         <v>-0.1953763011804046</v>
       </c>
+      <c r="AL23" t="n">
+        <v>-0.1965706079967963</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3144,6 +3213,9 @@
       <c r="AK24" t="n">
         <v>1.207585977426928</v>
       </c>
+      <c r="AL24" t="n">
+        <v>1.236002421501566</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3257,6 +3329,9 @@
       <c r="AK25" t="n">
         <v>0.3287001031764679</v>
       </c>
+      <c r="AL25" t="n">
+        <v>0.3296289875225624</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3370,6 +3445,9 @@
       <c r="AK26" t="n">
         <v>0.1385667949581824</v>
       </c>
+      <c r="AL26" t="n">
+        <v>0.1398239901356238</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3483,6 +3561,9 @@
       <c r="AK27" t="n">
         <v>0.04439586834322894</v>
       </c>
+      <c r="AL27" t="n">
+        <v>0.04611518574121786</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3596,6 +3677,9 @@
       <c r="AK28" t="n">
         <v>0.8447817716733024</v>
       </c>
+      <c r="AL28" t="n">
+        <v>0.8479626815796577</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3709,6 +3793,9 @@
       <c r="AK29" t="n">
         <v>1.649883272914969</v>
       </c>
+      <c r="AL29" t="n">
+        <v>1.670124716765537</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3822,6 +3909,9 @@
       <c r="AK30" t="n">
         <v>0.6754269045936419</v>
       </c>
+      <c r="AL30" t="n">
+        <v>0.6773162980994194</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3935,6 +4025,9 @@
       <c r="AK31" t="n">
         <v>-0.4229214126344965</v>
       </c>
+      <c r="AL31" t="n">
+        <v>-0.4226040291882807</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4048,6 +4141,9 @@
       <c r="AK32" t="n">
         <v>0.5581319463955989</v>
       </c>
+      <c r="AL32" t="n">
+        <v>0.5597636524247974</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4161,6 +4257,9 @@
       <c r="AK33" t="n">
         <v>0.7715272508805838</v>
       </c>
+      <c r="AL33" t="n">
+        <v>0.7726357491878314</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4274,6 +4373,9 @@
       <c r="AK34" t="n">
         <v>-0.8434601840944584</v>
       </c>
+      <c r="AL34" t="n">
+        <v>-0.8433579323767095</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4387,6 +4489,9 @@
       <c r="AK35" t="n">
         <v>0.8282085856428983</v>
       </c>
+      <c r="AL35" t="n">
+        <v>0.8290705982317954</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4500,6 +4605,9 @@
       <c r="AK36" t="n">
         <v>0.7986685489140437</v>
       </c>
+      <c r="AL36" t="n">
+        <v>0.7994839448310805</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4613,6 +4721,9 @@
       <c r="AK37" t="n">
         <v>0.7650448556018454</v>
       </c>
+      <c r="AL37" t="n">
+        <v>0.76591134331656</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4726,6 +4837,9 @@
       <c r="AK38" t="n">
         <v>0.6625657707090337</v>
       </c>
+      <c r="AL38" t="n">
+        <v>0.663163381495627</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4839,6 +4953,9 @@
       <c r="AK39" t="n">
         <v>0.6144326467736987</v>
       </c>
+      <c r="AL39" t="n">
+        <v>0.6146323456726432</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4952,6 +5069,9 @@
       <c r="AK40" t="n">
         <v>0.7896532589669718</v>
       </c>
+      <c r="AL40" t="n">
+        <v>0.7905158640453511</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5065,6 +5185,9 @@
       <c r="AK41" t="n">
         <v>0.5861305028401209</v>
       </c>
+      <c r="AL41" t="n">
+        <v>0.5862175730529373</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5178,6 +5301,9 @@
       <c r="AK42" t="n">
         <v>0.6540616900172176</v>
       </c>
+      <c r="AL42" t="n">
+        <v>0.6549370828988247</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5291,6 +5417,9 @@
       <c r="AK43" t="n">
         <v>0.6920244726815212</v>
       </c>
+      <c r="AL43" t="n">
+        <v>0.6924466559257383</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5404,6 +5533,9 @@
       <c r="AK44" t="n">
         <v>0.7175158282778041</v>
       </c>
+      <c r="AL44" t="n">
+        <v>0.7178198107849688</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5517,6 +5649,9 @@
       <c r="AK45" t="n">
         <v>0.7362031939719774</v>
       </c>
+      <c r="AL45" t="n">
+        <v>0.7368376214043639</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5630,6 +5765,9 @@
       <c r="AK46" t="n">
         <v>-1.363345808018089</v>
       </c>
+      <c r="AL46" t="n">
+        <v>-1.366415219910564</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5743,6 +5881,9 @@
       <c r="AK47" t="n">
         <v>-1.063712968862626</v>
       </c>
+      <c r="AL47" t="n">
+        <v>-1.066222955737656</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5856,6 +5997,9 @@
       <c r="AK48" t="n">
         <v>-0.9238199562960256</v>
       </c>
+      <c r="AL48" t="n">
+        <v>-0.926582580028861</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5969,6 +6113,9 @@
       <c r="AK49" t="n">
         <v>-0.6821878733656256</v>
       </c>
+      <c r="AL49" t="n">
+        <v>-0.6844797100570558</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6082,6 +6229,9 @@
       <c r="AK50" t="n">
         <v>-0.09608902761425214</v>
       </c>
+      <c r="AL50" t="n">
+        <v>-0.0973308852717602</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6195,6 +6345,9 @@
       <c r="AK51" t="n">
         <v>-0.895418679928815</v>
       </c>
+      <c r="AL51" t="n">
+        <v>-0.8977453766559778</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -6308,6 +6461,9 @@
       <c r="AK52" t="n">
         <v>-0.895418679928815</v>
       </c>
+      <c r="AL52" t="n">
+        <v>-0.8977453766559778</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -6421,6 +6577,9 @@
       <c r="AK53" t="n">
         <v>-1.198393034142575</v>
       </c>
+      <c r="AL53" t="n">
+        <v>-1.201643107553328</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -6534,6 +6693,9 @@
       <c r="AK54" t="n">
         <v>-0.2084501196332533</v>
       </c>
+      <c r="AL54" t="n">
+        <v>-0.2100762564912464</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -6647,6 +6809,9 @@
       <c r="AK55" t="n">
         <v>-1.089152129296474</v>
       </c>
+      <c r="AL55" t="n">
+        <v>-1.091803484088295</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -6760,6 +6925,9 @@
       <c r="AK56" t="n">
         <v>-0.9579478217644286</v>
       </c>
+      <c r="AL56" t="n">
+        <v>-0.9598797202968354</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -6873,6 +7041,9 @@
       <c r="AK57" t="n">
         <v>-1.032472819483914</v>
       </c>
+      <c r="AL57" t="n">
+        <v>-1.035396752591495</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -6986,6 +7157,9 @@
       <c r="AK58" t="n">
         <v>-1.172769380579239</v>
       </c>
+      <c r="AL58" t="n">
+        <v>-1.175512946128208</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -7099,6 +7273,9 @@
       <c r="AK59" t="n">
         <v>-0.8499915221726024</v>
       </c>
+      <c r="AL59" t="n">
+        <v>-0.8525681772443184</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -7212,6 +7389,9 @@
       <c r="AK60" t="n">
         <v>-0.4811467148886544</v>
       </c>
+      <c r="AL60" t="n">
+        <v>-0.4830729151639299</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -7325,6 +7505,9 @@
       <c r="AK61" t="n">
         <v>0.3706109771096742</v>
       </c>
+      <c r="AL61" t="n">
+        <v>0.3699902704301152</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -7438,6 +7621,9 @@
       <c r="AK62" t="n">
         <v>-1.306107903994733</v>
       </c>
+      <c r="AL62" t="n">
+        <v>-1.309516502870231</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -7551,6 +7737,9 @@
       <c r="AK63" t="n">
         <v>-0.6012660759541238</v>
       </c>
+      <c r="AL63" t="n">
+        <v>-0.6035677365070423</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -7664,6 +7853,9 @@
       <c r="AK64" t="n">
         <v>-0.9252048890793723</v>
       </c>
+      <c r="AL64" t="n">
+        <v>-0.9286305098693908</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -7777,6 +7969,9 @@
       <c r="AK65" t="n">
         <v>-0.08118223149793645</v>
       </c>
+      <c r="AL65" t="n">
+        <v>-0.08262343780268923</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -7890,6 +8085,9 @@
       <c r="AK66" t="n">
         <v>-0.8590521778551891</v>
       </c>
+      <c r="AL66" t="n">
+        <v>-0.8611965922555707</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -8002,6 +8200,9 @@
       </c>
       <c r="AK67" t="n">
         <v>-0.8443780318806534</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>-0.8461186001321291</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_11.xlsx
+++ b/predicted_variables_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL67"/>
+  <dimension ref="A1:AM67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,6 +548,9 @@
       <c r="AL1" s="1" t="n">
         <v>37</v>
       </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -664,6 +667,9 @@
       <c r="AL2" t="n">
         <v>-0.2618163251702488</v>
       </c>
+      <c r="AM2" t="n">
+        <v>-0.2634505467248199</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -780,6 +786,9 @@
       <c r="AL3" t="n">
         <v>0.2245958096268903</v>
       </c>
+      <c r="AM3" t="n">
+        <v>0.2233776504535703</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -896,6 +905,9 @@
       <c r="AL4" t="n">
         <v>0.2089525515436447</v>
       </c>
+      <c r="AM4" t="n">
+        <v>0.2073950418266185</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1012,6 +1024,9 @@
       <c r="AL5" t="n">
         <v>-0.08610456909026648</v>
       </c>
+      <c r="AM5" t="n">
+        <v>-0.08724278108932887</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1128,6 +1143,9 @@
       <c r="AL6" t="n">
         <v>0.1782526057756106</v>
       </c>
+      <c r="AM6" t="n">
+        <v>0.1774729769804932</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1244,6 +1262,9 @@
       <c r="AL7" t="n">
         <v>-0.4211638488385885</v>
       </c>
+      <c r="AM7" t="n">
+        <v>-0.4231486688988813</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1360,6 +1381,9 @@
       <c r="AL8" t="n">
         <v>-0.1502450198409321</v>
       </c>
+      <c r="AM8" t="n">
+        <v>-0.1516524222460484</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1476,6 +1500,9 @@
       <c r="AL9" t="n">
         <v>-0.3421142252104164</v>
       </c>
+      <c r="AM9" t="n">
+        <v>-0.344507161143893</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1592,6 +1619,9 @@
       <c r="AL10" t="n">
         <v>0.3797878761403033</v>
       </c>
+      <c r="AM10" t="n">
+        <v>0.379035677241392</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1708,6 +1738,9 @@
       <c r="AL11" t="n">
         <v>-0.2230018395175236</v>
       </c>
+      <c r="AM11" t="n">
+        <v>-0.2245898610556183</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1824,6 +1857,9 @@
       <c r="AL12" t="n">
         <v>-0.1245253661478805</v>
       </c>
+      <c r="AM12" t="n">
+        <v>-0.125989237855141</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1940,6 +1976,9 @@
       <c r="AL13" t="n">
         <v>-0.06825919379032236</v>
       </c>
+      <c r="AM13" t="n">
+        <v>-0.06927274864647841</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2056,6 +2095,9 @@
       <c r="AL14" t="n">
         <v>0.01601090940097036</v>
       </c>
+      <c r="AM14" t="n">
+        <v>0.01441196435125088</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2172,6 +2214,9 @@
       <c r="AL15" t="n">
         <v>-0.1404563869381073</v>
       </c>
+      <c r="AM15" t="n">
+        <v>-0.1422376006821296</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2288,6 +2333,9 @@
       <c r="AL16" t="n">
         <v>0.2714649589189309</v>
       </c>
+      <c r="AM16" t="n">
+        <v>0.2696579413221802</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2404,6 +2452,9 @@
       <c r="AL17" t="n">
         <v>0.4028080164010192</v>
       </c>
+      <c r="AM17" t="n">
+        <v>0.4022698382558402</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2520,6 +2571,9 @@
       <c r="AL18" t="n">
         <v>-0.1748749241700267</v>
       </c>
+      <c r="AM18" t="n">
+        <v>-0.1759067245762584</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2636,6 +2690,9 @@
       <c r="AL19" t="n">
         <v>0.2698303096213902</v>
       </c>
+      <c r="AM19" t="n">
+        <v>0.2685882068214639</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2752,6 +2809,9 @@
       <c r="AL20" t="n">
         <v>0.1621905199019229</v>
       </c>
+      <c r="AM20" t="n">
+        <v>0.1604901449321529</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2868,6 +2928,9 @@
       <c r="AL21" t="n">
         <v>0.4620458395373297</v>
       </c>
+      <c r="AM21" t="n">
+        <v>0.4616145827626681</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2984,6 +3047,9 @@
       <c r="AL22" t="n">
         <v>0.2297733263479211</v>
       </c>
+      <c r="AM22" t="n">
+        <v>0.2291300904219002</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3100,6 +3166,9 @@
       <c r="AL23" t="n">
         <v>-0.1965706079967963</v>
       </c>
+      <c r="AM23" t="n">
+        <v>-0.1974005453937603</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3216,6 +3285,9 @@
       <c r="AL24" t="n">
         <v>1.236002421501566</v>
       </c>
+      <c r="AM24" t="n">
+        <v>1.263470678184145</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3332,6 +3404,9 @@
       <c r="AL25" t="n">
         <v>0.3296289875225624</v>
       </c>
+      <c r="AM25" t="n">
+        <v>0.3304051763921934</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3448,6 +3523,9 @@
       <c r="AL26" t="n">
         <v>0.1398239901356238</v>
       </c>
+      <c r="AM26" t="n">
+        <v>0.1409457568976421</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3564,6 +3642,9 @@
       <c r="AL27" t="n">
         <v>0.04611518574121786</v>
       </c>
+      <c r="AM27" t="n">
+        <v>0.04766383395193687</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3680,6 +3761,9 @@
       <c r="AL28" t="n">
         <v>0.8479626815796577</v>
       </c>
+      <c r="AM28" t="n">
+        <v>0.8508529437871075</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3796,6 +3880,9 @@
       <c r="AL29" t="n">
         <v>1.670124716765537</v>
       </c>
+      <c r="AM29" t="n">
+        <v>1.688703651547897</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3912,6 +3999,9 @@
       <c r="AL30" t="n">
         <v>0.6773162980994194</v>
       </c>
+      <c r="AM30" t="n">
+        <v>0.6789508431593257</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4028,6 +4118,9 @@
       <c r="AL31" t="n">
         <v>-0.4226040291882807</v>
       </c>
+      <c r="AM31" t="n">
+        <v>-0.4225358649334907</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4144,6 +4237,9 @@
       <c r="AL32" t="n">
         <v>0.5597636524247974</v>
       </c>
+      <c r="AM32" t="n">
+        <v>0.5612019971251161</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4260,6 +4356,9 @@
       <c r="AL33" t="n">
         <v>0.7726357491878314</v>
       </c>
+      <c r="AM33" t="n">
+        <v>0.7735859882938448</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4376,6 +4475,9 @@
       <c r="AL34" t="n">
         <v>-0.8433579323767095</v>
       </c>
+      <c r="AM34" t="n">
+        <v>-0.8434157304915165</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4492,6 +4594,9 @@
       <c r="AL35" t="n">
         <v>0.8290705982317954</v>
       </c>
+      <c r="AM35" t="n">
+        <v>0.829793147615847</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4608,6 +4713,9 @@
       <c r="AL36" t="n">
         <v>0.7994839448310805</v>
       </c>
+      <c r="AM36" t="n">
+        <v>0.8000974005153153</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4724,6 +4832,9 @@
       <c r="AL37" t="n">
         <v>0.76591134331656</v>
       </c>
+      <c r="AM37" t="n">
+        <v>0.7665648086914574</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4840,6 +4951,9 @@
       <c r="AL38" t="n">
         <v>0.663163381495627</v>
       </c>
+      <c r="AM38" t="n">
+        <v>0.6636379261980405</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4956,6 +5070,9 @@
       <c r="AL39" t="n">
         <v>0.6146323456726432</v>
       </c>
+      <c r="AM39" t="n">
+        <v>0.6147448670905497</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5072,6 +5189,9 @@
       <c r="AL40" t="n">
         <v>0.7905158640453511</v>
       </c>
+      <c r="AM40" t="n">
+        <v>0.7912522425899537</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5188,6 +5308,9 @@
       <c r="AL41" t="n">
         <v>0.5862175730529373</v>
       </c>
+      <c r="AM41" t="n">
+        <v>0.5862460182112134</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5304,6 +5427,9 @@
       <c r="AL42" t="n">
         <v>0.6549370828988247</v>
       </c>
+      <c r="AM42" t="n">
+        <v>0.6555756154489687</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5420,6 +5546,9 @@
       <c r="AL43" t="n">
         <v>0.6924466559257383</v>
       </c>
+      <c r="AM43" t="n">
+        <v>0.69275933794429</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5536,6 +5665,9 @@
       <c r="AL44" t="n">
         <v>0.7178198107849688</v>
       </c>
+      <c r="AM44" t="n">
+        <v>0.7180170516955829</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5652,6 +5784,9 @@
       <c r="AL45" t="n">
         <v>0.7368376214043639</v>
       </c>
+      <c r="AM45" t="n">
+        <v>0.737222491035975</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5768,6 +5903,9 @@
       <c r="AL46" t="n">
         <v>-1.366415219910564</v>
       </c>
+      <c r="AM46" t="n">
+        <v>-1.369391937757296</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5884,6 +6022,9 @@
       <c r="AL47" t="n">
         <v>-1.066222955737656</v>
       </c>
+      <c r="AM47" t="n">
+        <v>-1.068669302687215</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6000,6 +6141,9 @@
       <c r="AL48" t="n">
         <v>-0.926582580028861</v>
       </c>
+      <c r="AM48" t="n">
+        <v>-0.9292892019235639</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6116,6 +6260,9 @@
       <c r="AL49" t="n">
         <v>-0.6844797100570558</v>
       </c>
+      <c r="AM49" t="n">
+        <v>-0.6867165258908143</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6232,6 +6379,9 @@
       <c r="AL50" t="n">
         <v>-0.0973308852717602</v>
       </c>
+      <c r="AM50" t="n">
+        <v>-0.09853257237685728</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6348,6 +6498,9 @@
       <c r="AL51" t="n">
         <v>-0.8977453766559778</v>
       </c>
+      <c r="AM51" t="n">
+        <v>-0.9000476862480375</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -6464,6 +6617,9 @@
       <c r="AL52" t="n">
         <v>-0.8977453766559778</v>
       </c>
+      <c r="AM52" t="n">
+        <v>-0.9000476862480375</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -6580,6 +6736,9 @@
       <c r="AL53" t="n">
         <v>-1.201643107553328</v>
       </c>
+      <c r="AM53" t="n">
+        <v>-1.204832199885929</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -6696,6 +6855,9 @@
       <c r="AL54" t="n">
         <v>-0.2100762564912464</v>
       </c>
+      <c r="AM54" t="n">
+        <v>-0.2116536557141682</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -6812,6 +6974,9 @@
       <c r="AL55" t="n">
         <v>-1.091803484088295</v>
       </c>
+      <c r="AM55" t="n">
+        <v>-1.094381762990621</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -6928,6 +7093,9 @@
       <c r="AL56" t="n">
         <v>-0.9598797202968354</v>
       </c>
+      <c r="AM56" t="n">
+        <v>-0.961741648367317</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -7044,6 +7212,9 @@
       <c r="AL57" t="n">
         <v>-1.035396752591495</v>
       </c>
+      <c r="AM57" t="n">
+        <v>-1.038081337027093</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -7160,6 +7331,9 @@
       <c r="AL58" t="n">
         <v>-1.175512946128208</v>
       </c>
+      <c r="AM58" t="n">
+        <v>-1.178008650181447</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -7276,6 +7450,9 @@
       <c r="AL59" t="n">
         <v>-0.8525681772443184</v>
       </c>
+      <c r="AM59" t="n">
+        <v>-0.8550006452601375</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -7392,6 +7569,9 @@
       <c r="AL60" t="n">
         <v>-0.4830729151639299</v>
       </c>
+      <c r="AM60" t="n">
+        <v>-0.4848194976734843</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -7508,6 +7688,9 @@
       <c r="AL61" t="n">
         <v>0.3699902704301152</v>
       </c>
+      <c r="AM61" t="n">
+        <v>0.3694075943802021</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -7624,6 +7807,9 @@
       <c r="AL62" t="n">
         <v>-1.309516502870231</v>
       </c>
+      <c r="AM62" t="n">
+        <v>-1.312637293652696</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -7740,6 +7926,9 @@
       <c r="AL63" t="n">
         <v>-0.6035677365070423</v>
       </c>
+      <c r="AM63" t="n">
+        <v>-0.6057131054757688</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -7856,6 +8045,9 @@
       <c r="AL64" t="n">
         <v>-0.9286305098693908</v>
       </c>
+      <c r="AM64" t="n">
+        <v>-0.9318497220704129</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -7972,6 +8164,9 @@
       <c r="AL65" t="n">
         <v>-0.08262343780268923</v>
       </c>
+      <c r="AM65" t="n">
+        <v>-0.08392599959483445</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -8088,6 +8283,9 @@
       <c r="AL66" t="n">
         <v>-0.8611965922555707</v>
       </c>
+      <c r="AM66" t="n">
+        <v>-0.8631084984220811</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -8203,6 +8401,9 @@
       </c>
       <c r="AL67" t="n">
         <v>-0.8461186001321291</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>-0.8476208543588879</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_11.xlsx
+++ b/predicted_variables_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM67"/>
+  <dimension ref="A1:AN67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,6 +551,9 @@
       <c r="AM1" s="1" t="n">
         <v>38</v>
       </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -670,6 +673,9 @@
       <c r="AM2" t="n">
         <v>-0.2634505467248199</v>
       </c>
+      <c r="AN2" t="n">
+        <v>-0.264948365027709</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -789,6 +795,9 @@
       <c r="AM3" t="n">
         <v>0.2233776504535703</v>
       </c>
+      <c r="AN3" t="n">
+        <v>0.2223214706394358</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -908,6 +917,9 @@
       <c r="AM4" t="n">
         <v>0.2073950418266185</v>
       </c>
+      <c r="AN4" t="n">
+        <v>0.2059778634628571</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1027,6 +1039,9 @@
       <c r="AM5" t="n">
         <v>-0.08724278108932887</v>
       </c>
+      <c r="AN5" t="n">
+        <v>-0.08826609807080349</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1146,6 +1161,9 @@
       <c r="AM6" t="n">
         <v>0.1774729769804932</v>
       </c>
+      <c r="AN6" t="n">
+        <v>0.1768327406108585</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1265,6 +1283,9 @@
       <c r="AM7" t="n">
         <v>-0.4231486688988813</v>
       </c>
+      <c r="AN7" t="n">
+        <v>-0.4249944161858919</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1384,6 +1405,9 @@
       <c r="AM8" t="n">
         <v>-0.1516524222460484</v>
       </c>
+      <c r="AN8" t="n">
+        <v>-0.1529688620611693</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1503,6 +1527,9 @@
       <c r="AM9" t="n">
         <v>-0.344507161143893</v>
       </c>
+      <c r="AN9" t="n">
+        <v>-0.3466774988701001</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1622,6 +1649,9 @@
       <c r="AM10" t="n">
         <v>0.379035677241392</v>
       </c>
+      <c r="AN10" t="n">
+        <v>0.3784019267310308</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1741,6 +1771,9 @@
       <c r="AM11" t="n">
         <v>-0.2245898610556183</v>
       </c>
+      <c r="AN11" t="n">
+        <v>-0.2260681922876094</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1860,6 +1893,9 @@
       <c r="AM12" t="n">
         <v>-0.125989237855141</v>
       </c>
+      <c r="AN12" t="n">
+        <v>-0.1272233434937343</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1979,6 +2015,9 @@
       <c r="AM13" t="n">
         <v>-0.06927274864647841</v>
       </c>
+      <c r="AN13" t="n">
+        <v>-0.07020868900876459</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2098,6 +2137,9 @@
       <c r="AM14" t="n">
         <v>0.01441196435125088</v>
       </c>
+      <c r="AN14" t="n">
+        <v>0.01322053622212398</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2217,6 +2259,9 @@
       <c r="AM15" t="n">
         <v>-0.1422376006821296</v>
       </c>
+      <c r="AN15" t="n">
+        <v>-0.1435405710364865</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2336,6 +2381,9 @@
       <c r="AM16" t="n">
         <v>0.2696579413221802</v>
       </c>
+      <c r="AN16" t="n">
+        <v>0.2684518192458665</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2455,6 +2503,9 @@
       <c r="AM17" t="n">
         <v>0.4022698382558402</v>
       </c>
+      <c r="AN17" t="n">
+        <v>0.4021271772639537</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2574,6 +2625,9 @@
       <c r="AM18" t="n">
         <v>-0.1759067245762584</v>
       </c>
+      <c r="AN18" t="n">
+        <v>-0.1767858954903309</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2693,6 +2747,9 @@
       <c r="AM19" t="n">
         <v>0.2685882068214639</v>
       </c>
+      <c r="AN19" t="n">
+        <v>0.2675863145615288</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2812,6 +2869,9 @@
       <c r="AM20" t="n">
         <v>0.1604901449321529</v>
       </c>
+      <c r="AN20" t="n">
+        <v>0.1593677666977293</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2931,6 +2991,9 @@
       <c r="AM21" t="n">
         <v>0.4616145827626681</v>
       </c>
+      <c r="AN21" t="n">
+        <v>0.4615649839311262</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3050,6 +3113,9 @@
       <c r="AM22" t="n">
         <v>0.2291300904219002</v>
       </c>
+      <c r="AN22" t="n">
+        <v>0.228863423403097</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3169,6 +3235,9 @@
       <c r="AM23" t="n">
         <v>-0.1974005453937603</v>
       </c>
+      <c r="AN23" t="n">
+        <v>-0.1979182178983882</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3288,6 +3357,9 @@
       <c r="AM24" t="n">
         <v>1.263470678184145</v>
       </c>
+      <c r="AN24" t="n">
+        <v>1.289649403816666</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3407,6 +3479,9 @@
       <c r="AM25" t="n">
         <v>0.3304051763921934</v>
       </c>
+      <c r="AN25" t="n">
+        <v>0.3310411494507137</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3526,6 +3601,9 @@
       <c r="AM26" t="n">
         <v>0.1409457568976421</v>
       </c>
+      <c r="AN26" t="n">
+        <v>0.1419293252107365</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3645,6 +3723,9 @@
       <c r="AM27" t="n">
         <v>0.04766383395193687</v>
       </c>
+      <c r="AN27" t="n">
+        <v>0.04904122377452834</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3764,6 +3845,9 @@
       <c r="AM28" t="n">
         <v>0.8508529437871075</v>
       </c>
+      <c r="AN28" t="n">
+        <v>0.8534586317230872</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3883,6 +3967,9 @@
       <c r="AM29" t="n">
         <v>1.688703651547897</v>
       </c>
+      <c r="AN29" t="n">
+        <v>1.705552508161797</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4002,6 +4089,9 @@
       <c r="AM30" t="n">
         <v>0.6789508431593257</v>
       </c>
+      <c r="AN30" t="n">
+        <v>0.6803431419381026</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4121,6 +4211,9 @@
       <c r="AM31" t="n">
         <v>-0.4225358649334907</v>
       </c>
+      <c r="AN31" t="n">
+        <v>-0.422686555772475</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4240,6 +4333,9 @@
       <c r="AM32" t="n">
         <v>0.5612019971251161</v>
       </c>
+      <c r="AN32" t="n">
+        <v>0.5624512382639305</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4359,6 +4455,9 @@
       <c r="AM33" t="n">
         <v>0.7735859882938448</v>
       </c>
+      <c r="AN33" t="n">
+        <v>0.7743871434077374</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4478,6 +4577,9 @@
       <c r="AM34" t="n">
         <v>-0.8434157304915165</v>
       </c>
+      <c r="AN34" t="n">
+        <v>-0.8436203052554361</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4597,6 +4699,9 @@
       <c r="AM35" t="n">
         <v>0.829793147615847</v>
       </c>
+      <c r="AN35" t="n">
+        <v>0.830389362896053</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4716,6 +4821,9 @@
       <c r="AM36" t="n">
         <v>0.8000974005153153</v>
       </c>
+      <c r="AN36" t="n">
+        <v>0.8005331837311805</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4835,6 +4943,9 @@
       <c r="AM37" t="n">
         <v>0.7665648086914574</v>
       </c>
+      <c r="AN37" t="n">
+        <v>0.7670307010396422</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4954,6 +5065,9 @@
       <c r="AM38" t="n">
         <v>0.6636379261980405</v>
       </c>
+      <c r="AN38" t="n">
+        <v>0.6640014318649451</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5073,6 +5187,9 @@
       <c r="AM39" t="n">
         <v>0.6147448670905497</v>
       </c>
+      <c r="AN39" t="n">
+        <v>0.614781483188602</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5192,6 +5309,9 @@
       <c r="AM40" t="n">
         <v>0.7912522425899537</v>
       </c>
+      <c r="AN40" t="n">
+        <v>0.7918733616214366</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5311,6 +5431,9 @@
       <c r="AM41" t="n">
         <v>0.5862460182112134</v>
       </c>
+      <c r="AN41" t="n">
+        <v>0.58622661586072</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5430,6 +5553,9 @@
       <c r="AM42" t="n">
         <v>0.6555756154489687</v>
       </c>
+      <c r="AN42" t="n">
+        <v>0.6560035799469046</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5549,6 +5675,9 @@
       <c r="AM43" t="n">
         <v>0.69275933794429</v>
       </c>
+      <c r="AN43" t="n">
+        <v>0.6929753783224032</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5668,6 +5797,9 @@
       <c r="AM44" t="n">
         <v>0.7180170516955829</v>
       </c>
+      <c r="AN44" t="n">
+        <v>0.7181225862251186</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5787,6 +5919,9 @@
       <c r="AM45" t="n">
         <v>0.737222491035975</v>
       </c>
+      <c r="AN45" t="n">
+        <v>0.7373917846655152</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5906,6 +6041,9 @@
       <c r="AM46" t="n">
         <v>-1.369391937757296</v>
       </c>
+      <c r="AN46" t="n">
+        <v>-1.372273541869043</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6025,6 +6163,9 @@
       <c r="AM47" t="n">
         <v>-1.068669302687215</v>
       </c>
+      <c r="AN47" t="n">
+        <v>-1.071048411624453</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6144,6 +6285,9 @@
       <c r="AM48" t="n">
         <v>-0.9292892019235639</v>
       </c>
+      <c r="AN48" t="n">
+        <v>-0.9319310107590103</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6263,6 +6407,9 @@
       <c r="AM49" t="n">
         <v>-0.6867165258908143</v>
       </c>
+      <c r="AN49" t="n">
+        <v>-0.6888924336896016</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6382,6 +6529,9 @@
       <c r="AM50" t="n">
         <v>-0.09853257237685728</v>
       </c>
+      <c r="AN50" t="n">
+        <v>-0.09969429391398124</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6501,6 +6651,9 @@
       <c r="AM51" t="n">
         <v>-0.9000476862480375</v>
       </c>
+      <c r="AN51" t="n">
+        <v>-0.9023150110898692</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -6620,6 +6773,9 @@
       <c r="AM52" t="n">
         <v>-0.9000476862480375</v>
       </c>
+      <c r="AN52" t="n">
+        <v>-0.9023150110898692</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -6739,6 +6895,9 @@
       <c r="AM53" t="n">
         <v>-1.204832199885929</v>
       </c>
+      <c r="AN53" t="n">
+        <v>-1.207950076711492</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -6858,6 +7017,9 @@
       <c r="AM54" t="n">
         <v>-0.2116536557141682</v>
       </c>
+      <c r="AN54" t="n">
+        <v>-0.2131799509846306</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -6977,6 +7139,9 @@
       <c r="AM55" t="n">
         <v>-1.094381762990621</v>
       </c>
+      <c r="AN55" t="n">
+        <v>-1.096884302039878</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7096,6 +7261,9 @@
       <c r="AM56" t="n">
         <v>-0.961741648367317</v>
       </c>
+      <c r="AN56" t="n">
+        <v>-0.9635368074648957</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -7215,6 +7383,9 @@
       <c r="AM57" t="n">
         <v>-1.038081337027093</v>
       </c>
+      <c r="AN57" t="n">
+        <v>-1.040546208932472</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -7334,6 +7505,9 @@
       <c r="AM58" t="n">
         <v>-1.178008650181447</v>
       </c>
+      <c r="AN58" t="n">
+        <v>-1.180278029533968</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -7453,6 +7627,9 @@
       <c r="AM59" t="n">
         <v>-0.8550006452601375</v>
       </c>
+      <c r="AN59" t="n">
+        <v>-0.8572935176769021</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -7572,6 +7749,9 @@
       <c r="AM60" t="n">
         <v>-0.4848194976734843</v>
       </c>
+      <c r="AN60" t="n">
+        <v>-0.486400292191445</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -7691,6 +7871,9 @@
       <c r="AM61" t="n">
         <v>0.3694075943802021</v>
       </c>
+      <c r="AN61" t="n">
+        <v>0.3688615804658987</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -7810,6 +7993,9 @@
       <c r="AM62" t="n">
         <v>-1.312637293652696</v>
       </c>
+      <c r="AN62" t="n">
+        <v>-1.315494690814736</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -7929,6 +8115,9 @@
       <c r="AM63" t="n">
         <v>-0.6057131054757688</v>
       </c>
+      <c r="AN63" t="n">
+        <v>-0.6077046066973425</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -8048,6 +8237,9 @@
       <c r="AM64" t="n">
         <v>-0.9318497220704129</v>
       </c>
+      <c r="AN64" t="n">
+        <v>-0.9348674980078151</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -8167,6 +8359,9 @@
       <c r="AM65" t="n">
         <v>-0.08392599959483445</v>
       </c>
+      <c r="AN65" t="n">
+        <v>-0.08510116951583632</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -8286,6 +8481,9 @@
       <c r="AM66" t="n">
         <v>-0.8631084984220811</v>
       </c>
+      <c r="AN66" t="n">
+        <v>-0.8648137050258061</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -8404,6 +8602,9 @@
       </c>
       <c r="AM67" t="n">
         <v>-0.8476208543588879</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>-0.848918138103775</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_11.xlsx
+++ b/predicted_variables_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN67"/>
+  <dimension ref="A1:AO67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,6 +554,9 @@
       <c r="AN1" s="1" t="n">
         <v>39</v>
       </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -676,6 +679,9 @@
       <c r="AN2" t="n">
         <v>-0.264948365027709</v>
       </c>
+      <c r="AO2" t="n">
+        <v>-0.2663170524233084</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -798,6 +804,9 @@
       <c r="AN3" t="n">
         <v>0.2223214706394358</v>
       </c>
+      <c r="AO3" t="n">
+        <v>0.2214149906812726</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -920,6 +929,9 @@
       <c r="AN4" t="n">
         <v>0.2059778634628571</v>
       </c>
+      <c r="AO4" t="n">
+        <v>0.2046951872807093</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1042,6 +1054,9 @@
       <c r="AN5" t="n">
         <v>-0.08826609807080349</v>
       </c>
+      <c r="AO5" t="n">
+        <v>-0.08918441693470257</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1164,6 +1179,9 @@
       <c r="AN6" t="n">
         <v>0.1768327406108585</v>
       </c>
+      <c r="AO6" t="n">
+        <v>0.1763179701827121</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1286,6 +1304,9 @@
       <c r="AN7" t="n">
         <v>-0.4249944161858919</v>
       </c>
+      <c r="AO7" t="n">
+        <v>-0.4267059292092134</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1408,6 +1429,9 @@
       <c r="AN8" t="n">
         <v>-0.1529688620611693</v>
       </c>
+      <c r="AO8" t="n">
+        <v>-0.1541930678403663</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1530,6 +1554,9 @@
       <c r="AN9" t="n">
         <v>-0.3466774988701001</v>
       </c>
+      <c r="AO9" t="n">
+        <v>-0.3486338447093295</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1652,6 +1679,9 @@
       <c r="AN10" t="n">
         <v>0.3784019267310308</v>
       </c>
+      <c r="AO10" t="n">
+        <v>0.3778742213236751</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1774,6 +1804,9 @@
       <c r="AN11" t="n">
         <v>-0.2260681922876094</v>
       </c>
+      <c r="AO11" t="n">
+        <v>-0.2274417001976681</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1896,6 +1929,9 @@
       <c r="AN12" t="n">
         <v>-0.1272233434937343</v>
       </c>
+      <c r="AO12" t="n">
+        <v>-0.1282544488651766</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2018,6 +2054,9 @@
       <c r="AN13" t="n">
         <v>-0.07020868900876459</v>
       </c>
+      <c r="AO13" t="n">
+        <v>-0.07107337978725095</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2140,6 +2179,9 @@
       <c r="AN14" t="n">
         <v>0.01322053622212398</v>
       </c>
+      <c r="AO14" t="n">
+        <v>0.01238563166212431</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2262,6 +2304,9 @@
       <c r="AN15" t="n">
         <v>-0.1435405710364865</v>
       </c>
+      <c r="AO15" t="n">
+        <v>-0.144430448788809</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2384,6 +2429,9 @@
       <c r="AN16" t="n">
         <v>0.2684518192458665</v>
       </c>
+      <c r="AO16" t="n">
+        <v>0.267766090046881</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2506,6 +2554,9 @@
       <c r="AN17" t="n">
         <v>0.4021271772639537</v>
       </c>
+      <c r="AO17" t="n">
+        <v>0.4023154028673793</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2628,6 +2679,9 @@
       <c r="AN18" t="n">
         <v>-0.1767858954903309</v>
       </c>
+      <c r="AO18" t="n">
+        <v>-0.1775320541903425</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2750,6 +2804,9 @@
       <c r="AN19" t="n">
         <v>0.2675863145615288</v>
       </c>
+      <c r="AO19" t="n">
+        <v>0.2667918631699447</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2872,6 +2929,9 @@
       <c r="AN20" t="n">
         <v>0.1593677666977293</v>
       </c>
+      <c r="AO20" t="n">
+        <v>0.1587421216785433</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2994,6 +3054,9 @@
       <c r="AN21" t="n">
         <v>0.4615649839311262</v>
       </c>
+      <c r="AO21" t="n">
+        <v>0.4618341244085264</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3116,6 +3179,9 @@
       <c r="AN22" t="n">
         <v>0.228863423403097</v>
       </c>
+      <c r="AO22" t="n">
+        <v>0.2289139227084742</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3238,6 +3304,9 @@
       <c r="AN23" t="n">
         <v>-0.1979182178983882</v>
       </c>
+      <c r="AO23" t="n">
+        <v>-0.1981727310633679</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3360,6 +3429,9 @@
       <c r="AN24" t="n">
         <v>1.289649403816666</v>
       </c>
+      <c r="AO24" t="n">
+        <v>1.314274590301202</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3482,6 +3554,9 @@
       <c r="AN25" t="n">
         <v>0.3310411494507137</v>
       </c>
+      <c r="AO25" t="n">
+        <v>0.3315500058538165</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3604,6 +3679,9 @@
       <c r="AN26" t="n">
         <v>0.1419293252107365</v>
       </c>
+      <c r="AO26" t="n">
+        <v>0.1427750358634333</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3726,6 +3804,9 @@
       <c r="AN27" t="n">
         <v>0.04904122377452834</v>
       </c>
+      <c r="AO27" t="n">
+        <v>0.0502500702977221</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3848,6 +3929,9 @@
       <c r="AN28" t="n">
         <v>0.8534586317230872</v>
       </c>
+      <c r="AO28" t="n">
+        <v>0.8557896803366164</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3970,6 +4054,9 @@
       <c r="AN29" t="n">
         <v>1.705552508161797</v>
       </c>
+      <c r="AO29" t="n">
+        <v>1.720647820590402</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4092,6 +4179,9 @@
       <c r="AN30" t="n">
         <v>0.6803431419381026</v>
       </c>
+      <c r="AO30" t="n">
+        <v>0.681508304603592</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4214,6 +4304,9 @@
       <c r="AN31" t="n">
         <v>-0.422686555772475</v>
       </c>
+      <c r="AO31" t="n">
+        <v>-0.4230261852800014</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4336,6 +4429,9 @@
       <c r="AN32" t="n">
         <v>0.5624512382639305</v>
       </c>
+      <c r="AO32" t="n">
+        <v>0.5635184253630235</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4458,6 +4554,9 @@
       <c r="AN33" t="n">
         <v>0.7743871434077374</v>
       </c>
+      <c r="AO33" t="n">
+        <v>0.7750496506461391</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4580,6 +4679,9 @@
       <c r="AN34" t="n">
         <v>-0.8436203052554361</v>
       </c>
+      <c r="AO34" t="n">
+        <v>-0.8439573742502215</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4702,6 +4804,9 @@
       <c r="AN35" t="n">
         <v>0.830389362896053</v>
       </c>
+      <c r="AO35" t="n">
+        <v>0.8308724024840696</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4824,6 +4929,9 @@
       <c r="AN36" t="n">
         <v>0.8005331837311805</v>
       </c>
+      <c r="AO36" t="n">
+        <v>0.8008147733205788</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4946,6 +5054,9 @@
       <c r="AN37" t="n">
         <v>0.7670307010396422</v>
       </c>
+      <c r="AO37" t="n">
+        <v>0.7673336754680844</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5068,6 +5179,9 @@
       <c r="AN38" t="n">
         <v>0.6640014318649451</v>
       </c>
+      <c r="AO38" t="n">
+        <v>0.6642660257134286</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5190,6 +5304,9 @@
       <c r="AN39" t="n">
         <v>0.614781483188602</v>
       </c>
+      <c r="AO39" t="n">
+        <v>0.6147530131166038</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5312,6 +5429,9 @@
       <c r="AN40" t="n">
         <v>0.7918733616214366</v>
       </c>
+      <c r="AO40" t="n">
+        <v>0.7923903211762955</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5434,6 +5554,9 @@
       <c r="AN41" t="n">
         <v>0.58622661586072</v>
       </c>
+      <c r="AO41" t="n">
+        <v>0.5861692372201748</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5556,6 +5679,9 @@
       <c r="AN42" t="n">
         <v>0.6560035799469046</v>
       </c>
+      <c r="AO42" t="n">
+        <v>0.6562468868314798</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5678,6 +5804,9 @@
       <c r="AN43" t="n">
         <v>0.6929753783224032</v>
       </c>
+      <c r="AO43" t="n">
+        <v>0.6931073194679845</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5800,6 +5929,9 @@
       <c r="AN44" t="n">
         <v>0.7181225862251186</v>
       </c>
+      <c r="AO44" t="n">
+        <v>0.7181506303794197</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5922,6 +6054,9 @@
       <c r="AN45" t="n">
         <v>0.7373917846655152</v>
       </c>
+      <c r="AO45" t="n">
+        <v>0.737377853951471</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6044,6 +6179,9 @@
       <c r="AN46" t="n">
         <v>-1.372273541869043</v>
       </c>
+      <c r="AO46" t="n">
+        <v>-1.375058571659592</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6166,6 +6304,9 @@
       <c r="AN47" t="n">
         <v>-1.071048411624453</v>
       </c>
+      <c r="AO47" t="n">
+        <v>-1.073357519365731</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6288,6 +6429,9 @@
       <c r="AN48" t="n">
         <v>-0.9319310107590103</v>
       </c>
+      <c r="AO48" t="n">
+        <v>-0.934500801295062</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6410,6 +6554,9 @@
       <c r="AN49" t="n">
         <v>-0.6888924336896016</v>
       </c>
+      <c r="AO49" t="n">
+        <v>-0.6910027886962105</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6532,6 +6679,9 @@
       <c r="AN50" t="n">
         <v>-0.09969429391398124</v>
       </c>
+      <c r="AO50" t="n">
+        <v>-0.1008164629604197</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6654,6 +6804,9 @@
       <c r="AN51" t="n">
         <v>-0.9023150110898692</v>
       </c>
+      <c r="AO51" t="n">
+        <v>-0.9045382506980455</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -6776,6 +6929,9 @@
       <c r="AN52" t="n">
         <v>-0.9023150110898692</v>
       </c>
+      <c r="AO52" t="n">
+        <v>-0.9045382506980455</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -6898,6 +7054,9 @@
       <c r="AN53" t="n">
         <v>-1.207950076711492</v>
       </c>
+      <c r="AO53" t="n">
+        <v>-1.210988210064158</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7020,6 +7179,9 @@
       <c r="AN54" t="n">
         <v>-0.2131799509846306</v>
       </c>
+      <c r="AO54" t="n">
+        <v>-0.2146535230320922</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -7142,6 +7304,9 @@
       <c r="AN55" t="n">
         <v>-1.096884302039878</v>
       </c>
+      <c r="AO55" t="n">
+        <v>-1.099309224234821</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7264,6 +7429,9 @@
       <c r="AN56" t="n">
         <v>-0.9635368074648957</v>
       </c>
+      <c r="AO56" t="n">
+        <v>-0.9652683309980312</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -7386,6 +7554,9 @@
       <c r="AN57" t="n">
         <v>-1.040546208932472</v>
       </c>
+      <c r="AO57" t="n">
+        <v>-1.042810889553287</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -7508,6 +7679,9 @@
       <c r="AN58" t="n">
         <v>-1.180278029533968</v>
       </c>
+      <c r="AO58" t="n">
+        <v>-1.182342470740762</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -7630,6 +7804,9 @@
       <c r="AN59" t="n">
         <v>-0.8572935176769021</v>
       </c>
+      <c r="AO59" t="n">
+        <v>-0.8594524232020011</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -7752,6 +7929,9 @@
       <c r="AN60" t="n">
         <v>-0.486400292191445</v>
       </c>
+      <c r="AO60" t="n">
+        <v>-0.48782944799342</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -7874,6 +8054,9 @@
       <c r="AN61" t="n">
         <v>0.3688615804658987</v>
       </c>
+      <c r="AO61" t="n">
+        <v>0.3683505925842855</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -7996,6 +8179,9 @@
       <c r="AN62" t="n">
         <v>-1.315494690814736</v>
       </c>
+      <c r="AO62" t="n">
+        <v>-1.318112894385016</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -8118,6 +8304,9 @@
       <c r="AN63" t="n">
         <v>-0.6077046066973425</v>
       </c>
+      <c r="AO63" t="n">
+        <v>-0.6095466693971157</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -8240,6 +8429,9 @@
       <c r="AN64" t="n">
         <v>-0.9348674980078151</v>
       </c>
+      <c r="AO64" t="n">
+        <v>-0.937690687297438</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -8362,6 +8554,9 @@
       <c r="AN65" t="n">
         <v>-0.08510116951583632</v>
       </c>
+      <c r="AO65" t="n">
+        <v>-0.08616037806562736</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -8484,6 +8679,9 @@
       <c r="AN66" t="n">
         <v>-0.8648137050258061</v>
       </c>
+      <c r="AO66" t="n">
+        <v>-0.866336959316609</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -8605,6 +8803,9 @@
       </c>
       <c r="AN67" t="n">
         <v>-0.848918138103775</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>-0.8500415721414828</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_11.xlsx
+++ b/predicted_variables_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO67"/>
+  <dimension ref="A1:AP67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,6 +557,9 @@
       <c r="AO1" s="1" t="n">
         <v>40</v>
       </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -682,6 +685,9 @@
       <c r="AO2" t="n">
         <v>-0.2663170524233084</v>
       </c>
+      <c r="AP2" t="n">
+        <v>-0.2675646965722348</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -807,6 +813,9 @@
       <c r="AO3" t="n">
         <v>0.2214149906812726</v>
       </c>
+      <c r="AP3" t="n">
+        <v>0.2206453913731153</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -932,6 +941,9 @@
       <c r="AO4" t="n">
         <v>0.2046951872807093</v>
       </c>
+      <c r="AP4" t="n">
+        <v>0.2035399521132337</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1057,6 +1069,9 @@
       <c r="AO5" t="n">
         <v>-0.08918441693470257</v>
       </c>
+      <c r="AP5" t="n">
+        <v>-0.09000764221504864</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1182,6 +1197,9 @@
       <c r="AO6" t="n">
         <v>0.1763179701827121</v>
       </c>
+      <c r="AP6" t="n">
+        <v>0.1759147808316465</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1307,6 +1325,9 @@
       <c r="AO7" t="n">
         <v>-0.4267059292092134</v>
       </c>
+      <c r="AP7" t="n">
+        <v>-0.4282892160635095</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1432,6 +1453,9 @@
       <c r="AO8" t="n">
         <v>-0.1541930678403663</v>
       </c>
+      <c r="AP8" t="n">
+        <v>-0.1553254413278018</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1557,6 +1581,9 @@
       <c r="AO9" t="n">
         <v>-0.3486338447093295</v>
       </c>
+      <c r="AP9" t="n">
+        <v>-0.3503868763468272</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1682,6 +1709,9 @@
       <c r="AO10" t="n">
         <v>0.3778742213236751</v>
       </c>
+      <c r="AP10" t="n">
+        <v>0.3774403543409605</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1807,6 +1837,9 @@
       <c r="AO11" t="n">
         <v>-0.2274417001976681</v>
       </c>
+      <c r="AP11" t="n">
+        <v>-0.2287159521157292</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1932,6 +1965,9 @@
       <c r="AO12" t="n">
         <v>-0.1282544488651766</v>
       </c>
+      <c r="AP12" t="n">
+        <v>-0.1291083265536314</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2057,6 +2093,9 @@
       <c r="AO13" t="n">
         <v>-0.07107337978725095</v>
       </c>
+      <c r="AP13" t="n">
+        <v>-0.07187309097830163</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2182,6 +2221,9 @@
       <c r="AO14" t="n">
         <v>0.01238563166212431</v>
       </c>
+      <c r="AP14" t="n">
+        <v>0.01185822244713278</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2307,6 +2349,9 @@
       <c r="AO15" t="n">
         <v>-0.144430448788809</v>
       </c>
+      <c r="AP15" t="n">
+        <v>-0.1449690005564573</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2432,6 +2477,9 @@
       <c r="AO16" t="n">
         <v>0.267766090046881</v>
       </c>
+      <c r="AP16" t="n">
+        <v>0.2675239607018652</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2557,6 +2605,9 @@
       <c r="AO17" t="n">
         <v>0.4023154028673793</v>
       </c>
+      <c r="AP17" t="n">
+        <v>0.402774452094606</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2682,6 +2733,9 @@
       <c r="AO18" t="n">
         <v>-0.1775320541903425</v>
       </c>
+      <c r="AP18" t="n">
+        <v>-0.1781635678119249</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2807,6 +2861,9 @@
       <c r="AO19" t="n">
         <v>0.2667918631699447</v>
       </c>
+      <c r="AP19" t="n">
+        <v>0.2661740139039155</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2932,6 +2989,9 @@
       <c r="AO20" t="n">
         <v>0.1587421216785433</v>
       </c>
+      <c r="AP20" t="n">
+        <v>0.1585363028155503</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3057,6 +3117,9 @@
       <c r="AO21" t="n">
         <v>0.4618341244085264</v>
       </c>
+      <c r="AP21" t="n">
+        <v>0.462363412775915</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3182,6 +3245,9 @@
       <c r="AO22" t="n">
         <v>0.2289139227084742</v>
       </c>
+      <c r="AP22" t="n">
+        <v>0.2292261360248843</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3307,6 +3373,9 @@
       <c r="AO23" t="n">
         <v>-0.1981727310633679</v>
       </c>
+      <c r="AP23" t="n">
+        <v>-0.1982098008890265</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3432,6 +3501,9 @@
       <c r="AO24" t="n">
         <v>1.314274590301202</v>
       </c>
+      <c r="AP24" t="n">
+        <v>1.337152197038577</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3557,6 +3629,9 @@
       <c r="AO25" t="n">
         <v>0.3315500058538165</v>
       </c>
+      <c r="AP25" t="n">
+        <v>0.3319451094764154</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3682,6 +3757,9 @@
       <c r="AO26" t="n">
         <v>0.1427750358634333</v>
       </c>
+      <c r="AP26" t="n">
+        <v>0.1434858342676008</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3807,6 +3885,9 @@
       <c r="AO27" t="n">
         <v>0.0502500702977221</v>
       </c>
+      <c r="AP27" t="n">
+        <v>0.05129580433732166</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3932,6 +4013,9 @@
       <c r="AO28" t="n">
         <v>0.8557896803366164</v>
       </c>
+      <c r="AP28" t="n">
+        <v>0.8578591022226034</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4057,6 +4141,9 @@
       <c r="AO29" t="n">
         <v>1.720647820590402</v>
       </c>
+      <c r="AP29" t="n">
+        <v>1.73400334477629</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4182,6 +4269,9 @@
       <c r="AO30" t="n">
         <v>0.681508304603592</v>
       </c>
+      <c r="AP30" t="n">
+        <v>0.6824632536317026</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4307,6 +4397,9 @@
       <c r="AO31" t="n">
         <v>-0.4230261852800014</v>
       </c>
+      <c r="AP31" t="n">
+        <v>-0.4235257898012293</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4432,6 +4525,9 @@
       <c r="AO32" t="n">
         <v>0.5635184253630235</v>
       </c>
+      <c r="AP32" t="n">
+        <v>0.5644128282386695</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4557,6 +4653,9 @@
       <c r="AO33" t="n">
         <v>0.7750496506461391</v>
       </c>
+      <c r="AP33" t="n">
+        <v>0.7755848118156297</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4682,6 +4781,9 @@
       <c r="AO34" t="n">
         <v>-0.8439573742502215</v>
       </c>
+      <c r="AP34" t="n">
+        <v>-0.8444120825264024</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4807,6 +4909,9 @@
       <c r="AO35" t="n">
         <v>0.8308724024840696</v>
       </c>
+      <c r="AP35" t="n">
+        <v>0.8312552239219216</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4932,6 +5037,9 @@
       <c r="AO36" t="n">
         <v>0.8008147733205788</v>
       </c>
+      <c r="AP36" t="n">
+        <v>0.8009645710916283</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5057,6 +5165,9 @@
       <c r="AO37" t="n">
         <v>0.7673336754680844</v>
       </c>
+      <c r="AP37" t="n">
+        <v>0.7674972831887131</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5182,6 +5293,9 @@
       <c r="AO38" t="n">
         <v>0.6642660257134286</v>
       </c>
+      <c r="AP38" t="n">
+        <v>0.6644436957721465</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5307,6 +5421,9 @@
       <c r="AO39" t="n">
         <v>0.6147530131166038</v>
       </c>
+      <c r="AP39" t="n">
+        <v>0.6146697078098287</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5432,6 +5549,9 @@
       <c r="AO40" t="n">
         <v>0.7923903211762955</v>
       </c>
+      <c r="AP40" t="n">
+        <v>0.7928141509413438</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5557,6 +5677,9 @@
       <c r="AO41" t="n">
         <v>0.5861692372201748</v>
       </c>
+      <c r="AP41" t="n">
+        <v>0.5860828130916084</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5682,6 +5805,9 @@
       <c r="AO42" t="n">
         <v>0.6562468868314798</v>
       </c>
+      <c r="AP42" t="n">
+        <v>0.6563306594476163</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5807,6 +5933,9 @@
       <c r="AO43" t="n">
         <v>0.6931073194679845</v>
       </c>
+      <c r="AP43" t="n">
+        <v>0.6931672093081604</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5932,6 +6061,9 @@
       <c r="AO44" t="n">
         <v>0.7181506303794197</v>
       </c>
+      <c r="AP44" t="n">
+        <v>0.7181144616487406</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6057,6 +6189,9 @@
       <c r="AO45" t="n">
         <v>0.737377853951471</v>
       </c>
+      <c r="AP45" t="n">
+        <v>0.7372111106657846</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6182,6 +6317,9 @@
       <c r="AO46" t="n">
         <v>-1.375058571659592</v>
       </c>
+      <c r="AP46" t="n">
+        <v>-1.377746435777414</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6307,6 +6445,9 @@
       <c r="AO47" t="n">
         <v>-1.073357519365731</v>
       </c>
+      <c r="AP47" t="n">
+        <v>-1.075594644847699</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6432,6 +6573,9 @@
       <c r="AO48" t="n">
         <v>-0.934500801295062</v>
       </c>
+      <c r="AP48" t="n">
+        <v>-0.9369928795954356</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6557,6 +6701,9 @@
       <c r="AO49" t="n">
         <v>-0.6910027886962105</v>
       </c>
+      <c r="AP49" t="n">
+        <v>-0.6930440993606607</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6682,6 +6829,9 @@
       <c r="AO50" t="n">
         <v>-0.1008164629604197</v>
       </c>
+      <c r="AP50" t="n">
+        <v>-0.1018996746174971</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6807,6 +6957,9 @@
       <c r="AO51" t="n">
         <v>-0.9045382506980455</v>
       </c>
+      <c r="AP51" t="n">
+        <v>-0.9067097509925515</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -6932,6 +7085,9 @@
       <c r="AO52" t="n">
         <v>-0.9045382506980455</v>
       </c>
+      <c r="AP52" t="n">
+        <v>-0.9067097509925515</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -7057,6 +7213,9 @@
       <c r="AO53" t="n">
         <v>-1.210988210064158</v>
       </c>
+      <c r="AP53" t="n">
+        <v>-1.213939704548052</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7182,6 +7341,9 @@
       <c r="AO54" t="n">
         <v>-0.2146535230320922</v>
       </c>
+      <c r="AP54" t="n">
+        <v>-0.2160734250417753</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -7307,6 +7469,9 @@
       <c r="AO55" t="n">
         <v>-1.099309224234821</v>
       </c>
+      <c r="AP55" t="n">
+        <v>-1.10165537941599</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7432,6 +7597,9 @@
       <c r="AO56" t="n">
         <v>-0.9652683309980312</v>
       </c>
+      <c r="AP56" t="n">
+        <v>-0.9669392561967709</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -7557,6 +7725,9 @@
       <c r="AO57" t="n">
         <v>-1.042810889553287</v>
       </c>
+      <c r="AP57" t="n">
+        <v>-1.044894484881429</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -7682,6 +7853,9 @@
       <c r="AO58" t="n">
         <v>-1.182342470740762</v>
       </c>
+      <c r="AP58" t="n">
+        <v>-1.184222868971959</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -7807,6 +7981,9 @@
       <c r="AO59" t="n">
         <v>-0.8594524232020011</v>
       </c>
+      <c r="AP59" t="n">
+        <v>-0.8614837801318146</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -7932,6 +8109,9 @@
       <c r="AO60" t="n">
         <v>-0.48782944799342</v>
       </c>
+      <c r="AP60" t="n">
+        <v>-0.4891211369432482</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -8057,6 +8237,9 @@
       <c r="AO61" t="n">
         <v>0.3683505925842855</v>
       </c>
+      <c r="AP61" t="n">
+        <v>0.3678727937691284</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -8182,6 +8365,9 @@
       <c r="AO62" t="n">
         <v>-1.318112894385016</v>
       </c>
+      <c r="AP62" t="n">
+        <v>-1.320515521318442</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -8307,6 +8493,9 @@
       <c r="AO63" t="n">
         <v>-0.6095466693971157</v>
       </c>
+      <c r="AP63" t="n">
+        <v>-0.6112453282532868</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -8432,6 +8621,9 @@
       <c r="AO64" t="n">
         <v>-0.937690687297438</v>
       </c>
+      <c r="AP64" t="n">
+        <v>-0.9403276321026296</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -8557,6 +8749,9 @@
       <c r="AO65" t="n">
         <v>-0.08616037806562736</v>
       </c>
+      <c r="AP65" t="n">
+        <v>-0.08711500137211219</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -8682,6 +8877,9 @@
       <c r="AO66" t="n">
         <v>-0.866336959316609</v>
       </c>
+      <c r="AP66" t="n">
+        <v>-0.867701684497881</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -8806,6 +9004,9 @@
       </c>
       <c r="AO67" t="n">
         <v>-0.8500415721414828</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>-0.8510198512750868</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_11.xlsx
+++ b/predicted_variables_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP67"/>
+  <dimension ref="A1:AQ67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,6 +560,9 @@
       <c r="AP1" s="1" t="n">
         <v>41</v>
       </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -688,6 +691,9 @@
       <c r="AP2" t="n">
         <v>-0.2675646965722348</v>
       </c>
+      <c r="AQ2" t="n">
+        <v>-0.2686999337600348</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -816,6 +822,9 @@
       <c r="AP3" t="n">
         <v>0.2206453913731153</v>
       </c>
+      <c r="AQ3" t="n">
+        <v>0.2199996163801165</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -944,6 +953,9 @@
       <c r="AP4" t="n">
         <v>0.2035399521132337</v>
       </c>
+      <c r="AQ4" t="n">
+        <v>0.2025041780887253</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1072,6 +1084,9 @@
       <c r="AP5" t="n">
         <v>-0.09000764221504864</v>
       </c>
+      <c r="AQ5" t="n">
+        <v>-0.09074551674445377</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1200,6 +1215,9 @@
       <c r="AP6" t="n">
         <v>0.1759147808316465</v>
       </c>
+      <c r="AQ6" t="n">
+        <v>0.1756095704005625</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1328,6 +1346,9 @@
       <c r="AP7" t="n">
         <v>-0.4282892160635095</v>
       </c>
+      <c r="AQ7" t="n">
+        <v>-0.4297511758982688</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1456,6 +1477,9 @@
       <c r="AP8" t="n">
         <v>-0.1553254413278018</v>
       </c>
+      <c r="AQ8" t="n">
+        <v>-0.1563677860350436</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1584,6 +1608,9 @@
       <c r="AP9" t="n">
         <v>-0.3503868763468272</v>
       </c>
+      <c r="AQ9" t="n">
+        <v>-0.3519488453411759</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1712,6 +1739,9 @@
       <c r="AP10" t="n">
         <v>0.3774403543409605</v>
       </c>
+      <c r="AQ10" t="n">
+        <v>0.3770885019186725</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1840,6 +1870,9 @@
       <c r="AP11" t="n">
         <v>-0.2287159521157292</v>
       </c>
+      <c r="AQ11" t="n">
+        <v>-0.2298970157052068</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1968,6 +2001,9 @@
       <c r="AP12" t="n">
         <v>-0.1291083265536314</v>
       </c>
+      <c r="AQ12" t="n">
+        <v>-0.1298094633968711</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2096,6 +2132,9 @@
       <c r="AP13" t="n">
         <v>-0.07187309097830163</v>
       </c>
+      <c r="AQ13" t="n">
+        <v>-0.07261391540577275</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2224,6 +2263,9 @@
       <c r="AP14" t="n">
         <v>0.01185822244713278</v>
       </c>
+      <c r="AQ14" t="n">
+        <v>0.01159179988020187</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2352,6 +2394,9 @@
       <c r="AP15" t="n">
         <v>-0.1449690005564573</v>
       </c>
+      <c r="AQ15" t="n">
+        <v>-0.145214059055971</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2480,6 +2525,9 @@
       <c r="AP16" t="n">
         <v>0.2675239607018652</v>
       </c>
+      <c r="AQ16" t="n">
+        <v>0.2676531203282752</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2608,6 +2656,9 @@
       <c r="AP17" t="n">
         <v>0.402774452094606</v>
       </c>
+      <c r="AQ17" t="n">
+        <v>0.403449164012516</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2736,6 +2787,9 @@
       <c r="AP18" t="n">
         <v>-0.1781635678119249</v>
       </c>
+      <c r="AQ18" t="n">
+        <v>-0.178697462283546</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2864,6 +2918,9 @@
       <c r="AP19" t="n">
         <v>0.2661740139039155</v>
       </c>
+      <c r="AQ19" t="n">
+        <v>0.2657040850351283</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2992,6 +3049,9 @@
       <c r="AP20" t="n">
         <v>0.1585363028155503</v>
       </c>
+      <c r="AQ20" t="n">
+        <v>0.1586784286442382</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3120,6 +3180,9 @@
       <c r="AP21" t="n">
         <v>0.462363412775915</v>
       </c>
+      <c r="AQ21" t="n">
+        <v>0.4630989579428419</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3248,6 +3311,9 @@
       <c r="AP22" t="n">
         <v>0.2292261360248843</v>
       </c>
+      <c r="AQ22" t="n">
+        <v>0.2297489158072033</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3376,6 +3442,9 @@
       <c r="AP23" t="n">
         <v>-0.1982098008890265</v>
       </c>
+      <c r="AQ23" t="n">
+        <v>-0.1980714835574067</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3504,6 +3573,9 @@
       <c r="AP24" t="n">
         <v>1.337152197038577</v>
       </c>
+      <c r="AQ24" t="n">
+        <v>1.358150670734134</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3632,6 +3704,9 @@
       <c r="AP25" t="n">
         <v>0.3319451094764154</v>
       </c>
+      <c r="AQ25" t="n">
+        <v>0.3322397884643395</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3760,6 +3835,9 @@
       <c r="AP26" t="n">
         <v>0.1434858342676008</v>
       </c>
+      <c r="AQ26" t="n">
+        <v>0.144066797796086</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3888,6 +3966,9 @@
       <c r="AP27" t="n">
         <v>0.05129580433732166</v>
       </c>
+      <c r="AQ27" t="n">
+        <v>0.05218603019776902</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4016,6 +4097,9 @@
       <c r="AP28" t="n">
         <v>0.8578591022226034</v>
       </c>
+      <c r="AQ28" t="n">
+        <v>0.8596822722682207</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4144,6 +4228,9 @@
       <c r="AP29" t="n">
         <v>1.73400334477629</v>
       </c>
+      <c r="AQ29" t="n">
+        <v>1.745663640101295</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4272,6 +4359,9 @@
       <c r="AP30" t="n">
         <v>0.6824632536317026</v>
       </c>
+      <c r="AQ30" t="n">
+        <v>0.6832261090514579</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4400,6 +4490,9 @@
       <c r="AP31" t="n">
         <v>-0.4235257898012293</v>
       </c>
+      <c r="AQ31" t="n">
+        <v>-0.4241577626008338</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4528,6 +4621,9 @@
       <c r="AP32" t="n">
         <v>0.5644128282386695</v>
       </c>
+      <c r="AQ32" t="n">
+        <v>0.5651454158634998</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4656,6 +4752,9 @@
       <c r="AP33" t="n">
         <v>0.7755848118156297</v>
       </c>
+      <c r="AQ33" t="n">
+        <v>0.7760044470300386</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4784,6 +4883,9 @@
       <c r="AP34" t="n">
         <v>-0.8444120825264024</v>
       </c>
+      <c r="AQ34" t="n">
+        <v>-0.8449693795890646</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4912,6 +5014,9 @@
       <c r="AP35" t="n">
         <v>0.8312552239219216</v>
       </c>
+      <c r="AQ35" t="n">
+        <v>0.8315503922206482</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5040,6 +5145,9 @@
       <c r="AP36" t="n">
         <v>0.8009645710916283</v>
       </c>
+      <c r="AQ36" t="n">
+        <v>0.80100367715524</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5168,6 +5276,9 @@
       <c r="AP37" t="n">
         <v>0.7674972831887131</v>
       </c>
+      <c r="AQ37" t="n">
+        <v>0.7675437293480769</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5296,6 +5407,9 @@
       <c r="AP38" t="n">
         <v>0.6644436957721465</v>
       </c>
+      <c r="AQ38" t="n">
+        <v>0.6645460924687824</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5424,6 +5538,9 @@
       <c r="AP39" t="n">
         <v>0.6146697078098287</v>
       </c>
+      <c r="AQ39" t="n">
+        <v>0.6145411617970725</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5552,6 +5669,9 @@
       <c r="AP40" t="n">
         <v>0.7928141509413438</v>
       </c>
+      <c r="AQ40" t="n">
+        <v>0.7931556379741276</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5680,6 +5800,9 @@
       <c r="AP41" t="n">
         <v>0.5860828130916084</v>
       </c>
+      <c r="AQ41" t="n">
+        <v>0.5859753221428154</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5808,6 +5931,9 @@
       <c r="AP42" t="n">
         <v>0.6563306594476163</v>
       </c>
+      <c r="AQ42" t="n">
+        <v>0.6562789064046832</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5936,6 +6062,9 @@
       <c r="AP43" t="n">
         <v>0.6931672093081604</v>
       </c>
+      <c r="AQ43" t="n">
+        <v>0.6931664610378168</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6064,6 +6193,9 @@
       <c r="AP44" t="n">
         <v>0.7181144616487406</v>
       </c>
+      <c r="AQ44" t="n">
+        <v>0.7180263343754361</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6192,6 +6324,9 @@
       <c r="AP45" t="n">
         <v>0.7372111106657846</v>
       </c>
+      <c r="AQ45" t="n">
+        <v>0.7369197982683202</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6320,6 +6455,9 @@
       <c r="AP46" t="n">
         <v>-1.377746435777414</v>
       </c>
+      <c r="AQ46" t="n">
+        <v>-1.380337319863468</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6448,6 +6586,9 @@
       <c r="AP47" t="n">
         <v>-1.075594644847699</v>
       </c>
+      <c r="AQ47" t="n">
+        <v>-1.077758529871075</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6576,6 +6717,9 @@
       <c r="AP48" t="n">
         <v>-0.9369928795954356</v>
       </c>
+      <c r="AQ48" t="n">
+        <v>-0.9394029554701848</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6704,6 +6848,9 @@
       <c r="AP49" t="n">
         <v>-0.6930440993606607</v>
       </c>
+      <c r="AQ49" t="n">
+        <v>-0.6950139310423697</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6832,6 +6979,9 @@
       <c r="AP50" t="n">
         <v>-0.1018996746174971</v>
       </c>
+      <c r="AQ50" t="n">
+        <v>-0.1029446805199535</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6960,6 +7110,9 @@
       <c r="AP51" t="n">
         <v>-0.9067097509925515</v>
       </c>
+      <c r="AQ51" t="n">
+        <v>-0.9088232355543402</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -7088,6 +7241,9 @@
       <c r="AP52" t="n">
         <v>-0.9067097509925515</v>
       </c>
+      <c r="AQ52" t="n">
+        <v>-0.9088232355543402</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -7216,6 +7372,9 @@
       <c r="AP53" t="n">
         <v>-1.213939704548052</v>
       </c>
+      <c r="AQ53" t="n">
+        <v>-1.216799203997247</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7344,6 +7503,9 @@
       <c r="AP54" t="n">
         <v>-0.2160734250417753</v>
       </c>
+      <c r="AQ54" t="n">
+        <v>-0.2174393077938094</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -7472,6 +7634,9 @@
       <c r="AP55" t="n">
         <v>-1.10165537941599</v>
       </c>
+      <c r="AQ55" t="n">
+        <v>-1.103922279878018</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7600,6 +7765,9 @@
       <c r="AP56" t="n">
         <v>-0.9669392561967709</v>
       </c>
+      <c r="AQ56" t="n">
+        <v>-0.9685525025987953</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -7728,6 +7896,9 @@
       <c r="AP57" t="n">
         <v>-1.044894484881429</v>
       </c>
+      <c r="AQ57" t="n">
+        <v>-1.046815438602824</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -7856,6 +8027,9 @@
       <c r="AP58" t="n">
         <v>-1.184222868971959</v>
       </c>
+      <c r="AQ58" t="n">
+        <v>-1.185939349482119</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -7984,6 +8158,9 @@
       <c r="AP59" t="n">
         <v>-0.8614837801318146</v>
       </c>
+      <c r="AQ59" t="n">
+        <v>-0.8633945738512465</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -8112,6 +8289,9 @@
       <c r="AP60" t="n">
         <v>-0.4891211369432482</v>
       </c>
+      <c r="AQ60" t="n">
+        <v>-0.490289303560995</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -8240,6 +8420,9 @@
       <c r="AP61" t="n">
         <v>0.3678727937691284</v>
       </c>
+      <c r="AQ61" t="n">
+        <v>0.3674262060839238</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -8368,6 +8551,9 @@
       <c r="AP62" t="n">
         <v>-1.320515521318442</v>
       </c>
+      <c r="AQ62" t="n">
+        <v>-1.322725304449307</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -8496,6 +8682,9 @@
       <c r="AP63" t="n">
         <v>-0.6112453282532868</v>
       </c>
+      <c r="AQ63" t="n">
+        <v>-0.6128078598808616</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -8624,6 +8813,9 @@
       <c r="AP64" t="n">
         <v>-0.9403276321026296</v>
       </c>
+      <c r="AQ64" t="n">
+        <v>-0.942787814426578</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -8752,6 +8944,9 @@
       <c r="AP65" t="n">
         <v>-0.08711500137211219</v>
       </c>
+      <c r="AQ65" t="n">
+        <v>-0.08797616767303329</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -8880,6 +9075,9 @@
       <c r="AP66" t="n">
         <v>-0.867701684497881</v>
       </c>
+      <c r="AQ66" t="n">
+        <v>-0.8689297826051108</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -9007,6 +9205,9 @@
       </c>
       <c r="AP67" t="n">
         <v>-0.8510198512750868</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>-0.8518791183532965</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_11.xlsx
+++ b/predicted_variables_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ67"/>
+  <dimension ref="A1:AR67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,6 +563,9 @@
       <c r="AQ1" s="1" t="n">
         <v>42</v>
       </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -694,6 +697,9 @@
       <c r="AQ2" t="n">
         <v>-0.2686999337600348</v>
       </c>
+      <c r="AR2" t="n">
+        <v>-0.2697317144443947</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -825,6 +831,9 @@
       <c r="AQ3" t="n">
         <v>0.2199996163801165</v>
       </c>
+      <c r="AR3" t="n">
+        <v>0.2194646330546606</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -956,6 +965,9 @@
       <c r="AQ4" t="n">
         <v>0.2025041780887253</v>
       </c>
+      <c r="AR4" t="n">
+        <v>0.201579247540117</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1087,6 +1099,9 @@
       <c r="AQ5" t="n">
         <v>-0.09074551674445377</v>
       </c>
+      <c r="AR5" t="n">
+        <v>-0.09140748138714586</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1218,6 +1233,9 @@
       <c r="AQ6" t="n">
         <v>0.1756095704005625</v>
       </c>
+      <c r="AR6" t="n">
+        <v>0.1753892176953657</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1349,6 +1367,9 @@
       <c r="AQ7" t="n">
         <v>-0.4297511758982688</v>
       </c>
+      <c r="AR7" t="n">
+        <v>-0.4310993477568071</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1480,6 +1501,9 @@
       <c r="AQ8" t="n">
         <v>-0.1563677860350436</v>
       </c>
+      <c r="AR8" t="n">
+        <v>-0.1573230540996232</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1611,6 +1635,9 @@
       <c r="AQ9" t="n">
         <v>-0.3519488453411759</v>
       </c>
+      <c r="AR9" t="n">
+        <v>-0.3533331274822766</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1742,6 +1769,9 @@
       <c r="AQ10" t="n">
         <v>0.3770885019186725</v>
       </c>
+      <c r="AR10" t="n">
+        <v>0.3768073730018519</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1873,6 +1903,9 @@
       <c r="AQ11" t="n">
         <v>-0.2298970157052068</v>
       </c>
+      <c r="AR11" t="n">
+        <v>-0.2309912813325382</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2004,6 +2037,9 @@
       <c r="AQ12" t="n">
         <v>-0.1298094633968711</v>
       </c>
+      <c r="AR12" t="n">
+        <v>-0.1303808360668827</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2135,6 +2171,9 @@
       <c r="AQ13" t="n">
         <v>-0.07261391540577275</v>
       </c>
+      <c r="AR13" t="n">
+        <v>-0.07330170147567448</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2266,6 +2305,9 @@
       <c r="AQ14" t="n">
         <v>0.01159179988020187</v>
       </c>
+      <c r="AR14" t="n">
+        <v>0.01154279906175178</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2397,6 +2439,9 @@
       <c r="AQ15" t="n">
         <v>-0.145214059055971</v>
       </c>
+      <c r="AR15" t="n">
+        <v>-0.1452191272263266</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2528,6 +2573,9 @@
       <c r="AQ16" t="n">
         <v>0.2676531203282752</v>
       </c>
+      <c r="AR16" t="n">
+        <v>0.268086314321935</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2659,6 +2707,9 @@
       <c r="AQ17" t="n">
         <v>0.403449164012516</v>
       </c>
+      <c r="AR17" t="n">
+        <v>0.4042894772907393</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2790,6 +2841,9 @@
       <c r="AQ18" t="n">
         <v>-0.178697462283546</v>
       </c>
+      <c r="AR18" t="n">
+        <v>-0.1791493646179829</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2921,6 +2975,9 @@
       <c r="AQ19" t="n">
         <v>0.2657040850351283</v>
       </c>
+      <c r="AR19" t="n">
+        <v>0.2653557060023112</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3052,6 +3109,9 @@
       <c r="AQ20" t="n">
         <v>0.1586784286442382</v>
       </c>
+      <c r="AR20" t="n">
+        <v>0.159102120629471</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3183,6 +3243,9 @@
       <c r="AQ21" t="n">
         <v>0.4630989579428419</v>
       </c>
+      <c r="AR21" t="n">
+        <v>0.4639917990564373</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3314,6 +3377,9 @@
       <c r="AQ22" t="n">
         <v>0.2297489158072033</v>
       </c>
+      <c r="AR22" t="n">
+        <v>0.2304356436303101</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3445,6 +3511,9 @@
       <c r="AQ23" t="n">
         <v>-0.1980714835574067</v>
       </c>
+      <c r="AR23" t="n">
+        <v>-0.1977960114686441</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3576,6 +3645,9 @@
       <c r="AQ24" t="n">
         <v>1.358150670734134</v>
       </c>
+      <c r="AR24" t="n">
+        <v>1.377193504998897</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3707,6 +3779,9 @@
       <c r="AQ25" t="n">
         <v>0.3322397884643395</v>
       </c>
+      <c r="AR25" t="n">
+        <v>0.3324470853665425</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3838,6 +3913,9 @@
       <c r="AQ26" t="n">
         <v>0.144066797796086</v>
       </c>
+      <c r="AR26" t="n">
+        <v>0.1445246996372982</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3969,6 +4047,9 @@
       <c r="AQ27" t="n">
         <v>0.05218603019776902</v>
       </c>
+      <c r="AR27" t="n">
+        <v>0.05293003166534729</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4100,6 +4181,9 @@
       <c r="AQ28" t="n">
         <v>0.8596822722682207</v>
       </c>
+      <c r="AR28" t="n">
+        <v>0.8612762825152236</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4231,6 +4315,9 @@
       <c r="AQ29" t="n">
         <v>1.745663640101295</v>
       </c>
+      <c r="AR29" t="n">
+        <v>1.755698147007272</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4362,6 +4449,9 @@
       <c r="AQ30" t="n">
         <v>0.6832261090514579</v>
       </c>
+      <c r="AR30" t="n">
+        <v>0.6838156521381921</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4493,6 +4583,9 @@
       <c r="AQ31" t="n">
         <v>-0.4241577626008338</v>
       </c>
+      <c r="AR31" t="n">
+        <v>-0.4248961664552313</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4624,6 +4717,9 @@
       <c r="AQ32" t="n">
         <v>0.5651454158634998</v>
       </c>
+      <c r="AR32" t="n">
+        <v>0.565728386781704</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4755,6 +4851,9 @@
       <c r="AQ33" t="n">
         <v>0.7760044470300386</v>
       </c>
+      <c r="AR33" t="n">
+        <v>0.7763205935833762</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4886,6 +4985,9 @@
       <c r="AQ34" t="n">
         <v>-0.8449693795890646</v>
       </c>
+      <c r="AR34" t="n">
+        <v>-0.8456143395704041</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -5017,6 +5119,9 @@
       <c r="AQ35" t="n">
         <v>0.8315503922206482</v>
       </c>
+      <c r="AR35" t="n">
+        <v>0.8317699241952966</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5148,6 +5253,9 @@
       <c r="AQ36" t="n">
         <v>0.80100367715524</v>
       </c>
+      <c r="AR36" t="n">
+        <v>0.8009517228227784</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5279,6 +5387,9 @@
       <c r="AQ37" t="n">
         <v>0.7675437293480769</v>
       </c>
+      <c r="AR37" t="n">
+        <v>0.7674936921257556</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5410,6 +5521,9 @@
       <c r="AQ38" t="n">
         <v>0.6645460924687824</v>
       </c>
+      <c r="AR38" t="n">
+        <v>0.6645843680974913</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5541,6 +5655,9 @@
       <c r="AQ39" t="n">
         <v>0.6145411617970725</v>
       </c>
+      <c r="AR39" t="n">
+        <v>0.6143762495121213</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5672,6 +5789,9 @@
       <c r="AQ40" t="n">
         <v>0.7931556379741276</v>
       </c>
+      <c r="AR40" t="n">
+        <v>0.7934251839381747</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5803,6 +5923,9 @@
       <c r="AQ41" t="n">
         <v>0.5859753221428154</v>
       </c>
+      <c r="AR41" t="n">
+        <v>0.5858537982200134</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5934,6 +6057,9 @@
       <c r="AQ42" t="n">
         <v>0.6562789064046832</v>
       </c>
+      <c r="AR42" t="n">
+        <v>0.6561142651240482</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -6065,6 +6191,9 @@
       <c r="AQ43" t="n">
         <v>0.6931664610378168</v>
       </c>
+      <c r="AR43" t="n">
+        <v>0.6931157465149177</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6196,6 +6325,9 @@
       <c r="AQ44" t="n">
         <v>0.7180263343754361</v>
       </c>
+      <c r="AR44" t="n">
+        <v>0.7178974259521191</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6327,6 +6459,9 @@
       <c r="AQ45" t="n">
         <v>0.7369197982683202</v>
       </c>
+      <c r="AR45" t="n">
+        <v>0.7365298363104258</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6458,6 +6593,9 @@
       <c r="AQ46" t="n">
         <v>-1.380337319863468</v>
       </c>
+      <c r="AR46" t="n">
+        <v>-1.382832093882188</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6589,6 +6727,9 @@
       <c r="AQ47" t="n">
         <v>-1.077758529871075</v>
       </c>
+      <c r="AR47" t="n">
+        <v>-1.079848575388407</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6720,6 +6861,9 @@
       <c r="AQ48" t="n">
         <v>-0.9394029554701848</v>
       </c>
+      <c r="AR48" t="n">
+        <v>-0.9417280258994238</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6851,6 +6995,9 @@
       <c r="AQ49" t="n">
         <v>-0.6950139310423697</v>
       </c>
+      <c r="AR49" t="n">
+        <v>-0.6969108053689551</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6982,6 +7129,9 @@
       <c r="AQ50" t="n">
         <v>-0.1029446805199535</v>
       </c>
+      <c r="AR50" t="n">
+        <v>-0.1039523642273334</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -7113,6 +7263,9 @@
       <c r="AQ51" t="n">
         <v>-0.9088232355543402</v>
       </c>
+      <c r="AR51" t="n">
+        <v>-0.9108737227939772</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -7244,6 +7397,9 @@
       <c r="AQ52" t="n">
         <v>-0.9088232355543402</v>
       </c>
+      <c r="AR52" t="n">
+        <v>-0.9108737227939772</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -7375,6 +7531,9 @@
       <c r="AQ53" t="n">
         <v>-1.216799203997247</v>
       </c>
+      <c r="AR53" t="n">
+        <v>-1.219562783461255</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7506,6 +7665,9 @@
       <c r="AQ54" t="n">
         <v>-0.2174393077938094</v>
       </c>
+      <c r="AR54" t="n">
+        <v>-0.2187513457830341</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -7637,6 +7799,9 @@
       <c r="AQ55" t="n">
         <v>-1.103922279878018</v>
       </c>
+      <c r="AR55" t="n">
+        <v>-1.106110033455604</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7768,6 +7933,9 @@
       <c r="AQ56" t="n">
         <v>-0.9685525025987953</v>
       </c>
+      <c r="AR56" t="n">
+        <v>-0.9701108562694751</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -7899,6 +8067,9 @@
       <c r="AQ57" t="n">
         <v>-1.046815438602824</v>
       </c>
+      <c r="AR57" t="n">
+        <v>-1.048591334333333</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -8030,6 +8201,9 @@
       <c r="AQ58" t="n">
         <v>-1.185939349482119</v>
       </c>
+      <c r="AR58" t="n">
+        <v>-1.187511046569683</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -8161,6 +8335,9 @@
       <c r="AQ59" t="n">
         <v>-0.8633945738512465</v>
       </c>
+      <c r="AR59" t="n">
+        <v>-0.8651921592647677</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -8292,6 +8469,9 @@
       <c r="AQ60" t="n">
         <v>-0.490289303560995</v>
       </c>
+      <c r="AR60" t="n">
+        <v>-0.4913474588800075</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -8423,6 +8603,9 @@
       <c r="AQ61" t="n">
         <v>0.3674262060839238</v>
       </c>
+      <c r="AR61" t="n">
+        <v>0.3670087637265129</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -8554,6 +8737,9 @@
       <c r="AQ62" t="n">
         <v>-1.322725304449307</v>
       </c>
+      <c r="AR62" t="n">
+        <v>-1.324763853611949</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -8685,6 +8871,9 @@
       <c r="AQ63" t="n">
         <v>-0.6128078598808616</v>
       </c>
+      <c r="AR63" t="n">
+        <v>-0.6142424559938451</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -8816,6 +9005,9 @@
       <c r="AQ64" t="n">
         <v>-0.942787814426578</v>
       </c>
+      <c r="AR64" t="n">
+        <v>-0.9450815366856689</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -8947,6 +9139,9 @@
       <c r="AQ65" t="n">
         <v>-0.08797616767303329</v>
       </c>
+      <c r="AR65" t="n">
+        <v>-0.08875459956894372</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -9078,6 +9273,9 @@
       <c r="AQ66" t="n">
         <v>-0.8689297826051108</v>
       </c>
+      <c r="AR66" t="n">
+        <v>-0.8700414958437537</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -9208,6 +9406,9 @@
       </c>
       <c r="AQ67" t="n">
         <v>-0.8518791183532965</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>-0.8526429051821229</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_11.xlsx
+++ b/predicted_variables_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR67"/>
+  <dimension ref="A1:AS67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,6 +566,9 @@
       <c r="AR1" s="1" t="n">
         <v>43</v>
       </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -700,6 +703,9 @@
       <c r="AR2" t="n">
         <v>-0.2697317144443947</v>
       </c>
+      <c r="AS2" t="n">
+        <v>-0.2706691000325495</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -834,6 +840,9 @@
       <c r="AR3" t="n">
         <v>0.2194646330546606</v>
       </c>
+      <c r="AS3" t="n">
+        <v>0.2190276532644217</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -968,6 +977,9 @@
       <c r="AR4" t="n">
         <v>0.201579247540117</v>
       </c>
+      <c r="AS4" t="n">
+        <v>0.2007561536600054</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1102,6 +1114,9 @@
       <c r="AR5" t="n">
         <v>-0.09140748138714586</v>
       </c>
+      <c r="AS5" t="n">
+        <v>-0.09200256176561489</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1236,6 +1251,9 @@
       <c r="AR6" t="n">
         <v>0.1753892176953657</v>
       </c>
+      <c r="AS6" t="n">
+        <v>0.1752412411348191</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1370,6 +1388,9 @@
       <c r="AR7" t="n">
         <v>-0.4310993477568071</v>
       </c>
+      <c r="AS7" t="n">
+        <v>-0.4323416869021692</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1504,6 +1525,9 @@
       <c r="AR8" t="n">
         <v>-0.1573230540996232</v>
       </c>
+      <c r="AS8" t="n">
+        <v>-0.158195112871401</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1638,6 +1662,9 @@
       <c r="AR9" t="n">
         <v>-0.3533331274822766</v>
       </c>
+      <c r="AS9" t="n">
+        <v>-0.3545538216555534</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1772,6 +1799,9 @@
       <c r="AR10" t="n">
         <v>0.3768073730018519</v>
       </c>
+      <c r="AS10" t="n">
+        <v>0.3765863262081919</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1906,6 +1936,9 @@
       <c r="AR11" t="n">
         <v>-0.2309912813325382</v>
       </c>
+      <c r="AS11" t="n">
+        <v>-0.2320053063808471</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2040,6 +2073,9 @@
       <c r="AR12" t="n">
         <v>-0.1303808360668827</v>
       </c>
+      <c r="AS12" t="n">
+        <v>-0.1308437481019648</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2174,6 +2210,9 @@
       <c r="AR13" t="n">
         <v>-0.07330170147567448</v>
       </c>
+      <c r="AS13" t="n">
+        <v>-0.07394199987369252</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2308,6 +2347,9 @@
       <c r="AR14" t="n">
         <v>0.01154279906175178</v>
       </c>
+      <c r="AS14" t="n">
+        <v>0.01167090569242046</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2442,6 +2484,9 @@
       <c r="AR15" t="n">
         <v>-0.1452191272263266</v>
       </c>
+      <c r="AS15" t="n">
+        <v>-0.145033119429377</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2576,6 +2621,9 @@
       <c r="AR16" t="n">
         <v>0.268086314321935</v>
       </c>
+      <c r="AS16" t="n">
+        <v>0.2687617406627997</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2710,6 +2758,9 @@
       <c r="AR17" t="n">
         <v>0.4042894772907393</v>
       </c>
+      <c r="AS17" t="n">
+        <v>0.4052505083859424</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2844,6 +2895,9 @@
       <c r="AR18" t="n">
         <v>-0.1791493646179829</v>
       </c>
+      <c r="AS18" t="n">
+        <v>-0.1795334749967913</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2978,6 +3032,9 @@
       <c r="AR19" t="n">
         <v>0.2653557060023112</v>
       </c>
+      <c r="AS19" t="n">
+        <v>0.2651049079429223</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3112,6 +3169,9 @@
       <c r="AR20" t="n">
         <v>0.159102120629471</v>
       </c>
+      <c r="AS20" t="n">
+        <v>0.1597468099270646</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3246,6 +3306,9 @@
       <c r="AR21" t="n">
         <v>0.4639917990564373</v>
       </c>
+      <c r="AS21" t="n">
+        <v>0.4649980106718161</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3380,6 +3443,9 @@
       <c r="AR22" t="n">
         <v>0.2304356436303101</v>
       </c>
+      <c r="AS22" t="n">
+        <v>0.2312443404857212</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3514,6 +3580,9 @@
       <c r="AR23" t="n">
         <v>-0.1977960114686441</v>
       </c>
+      <c r="AS23" t="n">
+        <v>-0.1974177220140121</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3648,6 +3717,9 @@
       <c r="AR24" t="n">
         <v>1.377193504998897</v>
       </c>
+      <c r="AS24" t="n">
+        <v>1.394251966679927</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3782,6 +3854,9 @@
       <c r="AR25" t="n">
         <v>0.3324470853665425</v>
       </c>
+      <c r="AS25" t="n">
+        <v>0.3325795539266019</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3916,6 +3991,9 @@
       <c r="AR26" t="n">
         <v>0.1445246996372982</v>
       </c>
+      <c r="AS26" t="n">
+        <v>0.1448676110776681</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -4050,6 +4128,9 @@
       <c r="AR27" t="n">
         <v>0.05293003166534729</v>
       </c>
+      <c r="AS27" t="n">
+        <v>0.05353832708967637</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4184,6 +4265,9 @@
       <c r="AR28" t="n">
         <v>0.8612762825152236</v>
       </c>
+      <c r="AS28" t="n">
+        <v>0.8626593675275257</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4318,6 +4402,9 @@
       <c r="AR29" t="n">
         <v>1.755698147007272</v>
       </c>
+      <c r="AS29" t="n">
+        <v>1.764195781680816</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4452,6 +4539,9 @@
       <c r="AR30" t="n">
         <v>0.6838156521381921</v>
       </c>
+      <c r="AS30" t="n">
+        <v>0.6842508642358681</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4586,6 +4676,9 @@
       <c r="AR31" t="n">
         <v>-0.4248961664552313</v>
       </c>
+      <c r="AS31" t="n">
+        <v>-0.4257169640302381</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4720,6 +4813,9 @@
       <c r="AR32" t="n">
         <v>0.565728386781704</v>
       </c>
+      <c r="AS32" t="n">
+        <v>0.5661747512621708</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4854,6 +4950,9 @@
       <c r="AR33" t="n">
         <v>0.7763205935833762</v>
       </c>
+      <c r="AS33" t="n">
+        <v>0.7765452490030728</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4988,6 +5087,9 @@
       <c r="AR34" t="n">
         <v>-0.8456143395704041</v>
       </c>
+      <c r="AS34" t="n">
+        <v>-0.8463324279608684</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -5122,6 +5224,9 @@
       <c r="AR35" t="n">
         <v>0.8317699241952966</v>
       </c>
+      <c r="AS35" t="n">
+        <v>0.8319251660541473</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5256,6 +5361,9 @@
       <c r="AR36" t="n">
         <v>0.8009517228227784</v>
       </c>
+      <c r="AS36" t="n">
+        <v>0.8008267551361181</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5390,6 +5498,9 @@
       <c r="AR37" t="n">
         <v>0.7674936921257556</v>
       </c>
+      <c r="AS37" t="n">
+        <v>0.767366196810422</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5524,6 +5635,9 @@
       <c r="AR38" t="n">
         <v>0.6645843680974913</v>
       </c>
+      <c r="AS38" t="n">
+        <v>0.6645690509717737</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5658,6 +5772,9 @@
       <c r="AR39" t="n">
         <v>0.6143762495121213</v>
       </c>
+      <c r="AS39" t="n">
+        <v>0.614183083562026</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5792,6 +5909,9 @@
       <c r="AR40" t="n">
         <v>0.7934251839381747</v>
       </c>
+      <c r="AS40" t="n">
+        <v>0.7936326900034483</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5926,6 +6046,9 @@
       <c r="AR41" t="n">
         <v>0.5858537982200134</v>
       </c>
+      <c r="AS41" t="n">
+        <v>0.5857243535637734</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -6060,6 +6183,9 @@
       <c r="AR42" t="n">
         <v>0.6561142651240482</v>
       </c>
+      <c r="AS42" t="n">
+        <v>0.6558578099844248</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -6194,6 +6320,9 @@
       <c r="AR43" t="n">
         <v>0.6931157465149177</v>
       </c>
+      <c r="AS43" t="n">
+        <v>0.6930249198814408</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6328,6 +6457,9 @@
       <c r="AR44" t="n">
         <v>0.7178974259521191</v>
       </c>
+      <c r="AS44" t="n">
+        <v>0.7177378100851319</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6462,6 +6594,9 @@
       <c r="AR45" t="n">
         <v>0.7365298363104258</v>
       </c>
+      <c r="AS45" t="n">
+        <v>0.7360647292729504</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6596,6 +6731,9 @@
       <c r="AR46" t="n">
         <v>-1.382832093882188</v>
       </c>
+      <c r="AS46" t="n">
+        <v>-1.38523222070818</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6730,6 +6868,9 @@
       <c r="AR47" t="n">
         <v>-1.079848575388407</v>
       </c>
+      <c r="AS47" t="n">
+        <v>-1.08186477513887</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6864,6 +7005,9 @@
       <c r="AR48" t="n">
         <v>-0.9417280258994238</v>
       </c>
+      <c r="AS48" t="n">
+        <v>-0.9439662528734876</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6998,6 +7142,9 @@
       <c r="AR49" t="n">
         <v>-0.6969108053689551</v>
       </c>
+      <c r="AS49" t="n">
+        <v>-0.6987340976637839</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -7132,6 +7279,9 @@
       <c r="AR50" t="n">
         <v>-0.1039523642273334</v>
       </c>
+      <c r="AS50" t="n">
+        <v>-0.1049237177618324</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -7266,6 +7416,9 @@
       <c r="AR51" t="n">
         <v>-0.9108737227939772</v>
       </c>
+      <c r="AS51" t="n">
+        <v>-0.9128574326076857</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -7400,6 +7553,9 @@
       <c r="AR52" t="n">
         <v>-0.9108737227939772</v>
       </c>
+      <c r="AS52" t="n">
+        <v>-0.9128574326076857</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -7534,6 +7690,9 @@
       <c r="AR53" t="n">
         <v>-1.219562783461255</v>
       </c>
+      <c r="AS53" t="n">
+        <v>-1.222227830799703</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7668,6 +7827,9 @@
       <c r="AR54" t="n">
         <v>-0.2187513457830341</v>
       </c>
+      <c r="AS54" t="n">
+        <v>-0.2200101653890525</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -7802,6 +7964,9 @@
       <c r="AR55" t="n">
         <v>-1.106110033455604</v>
       </c>
+      <c r="AS55" t="n">
+        <v>-1.108219275625858</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7936,6 +8101,9 @@
       <c r="AR56" t="n">
         <v>-0.9701108562694751</v>
       </c>
+      <c r="AS56" t="n">
+        <v>-0.9716169589915283</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -8070,6 +8238,9 @@
       <c r="AR57" t="n">
         <v>-1.048591334333333</v>
       </c>
+      <c r="AS57" t="n">
+        <v>-1.050238742968063</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -8204,6 +8375,9 @@
       <c r="AR58" t="n">
         <v>-1.187511046569683</v>
       </c>
+      <c r="AS58" t="n">
+        <v>-1.188955934806286</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -8338,6 +8512,9 @@
       <c r="AR59" t="n">
         <v>-0.8651921592647677</v>
       </c>
+      <c r="AS59" t="n">
+        <v>-0.8668840876000496</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -8472,6 +8649,9 @@
       <c r="AR60" t="n">
         <v>-0.4913474588800075</v>
       </c>
+      <c r="AS60" t="n">
+        <v>-0.4923085147229446</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -8606,6 +8786,9 @@
       <c r="AR61" t="n">
         <v>0.3670087637265129</v>
       </c>
+      <c r="AS61" t="n">
+        <v>0.3666183594968686</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -8740,6 +8923,9 @@
       <c r="AR62" t="n">
         <v>-1.324763853611949</v>
       </c>
+      <c r="AS62" t="n">
+        <v>-1.326651473381036</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -8874,6 +9060,9 @@
       <c r="AR63" t="n">
         <v>-0.6142424559938451</v>
       </c>
+      <c r="AS63" t="n">
+        <v>-0.6155579329253957</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -9008,6 +9197,9 @@
       <c r="AR64" t="n">
         <v>-0.9450815366856689</v>
       </c>
+      <c r="AS64" t="n">
+        <v>-0.9472196360791345</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -9142,6 +9334,9 @@
       <c r="AR65" t="n">
         <v>-0.08875459956894372</v>
       </c>
+      <c r="AS65" t="n">
+        <v>-0.08946048902702428</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -9276,6 +9471,9 @@
       <c r="AR66" t="n">
         <v>-0.8700414958437537</v>
       </c>
+      <c r="AS66" t="n">
+        <v>-0.8710553195353633</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -9409,6 +9607,9 @@
       </c>
       <c r="AR67" t="n">
         <v>-0.8526429051821229</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>-0.8533321306008438</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_11.xlsx
+++ b/predicted_variables_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS67"/>
+  <dimension ref="A1:AT67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,6 +569,9 @@
       <c r="AS1" s="1" t="n">
         <v>44</v>
       </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -706,6 +709,9 @@
       <c r="AS2" t="n">
         <v>-0.2706691000325495</v>
       </c>
+      <c r="AT2" t="n">
+        <v>-0.2715210895423148</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -843,6 +849,9 @@
       <c r="AS3" t="n">
         <v>0.2190276532644217</v>
       </c>
+      <c r="AT3" t="n">
+        <v>0.2186763164054074</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -980,6 +989,9 @@
       <c r="AS4" t="n">
         <v>0.2007561536600054</v>
       </c>
+      <c r="AT4" t="n">
+        <v>0.2000257175321318</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1117,6 +1129,9 @@
       <c r="AS5" t="n">
         <v>-0.09200256176561489</v>
       </c>
+      <c r="AT5" t="n">
+        <v>-0.09253927978991017</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1254,6 +1269,9 @@
       <c r="AS6" t="n">
         <v>0.1752412411348191</v>
       </c>
+      <c r="AT6" t="n">
+        <v>0.1751539211681591</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1391,6 +1409,9 @@
       <c r="AS7" t="n">
         <v>-0.4323416869021692</v>
       </c>
+      <c r="AT7" t="n">
+        <v>-0.4334863682885375</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1528,6 +1549,9 @@
       <c r="AS8" t="n">
         <v>-0.158195112871401</v>
       </c>
+      <c r="AT8" t="n">
+        <v>-0.1589885321478173</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1665,6 +1689,9 @@
       <c r="AS9" t="n">
         <v>-0.3545538216555534</v>
       </c>
+      <c r="AT9" t="n">
+        <v>-0.3556253969418335</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1802,6 +1829,9 @@
       <c r="AS10" t="n">
         <v>0.3765863262081919</v>
       </c>
+      <c r="AT10" t="n">
+        <v>0.3764154566946527</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1939,6 +1969,9 @@
       <c r="AS11" t="n">
         <v>-0.2320053063808471</v>
       </c>
+      <c r="AT11" t="n">
+        <v>-0.232945680794292</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2076,6 +2109,9 @@
       <c r="AS12" t="n">
         <v>-0.1308437481019648</v>
       </c>
+      <c r="AT12" t="n">
+        <v>-0.1312177217549408</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2213,6 +2249,9 @@
       <c r="AS13" t="n">
         <v>-0.07394199987369252</v>
       </c>
+      <c r="AT13" t="n">
+        <v>-0.07454002306708553</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2350,6 +2389,9 @@
       <c r="AS14" t="n">
         <v>0.01167090569242046</v>
       </c>
+      <c r="AT14" t="n">
+        <v>0.01193925806874235</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2487,6 +2529,9 @@
       <c r="AS15" t="n">
         <v>-0.145033119429377</v>
       </c>
+      <c r="AT15" t="n">
+        <v>-0.1447002232588082</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2624,6 +2669,9 @@
       <c r="AS16" t="n">
         <v>0.2687617406627997</v>
       </c>
+      <c r="AT16" t="n">
+        <v>0.2696232887294797</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2761,6 +2809,9 @@
       <c r="AS17" t="n">
         <v>0.4052505083859424</v>
       </c>
+      <c r="AT17" t="n">
+        <v>0.4062925271568127</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2898,6 +2949,9 @@
       <c r="AS18" t="n">
         <v>-0.1795334749967913</v>
       </c>
+      <c r="AT18" t="n">
+        <v>-0.1798625650682435</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -3035,6 +3089,9 @@
       <c r="AS19" t="n">
         <v>0.2651049079429223</v>
       </c>
+      <c r="AT19" t="n">
+        <v>0.2649301586936661</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3172,6 +3229,9 @@
       <c r="AS20" t="n">
         <v>0.1597468099270646</v>
       </c>
+      <c r="AT20" t="n">
+        <v>0.1605578943595172</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3309,6 +3369,9 @@
       <c r="AS21" t="n">
         <v>0.4649980106718161</v>
       </c>
+      <c r="AT21" t="n">
+        <v>0.4660787008201129</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3446,6 +3509,9 @@
       <c r="AS22" t="n">
         <v>0.2312443404857212</v>
       </c>
+      <c r="AT22" t="n">
+        <v>0.2321376785356202</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3583,6 +3649,9 @@
       <c r="AS23" t="n">
         <v>-0.1974177220140121</v>
       </c>
+      <c r="AT23" t="n">
+        <v>-0.1969670660782024</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3720,6 +3789,9 @@
       <c r="AS24" t="n">
         <v>1.394251966679927</v>
       </c>
+      <c r="AT24" t="n">
+        <v>1.409338093040423</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3857,6 +3929,9 @@
       <c r="AS25" t="n">
         <v>0.3325795539266019</v>
       </c>
+      <c r="AT25" t="n">
+        <v>0.3326490985060692</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3994,6 +4069,9 @@
       <c r="AS26" t="n">
         <v>0.1448676110776681</v>
       </c>
+      <c r="AT26" t="n">
+        <v>0.1451045431931174</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -4131,6 +4209,9 @@
       <c r="AS27" t="n">
         <v>0.05353832708967637</v>
       </c>
+      <c r="AT27" t="n">
+        <v>0.05402227350434247</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4268,6 +4349,9 @@
       <c r="AS28" t="n">
         <v>0.8626593675275257</v>
       </c>
+      <c r="AT28" t="n">
+        <v>0.8638503993568761</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4405,6 +4489,9 @@
       <c r="AS29" t="n">
         <v>1.764195781680816</v>
       </c>
+      <c r="AT29" t="n">
+        <v>1.771260057673813</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4542,6 +4629,9 @@
       <c r="AS30" t="n">
         <v>0.6842508642358681</v>
       </c>
+      <c r="AT30" t="n">
+        <v>0.6845505367264858</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4679,6 +4769,9 @@
       <c r="AS31" t="n">
         <v>-0.4257169640302381</v>
       </c>
+      <c r="AT31" t="n">
+        <v>-0.4265981752259058</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4816,6 +4909,9 @@
       <c r="AS32" t="n">
         <v>0.5661747512621708</v>
       </c>
+      <c r="AT32" t="n">
+        <v>0.5664979644871163</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4953,6 +5049,9 @@
       <c r="AS33" t="n">
         <v>0.7765452490030728</v>
       </c>
+      <c r="AT33" t="n">
+        <v>0.7766901558151097</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -5090,6 +5189,9 @@
       <c r="AS34" t="n">
         <v>-0.8463324279608684</v>
       </c>
+      <c r="AT34" t="n">
+        <v>-0.8471097186193512</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -5227,6 +5329,9 @@
       <c r="AS35" t="n">
         <v>0.8319251660541473</v>
       </c>
+      <c r="AT35" t="n">
+        <v>0.8320267013540871</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5364,6 +5469,9 @@
       <c r="AS36" t="n">
         <v>0.8008267551361181</v>
       </c>
+      <c r="AT36" t="n">
+        <v>0.8006451671485717</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5501,6 +5609,9 @@
       <c r="AS37" t="n">
         <v>0.767366196810422</v>
       </c>
+      <c r="AT37" t="n">
+        <v>0.7671785386144374</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5638,6 +5749,9 @@
       <c r="AS38" t="n">
         <v>0.6645690509717737</v>
       </c>
+      <c r="AT38" t="n">
+        <v>0.6645099510004534</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5775,6 +5889,9 @@
       <c r="AS39" t="n">
         <v>0.614183083562026</v>
       </c>
+      <c r="AT39" t="n">
+        <v>0.6139689924115083</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5912,6 +6029,9 @@
       <c r="AS40" t="n">
         <v>0.7936326900034483</v>
       </c>
+      <c r="AT40" t="n">
+        <v>0.7937874673561854</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -6049,6 +6169,9 @@
       <c r="AS41" t="n">
         <v>0.5857243535637734</v>
       </c>
+      <c r="AT41" t="n">
+        <v>0.5855922150253159</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -6186,6 +6309,9 @@
       <c r="AS42" t="n">
         <v>0.6558578099844248</v>
       </c>
+      <c r="AT42" t="n">
+        <v>0.655528918421645</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -6323,6 +6449,9 @@
       <c r="AS43" t="n">
         <v>0.6930249198814408</v>
       </c>
+      <c r="AT43" t="n">
+        <v>0.6929029680217831</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6460,6 +6589,9 @@
       <c r="AS44" t="n">
         <v>0.7177378100851319</v>
       </c>
+      <c r="AT44" t="n">
+        <v>0.7175564534777453</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6597,6 +6729,9 @@
       <c r="AS45" t="n">
         <v>0.7360647292729504</v>
       </c>
+      <c r="AT45" t="n">
+        <v>0.7355455316448682</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6734,6 +6869,9 @@
       <c r="AS46" t="n">
         <v>-1.38523222070818</v>
       </c>
+      <c r="AT46" t="n">
+        <v>-1.387539667392624</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6871,6 +7009,9 @@
       <c r="AS47" t="n">
         <v>-1.08186477513887</v>
       </c>
+      <c r="AT47" t="n">
+        <v>-1.083807648217365</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -7008,6 +7149,9 @@
       <c r="AS48" t="n">
         <v>-0.9439662528734876</v>
       </c>
+      <c r="AT48" t="n">
+        <v>-0.946116838666634</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -7145,6 +7289,9 @@
       <c r="AS49" t="n">
         <v>-0.6987340976637839</v>
       </c>
+      <c r="AT49" t="n">
+        <v>-0.7004839345335788</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -7282,6 +7429,9 @@
       <c r="AS50" t="n">
         <v>-0.1049237177618324</v>
       </c>
+      <c r="AT50" t="n">
+        <v>-0.1058598195135835</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -7419,6 +7569,9 @@
       <c r="AS51" t="n">
         <v>-0.9128574326076857</v>
       </c>
+      <c r="AT51" t="n">
+        <v>-0.914771685743256</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -7556,6 +7709,9 @@
       <c r="AS52" t="n">
         <v>-0.9128574326076857</v>
       </c>
+      <c r="AT52" t="n">
+        <v>-0.914771685743256</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -7693,6 +7849,9 @@
       <c r="AS53" t="n">
         <v>-1.222227830799703</v>
       </c>
+      <c r="AT53" t="n">
+        <v>-1.224792921687551</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7830,6 +7989,9 @@
       <c r="AS54" t="n">
         <v>-0.2200101653890525</v>
       </c>
+      <c r="AT54" t="n">
+        <v>-0.2212167759904023</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -7967,6 +8129,9 @@
       <c r="AS55" t="n">
         <v>-1.108219275625858</v>
       </c>
+      <c r="AT55" t="n">
+        <v>-1.110251101970235</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -8104,6 +8269,9 @@
       <c r="AS56" t="n">
         <v>-0.9716169589915283</v>
       </c>
+      <c r="AT56" t="n">
+        <v>-0.9730733017315913</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -8241,6 +8409,9 @@
       <c r="AS57" t="n">
         <v>-1.050238742968063</v>
       </c>
+      <c r="AT57" t="n">
+        <v>-1.051773110883448</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -8378,6 +8549,9 @@
       <c r="AS58" t="n">
         <v>-1.188955934806286</v>
       </c>
+      <c r="AT58" t="n">
+        <v>-1.190290707293894</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -8515,6 +8689,9 @@
       <c r="AS59" t="n">
         <v>-0.8668840876000496</v>
       </c>
+      <c r="AT59" t="n">
+        <v>-0.8684779567432965</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -8652,6 +8829,9 @@
       <c r="AS60" t="n">
         <v>-0.4923085147229446</v>
       </c>
+      <c r="AT60" t="n">
+        <v>-0.4931846549131951</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -8789,6 +8969,9 @@
       <c r="AS61" t="n">
         <v>0.3666183594968686</v>
       </c>
+      <c r="AT61" t="n">
+        <v>0.3662528848552621</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -8926,6 +9109,9 @@
       <c r="AS62" t="n">
         <v>-1.326651473381036</v>
       </c>
+      <c r="AT62" t="n">
+        <v>-1.328407031834414</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -9063,6 +9249,9 @@
       <c r="AS63" t="n">
         <v>-0.6155579329253957</v>
       </c>
+      <c r="AT63" t="n">
+        <v>-0.6167634766889064</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -9200,6 +9389,9 @@
       <c r="AS64" t="n">
         <v>-0.9472196360791345</v>
       </c>
+      <c r="AT64" t="n">
+        <v>-0.9492132326368777</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -9337,6 +9529,9 @@
       <c r="AS65" t="n">
         <v>-0.08946048902702428</v>
       </c>
+      <c r="AT65" t="n">
+        <v>-0.09010340208078381</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -9474,6 +9669,9 @@
       <c r="AS66" t="n">
         <v>-0.8710553195353633</v>
       </c>
+      <c r="AT66" t="n">
+        <v>-0.8719879600667156</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -9610,6 +9808,9 @@
       </c>
       <c r="AS67" t="n">
         <v>-0.8533321306008438</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>-0.853965146614817</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_11.xlsx
+++ b/predicted_variables_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT67"/>
+  <dimension ref="A1:AU67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,6 +572,9 @@
       <c r="AT1" s="1" t="n">
         <v>45</v>
       </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -712,6 +715,9 @@
       <c r="AT2" t="n">
         <v>-0.2715210895423148</v>
       </c>
+      <c r="AU2" t="n">
+        <v>-0.2722964745256088</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -852,6 +858,9 @@
       <c r="AT3" t="n">
         <v>0.2186763164054074</v>
       </c>
+      <c r="AU3" t="n">
+        <v>0.2183988370857147</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -992,6 +1001,9 @@
       <c r="AT4" t="n">
         <v>0.2000257175321318</v>
       </c>
+      <c r="AU4" t="n">
+        <v>0.1993787745938051</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1132,6 +1144,9 @@
       <c r="AT5" t="n">
         <v>-0.09253927978991017</v>
       </c>
+      <c r="AU5" t="n">
+        <v>-0.09302558772666339</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1272,6 +1287,9 @@
       <c r="AT6" t="n">
         <v>0.1751539211681591</v>
       </c>
+      <c r="AU6" t="n">
+        <v>0.1751163899149261</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1412,6 +1430,9 @@
       <c r="AT7" t="n">
         <v>-0.4334863682885375</v>
       </c>
+      <c r="AU7" t="n">
+        <v>-0.4345416164460216</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1552,6 +1573,9 @@
       <c r="AT8" t="n">
         <v>-0.1589885321478173</v>
       </c>
+      <c r="AU8" t="n">
+        <v>-0.1597083925146378</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1692,6 +1716,9 @@
       <c r="AT9" t="n">
         <v>-0.3556253969418335</v>
       </c>
+      <c r="AU9" t="n">
+        <v>-0.3565623868978317</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1832,6 +1859,9 @@
       <c r="AT10" t="n">
         <v>0.3764154566946527</v>
       </c>
+      <c r="AU10" t="n">
+        <v>0.3762856561691838</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1972,6 +2002,9 @@
       <c r="AT11" t="n">
         <v>-0.232945680794292</v>
       </c>
+      <c r="AU11" t="n">
+        <v>-0.2338189129095145</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2112,6 +2145,9 @@
       <c r="AT12" t="n">
         <v>-0.1312177217549408</v>
       </c>
+      <c r="AU12" t="n">
+        <v>-0.1315204381292322</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2252,6 +2288,9 @@
       <c r="AT13" t="n">
         <v>-0.07454002306708553</v>
       </c>
+      <c r="AU13" t="n">
+        <v>-0.07510061642834387</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2392,6 +2431,9 @@
       <c r="AT14" t="n">
         <v>0.01193925806874235</v>
       </c>
+      <c r="AU14" t="n">
+        <v>0.01231455675519366</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2532,6 +2574,9 @@
       <c r="AT15" t="n">
         <v>-0.1447002232588082</v>
       </c>
+      <c r="AU15" t="n">
+        <v>-0.1442598659781973</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2672,6 +2717,9 @@
       <c r="AT16" t="n">
         <v>0.2696232887294797</v>
       </c>
+      <c r="AU16" t="n">
+        <v>0.2706206405009601</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2812,6 +2860,9 @@
       <c r="AT17" t="n">
         <v>0.4062925271568127</v>
       </c>
+      <c r="AU17" t="n">
+        <v>0.4073808458924485</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2952,6 +3003,9 @@
       <c r="AT18" t="n">
         <v>-0.1798625650682435</v>
       </c>
+      <c r="AU18" t="n">
+        <v>-0.1801479989216217</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -3092,6 +3146,9 @@
       <c r="AT19" t="n">
         <v>0.2649301586936661</v>
       </c>
+      <c r="AU19" t="n">
+        <v>0.2648123500503983</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3232,6 +3289,9 @@
       <c r="AT20" t="n">
         <v>0.1605578943595172</v>
       </c>
+      <c r="AU20" t="n">
+        <v>0.1614867657329805</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3372,6 +3432,9 @@
       <c r="AT21" t="n">
         <v>0.4660787008201129</v>
       </c>
+      <c r="AU21" t="n">
+        <v>0.4671999186671347</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3512,6 +3575,9 @@
       <c r="AT22" t="n">
         <v>0.2321376785356202</v>
       </c>
+      <c r="AU22" t="n">
+        <v>0.2330829091291818</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3652,6 +3718,9 @@
       <c r="AT23" t="n">
         <v>-0.1969670660782024</v>
       </c>
+      <c r="AU23" t="n">
+        <v>-0.196470683916962</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3792,6 +3861,9 @@
       <c r="AT24" t="n">
         <v>1.409338093040423</v>
       </c>
+      <c r="AU24" t="n">
+        <v>1.422498043119262</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3932,6 +4004,9 @@
       <c r="AT25" t="n">
         <v>0.3326490985060692</v>
       </c>
+      <c r="AU25" t="n">
+        <v>0.3326668520699207</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -4072,6 +4147,9 @@
       <c r="AT26" t="n">
         <v>0.1451045431931174</v>
       </c>
+      <c r="AU26" t="n">
+        <v>0.1452451281270515</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -4212,6 +4290,9 @@
       <c r="AT27" t="n">
         <v>0.05402227350434247</v>
       </c>
+      <c r="AU27" t="n">
+        <v>0.05439371896279928</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4352,6 +4433,9 @@
       <c r="AT28" t="n">
         <v>0.8638503993568761</v>
       </c>
+      <c r="AU28" t="n">
+        <v>0.8648684501907927</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4492,6 +4576,9 @@
       <c r="AT29" t="n">
         <v>1.771260057673813</v>
       </c>
+      <c r="AU29" t="n">
+        <v>1.77700473470445</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4632,6 +4719,9 @@
       <c r="AT30" t="n">
         <v>0.6845505367264858</v>
       </c>
+      <c r="AU30" t="n">
+        <v>0.6847329476476079</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4772,6 +4862,9 @@
       <c r="AT31" t="n">
         <v>-0.4265981752259058</v>
       </c>
+      <c r="AU31" t="n">
+        <v>-0.4275199704150625</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4912,6 +5005,9 @@
       <c r="AT32" t="n">
         <v>0.5664979644871163</v>
       </c>
+      <c r="AU32" t="n">
+        <v>0.5667116093300181</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -5052,6 +5148,9 @@
       <c r="AT33" t="n">
         <v>0.7766901558151097</v>
       </c>
+      <c r="AU33" t="n">
+        <v>0.7767666252508781</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -5192,6 +5291,9 @@
       <c r="AT34" t="n">
         <v>-0.8471097186193512</v>
       </c>
+      <c r="AU34" t="n">
+        <v>-0.8479330650279016</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -5332,6 +5434,9 @@
       <c r="AT35" t="n">
         <v>0.8320267013540871</v>
       </c>
+      <c r="AU35" t="n">
+        <v>0.8320842863524124</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5472,6 +5577,9 @@
       <c r="AT36" t="n">
         <v>0.8006451671485717</v>
       </c>
+      <c r="AU36" t="n">
+        <v>0.8004216681987877</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5612,6 +5720,9 @@
       <c r="AT37" t="n">
         <v>0.7671785386144374</v>
       </c>
+      <c r="AU37" t="n">
+        <v>0.7669462481199649</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5752,6 +5863,9 @@
       <c r="AT38" t="n">
         <v>0.6645099510004534</v>
       </c>
+      <c r="AU38" t="n">
+        <v>0.6644160934109731</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5892,6 +6006,9 @@
       <c r="AT39" t="n">
         <v>0.6139689924115083</v>
       </c>
+      <c r="AU39" t="n">
+        <v>0.6137405149869463</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -6032,6 +6149,9 @@
       <c r="AT40" t="n">
         <v>0.7937874673561854</v>
       </c>
+      <c r="AU40" t="n">
+        <v>0.7938981711196686</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -6172,6 +6292,9 @@
       <c r="AT41" t="n">
         <v>0.5855922150253159</v>
       </c>
+      <c r="AU41" t="n">
+        <v>0.5854617706107865</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -6312,6 +6435,9 @@
       <c r="AT42" t="n">
         <v>0.655528918421645</v>
       </c>
+      <c r="AU42" t="n">
+        <v>0.6551451883882069</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -6452,6 +6578,9 @@
       <c r="AT43" t="n">
         <v>0.6929029680217831</v>
       </c>
+      <c r="AU43" t="n">
+        <v>0.6927579845455532</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6592,6 +6721,9 @@
       <c r="AT44" t="n">
         <v>0.7175564534777453</v>
       </c>
+      <c r="AU44" t="n">
+        <v>0.717361232441986</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6732,6 +6864,9 @@
       <c r="AT45" t="n">
         <v>0.7355455316448682</v>
       </c>
+      <c r="AU45" t="n">
+        <v>0.7349908613373202</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6872,6 +7007,9 @@
       <c r="AT46" t="n">
         <v>-1.387539667392624</v>
       </c>
+      <c r="AU46" t="n">
+        <v>-1.389756820284324</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -7012,6 +7150,9 @@
       <c r="AT47" t="n">
         <v>-1.083807648217365</v>
       </c>
+      <c r="AU47" t="n">
+        <v>-1.085678171951677</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -7152,6 +7293,9 @@
       <c r="AT48" t="n">
         <v>-0.946116838666634</v>
       </c>
+      <c r="AU48" t="n">
+        <v>-0.9481799011555093</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -7292,6 +7436,9 @@
       <c r="AT49" t="n">
         <v>-0.7004839345335788</v>
       </c>
+      <c r="AU49" t="n">
+        <v>-0.7021610933980336</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -7432,6 +7579,9 @@
       <c r="AT50" t="n">
         <v>-0.1058598195135835</v>
       </c>
+      <c r="AU50" t="n">
+        <v>-0.1067618136888704</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -7572,6 +7722,9 @@
       <c r="AT51" t="n">
         <v>-0.914771685743256</v>
       </c>
+      <c r="AU51" t="n">
+        <v>-0.9166147987444956</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -7712,6 +7865,9 @@
       <c r="AT52" t="n">
         <v>-0.914771685743256</v>
       </c>
+      <c r="AU52" t="n">
+        <v>-0.9166147987444956</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -7852,6 +8008,9 @@
       <c r="AT53" t="n">
         <v>-1.224792921687551</v>
       </c>
+      <c r="AU53" t="n">
+        <v>-1.227257691361273</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7992,6 +8151,9 @@
       <c r="AT54" t="n">
         <v>-0.2212167759904023</v>
       </c>
+      <c r="AU54" t="n">
+        <v>-0.222372504748005</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -8132,6 +8294,9 @@
       <c r="AT55" t="n">
         <v>-1.110251101970235</v>
       </c>
+      <c r="AU55" t="n">
+        <v>-1.112207002142126</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -8272,6 +8437,9 @@
       <c r="AT56" t="n">
         <v>-0.9730733017315913</v>
       </c>
+      <c r="AU56" t="n">
+        <v>-0.9744822217524937</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -8412,6 +8580,9 @@
       <c r="AT57" t="n">
         <v>-1.051773110883448</v>
       </c>
+      <c r="AU57" t="n">
+        <v>-1.053208684709957</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -8552,6 +8723,9 @@
       <c r="AT58" t="n">
         <v>-1.190290707293894</v>
       </c>
+      <c r="AU58" t="n">
+        <v>-1.19153069575255</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -8692,6 +8866,9 @@
       <c r="AT59" t="n">
         <v>-0.8684779567432965</v>
       </c>
+      <c r="AU59" t="n">
+        <v>-0.8699812840280361</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -8832,6 +9009,9 @@
       <c r="AT60" t="n">
         <v>-0.4931846549131951</v>
       </c>
+      <c r="AU60" t="n">
+        <v>-0.493987239882266</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -8972,6 +9152,9 @@
       <c r="AT61" t="n">
         <v>0.3662528848552621</v>
       </c>
+      <c r="AU61" t="n">
+        <v>0.3659102638622829</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -9112,6 +9295,9 @@
       <c r="AT62" t="n">
         <v>-1.328407031834414</v>
       </c>
+      <c r="AU62" t="n">
+        <v>-1.330047874767055</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -9252,6 +9438,9 @@
       <c r="AT63" t="n">
         <v>-0.6167634766889064</v>
       </c>
+      <c r="AU63" t="n">
+        <v>-0.6178684223418631</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -9392,6 +9581,9 @@
       <c r="AT64" t="n">
         <v>-0.9492132326368777</v>
       </c>
+      <c r="AU64" t="n">
+        <v>-0.9510735102837962</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -9532,6 +9724,9 @@
       <c r="AT65" t="n">
         <v>-0.09010340208078381</v>
       </c>
+      <c r="AU65" t="n">
+        <v>-0.090692210175622</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -9672,6 +9867,9 @@
       <c r="AT66" t="n">
         <v>-0.8719879600667156</v>
       </c>
+      <c r="AU66" t="n">
+        <v>-0.8728543315277884</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -9811,6 +10009,9 @@
       </c>
       <c r="AT67" t="n">
         <v>-0.853965146614817</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>-0.8545578241212525</v>
       </c>
     </row>
   </sheetData>
